--- a/Sistema-Operacional/Saidas/Monitoramento - Mananciais Críticos.xlsx
+++ b/Sistema-Operacional/Saidas/Monitoramento - Mananciais Críticos.xlsx
@@ -28,10 +28,10 @@
     <t>AN_TRI_202008</t>
   </si>
   <si>
-    <t>AC_20200816</t>
-  </si>
-  <si>
-    <t>AN_20200816</t>
+    <t>AC_20200823</t>
+  </si>
+  <si>
+    <t>AN_20200823</t>
   </si>
   <si>
     <t>SPI1_202007</t>
@@ -52,7 +52,7 @@
     <t>AN_COTA_202007</t>
   </si>
   <si>
-    <t>AN_COTA_20200816</t>
+    <t>AN_COTA_20200823</t>
   </si>
   <si>
     <t>SIA</t>
@@ -591,19 +591,19 @@
         <v>14</v>
       </c>
       <c r="C2">
-        <v>-26.2</v>
+        <v>-17.9</v>
       </c>
       <c r="D2">
-        <v>-33</v>
+        <v>-10.9</v>
       </c>
       <c r="E2">
-        <v>-24.2</v>
+        <v>30.6</v>
       </c>
       <c r="F2">
-        <v>45</v>
+        <v>175.2</v>
       </c>
       <c r="G2">
-        <v>-27.2</v>
+        <v>183.7</v>
       </c>
       <c r="H2">
         <v>-1.14</v>
@@ -624,7 +624,7 @@
         <v>-10.64</v>
       </c>
       <c r="N2">
-        <v>-10.78</v>
+        <v>-1.82</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -635,19 +635,19 @@
         <v>15</v>
       </c>
       <c r="C3">
-        <v>-31.1</v>
+        <v>-26.6</v>
       </c>
       <c r="D3">
-        <v>-43</v>
+        <v>-31.5</v>
       </c>
       <c r="E3">
-        <v>-8.1</v>
+        <v>15.7</v>
       </c>
       <c r="F3">
-        <v>63.5</v>
+        <v>121.1</v>
       </c>
       <c r="G3">
-        <v>44.6</v>
+        <v>175.9</v>
       </c>
       <c r="H3">
         <v>-1.1</v>
@@ -668,7 +668,7 @@
         <v>-50.72</v>
       </c>
       <c r="N3">
-        <v>-46.38</v>
+        <v>-7.83</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -679,19 +679,19 @@
         <v>16</v>
       </c>
       <c r="C4">
-        <v>-36.9</v>
+        <v>-30.8</v>
       </c>
       <c r="D4">
-        <v>-41.2</v>
+        <v>-25.7</v>
       </c>
       <c r="E4">
-        <v>-22</v>
+        <v>14.2</v>
       </c>
       <c r="F4">
-        <v>46.9</v>
+        <v>161.5</v>
       </c>
       <c r="G4">
-        <v>-40.4</v>
+        <v>105</v>
       </c>
       <c r="H4">
         <v>-1.14</v>
@@ -714,19 +714,19 @@
         <v>17</v>
       </c>
       <c r="C5">
-        <v>-10.4</v>
+        <v>-7.1</v>
       </c>
       <c r="D5">
-        <v>-6.1</v>
+        <v>1.7</v>
       </c>
       <c r="E5">
-        <v>-0.3</v>
+        <v>18.6</v>
       </c>
       <c r="F5">
-        <v>84.3</v>
+        <v>132.1</v>
       </c>
       <c r="G5">
-        <v>33.6</v>
+        <v>109.4</v>
       </c>
       <c r="H5">
         <v>-0.52</v>
@@ -758,19 +758,19 @@
         <v>18</v>
       </c>
       <c r="C6">
-        <v>-24.9</v>
+        <v>-21.4</v>
       </c>
       <c r="D6">
-        <v>-32.3</v>
+        <v>-23.8</v>
       </c>
       <c r="E6">
-        <v>-32.3</v>
+        <v>-13.4</v>
       </c>
       <c r="F6">
-        <v>83.59999999999999</v>
+        <v>140.7</v>
       </c>
       <c r="G6">
-        <v>-6.1</v>
+        <v>57.9</v>
       </c>
       <c r="H6">
         <v>-0.91</v>
@@ -791,7 +791,7 @@
         <v>-13.2</v>
       </c>
       <c r="N6">
-        <v>-12.87</v>
+        <v>-9.300000000000001</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -802,19 +802,19 @@
         <v>19</v>
       </c>
       <c r="C7">
-        <v>-20.8</v>
+        <v>-16.8</v>
       </c>
       <c r="D7">
-        <v>-27.4</v>
+        <v>-18.2</v>
       </c>
       <c r="E7">
-        <v>-20.6</v>
+        <v>2.2</v>
       </c>
       <c r="F7">
-        <v>90.7</v>
+        <v>155.9</v>
       </c>
       <c r="G7">
-        <v>-5.7</v>
+        <v>62</v>
       </c>
       <c r="H7">
         <v>-0.47</v>
@@ -837,19 +837,19 @@
         <v>20</v>
       </c>
       <c r="C8">
-        <v>-54.3</v>
+        <v>-49.3</v>
       </c>
       <c r="D8">
-        <v>-49.8</v>
+        <v>-37.2</v>
       </c>
       <c r="E8">
-        <v>-20.5</v>
+        <v>5.8</v>
       </c>
       <c r="F8">
-        <v>73.3</v>
+        <v>151.1</v>
       </c>
       <c r="G8">
-        <v>-12.9</v>
+        <v>79.40000000000001</v>
       </c>
       <c r="H8">
         <v>-1.39</v>
@@ -881,19 +881,19 @@
         <v>21</v>
       </c>
       <c r="C9">
-        <v>-29.1</v>
+        <v>-24.6</v>
       </c>
       <c r="D9">
-        <v>-32</v>
+        <v>-21.9</v>
       </c>
       <c r="E9">
-        <v>-32.4</v>
+        <v>-10.9</v>
       </c>
       <c r="F9">
-        <v>66.7</v>
+        <v>146.4</v>
       </c>
       <c r="G9">
-        <v>-26</v>
+        <v>62.2</v>
       </c>
       <c r="H9">
         <v>-0.68</v>
@@ -916,19 +916,19 @@
         <v>22</v>
       </c>
       <c r="C10">
-        <v>-50</v>
+        <v>-46.5</v>
       </c>
       <c r="D10">
-        <v>-58.5</v>
+        <v>-50.1</v>
       </c>
       <c r="E10">
-        <v>-38.1</v>
+        <v>-20.6</v>
       </c>
       <c r="F10">
-        <v>65.2</v>
+        <v>116.8</v>
       </c>
       <c r="G10">
-        <v>-15.7</v>
+        <v>51</v>
       </c>
       <c r="H10">
         <v>-1.03</v>
@@ -949,7 +949,7 @@
         <v>-38.28</v>
       </c>
       <c r="N10">
-        <v>-28.1</v>
+        <v>0.09</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -960,19 +960,19 @@
         <v>23</v>
       </c>
       <c r="C11">
-        <v>-46.1</v>
+        <v>-43.1</v>
       </c>
       <c r="D11">
-        <v>-52.8</v>
+        <v>-44.8</v>
       </c>
       <c r="E11">
-        <v>-29</v>
+        <v>-12.4</v>
       </c>
       <c r="F11">
-        <v>54</v>
+        <v>104.8</v>
       </c>
       <c r="G11">
-        <v>-36.3</v>
+        <v>23.7</v>
       </c>
       <c r="H11">
         <v>-0.67</v>
@@ -993,7 +993,7 @@
         <v>-30.45</v>
       </c>
       <c r="N11">
-        <v>-15.87</v>
+        <v>18.34</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -1004,19 +1004,19 @@
         <v>24</v>
       </c>
       <c r="C12">
-        <v>-46.3</v>
+        <v>-43.3</v>
       </c>
       <c r="D12">
-        <v>-53.6</v>
+        <v>-45.8</v>
       </c>
       <c r="E12">
-        <v>-29.4</v>
+        <v>-13</v>
       </c>
       <c r="F12">
-        <v>54.6</v>
+        <v>106.2</v>
       </c>
       <c r="G12">
-        <v>-37.1</v>
+        <v>22.1</v>
       </c>
       <c r="H12">
         <v>-0.64</v>
@@ -1037,7 +1037,7 @@
         <v>-30.45</v>
       </c>
       <c r="N12">
-        <v>-15.87</v>
+        <v>18.34</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -1048,19 +1048,19 @@
         <v>25</v>
       </c>
       <c r="C13">
-        <v>-25.2</v>
+        <v>-21.2</v>
       </c>
       <c r="D13">
-        <v>-31.2</v>
+        <v>-22.2</v>
       </c>
       <c r="E13">
-        <v>-31</v>
+        <v>-11.5</v>
       </c>
       <c r="F13">
-        <v>62.5</v>
+        <v>137.6</v>
       </c>
       <c r="G13">
-        <v>-36</v>
+        <v>40.8</v>
       </c>
       <c r="H13">
         <v>-0.95</v>
@@ -1083,19 +1083,19 @@
         <v>26</v>
       </c>
       <c r="C14">
-        <v>-51.5</v>
+        <v>-48.6</v>
       </c>
       <c r="D14">
-        <v>-58.2</v>
+        <v>-51.3</v>
       </c>
       <c r="E14">
-        <v>-25.7</v>
+        <v>-10.3</v>
       </c>
       <c r="F14">
-        <v>46.9</v>
+        <v>94</v>
       </c>
       <c r="G14">
-        <v>-35.1</v>
+        <v>30</v>
       </c>
       <c r="H14">
         <v>-0.5</v>
@@ -1116,7 +1116,7 @@
         <v>-21.07</v>
       </c>
       <c r="N14">
-        <v>-11.59</v>
+        <v>22</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -1127,19 +1127,19 @@
         <v>21</v>
       </c>
       <c r="C15">
-        <v>-21.9</v>
+        <v>-19.8</v>
       </c>
       <c r="D15">
-        <v>-21.6</v>
+        <v>-16.6</v>
       </c>
       <c r="E15">
-        <v>10.4</v>
+        <v>23.2</v>
       </c>
       <c r="F15">
-        <v>71.40000000000001</v>
+        <v>108.8</v>
       </c>
       <c r="G15">
-        <v>-26</v>
+        <v>12.8</v>
       </c>
       <c r="H15">
         <v>-0.64</v>
@@ -1160,7 +1160,7 @@
         <v>-4.67</v>
       </c>
       <c r="N15">
-        <v>-14.64</v>
+        <v>1.65</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -1171,19 +1171,19 @@
         <v>27</v>
       </c>
       <c r="C16">
-        <v>-17.3</v>
+        <v>-15.1</v>
       </c>
       <c r="D16">
-        <v>-9.5</v>
+        <v>-4</v>
       </c>
       <c r="E16">
-        <v>21.1</v>
+        <v>35.7</v>
       </c>
       <c r="F16">
-        <v>89</v>
+        <v>131.5</v>
       </c>
       <c r="G16">
-        <v>-17.2</v>
+        <v>22.2</v>
       </c>
       <c r="H16">
         <v>-0.68</v>
@@ -1204,7 +1204,7 @@
         <v>4.66</v>
       </c>
       <c r="N16">
-        <v>1.31</v>
+        <v>7.96</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1215,19 +1215,19 @@
         <v>28</v>
       </c>
       <c r="C17">
-        <v>-48.6</v>
+        <v>-45.5</v>
       </c>
       <c r="D17">
-        <v>-46.3</v>
+        <v>-37.7</v>
       </c>
       <c r="E17">
-        <v>-19</v>
+        <v>0.7</v>
       </c>
       <c r="F17">
-        <v>43.5</v>
+        <v>101.5</v>
       </c>
       <c r="G17">
-        <v>-51.1</v>
+        <v>14</v>
       </c>
       <c r="H17">
         <v>-1.3</v>
@@ -1250,19 +1250,19 @@
         <v>29</v>
       </c>
       <c r="C18">
-        <v>-39.6</v>
+        <v>-33.6</v>
       </c>
       <c r="D18">
-        <v>-42.5</v>
+        <v>-26.3</v>
       </c>
       <c r="E18">
-        <v>-34.4</v>
+        <v>6.5</v>
       </c>
       <c r="F18">
-        <v>57</v>
+        <v>178.6</v>
       </c>
       <c r="G18">
-        <v>-34.2</v>
+        <v>106.3</v>
       </c>
       <c r="H18">
         <v>-1.14</v>
@@ -1283,7 +1283,7 @@
         <v>-10.64</v>
       </c>
       <c r="N18">
-        <v>-10.78</v>
+        <v>-1.82</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1294,19 +1294,19 @@
         <v>30</v>
       </c>
       <c r="C19">
-        <v>-29.1</v>
+        <v>-24.9</v>
       </c>
       <c r="D19">
-        <v>-22</v>
+        <v>-11</v>
       </c>
       <c r="E19">
-        <v>-5.8</v>
+        <v>22.5</v>
       </c>
       <c r="F19">
-        <v>72.40000000000001</v>
+        <v>142.3</v>
       </c>
       <c r="G19">
-        <v>-25.4</v>
+        <v>46.7</v>
       </c>
       <c r="H19">
         <v>-1.73</v>
@@ -1329,19 +1329,19 @@
         <v>31</v>
       </c>
       <c r="C20">
-        <v>-40.7</v>
+        <v>-32.5</v>
       </c>
       <c r="D20">
-        <v>-44.6</v>
+        <v>-24.2</v>
       </c>
       <c r="E20">
-        <v>-29</v>
+        <v>20.3</v>
       </c>
       <c r="F20">
-        <v>47.2</v>
+        <v>206.5</v>
       </c>
       <c r="G20">
-        <v>-44.2</v>
+        <v>143.8</v>
       </c>
       <c r="H20">
         <v>-1.06</v>
@@ -1364,19 +1364,19 @@
         <v>32</v>
       </c>
       <c r="C21">
-        <v>-17.9</v>
+        <v>-15.9</v>
       </c>
       <c r="D21">
-        <v>-6.9</v>
+        <v>-2.3</v>
       </c>
       <c r="E21">
-        <v>25.6</v>
+        <v>38.2</v>
       </c>
       <c r="F21">
-        <v>87.59999999999999</v>
+        <v>123.1</v>
       </c>
       <c r="G21">
-        <v>-21</v>
+        <v>11</v>
       </c>
       <c r="H21">
         <v>-0.59</v>
@@ -1405,19 +1405,19 @@
         <v>33</v>
       </c>
       <c r="C22">
-        <v>-29.2</v>
+        <v>-24.9</v>
       </c>
       <c r="D22">
-        <v>-20</v>
+        <v>-9.300000000000001</v>
       </c>
       <c r="E22">
-        <v>14.6</v>
+        <v>42.4</v>
       </c>
       <c r="F22">
-        <v>119.4</v>
+        <v>199.3</v>
       </c>
       <c r="G22">
-        <v>19.5</v>
+        <v>99.59999999999999</v>
       </c>
       <c r="H22">
         <v>-1.11</v>
@@ -1440,19 +1440,19 @@
         <v>34</v>
       </c>
       <c r="C23">
-        <v>-26.7</v>
+        <v>-23.1</v>
       </c>
       <c r="D23">
-        <v>-31.1</v>
+        <v>-22.9</v>
       </c>
       <c r="E23">
-        <v>-29.2</v>
+        <v>-9.1</v>
       </c>
       <c r="F23">
-        <v>76.5</v>
+        <v>136.6</v>
       </c>
       <c r="G23">
-        <v>-20.5</v>
+        <v>41.9</v>
       </c>
       <c r="H23">
         <v>-0.52</v>
@@ -1475,19 +1475,19 @@
         <v>35</v>
       </c>
       <c r="C24">
-        <v>-29.6</v>
+        <v>-26.4</v>
       </c>
       <c r="D24">
-        <v>-34</v>
+        <v>-26.5</v>
       </c>
       <c r="E24">
-        <v>-26.6</v>
+        <v>-8.199999999999999</v>
       </c>
       <c r="F24">
-        <v>100</v>
+        <v>156.6</v>
       </c>
       <c r="G24">
-        <v>33</v>
+        <v>108.2</v>
       </c>
       <c r="H24">
         <v>-0.48</v>
@@ -1510,19 +1510,19 @@
         <v>36</v>
       </c>
       <c r="C25">
-        <v>-45.2</v>
+        <v>-41.3</v>
       </c>
       <c r="D25">
-        <v>-56.8</v>
+        <v>-47.5</v>
       </c>
       <c r="E25">
-        <v>-42.3</v>
+        <v>-24.5</v>
       </c>
       <c r="F25">
-        <v>62.6</v>
+        <v>130.1</v>
       </c>
       <c r="G25">
-        <v>-26.4</v>
+        <v>53.1</v>
       </c>
       <c r="H25">
         <v>-1.11</v>
@@ -1545,19 +1545,19 @@
         <v>37</v>
       </c>
       <c r="C26">
-        <v>-31.8</v>
+        <v>-25</v>
       </c>
       <c r="D26">
-        <v>-40.5</v>
+        <v>-21.5</v>
       </c>
       <c r="E26">
-        <v>-23.5</v>
+        <v>26</v>
       </c>
       <c r="F26">
-        <v>39.7</v>
+        <v>138.1</v>
       </c>
       <c r="G26">
-        <v>-36</v>
+        <v>122.6</v>
       </c>
       <c r="H26">
         <v>-1.42</v>
@@ -1580,19 +1580,19 @@
         <v>38</v>
       </c>
       <c r="C27">
-        <v>-52.8</v>
+        <v>-50</v>
       </c>
       <c r="D27">
-        <v>-53.8</v>
+        <v>-46</v>
       </c>
       <c r="E27">
-        <v>-28.6</v>
+        <v>-10.6</v>
       </c>
       <c r="F27">
-        <v>55.7</v>
+        <v>107</v>
       </c>
       <c r="G27">
-        <v>-40</v>
+        <v>15.3</v>
       </c>
       <c r="H27">
         <v>-1.28</v>
@@ -1615,19 +1615,19 @@
         <v>39</v>
       </c>
       <c r="C28">
-        <v>-14.4</v>
+        <v>-11.1</v>
       </c>
       <c r="D28">
-        <v>-19.9</v>
+        <v>-12.1</v>
       </c>
       <c r="E28">
-        <v>-11.9</v>
+        <v>8.6</v>
       </c>
       <c r="F28">
-        <v>74.90000000000001</v>
+        <v>132.6</v>
       </c>
       <c r="G28">
-        <v>-3.3</v>
+        <v>71.2</v>
       </c>
       <c r="H28">
         <v>-0.54</v>
@@ -1659,19 +1659,19 @@
         <v>40</v>
       </c>
       <c r="C29">
-        <v>-46.2</v>
+        <v>-44.6</v>
       </c>
       <c r="D29">
-        <v>-51.5</v>
+        <v>-47.6</v>
       </c>
       <c r="E29">
-        <v>-15.2</v>
+        <v>-6.7</v>
       </c>
       <c r="F29">
-        <v>64.90000000000001</v>
+        <v>90.90000000000001</v>
       </c>
       <c r="G29">
-        <v>-34</v>
+        <v>-7.5</v>
       </c>
       <c r="H29">
         <v>-0.43</v>
@@ -1692,7 +1692,7 @@
         <v>-36.83</v>
       </c>
       <c r="N29">
-        <v>-34.39</v>
+        <v>10.17</v>
       </c>
     </row>
     <row r="30" spans="1:14">
@@ -1703,19 +1703,19 @@
         <v>41</v>
       </c>
       <c r="C30">
-        <v>-7.3</v>
+        <v>-4.2</v>
       </c>
       <c r="D30">
-        <v>-1</v>
+        <v>6.7</v>
       </c>
       <c r="E30">
-        <v>31.5</v>
+        <v>52.1</v>
       </c>
       <c r="F30">
-        <v>89.40000000000001</v>
+        <v>145.2</v>
       </c>
       <c r="G30">
-        <v>-12.1</v>
+        <v>42.7</v>
       </c>
       <c r="H30">
         <v>-0.71</v>
@@ -1747,19 +1747,19 @@
         <v>42</v>
       </c>
       <c r="C31">
-        <v>-18.1</v>
+        <v>-14.8</v>
       </c>
       <c r="D31">
-        <v>-22.6</v>
+        <v>-14.9</v>
       </c>
       <c r="E31">
-        <v>-19</v>
+        <v>1.1</v>
       </c>
       <c r="F31">
-        <v>71.7</v>
+        <v>133.6</v>
       </c>
       <c r="G31">
-        <v>-16.1</v>
+        <v>56.3</v>
       </c>
       <c r="H31">
         <v>-0.76</v>
@@ -1782,19 +1782,19 @@
         <v>43</v>
       </c>
       <c r="C32">
-        <v>-14</v>
+        <v>-10.5</v>
       </c>
       <c r="D32">
-        <v>-19.7</v>
+        <v>-11.6</v>
       </c>
       <c r="E32">
-        <v>-15.2</v>
+        <v>6.2</v>
       </c>
       <c r="F32">
-        <v>71.2</v>
+        <v>132.3</v>
       </c>
       <c r="G32">
-        <v>-7.5</v>
+        <v>72</v>
       </c>
       <c r="H32">
         <v>-0.54</v>
@@ -1826,19 +1826,19 @@
         <v>44</v>
       </c>
       <c r="C33">
-        <v>-32.7</v>
+        <v>-30.6</v>
       </c>
       <c r="D33">
-        <v>-32.7</v>
+        <v>-27.7</v>
       </c>
       <c r="E33">
-        <v>-20.8</v>
+        <v>-8.5</v>
       </c>
       <c r="F33">
-        <v>61.7</v>
+        <v>96.8</v>
       </c>
       <c r="G33">
-        <v>-28.6</v>
+        <v>12.1</v>
       </c>
       <c r="H33">
         <v>-0.51</v>
@@ -1861,19 +1861,19 @@
         <v>45</v>
       </c>
       <c r="C34">
-        <v>-50.8</v>
+        <v>-48</v>
       </c>
       <c r="D34">
-        <v>-57.1</v>
+        <v>-50.3</v>
       </c>
       <c r="E34">
-        <v>-23.7</v>
+        <v>-8.4</v>
       </c>
       <c r="F34">
-        <v>47.2</v>
+        <v>91.59999999999999</v>
       </c>
       <c r="G34">
-        <v>-31.8</v>
+        <v>32.4</v>
       </c>
       <c r="H34">
         <v>-0.49</v>
@@ -1894,7 +1894,7 @@
         <v>-21.07</v>
       </c>
       <c r="N34">
-        <v>-11.59</v>
+        <v>22</v>
       </c>
     </row>
     <row r="35" spans="1:14">
@@ -1905,19 +1905,19 @@
         <v>46</v>
       </c>
       <c r="C35">
-        <v>-54.8</v>
+        <v>-52.1</v>
       </c>
       <c r="D35">
-        <v>-54.9</v>
+        <v>-47.3</v>
       </c>
       <c r="E35">
-        <v>-29.7</v>
+        <v>-12.1</v>
       </c>
       <c r="F35">
-        <v>58</v>
+        <v>111.7</v>
       </c>
       <c r="G35">
-        <v>-42.5</v>
+        <v>10.7</v>
       </c>
       <c r="H35">
         <v>-1.29</v>
@@ -1940,19 +1940,19 @@
         <v>47</v>
       </c>
       <c r="C36">
-        <v>-59.4</v>
+        <v>-57.5</v>
       </c>
       <c r="D36">
-        <v>-61.9</v>
+        <v>-56.6</v>
       </c>
       <c r="E36">
-        <v>-30.6</v>
+        <v>-18.5</v>
       </c>
       <c r="F36">
-        <v>31.2</v>
+        <v>71.3</v>
       </c>
       <c r="G36">
-        <v>-70.09999999999999</v>
+        <v>-31.5</v>
       </c>
       <c r="H36">
         <v>-0.43</v>
@@ -1970,10 +1970,10 @@
         <v>-58.79</v>
       </c>
       <c r="M36">
-        <v>-78.25</v>
+        <v>-78.22</v>
       </c>
       <c r="N36">
-        <v>-70.86</v>
+        <v>-37.54</v>
       </c>
     </row>
     <row r="37" spans="1:14">
@@ -1984,19 +1984,19 @@
         <v>48</v>
       </c>
       <c r="C37">
-        <v>-11.3</v>
+        <v>-8.300000000000001</v>
       </c>
       <c r="D37">
-        <v>-12</v>
+        <v>-4.9</v>
       </c>
       <c r="E37">
-        <v>11.7</v>
+        <v>30.7</v>
       </c>
       <c r="F37">
-        <v>78.09999999999999</v>
+        <v>130.7</v>
       </c>
       <c r="G37">
-        <v>-15</v>
+        <v>42.3</v>
       </c>
       <c r="H37">
         <v>-0.64</v>
@@ -2028,19 +2028,19 @@
         <v>49</v>
       </c>
       <c r="C38">
-        <v>-42.9</v>
+        <v>-38.3</v>
       </c>
       <c r="D38">
-        <v>-53.7</v>
+        <v>-43.2</v>
       </c>
       <c r="E38">
-        <v>-30.2</v>
+        <v>-8.699999999999999</v>
       </c>
       <c r="F38">
-        <v>63.3</v>
+        <v>129.8</v>
       </c>
       <c r="G38">
-        <v>-19.8</v>
+        <v>64.40000000000001</v>
       </c>
       <c r="H38">
         <v>-1.02</v>
@@ -2061,7 +2061,7 @@
         <v>-38.28</v>
       </c>
       <c r="N38">
-        <v>-28.1</v>
+        <v>0.09</v>
       </c>
     </row>
     <row r="39" spans="1:14">
@@ -2072,19 +2072,19 @@
         <v>50</v>
       </c>
       <c r="C39">
-        <v>-5.6</v>
+        <v>-2.6</v>
       </c>
       <c r="D39">
-        <v>3.1</v>
+        <v>10.6</v>
       </c>
       <c r="E39">
-        <v>36.6</v>
+        <v>56.7</v>
       </c>
       <c r="F39">
-        <v>92.2</v>
+        <v>146.6</v>
       </c>
       <c r="G39">
-        <v>-13.8</v>
+        <v>37</v>
       </c>
       <c r="H39">
         <v>-0.6899999999999999</v>
@@ -2116,19 +2116,19 @@
         <v>51</v>
       </c>
       <c r="C40">
-        <v>-13.5</v>
+        <v>-10.5</v>
       </c>
       <c r="D40">
-        <v>-18.3</v>
+        <v>-11.1</v>
       </c>
       <c r="E40">
-        <v>-0.6</v>
+        <v>18.7</v>
       </c>
       <c r="F40">
-        <v>74.59999999999999</v>
+        <v>129.5</v>
       </c>
       <c r="G40">
-        <v>-12.7</v>
+        <v>51.5</v>
       </c>
       <c r="H40">
         <v>-0.63</v>
@@ -2160,19 +2160,19 @@
         <v>52</v>
       </c>
       <c r="C41">
-        <v>-49.4</v>
+        <v>-46.5</v>
       </c>
       <c r="D41">
-        <v>-53.5</v>
+        <v>-46</v>
       </c>
       <c r="E41">
-        <v>-27.3</v>
+        <v>-10.9</v>
       </c>
       <c r="F41">
-        <v>51.9</v>
+        <v>102.2</v>
       </c>
       <c r="G41">
-        <v>-35.5</v>
+        <v>26.9</v>
       </c>
       <c r="H41">
         <v>-0.66</v>
@@ -2193,7 +2193,7 @@
         <v>-21.07</v>
       </c>
       <c r="N41">
-        <v>-11.59</v>
+        <v>22</v>
       </c>
     </row>
     <row r="42" spans="1:14">
@@ -2204,19 +2204,19 @@
         <v>53</v>
       </c>
       <c r="C42">
-        <v>-26.8</v>
+        <v>-23.5</v>
       </c>
       <c r="D42">
-        <v>-36.3</v>
+        <v>-28.7</v>
       </c>
       <c r="E42">
-        <v>-34.2</v>
+        <v>-16.7</v>
       </c>
       <c r="F42">
-        <v>101.3</v>
+        <v>156.6</v>
       </c>
       <c r="G42">
-        <v>3.9</v>
+        <v>60.6</v>
       </c>
       <c r="H42">
         <v>-0.91</v>
@@ -2237,7 +2237,7 @@
         <v>-13.2</v>
       </c>
       <c r="N42">
-        <v>-12.87</v>
+        <v>-9.300000000000001</v>
       </c>
     </row>
   </sheetData>

--- a/Sistema-Operacional/Saidas/Monitoramento - Mananciais Críticos.xlsx
+++ b/Sistema-Operacional/Saidas/Monitoramento - Mananciais Críticos.xlsx
@@ -19,40 +19,40 @@
     <t>MUNICIPIO</t>
   </si>
   <si>
-    <t>AN_ANUAL_202008</t>
-  </si>
-  <si>
-    <t>AN_SEM_202008</t>
-  </si>
-  <si>
-    <t>AN_TRI_202008</t>
-  </si>
-  <si>
-    <t>AC_20200823</t>
-  </si>
-  <si>
-    <t>AN_20200823</t>
-  </si>
-  <si>
-    <t>SPI1_202007</t>
-  </si>
-  <si>
-    <t>SPI3_202007</t>
-  </si>
-  <si>
-    <t>SPI6_202007</t>
-  </si>
-  <si>
-    <t>SPI12_202007</t>
-  </si>
-  <si>
-    <t>AN_COTA_202006</t>
+    <t>AN_ANUAL_202009</t>
+  </si>
+  <si>
+    <t>AN_SEM_202009</t>
+  </si>
+  <si>
+    <t>AN_TRI_202009</t>
+  </si>
+  <si>
+    <t>AC_20200908</t>
+  </si>
+  <si>
+    <t>AN_20200908</t>
+  </si>
+  <si>
+    <t>SPI1_202008</t>
+  </si>
+  <si>
+    <t>SPI3_202008</t>
+  </si>
+  <si>
+    <t>SPI6_202008</t>
+  </si>
+  <si>
+    <t>SPI12_202008</t>
   </si>
   <si>
     <t>AN_COTA_202007</t>
   </si>
   <si>
-    <t>AN_COTA_20200823</t>
+    <t>AN_COTA_202008</t>
+  </si>
+  <si>
+    <t>AN_COTA_20200908</t>
   </si>
   <si>
     <t>SIA</t>
@@ -591,40 +591,40 @@
         <v>14</v>
       </c>
       <c r="C2">
-        <v>-17.9</v>
+        <v>-21.4</v>
       </c>
       <c r="D2">
-        <v>-10.9</v>
+        <v>-27.3</v>
       </c>
       <c r="E2">
-        <v>30.6</v>
+        <v>-27.3</v>
       </c>
       <c r="F2">
-        <v>175.2</v>
+        <v>0</v>
       </c>
       <c r="G2">
-        <v>183.7</v>
+        <v>-100</v>
       </c>
       <c r="H2">
-        <v>-1.14</v>
+        <v>-0.88</v>
       </c>
       <c r="I2">
-        <v>-0.61</v>
+        <v>-0.74</v>
       </c>
       <c r="J2">
-        <v>-1.02</v>
+        <v>-1.28</v>
       </c>
       <c r="K2">
-        <v>-1.28</v>
+        <v>-1.17</v>
       </c>
       <c r="L2">
-        <v>-6.61</v>
+        <v>-10.64</v>
       </c>
       <c r="M2">
-        <v>-10.64</v>
+        <v>-2.49</v>
       </c>
       <c r="N2">
-        <v>-1.82</v>
+        <v>-6.37</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -635,40 +635,40 @@
         <v>15</v>
       </c>
       <c r="C3">
-        <v>-26.6</v>
+        <v>-36.3</v>
       </c>
       <c r="D3">
-        <v>-31.5</v>
+        <v>-36.1</v>
       </c>
       <c r="E3">
-        <v>15.7</v>
+        <v>-41.5</v>
       </c>
       <c r="F3">
-        <v>121.1</v>
+        <v>0</v>
       </c>
       <c r="G3">
-        <v>175.9</v>
+        <v>-100</v>
       </c>
       <c r="H3">
-        <v>-1.1</v>
+        <v>-0.85</v>
       </c>
       <c r="I3">
-        <v>-0.55</v>
+        <v>-0.41</v>
       </c>
       <c r="J3">
-        <v>-1.85</v>
+        <v>-2.29</v>
       </c>
       <c r="K3">
-        <v>-1.79</v>
+        <v>-1.91</v>
       </c>
       <c r="L3">
-        <v>-36.55</v>
+        <v>-50.72</v>
       </c>
       <c r="M3">
-        <v>-50.72</v>
+        <v>8.51</v>
       </c>
       <c r="N3">
-        <v>-7.83</v>
+        <v>-45.88</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -679,31 +679,31 @@
         <v>16</v>
       </c>
       <c r="C4">
-        <v>-30.8</v>
+        <v>-33.5</v>
       </c>
       <c r="D4">
-        <v>-25.7</v>
+        <v>-30</v>
       </c>
       <c r="E4">
-        <v>14.2</v>
+        <v>-41.7</v>
       </c>
       <c r="F4">
-        <v>161.5</v>
+        <v>0</v>
       </c>
       <c r="G4">
-        <v>105</v>
+        <v>-100</v>
       </c>
       <c r="H4">
-        <v>-1.14</v>
+        <v>-0.79</v>
       </c>
       <c r="I4">
-        <v>-0.49</v>
+        <v>-0.63</v>
       </c>
       <c r="J4">
-        <v>-1</v>
+        <v>-1.28</v>
       </c>
       <c r="K4">
-        <v>-1.22</v>
+        <v>-1.17</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -714,40 +714,40 @@
         <v>17</v>
       </c>
       <c r="C5">
-        <v>-7.1</v>
+        <v>-9.199999999999999</v>
       </c>
       <c r="D5">
-        <v>1.7</v>
+        <v>-6.9</v>
       </c>
       <c r="E5">
-        <v>18.6</v>
+        <v>-36.6</v>
       </c>
       <c r="F5">
-        <v>132.1</v>
+        <v>0</v>
       </c>
       <c r="G5">
-        <v>109.4</v>
+        <v>-100</v>
       </c>
       <c r="H5">
-        <v>-0.52</v>
+        <v>-0.55</v>
       </c>
       <c r="I5">
-        <v>0.27</v>
+        <v>-0.41</v>
       </c>
       <c r="J5">
-        <v>-0.27</v>
+        <v>-0.74</v>
       </c>
       <c r="K5">
-        <v>-0.57</v>
+        <v>-0.71</v>
       </c>
       <c r="L5">
-        <v>17.76</v>
+        <v>3.16</v>
       </c>
       <c r="M5">
-        <v>3.16</v>
+        <v>-25.39</v>
       </c>
       <c r="N5">
-        <v>-35.81</v>
+        <v>-42.92</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -758,40 +758,40 @@
         <v>18</v>
       </c>
       <c r="C6">
-        <v>-21.4</v>
+        <v>-25</v>
       </c>
       <c r="D6">
-        <v>-23.8</v>
+        <v>-29.4</v>
       </c>
       <c r="E6">
-        <v>-13.4</v>
+        <v>-45</v>
       </c>
       <c r="F6">
-        <v>140.7</v>
+        <v>0</v>
       </c>
       <c r="G6">
-        <v>57.9</v>
+        <v>-100</v>
       </c>
       <c r="H6">
-        <v>-0.91</v>
+        <v>-0.87</v>
       </c>
       <c r="I6">
-        <v>-0.48</v>
+        <v>-1.44</v>
       </c>
       <c r="J6">
-        <v>-1.64</v>
+        <v>-2.06</v>
       </c>
       <c r="K6">
-        <v>-1.62</v>
+        <v>-1.63</v>
       </c>
       <c r="L6">
-        <v>-18.17</v>
+        <v>-13.2</v>
       </c>
       <c r="M6">
-        <v>-13.2</v>
+        <v>-9.390000000000001</v>
       </c>
       <c r="N6">
-        <v>-9.300000000000001</v>
+        <v>-6.54</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -802,31 +802,31 @@
         <v>19</v>
       </c>
       <c r="C7">
-        <v>-16.8</v>
+        <v>-18.2</v>
       </c>
       <c r="D7">
-        <v>-18.2</v>
+        <v>-21.8</v>
       </c>
       <c r="E7">
-        <v>2.2</v>
+        <v>-30.5</v>
       </c>
       <c r="F7">
-        <v>155.9</v>
+        <v>0</v>
       </c>
       <c r="G7">
-        <v>62</v>
+        <v>-100</v>
       </c>
       <c r="H7">
-        <v>-0.47</v>
+        <v>-0.33</v>
       </c>
       <c r="I7">
-        <v>0.09</v>
+        <v>-0.59</v>
       </c>
       <c r="J7">
-        <v>-0.53</v>
+        <v>-0.78</v>
       </c>
       <c r="K7">
-        <v>-0.54</v>
+        <v>-0.48</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -837,40 +837,40 @@
         <v>20</v>
       </c>
       <c r="C8">
-        <v>-49.3</v>
+        <v>-54.1</v>
       </c>
       <c r="D8">
-        <v>-37.2</v>
+        <v>-42.2</v>
       </c>
       <c r="E8">
-        <v>5.8</v>
+        <v>-51.9</v>
       </c>
       <c r="F8">
-        <v>151.1</v>
+        <v>0</v>
       </c>
       <c r="G8">
-        <v>79.40000000000001</v>
+        <v>-100</v>
       </c>
       <c r="H8">
-        <v>-1.39</v>
+        <v>-1.12</v>
       </c>
       <c r="I8">
-        <v>-0.51</v>
+        <v>-0.42</v>
       </c>
       <c r="J8">
-        <v>-1.53</v>
+        <v>-1.98</v>
       </c>
       <c r="K8">
-        <v>-1.72</v>
+        <v>-1.77</v>
       </c>
       <c r="L8">
-        <v>6.92</v>
+        <v>-0.99</v>
       </c>
       <c r="M8">
-        <v>-0.99</v>
+        <v>-7.33</v>
       </c>
       <c r="N8">
-        <v>-10.23</v>
+        <v>-6.71</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -881,31 +881,31 @@
         <v>21</v>
       </c>
       <c r="C9">
-        <v>-24.6</v>
+        <v>-25.3</v>
       </c>
       <c r="D9">
-        <v>-21.9</v>
+        <v>-25.1</v>
       </c>
       <c r="E9">
-        <v>-10.9</v>
+        <v>-48.3</v>
       </c>
       <c r="F9">
-        <v>146.4</v>
+        <v>0</v>
       </c>
       <c r="G9">
-        <v>62.2</v>
+        <v>-100</v>
       </c>
       <c r="H9">
-        <v>-0.68</v>
+        <v>-0.45</v>
       </c>
       <c r="I9">
-        <v>0.15</v>
+        <v>-0.39</v>
       </c>
       <c r="J9">
-        <v>-0.45</v>
+        <v>-0.86</v>
       </c>
       <c r="K9">
-        <v>-0.61</v>
+        <v>-0.55</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -916,40 +916,40 @@
         <v>22</v>
       </c>
       <c r="C10">
-        <v>-46.5</v>
+        <v>-54</v>
       </c>
       <c r="D10">
-        <v>-50.1</v>
+        <v>-52</v>
       </c>
       <c r="E10">
-        <v>-20.6</v>
+        <v>-56.3</v>
       </c>
       <c r="F10">
-        <v>116.8</v>
+        <v>0</v>
       </c>
       <c r="G10">
-        <v>51</v>
+        <v>-100</v>
       </c>
       <c r="H10">
-        <v>-1.03</v>
+        <v>-0.7</v>
       </c>
       <c r="I10">
-        <v>-1.06</v>
+        <v>-0.7</v>
       </c>
       <c r="J10">
-        <v>-2.27</v>
+        <v>-2.83</v>
       </c>
       <c r="K10">
-        <v>-2.71</v>
+        <v>-2.69</v>
       </c>
       <c r="L10">
-        <v>-59.27</v>
+        <v>-38.28</v>
       </c>
       <c r="M10">
-        <v>-38.28</v>
+        <v>-3.15</v>
       </c>
       <c r="N10">
-        <v>0.09</v>
+        <v>-17.86</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -960,40 +960,40 @@
         <v>23</v>
       </c>
       <c r="C11">
-        <v>-43.1</v>
+        <v>-49.7</v>
       </c>
       <c r="D11">
-        <v>-44.8</v>
+        <v>-50.1</v>
       </c>
       <c r="E11">
-        <v>-12.4</v>
+        <v>-55.5</v>
       </c>
       <c r="F11">
-        <v>104.8</v>
+        <v>1.9</v>
       </c>
       <c r="G11">
-        <v>23.7</v>
+        <v>-98.59999999999999</v>
       </c>
       <c r="H11">
-        <v>-0.67</v>
+        <v>-0.3</v>
       </c>
       <c r="I11">
-        <v>-0.92</v>
+        <v>-0.27</v>
       </c>
       <c r="J11">
-        <v>-1.62</v>
+        <v>-1.8</v>
       </c>
       <c r="K11">
         <v>-1.85</v>
       </c>
       <c r="L11">
-        <v>-37.18</v>
+        <v>-30.45</v>
       </c>
       <c r="M11">
-        <v>-30.45</v>
+        <v>20.08</v>
       </c>
       <c r="N11">
-        <v>18.34</v>
+        <v>-5.85</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -1004,40 +1004,40 @@
         <v>24</v>
       </c>
       <c r="C12">
-        <v>-43.3</v>
+        <v>-49.7</v>
       </c>
       <c r="D12">
-        <v>-45.8</v>
+        <v>-50.3</v>
       </c>
       <c r="E12">
-        <v>-13</v>
+        <v>-55.7</v>
       </c>
       <c r="F12">
-        <v>106.2</v>
+        <v>2.7</v>
       </c>
       <c r="G12">
-        <v>22.1</v>
+        <v>-98.09999999999999</v>
       </c>
       <c r="H12">
-        <v>-0.64</v>
+        <v>-0.26</v>
       </c>
       <c r="I12">
-        <v>-0.89</v>
+        <v>-0.25</v>
       </c>
       <c r="J12">
-        <v>-1.6</v>
+        <v>-1.73</v>
       </c>
       <c r="K12">
-        <v>-1.74</v>
+        <v>-1.77</v>
       </c>
       <c r="L12">
-        <v>-37.18</v>
+        <v>-30.45</v>
       </c>
       <c r="M12">
-        <v>-30.45</v>
+        <v>20.08</v>
       </c>
       <c r="N12">
-        <v>18.34</v>
+        <v>-5.85</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -1048,31 +1048,31 @@
         <v>25</v>
       </c>
       <c r="C13">
-        <v>-21.2</v>
+        <v>-24.7</v>
       </c>
       <c r="D13">
-        <v>-22.2</v>
+        <v>-24.6</v>
       </c>
       <c r="E13">
-        <v>-11.5</v>
+        <v>-51.9</v>
       </c>
       <c r="F13">
-        <v>137.6</v>
+        <v>0</v>
       </c>
       <c r="G13">
-        <v>40.8</v>
+        <v>-100</v>
       </c>
       <c r="H13">
-        <v>-0.95</v>
+        <v>-0.61</v>
       </c>
       <c r="I13">
-        <v>0.19</v>
+        <v>-0.21</v>
       </c>
       <c r="J13">
-        <v>-0.37</v>
+        <v>-1</v>
       </c>
       <c r="K13">
-        <v>-0.7</v>
+        <v>-0.63</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -1083,40 +1083,40 @@
         <v>26</v>
       </c>
       <c r="C14">
-        <v>-48.6</v>
+        <v>-56.2</v>
       </c>
       <c r="D14">
-        <v>-51.3</v>
+        <v>-53.4</v>
       </c>
       <c r="E14">
-        <v>-10.3</v>
+        <v>-58.7</v>
       </c>
       <c r="F14">
-        <v>94</v>
+        <v>0</v>
       </c>
       <c r="G14">
-        <v>30</v>
+        <v>-100</v>
       </c>
       <c r="H14">
-        <v>-0.5</v>
+        <v>-0.08</v>
       </c>
       <c r="I14">
-        <v>-0.93</v>
+        <v>-0.22</v>
       </c>
       <c r="J14">
-        <v>-1.46</v>
+        <v>-1.72</v>
       </c>
       <c r="K14">
-        <v>-1.47</v>
+        <v>-1.41</v>
       </c>
       <c r="L14">
-        <v>-32.98</v>
+        <v>-21.07</v>
       </c>
       <c r="M14">
-        <v>-21.07</v>
+        <v>23.68</v>
       </c>
       <c r="N14">
-        <v>22</v>
+        <v>-31.7</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -1127,40 +1127,40 @@
         <v>21</v>
       </c>
       <c r="C15">
-        <v>-19.8</v>
+        <v>-23</v>
       </c>
       <c r="D15">
-        <v>-16.6</v>
+        <v>-23.2</v>
       </c>
       <c r="E15">
-        <v>23.2</v>
+        <v>-51.6</v>
       </c>
       <c r="F15">
-        <v>108.8</v>
+        <v>0.6</v>
       </c>
       <c r="G15">
-        <v>12.8</v>
+        <v>-99.59999999999999</v>
       </c>
       <c r="H15">
-        <v>-0.64</v>
+        <v>-0.39</v>
       </c>
       <c r="I15">
-        <v>0.23</v>
+        <v>0.12</v>
       </c>
       <c r="J15">
-        <v>-0.66</v>
+        <v>-0.8100000000000001</v>
       </c>
       <c r="K15">
-        <v>-1.35</v>
+        <v>-1.2</v>
       </c>
       <c r="L15">
-        <v>9.550000000000001</v>
+        <v>-4.67</v>
       </c>
       <c r="M15">
-        <v>-4.67</v>
+        <v>1.32</v>
       </c>
       <c r="N15">
-        <v>1.65</v>
+        <v>-19.06</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -1171,40 +1171,40 @@
         <v>27</v>
       </c>
       <c r="C16">
-        <v>-15.1</v>
+        <v>-17.4</v>
       </c>
       <c r="D16">
-        <v>-4</v>
+        <v>-14.2</v>
       </c>
       <c r="E16">
-        <v>35.7</v>
+        <v>-34.7</v>
       </c>
       <c r="F16">
-        <v>131.5</v>
+        <v>3.2</v>
       </c>
       <c r="G16">
-        <v>22.2</v>
+        <v>-97.7</v>
       </c>
       <c r="H16">
-        <v>-0.68</v>
+        <v>-0.39</v>
       </c>
       <c r="I16">
-        <v>0.27</v>
+        <v>0.16</v>
       </c>
       <c r="J16">
-        <v>-0.61</v>
+        <v>-0.84</v>
       </c>
       <c r="K16">
-        <v>-1.34</v>
+        <v>-1.22</v>
       </c>
       <c r="L16">
-        <v>2.47</v>
+        <v>4.66</v>
       </c>
       <c r="M16">
-        <v>4.66</v>
+        <v>7.01</v>
       </c>
       <c r="N16">
-        <v>7.96</v>
+        <v>-2.37</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1215,31 +1215,31 @@
         <v>28</v>
       </c>
       <c r="C17">
-        <v>-45.5</v>
+        <v>-48.8</v>
       </c>
       <c r="D17">
-        <v>-37.7</v>
+        <v>-41.2</v>
       </c>
       <c r="E17">
-        <v>0.7</v>
+        <v>-61.8</v>
       </c>
       <c r="F17">
-        <v>101.5</v>
+        <v>0</v>
       </c>
       <c r="G17">
-        <v>14</v>
+        <v>-100</v>
       </c>
       <c r="H17">
-        <v>-1.3</v>
+        <v>-0.76</v>
       </c>
       <c r="I17">
-        <v>0.09</v>
+        <v>-0.07000000000000001</v>
       </c>
       <c r="J17">
-        <v>-0.58</v>
+        <v>-0.91</v>
       </c>
       <c r="K17">
-        <v>-1.29</v>
+        <v>-1.33</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1250,40 +1250,40 @@
         <v>29</v>
       </c>
       <c r="C18">
-        <v>-33.6</v>
+        <v>-36.1</v>
       </c>
       <c r="D18">
-        <v>-26.3</v>
+        <v>-39.6</v>
       </c>
       <c r="E18">
-        <v>6.5</v>
+        <v>-40.9</v>
       </c>
       <c r="F18">
-        <v>178.6</v>
+        <v>0</v>
       </c>
       <c r="G18">
-        <v>106.3</v>
+        <v>-100</v>
       </c>
       <c r="H18">
-        <v>-1.14</v>
+        <v>-0.88</v>
       </c>
       <c r="I18">
-        <v>-0.61</v>
+        <v>-0.73</v>
       </c>
       <c r="J18">
-        <v>-1.01</v>
+        <v>-1.27</v>
       </c>
       <c r="K18">
-        <v>-1.27</v>
+        <v>-1.16</v>
       </c>
       <c r="L18">
-        <v>-6.61</v>
+        <v>-10.64</v>
       </c>
       <c r="M18">
-        <v>-10.64</v>
+        <v>-2.49</v>
       </c>
       <c r="N18">
-        <v>-1.82</v>
+        <v>-6.37</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1294,31 +1294,31 @@
         <v>30</v>
       </c>
       <c r="C19">
-        <v>-24.9</v>
+        <v>-26.5</v>
       </c>
       <c r="D19">
-        <v>-11</v>
+        <v>-15.8</v>
       </c>
       <c r="E19">
-        <v>22.5</v>
+        <v>-36.3</v>
       </c>
       <c r="F19">
-        <v>142.3</v>
+        <v>0</v>
       </c>
       <c r="G19">
-        <v>46.7</v>
+        <v>-100</v>
       </c>
       <c r="H19">
-        <v>-1.73</v>
+        <v>-1.52</v>
       </c>
       <c r="I19">
-        <v>-0.05</v>
+        <v>-0.49</v>
       </c>
       <c r="J19">
-        <v>-0.73</v>
+        <v>-1.07</v>
       </c>
       <c r="K19">
-        <v>-1.34</v>
+        <v>-1.5</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1329,31 +1329,31 @@
         <v>31</v>
       </c>
       <c r="C20">
-        <v>-32.5</v>
+        <v>-34.7</v>
       </c>
       <c r="D20">
-        <v>-24.2</v>
+        <v>-31.6</v>
       </c>
       <c r="E20">
-        <v>20.3</v>
+        <v>-33.8</v>
       </c>
       <c r="F20">
-        <v>206.5</v>
+        <v>0</v>
       </c>
       <c r="G20">
-        <v>143.8</v>
+        <v>-100</v>
       </c>
       <c r="H20">
-        <v>-1.06</v>
+        <v>-0.65</v>
       </c>
       <c r="I20">
-        <v>-0.33</v>
+        <v>-0.45</v>
       </c>
       <c r="J20">
-        <v>-0.8</v>
+        <v>-1.15</v>
       </c>
       <c r="K20">
-        <v>-0.97</v>
+        <v>-0.88</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1364,36 +1364,33 @@
         <v>32</v>
       </c>
       <c r="C21">
-        <v>-15.9</v>
+        <v>-18.1</v>
       </c>
       <c r="D21">
-        <v>-2.3</v>
+        <v>-15.6</v>
       </c>
       <c r="E21">
-        <v>38.2</v>
+        <v>-35.7</v>
       </c>
       <c r="F21">
-        <v>123.1</v>
+        <v>4.3</v>
       </c>
       <c r="G21">
-        <v>11</v>
+        <v>-96.90000000000001</v>
       </c>
       <c r="H21">
-        <v>-0.59</v>
+        <v>-0.3</v>
       </c>
       <c r="I21">
-        <v>0.31</v>
+        <v>0.32</v>
       </c>
       <c r="J21">
-        <v>-0.68</v>
+        <v>-0.79</v>
       </c>
       <c r="K21">
-        <v>-1.58</v>
+        <v>-1.43</v>
       </c>
       <c r="L21">
-        <v>45.12</v>
-      </c>
-      <c r="M21">
         <v>330.35</v>
       </c>
     </row>
@@ -1405,31 +1402,31 @@
         <v>33</v>
       </c>
       <c r="C22">
-        <v>-24.9</v>
+        <v>-28.5</v>
       </c>
       <c r="D22">
-        <v>-9.300000000000001</v>
+        <v>-15.2</v>
       </c>
       <c r="E22">
-        <v>42.4</v>
+        <v>-25.5</v>
       </c>
       <c r="F22">
-        <v>199.3</v>
+        <v>0</v>
       </c>
       <c r="G22">
-        <v>99.59999999999999</v>
+        <v>-100</v>
       </c>
       <c r="H22">
-        <v>-1.11</v>
+        <v>-0.9</v>
       </c>
       <c r="I22">
-        <v>-0.52</v>
+        <v>-0.76</v>
       </c>
       <c r="J22">
-        <v>-1.35</v>
+        <v>-1.56</v>
       </c>
       <c r="K22">
-        <v>-2.31</v>
+        <v>-3.16</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1440,31 +1437,31 @@
         <v>34</v>
       </c>
       <c r="C23">
-        <v>-23.1</v>
+        <v>-25.2</v>
       </c>
       <c r="D23">
-        <v>-22.9</v>
+        <v>-27.2</v>
       </c>
       <c r="E23">
-        <v>-9.1</v>
+        <v>-39.8</v>
       </c>
       <c r="F23">
-        <v>136.6</v>
+        <v>0</v>
       </c>
       <c r="G23">
-        <v>41.9</v>
+        <v>-100</v>
       </c>
       <c r="H23">
-        <v>-0.52</v>
+        <v>-0.46</v>
       </c>
       <c r="I23">
-        <v>0.14</v>
+        <v>-0.61</v>
       </c>
       <c r="J23">
-        <v>-1.13</v>
+        <v>-1.2</v>
       </c>
       <c r="K23">
-        <v>-2.47</v>
+        <v>-0.88</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1475,31 +1472,31 @@
         <v>35</v>
       </c>
       <c r="C24">
-        <v>-26.4</v>
+        <v>-27.4</v>
       </c>
       <c r="D24">
-        <v>-26.5</v>
+        <v>-28.1</v>
       </c>
       <c r="E24">
-        <v>-8.199999999999999</v>
+        <v>-38</v>
       </c>
       <c r="F24">
-        <v>156.6</v>
+        <v>0</v>
       </c>
       <c r="G24">
-        <v>108.2</v>
+        <v>-100</v>
       </c>
       <c r="H24">
-        <v>-0.48</v>
+        <v>-0.25</v>
       </c>
       <c r="I24">
-        <v>0.13</v>
+        <v>-0.32</v>
       </c>
       <c r="J24">
-        <v>-0.7</v>
+        <v>-0.58</v>
       </c>
       <c r="K24">
-        <v>-0.91</v>
+        <v>-1.1</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1510,31 +1507,31 @@
         <v>36</v>
       </c>
       <c r="C25">
-        <v>-41.3</v>
+        <v>-47.5</v>
       </c>
       <c r="D25">
-        <v>-47.5</v>
+        <v>-52.1</v>
       </c>
       <c r="E25">
-        <v>-24.5</v>
+        <v>-60.9</v>
       </c>
       <c r="F25">
-        <v>130.1</v>
+        <v>0</v>
       </c>
       <c r="G25">
-        <v>53.1</v>
+        <v>-100</v>
       </c>
       <c r="H25">
-        <v>-1.11</v>
+        <v>-0.79</v>
       </c>
       <c r="I25">
-        <v>-0.87</v>
+        <v>-0.76</v>
       </c>
       <c r="J25">
-        <v>-2.33</v>
+        <v>-2.82</v>
       </c>
       <c r="K25">
-        <v>-1.55</v>
+        <v>-1.82</v>
       </c>
     </row>
     <row r="26" spans="1:14">
@@ -1545,31 +1542,31 @@
         <v>37</v>
       </c>
       <c r="C26">
-        <v>-25</v>
+        <v>-28.1</v>
       </c>
       <c r="D26">
-        <v>-21.5</v>
+        <v>-34.6</v>
       </c>
       <c r="E26">
-        <v>26</v>
+        <v>-43.5</v>
       </c>
       <c r="F26">
-        <v>138.1</v>
+        <v>0</v>
       </c>
       <c r="G26">
-        <v>122.6</v>
+        <v>-100</v>
       </c>
       <c r="H26">
-        <v>-1.42</v>
+        <v>-1</v>
       </c>
       <c r="I26">
-        <v>-0.58</v>
+        <v>-0.77</v>
       </c>
       <c r="J26">
-        <v>-1.4</v>
+        <v>-1.6</v>
       </c>
       <c r="K26">
-        <v>-1.56</v>
+        <v>-1.49</v>
       </c>
     </row>
     <row r="27" spans="1:14">
@@ -1580,31 +1577,31 @@
         <v>38</v>
       </c>
       <c r="C27">
-        <v>-50</v>
+        <v>-52.8</v>
       </c>
       <c r="D27">
-        <v>-46</v>
+        <v>-45.2</v>
       </c>
       <c r="E27">
-        <v>-10.6</v>
+        <v>-56.1</v>
       </c>
       <c r="F27">
-        <v>107</v>
+        <v>0</v>
       </c>
       <c r="G27">
-        <v>15.3</v>
+        <v>-100</v>
       </c>
       <c r="H27">
-        <v>-1.28</v>
+        <v>-0.83</v>
       </c>
       <c r="I27">
-        <v>-0.11</v>
+        <v>-0.42</v>
       </c>
       <c r="J27">
-        <v>-0.42</v>
+        <v>-1.22</v>
       </c>
       <c r="K27">
-        <v>-1.68</v>
+        <v>-1.71</v>
       </c>
     </row>
     <row r="28" spans="1:14">
@@ -1615,40 +1612,40 @@
         <v>39</v>
       </c>
       <c r="C28">
-        <v>-11.1</v>
+        <v>-14.3</v>
       </c>
       <c r="D28">
-        <v>-12.1</v>
+        <v>-16.5</v>
       </c>
       <c r="E28">
-        <v>8.6</v>
+        <v>-42.5</v>
       </c>
       <c r="F28">
-        <v>132.6</v>
+        <v>0</v>
       </c>
       <c r="G28">
-        <v>71.2</v>
+        <v>-100</v>
       </c>
       <c r="H28">
-        <v>-0.54</v>
+        <v>-0.38</v>
       </c>
       <c r="I28">
-        <v>0.18</v>
+        <v>-0.34</v>
       </c>
       <c r="J28">
-        <v>-0.55</v>
+        <v>-0.68</v>
       </c>
       <c r="K28">
-        <v>-0.8100000000000001</v>
+        <v>-0.9399999999999999</v>
       </c>
       <c r="L28">
-        <v>17.76</v>
+        <v>3.16</v>
       </c>
       <c r="M28">
-        <v>3.16</v>
+        <v>-25.39</v>
       </c>
       <c r="N28">
-        <v>-35.81</v>
+        <v>-42.92</v>
       </c>
     </row>
     <row r="29" spans="1:14">
@@ -1659,40 +1656,40 @@
         <v>40</v>
       </c>
       <c r="C29">
-        <v>-44.6</v>
+        <v>-51.2</v>
       </c>
       <c r="D29">
-        <v>-47.6</v>
+        <v>-50.2</v>
       </c>
       <c r="E29">
-        <v>-6.7</v>
+        <v>-57</v>
       </c>
       <c r="F29">
-        <v>90.90000000000001</v>
+        <v>1.4</v>
       </c>
       <c r="G29">
-        <v>-7.5</v>
+        <v>-99</v>
       </c>
       <c r="H29">
-        <v>-0.43</v>
+        <v>-0.12</v>
       </c>
       <c r="I29">
-        <v>-0.04</v>
+        <v>0.43</v>
       </c>
       <c r="J29">
-        <v>-0.67</v>
+        <v>-0.98</v>
       </c>
       <c r="K29">
-        <v>-0.87</v>
+        <v>-0.73</v>
       </c>
       <c r="L29">
-        <v>-31.74</v>
+        <v>-36.83</v>
       </c>
       <c r="M29">
-        <v>-36.83</v>
+        <v>13.78</v>
       </c>
       <c r="N29">
-        <v>10.17</v>
+        <v>-44.82</v>
       </c>
     </row>
     <row r="30" spans="1:14">
@@ -1703,40 +1700,40 @@
         <v>41</v>
       </c>
       <c r="C30">
-        <v>-4.2</v>
+        <v>-7.3</v>
       </c>
       <c r="D30">
-        <v>6.7</v>
+        <v>-3.4</v>
       </c>
       <c r="E30">
-        <v>52.1</v>
+        <v>-26.4</v>
       </c>
       <c r="F30">
-        <v>145.2</v>
+        <v>3.6</v>
       </c>
       <c r="G30">
-        <v>42.7</v>
+        <v>-97.2</v>
       </c>
       <c r="H30">
-        <v>-0.71</v>
+        <v>-0.44</v>
       </c>
       <c r="I30">
-        <v>0.23</v>
+        <v>-0.01</v>
       </c>
       <c r="J30">
-        <v>-0.57</v>
+        <v>-0.85</v>
       </c>
       <c r="K30">
-        <v>-1.15</v>
+        <v>-1.07</v>
       </c>
       <c r="L30">
-        <v>17.76</v>
+        <v>3.16</v>
       </c>
       <c r="M30">
-        <v>3.16</v>
+        <v>-25.39</v>
       </c>
       <c r="N30">
-        <v>-35.81</v>
+        <v>-42.92</v>
       </c>
     </row>
     <row r="31" spans="1:14">
@@ -1747,28 +1744,28 @@
         <v>42</v>
       </c>
       <c r="C31">
-        <v>-14.8</v>
+        <v>-17.7</v>
       </c>
       <c r="D31">
-        <v>-14.9</v>
+        <v>-17.3</v>
       </c>
       <c r="E31">
-        <v>1.1</v>
+        <v>-44.4</v>
       </c>
       <c r="F31">
-        <v>133.6</v>
+        <v>0</v>
       </c>
       <c r="G31">
-        <v>56.3</v>
+        <v>-100</v>
       </c>
       <c r="H31">
-        <v>-0.76</v>
+        <v>-0.49</v>
       </c>
       <c r="I31">
-        <v>0.18</v>
+        <v>-0.24</v>
       </c>
       <c r="J31">
-        <v>-0.48</v>
+        <v>-0.86</v>
       </c>
       <c r="K31">
         <v>-0.8</v>
@@ -1782,40 +1779,40 @@
         <v>43</v>
       </c>
       <c r="C32">
-        <v>-10.5</v>
+        <v>-13.8</v>
       </c>
       <c r="D32">
-        <v>-11.6</v>
+        <v>-15.4</v>
       </c>
       <c r="E32">
-        <v>6.2</v>
+        <v>-42.9</v>
       </c>
       <c r="F32">
-        <v>132.3</v>
+        <v>0</v>
       </c>
       <c r="G32">
-        <v>72</v>
+        <v>-100</v>
       </c>
       <c r="H32">
-        <v>-0.54</v>
+        <v>-0.37</v>
       </c>
       <c r="I32">
-        <v>0.17</v>
+        <v>-0.33</v>
       </c>
       <c r="J32">
-        <v>-0.57</v>
+        <v>-0.68</v>
       </c>
       <c r="K32">
-        <v>-0.82</v>
+        <v>-0.95</v>
       </c>
       <c r="L32">
-        <v>17.76</v>
+        <v>3.16</v>
       </c>
       <c r="M32">
-        <v>3.16</v>
+        <v>-25.39</v>
       </c>
       <c r="N32">
-        <v>-35.81</v>
+        <v>-42.92</v>
       </c>
     </row>
     <row r="33" spans="1:14">
@@ -1826,31 +1823,31 @@
         <v>44</v>
       </c>
       <c r="C33">
-        <v>-30.6</v>
+        <v>-31.2</v>
       </c>
       <c r="D33">
-        <v>-27.7</v>
+        <v>-33</v>
       </c>
       <c r="E33">
-        <v>-8.5</v>
+        <v>-55.5</v>
       </c>
       <c r="F33">
-        <v>96.8</v>
+        <v>0</v>
       </c>
       <c r="G33">
-        <v>12.1</v>
+        <v>-100</v>
       </c>
       <c r="H33">
-        <v>-0.51</v>
+        <v>-0.38</v>
       </c>
       <c r="I33">
-        <v>0.17</v>
+        <v>-0.61</v>
       </c>
       <c r="J33">
-        <v>-1.21</v>
+        <v>-1.32</v>
       </c>
       <c r="K33">
-        <v>-2.84</v>
+        <v>-0.82</v>
       </c>
     </row>
     <row r="34" spans="1:14">
@@ -1861,40 +1858,40 @@
         <v>45</v>
       </c>
       <c r="C34">
-        <v>-48</v>
+        <v>-55.7</v>
       </c>
       <c r="D34">
-        <v>-50.3</v>
+        <v>-52.7</v>
       </c>
       <c r="E34">
-        <v>-8.4</v>
+        <v>-57.2</v>
       </c>
       <c r="F34">
-        <v>91.59999999999999</v>
+        <v>0</v>
       </c>
       <c r="G34">
-        <v>32.4</v>
+        <v>-100</v>
       </c>
       <c r="H34">
-        <v>-0.49</v>
+        <v>-0.08</v>
       </c>
       <c r="I34">
-        <v>-0.93</v>
+        <v>-0.21</v>
       </c>
       <c r="J34">
-        <v>-1.44</v>
+        <v>-1.69</v>
       </c>
       <c r="K34">
-        <v>-1.47</v>
+        <v>-1.41</v>
       </c>
       <c r="L34">
-        <v>-32.98</v>
+        <v>-21.07</v>
       </c>
       <c r="M34">
-        <v>-21.07</v>
+        <v>23.68</v>
       </c>
       <c r="N34">
-        <v>22</v>
+        <v>-31.7</v>
       </c>
     </row>
     <row r="35" spans="1:14">
@@ -1905,31 +1902,31 @@
         <v>46</v>
       </c>
       <c r="C35">
-        <v>-52.1</v>
+        <v>-55.2</v>
       </c>
       <c r="D35">
-        <v>-47.3</v>
+        <v>-46.4</v>
       </c>
       <c r="E35">
-        <v>-12.1</v>
+        <v>-55.5</v>
       </c>
       <c r="F35">
-        <v>111.7</v>
+        <v>0</v>
       </c>
       <c r="G35">
-        <v>10.7</v>
+        <v>-100</v>
       </c>
       <c r="H35">
-        <v>-1.29</v>
+        <v>-0.7</v>
       </c>
       <c r="I35">
-        <v>-0.06</v>
+        <v>-0.2</v>
       </c>
       <c r="J35">
-        <v>-0.35</v>
+        <v>-1</v>
       </c>
       <c r="K35">
-        <v>-1.72</v>
+        <v>-1.75</v>
       </c>
     </row>
     <row r="36" spans="1:14">
@@ -1940,40 +1937,40 @@
         <v>47</v>
       </c>
       <c r="C36">
-        <v>-57.5</v>
+        <v>-64</v>
       </c>
       <c r="D36">
-        <v>-56.6</v>
+        <v>-60.8</v>
       </c>
       <c r="E36">
-        <v>-18.5</v>
+        <v>-68.90000000000001</v>
       </c>
       <c r="F36">
-        <v>71.3</v>
+        <v>0.5</v>
       </c>
       <c r="G36">
-        <v>-31.5</v>
+        <v>-99.59999999999999</v>
       </c>
       <c r="H36">
-        <v>-0.43</v>
+        <v>0.02</v>
       </c>
       <c r="I36">
-        <v>-0.93</v>
+        <v>-0.18</v>
       </c>
       <c r="J36">
-        <v>-1.4</v>
+        <v>-1.65</v>
       </c>
       <c r="K36">
-        <v>-1.3</v>
+        <v>-1.24</v>
       </c>
       <c r="L36">
-        <v>-58.79</v>
+        <v>-78.22</v>
       </c>
       <c r="M36">
-        <v>-78.22</v>
+        <v>-30.35</v>
       </c>
       <c r="N36">
-        <v>-37.54</v>
+        <v>-70.63</v>
       </c>
     </row>
     <row r="37" spans="1:14">
@@ -1984,40 +1981,40 @@
         <v>48</v>
       </c>
       <c r="C37">
-        <v>-8.300000000000001</v>
+        <v>-11.5</v>
       </c>
       <c r="D37">
-        <v>-4.9</v>
+        <v>-11.6</v>
       </c>
       <c r="E37">
-        <v>30.7</v>
+        <v>-38.2</v>
       </c>
       <c r="F37">
-        <v>130.7</v>
+        <v>0</v>
       </c>
       <c r="G37">
-        <v>42.3</v>
+        <v>-100</v>
       </c>
       <c r="H37">
-        <v>-0.64</v>
+        <v>-0.46</v>
       </c>
       <c r="I37">
-        <v>0.2</v>
+        <v>-0.27</v>
       </c>
       <c r="J37">
-        <v>-0.5</v>
+        <v>-0.79</v>
       </c>
       <c r="K37">
-        <v>-0.86</v>
+        <v>-0.89</v>
       </c>
       <c r="L37">
-        <v>17.76</v>
+        <v>3.16</v>
       </c>
       <c r="M37">
-        <v>3.16</v>
+        <v>-25.39</v>
       </c>
       <c r="N37">
-        <v>-35.81</v>
+        <v>-42.92</v>
       </c>
     </row>
     <row r="38" spans="1:14">
@@ -2028,40 +2025,40 @@
         <v>49</v>
       </c>
       <c r="C38">
-        <v>-38.3</v>
+        <v>-44</v>
       </c>
       <c r="D38">
-        <v>-43.2</v>
+        <v>-46.4</v>
       </c>
       <c r="E38">
-        <v>-8.699999999999999</v>
+        <v>-52.4</v>
       </c>
       <c r="F38">
-        <v>129.8</v>
+        <v>0</v>
       </c>
       <c r="G38">
-        <v>64.40000000000001</v>
+        <v>-100</v>
       </c>
       <c r="H38">
-        <v>-1.02</v>
+        <v>-0.68</v>
       </c>
       <c r="I38">
-        <v>-1.05</v>
+        <v>-0.68</v>
       </c>
       <c r="J38">
-        <v>-2.25</v>
+        <v>-2.77</v>
       </c>
       <c r="K38">
-        <v>-2.67</v>
+        <v>-2.65</v>
       </c>
       <c r="L38">
-        <v>-59.27</v>
+        <v>-38.28</v>
       </c>
       <c r="M38">
-        <v>-38.28</v>
+        <v>-3.15</v>
       </c>
       <c r="N38">
-        <v>0.09</v>
+        <v>-17.86</v>
       </c>
     </row>
     <row r="39" spans="1:14">
@@ -2072,40 +2069,40 @@
         <v>50</v>
       </c>
       <c r="C39">
-        <v>-2.6</v>
+        <v>-5.4</v>
       </c>
       <c r="D39">
-        <v>10.6</v>
+        <v>-0.3</v>
       </c>
       <c r="E39">
-        <v>56.7</v>
+        <v>-23.7</v>
       </c>
       <c r="F39">
-        <v>146.6</v>
+        <v>4.4</v>
       </c>
       <c r="G39">
-        <v>37</v>
+        <v>-96.59999999999999</v>
       </c>
       <c r="H39">
-        <v>-0.6899999999999999</v>
+        <v>-0.43</v>
       </c>
       <c r="I39">
-        <v>0.24</v>
+        <v>0.04</v>
       </c>
       <c r="J39">
-        <v>-0.59</v>
+        <v>-0.85</v>
       </c>
       <c r="K39">
-        <v>-1.23</v>
+        <v>-1.13</v>
       </c>
       <c r="L39">
-        <v>17.76</v>
+        <v>3.16</v>
       </c>
       <c r="M39">
-        <v>3.16</v>
+        <v>-25.39</v>
       </c>
       <c r="N39">
-        <v>-35.81</v>
+        <v>-42.92</v>
       </c>
     </row>
     <row r="40" spans="1:14">
@@ -2116,40 +2113,40 @@
         <v>51</v>
       </c>
       <c r="C40">
-        <v>-10.5</v>
+        <v>-13.6</v>
       </c>
       <c r="D40">
-        <v>-11.1</v>
+        <v>-15.7</v>
       </c>
       <c r="E40">
-        <v>18.7</v>
+        <v>-41.3</v>
       </c>
       <c r="F40">
-        <v>129.5</v>
+        <v>0</v>
       </c>
       <c r="G40">
-        <v>51.5</v>
+        <v>-100</v>
       </c>
       <c r="H40">
-        <v>-0.63</v>
+        <v>-0.44</v>
       </c>
       <c r="I40">
-        <v>0.19</v>
+        <v>-0.29</v>
       </c>
       <c r="J40">
-        <v>-0.51</v>
+        <v>-0.77</v>
       </c>
       <c r="K40">
-        <v>-0.83</v>
+        <v>-0.89</v>
       </c>
       <c r="L40">
-        <v>17.76</v>
+        <v>3.16</v>
       </c>
       <c r="M40">
-        <v>3.16</v>
+        <v>-25.39</v>
       </c>
       <c r="N40">
-        <v>-35.81</v>
+        <v>-42.92</v>
       </c>
     </row>
     <row r="41" spans="1:14">
@@ -2160,40 +2157,40 @@
         <v>52</v>
       </c>
       <c r="C41">
-        <v>-46.5</v>
+        <v>-52.9</v>
       </c>
       <c r="D41">
-        <v>-46</v>
+        <v>-52</v>
       </c>
       <c r="E41">
-        <v>-10.9</v>
+        <v>-56.2</v>
       </c>
       <c r="F41">
-        <v>102.2</v>
+        <v>0.2</v>
       </c>
       <c r="G41">
-        <v>26.9</v>
+        <v>-99.90000000000001</v>
       </c>
       <c r="H41">
-        <v>-0.66</v>
+        <v>-0.3</v>
       </c>
       <c r="I41">
-        <v>-0.95</v>
+        <v>-0.19</v>
       </c>
       <c r="J41">
-        <v>-1.46</v>
+        <v>-1.68</v>
       </c>
       <c r="K41">
-        <v>-1.93</v>
+        <v>-1.86</v>
       </c>
       <c r="L41">
-        <v>-32.98</v>
+        <v>-21.07</v>
       </c>
       <c r="M41">
-        <v>-21.07</v>
+        <v>23.68</v>
       </c>
       <c r="N41">
-        <v>22</v>
+        <v>-31.7</v>
       </c>
     </row>
     <row r="42" spans="1:14">
@@ -2204,40 +2201,40 @@
         <v>53</v>
       </c>
       <c r="C42">
-        <v>-23.5</v>
+        <v>-27.9</v>
       </c>
       <c r="D42">
-        <v>-28.7</v>
+        <v>-32.5</v>
       </c>
       <c r="E42">
-        <v>-16.7</v>
+        <v>-41</v>
       </c>
       <c r="F42">
-        <v>156.6</v>
+        <v>0</v>
       </c>
       <c r="G42">
-        <v>60.6</v>
+        <v>-100</v>
       </c>
       <c r="H42">
-        <v>-0.91</v>
+        <v>-0.87</v>
       </c>
       <c r="I42">
-        <v>-0.48</v>
+        <v>-1.44</v>
       </c>
       <c r="J42">
-        <v>-1.65</v>
+        <v>-2.06</v>
       </c>
       <c r="K42">
-        <v>-1.62</v>
+        <v>-1.64</v>
       </c>
       <c r="L42">
-        <v>-18.17</v>
+        <v>-13.2</v>
       </c>
       <c r="M42">
-        <v>-13.2</v>
+        <v>-9.390000000000001</v>
       </c>
       <c r="N42">
-        <v>-9.300000000000001</v>
+        <v>-6.54</v>
       </c>
     </row>
   </sheetData>

--- a/Sistema-Operacional/Saidas/Monitoramento - Mananciais Críticos.xlsx
+++ b/Sistema-Operacional/Saidas/Monitoramento - Mananciais Críticos.xlsx
@@ -28,10 +28,10 @@
     <t>AN_TRI_202009</t>
   </si>
   <si>
-    <t>AC_20200908</t>
-  </si>
-  <si>
-    <t>AN_20200908</t>
+    <t>AC_20200915</t>
+  </si>
+  <si>
+    <t>AN_20200915</t>
   </si>
   <si>
     <t>SPI1_202008</t>
@@ -52,7 +52,7 @@
     <t>AN_COTA_202008</t>
   </si>
   <si>
-    <t>AN_COTA_20200908</t>
+    <t>AN_COTA_20200915</t>
   </si>
   <si>
     <t>SIA</t>
@@ -606,16 +606,16 @@
         <v>-100</v>
       </c>
       <c r="H2">
-        <v>-0.88</v>
+        <v>1.39</v>
       </c>
       <c r="I2">
-        <v>-0.74</v>
+        <v>0.76</v>
       </c>
       <c r="J2">
-        <v>-1.28</v>
+        <v>-0.37</v>
       </c>
       <c r="K2">
-        <v>-1.17</v>
+        <v>-0.63</v>
       </c>
       <c r="L2">
         <v>-10.64</v>
@@ -624,7 +624,7 @@
         <v>-2.49</v>
       </c>
       <c r="N2">
-        <v>-6.37</v>
+        <v>-5.9</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -650,16 +650,16 @@
         <v>-100</v>
       </c>
       <c r="H3">
-        <v>-0.85</v>
+        <v>1.29</v>
       </c>
       <c r="I3">
-        <v>-0.41</v>
+        <v>0.74</v>
       </c>
       <c r="J3">
-        <v>-2.29</v>
+        <v>-0.9399999999999999</v>
       </c>
       <c r="K3">
-        <v>-1.91</v>
+        <v>-1.23</v>
       </c>
       <c r="L3">
         <v>-50.72</v>
@@ -668,7 +668,7 @@
         <v>8.51</v>
       </c>
       <c r="N3">
-        <v>-45.88</v>
+        <v>-51.64</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -694,16 +694,16 @@
         <v>-100</v>
       </c>
       <c r="H4">
-        <v>-0.79</v>
+        <v>1.34</v>
       </c>
       <c r="I4">
-        <v>-0.63</v>
+        <v>0.71</v>
       </c>
       <c r="J4">
-        <v>-1.28</v>
+        <v>-0.42</v>
       </c>
       <c r="K4">
-        <v>-1.17</v>
+        <v>-0.64</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -717,28 +717,28 @@
         <v>-9.199999999999999</v>
       </c>
       <c r="D5">
-        <v>-6.9</v>
+        <v>-6.8</v>
       </c>
       <c r="E5">
         <v>-36.6</v>
       </c>
       <c r="F5">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="G5">
-        <v>-100</v>
+        <v>-99.8</v>
       </c>
       <c r="H5">
-        <v>-0.55</v>
+        <v>0.65</v>
       </c>
       <c r="I5">
-        <v>-0.41</v>
+        <v>0.16</v>
       </c>
       <c r="J5">
-        <v>-0.74</v>
+        <v>-0.29</v>
       </c>
       <c r="K5">
-        <v>-0.71</v>
+        <v>-0.48</v>
       </c>
       <c r="L5">
         <v>3.16</v>
@@ -747,7 +747,7 @@
         <v>-25.39</v>
       </c>
       <c r="N5">
-        <v>-42.92</v>
+        <v>-44.68</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -773,16 +773,16 @@
         <v>-100</v>
       </c>
       <c r="H6">
-        <v>-0.87</v>
+        <v>0.9</v>
       </c>
       <c r="I6">
-        <v>-1.44</v>
+        <v>-0.36</v>
       </c>
       <c r="J6">
-        <v>-2.06</v>
+        <v>-1.21</v>
       </c>
       <c r="K6">
-        <v>-1.63</v>
+        <v>-1.28</v>
       </c>
       <c r="L6">
         <v>-13.2</v>
@@ -791,7 +791,7 @@
         <v>-9.390000000000001</v>
       </c>
       <c r="N6">
-        <v>-6.54</v>
+        <v>-6.58</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -817,16 +817,16 @@
         <v>-100</v>
       </c>
       <c r="H7">
-        <v>-0.33</v>
+        <v>1.14</v>
       </c>
       <c r="I7">
-        <v>-0.59</v>
+        <v>0.32</v>
       </c>
       <c r="J7">
-        <v>-0.78</v>
+        <v>-0.15</v>
       </c>
       <c r="K7">
-        <v>-0.48</v>
+        <v>-0.19</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -852,25 +852,25 @@
         <v>-100</v>
       </c>
       <c r="H8">
-        <v>-1.12</v>
+        <v>1.68</v>
       </c>
       <c r="I8">
-        <v>-0.42</v>
+        <v>0.95</v>
       </c>
       <c r="J8">
-        <v>-1.98</v>
+        <v>-0.54</v>
       </c>
       <c r="K8">
-        <v>-1.77</v>
+        <v>-1.27</v>
       </c>
       <c r="L8">
         <v>-0.99</v>
       </c>
       <c r="M8">
-        <v>-7.33</v>
+        <v>-8.06</v>
       </c>
       <c r="N8">
-        <v>-6.71</v>
+        <v>-6.31</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -896,16 +896,16 @@
         <v>-100</v>
       </c>
       <c r="H9">
-        <v>-0.45</v>
+        <v>0.96</v>
       </c>
       <c r="I9">
-        <v>-0.39</v>
+        <v>0.38</v>
       </c>
       <c r="J9">
-        <v>-0.86</v>
+        <v>-0.25</v>
       </c>
       <c r="K9">
-        <v>-0.55</v>
+        <v>-0.25</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -925,22 +925,22 @@
         <v>-56.3</v>
       </c>
       <c r="F10">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="G10">
         <v>-100</v>
       </c>
       <c r="H10">
-        <v>-0.7</v>
+        <v>0.93</v>
       </c>
       <c r="I10">
-        <v>-0.7</v>
+        <v>0.22</v>
       </c>
       <c r="J10">
-        <v>-2.83</v>
+        <v>-1.8</v>
       </c>
       <c r="K10">
-        <v>-2.69</v>
+        <v>-2.13</v>
       </c>
       <c r="L10">
         <v>-38.28</v>
@@ -949,7 +949,7 @@
         <v>-3.15</v>
       </c>
       <c r="N10">
-        <v>-17.86</v>
+        <v>-20.78</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -960,31 +960,31 @@
         <v>23</v>
       </c>
       <c r="C11">
-        <v>-49.7</v>
+        <v>-49.6</v>
       </c>
       <c r="D11">
-        <v>-50.1</v>
+        <v>-49.9</v>
       </c>
       <c r="E11">
-        <v>-55.5</v>
+        <v>-55.2</v>
       </c>
       <c r="F11">
-        <v>1.9</v>
+        <v>3</v>
       </c>
       <c r="G11">
-        <v>-98.59999999999999</v>
+        <v>-97.7</v>
       </c>
       <c r="H11">
-        <v>-0.3</v>
+        <v>1.04</v>
       </c>
       <c r="I11">
-        <v>-0.27</v>
+        <v>0.51</v>
       </c>
       <c r="J11">
-        <v>-1.8</v>
+        <v>-1.19</v>
       </c>
       <c r="K11">
-        <v>-1.85</v>
+        <v>-1.5</v>
       </c>
       <c r="L11">
         <v>-30.45</v>
@@ -993,7 +993,7 @@
         <v>20.08</v>
       </c>
       <c r="N11">
-        <v>-5.85</v>
+        <v>-15.12</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -1004,31 +1004,31 @@
         <v>24</v>
       </c>
       <c r="C12">
-        <v>-49.7</v>
+        <v>-49.6</v>
       </c>
       <c r="D12">
-        <v>-50.3</v>
+        <v>-50.1</v>
       </c>
       <c r="E12">
-        <v>-55.7</v>
+        <v>-55.2</v>
       </c>
       <c r="F12">
-        <v>2.7</v>
+        <v>4.4</v>
       </c>
       <c r="G12">
-        <v>-98.09999999999999</v>
+        <v>-96.8</v>
       </c>
       <c r="H12">
-        <v>-0.26</v>
+        <v>1.08</v>
       </c>
       <c r="I12">
-        <v>-0.25</v>
+        <v>0.57</v>
       </c>
       <c r="J12">
-        <v>-1.73</v>
+        <v>-1.11</v>
       </c>
       <c r="K12">
-        <v>-1.77</v>
+        <v>-1.42</v>
       </c>
       <c r="L12">
         <v>-30.45</v>
@@ -1037,7 +1037,7 @@
         <v>20.08</v>
       </c>
       <c r="N12">
-        <v>-5.85</v>
+        <v>-15.12</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -1063,16 +1063,16 @@
         <v>-100</v>
       </c>
       <c r="H13">
-        <v>-0.61</v>
+        <v>0.74</v>
       </c>
       <c r="I13">
-        <v>-0.21</v>
+        <v>0.42</v>
       </c>
       <c r="J13">
-        <v>-1</v>
+        <v>-0.39</v>
       </c>
       <c r="K13">
-        <v>-0.63</v>
+        <v>-0.31</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -1098,16 +1098,16 @@
         <v>-100</v>
       </c>
       <c r="H14">
-        <v>-0.08</v>
+        <v>0.73</v>
       </c>
       <c r="I14">
-        <v>-0.22</v>
+        <v>0.16</v>
       </c>
       <c r="J14">
-        <v>-1.72</v>
+        <v>-1.36</v>
       </c>
       <c r="K14">
-        <v>-1.41</v>
+        <v>-1.22</v>
       </c>
       <c r="L14">
         <v>-21.07</v>
@@ -1116,7 +1116,7 @@
         <v>23.68</v>
       </c>
       <c r="N14">
-        <v>-31.7</v>
+        <v>-35.96</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -1142,16 +1142,16 @@
         <v>-99.59999999999999</v>
       </c>
       <c r="H15">
-        <v>-0.39</v>
+        <v>0.5</v>
       </c>
       <c r="I15">
-        <v>0.12</v>
+        <v>0.53</v>
       </c>
       <c r="J15">
-        <v>-0.8100000000000001</v>
+        <v>-0.45</v>
       </c>
       <c r="K15">
-        <v>-1.2</v>
+        <v>-0.95</v>
       </c>
       <c r="L15">
         <v>-4.67</v>
@@ -1160,7 +1160,7 @@
         <v>1.32</v>
       </c>
       <c r="N15">
-        <v>-19.06</v>
+        <v>-22.12</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -1171,31 +1171,31 @@
         <v>27</v>
       </c>
       <c r="C16">
-        <v>-17.4</v>
+        <v>-17.3</v>
       </c>
       <c r="D16">
-        <v>-14.2</v>
+        <v>-14.1</v>
       </c>
       <c r="E16">
-        <v>-34.7</v>
+        <v>-34.5</v>
       </c>
       <c r="F16">
-        <v>3.2</v>
+        <v>4</v>
       </c>
       <c r="G16">
-        <v>-97.7</v>
+        <v>-97.2</v>
       </c>
       <c r="H16">
-        <v>-0.39</v>
+        <v>0.64</v>
       </c>
       <c r="I16">
-        <v>0.16</v>
+        <v>0.64</v>
       </c>
       <c r="J16">
-        <v>-0.84</v>
+        <v>-0.41</v>
       </c>
       <c r="K16">
-        <v>-1.22</v>
+        <v>-0.95</v>
       </c>
       <c r="L16">
         <v>4.66</v>
@@ -1204,7 +1204,7 @@
         <v>7.01</v>
       </c>
       <c r="N16">
-        <v>-2.37</v>
+        <v>-4.98</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1230,16 +1230,16 @@
         <v>-100</v>
       </c>
       <c r="H17">
-        <v>-0.76</v>
+        <v>1.81</v>
       </c>
       <c r="I17">
-        <v>-0.07000000000000001</v>
+        <v>1.29</v>
       </c>
       <c r="J17">
-        <v>-0.91</v>
+        <v>0.26</v>
       </c>
       <c r="K17">
-        <v>-1.33</v>
+        <v>-0.59</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1265,16 +1265,16 @@
         <v>-100</v>
       </c>
       <c r="H18">
-        <v>-0.88</v>
+        <v>1.39</v>
       </c>
       <c r="I18">
-        <v>-0.73</v>
+        <v>0.76</v>
       </c>
       <c r="J18">
-        <v>-1.27</v>
+        <v>-0.37</v>
       </c>
       <c r="K18">
-        <v>-1.16</v>
+        <v>-0.62</v>
       </c>
       <c r="L18">
         <v>-10.64</v>
@@ -1283,7 +1283,7 @@
         <v>-2.49</v>
       </c>
       <c r="N18">
-        <v>-6.37</v>
+        <v>-5.9</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1309,16 +1309,16 @@
         <v>-100</v>
       </c>
       <c r="H19">
-        <v>-1.52</v>
+        <v>0.55</v>
       </c>
       <c r="I19">
-        <v>-0.49</v>
+        <v>0.19</v>
       </c>
       <c r="J19">
-        <v>-1.07</v>
+        <v>-0.53</v>
       </c>
       <c r="K19">
-        <v>-1.5</v>
+        <v>-1.06</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1344,16 +1344,16 @@
         <v>-100</v>
       </c>
       <c r="H20">
-        <v>-0.65</v>
+        <v>1.15</v>
       </c>
       <c r="I20">
-        <v>-0.45</v>
+        <v>0.63</v>
       </c>
       <c r="J20">
-        <v>-1.15</v>
+        <v>-0.46</v>
       </c>
       <c r="K20">
-        <v>-0.88</v>
+        <v>-0.44</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1373,22 +1373,22 @@
         <v>-35.7</v>
       </c>
       <c r="F21">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="G21">
-        <v>-96.90000000000001</v>
+        <v>-96.8</v>
       </c>
       <c r="H21">
-        <v>-0.3</v>
+        <v>0.58</v>
       </c>
       <c r="I21">
-        <v>0.32</v>
+        <v>0.74</v>
       </c>
       <c r="J21">
-        <v>-0.79</v>
+        <v>-0.42</v>
       </c>
       <c r="K21">
-        <v>-1.43</v>
+        <v>-1.18</v>
       </c>
       <c r="L21">
         <v>330.35</v>
@@ -1417,16 +1417,16 @@
         <v>-100</v>
       </c>
       <c r="H22">
-        <v>-0.9</v>
+        <v>1.26</v>
       </c>
       <c r="I22">
-        <v>-0.76</v>
+        <v>0.49</v>
       </c>
       <c r="J22">
-        <v>-1.56</v>
+        <v>-0.54</v>
       </c>
       <c r="K22">
-        <v>-3.16</v>
+        <v>-1.98</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1437,31 +1437,31 @@
         <v>34</v>
       </c>
       <c r="C23">
-        <v>-25.2</v>
+        <v>-25</v>
       </c>
       <c r="D23">
-        <v>-27.2</v>
+        <v>-26.9</v>
       </c>
       <c r="E23">
-        <v>-39.8</v>
+        <v>-38.9</v>
       </c>
       <c r="F23">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="G23">
-        <v>-100</v>
+        <v>-97.7</v>
       </c>
       <c r="H23">
-        <v>-0.46</v>
+        <v>0.73</v>
       </c>
       <c r="I23">
-        <v>-0.61</v>
+        <v>0.18</v>
       </c>
       <c r="J23">
-        <v>-1.2</v>
+        <v>-0.53</v>
       </c>
       <c r="K23">
-        <v>-0.88</v>
+        <v>-1.98</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1487,16 +1487,16 @@
         <v>-100</v>
       </c>
       <c r="H24">
-        <v>-0.25</v>
+        <v>1.24</v>
       </c>
       <c r="I24">
-        <v>-0.32</v>
+        <v>0.42</v>
       </c>
       <c r="J24">
-        <v>-0.58</v>
+        <v>-0.14</v>
       </c>
       <c r="K24">
-        <v>-1.1</v>
+        <v>-0.74</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1522,16 +1522,16 @@
         <v>-100</v>
       </c>
       <c r="H25">
-        <v>-0.79</v>
+        <v>1.54</v>
       </c>
       <c r="I25">
-        <v>-0.76</v>
+        <v>0.64</v>
       </c>
       <c r="J25">
-        <v>-2.82</v>
+        <v>-1.08</v>
       </c>
       <c r="K25">
-        <v>-1.82</v>
+        <v>-1.07</v>
       </c>
     </row>
     <row r="26" spans="1:14">
@@ -1557,16 +1557,16 @@
         <v>-100</v>
       </c>
       <c r="H26">
-        <v>-1</v>
+        <v>1.31</v>
       </c>
       <c r="I26">
-        <v>-0.77</v>
+        <v>1.01</v>
       </c>
       <c r="J26">
-        <v>-1.6</v>
+        <v>-0.43</v>
       </c>
       <c r="K26">
-        <v>-1.49</v>
+        <v>-0.84</v>
       </c>
     </row>
     <row r="27" spans="1:14">
@@ -1592,16 +1592,16 @@
         <v>-100</v>
       </c>
       <c r="H27">
-        <v>-0.83</v>
+        <v>1.38</v>
       </c>
       <c r="I27">
-        <v>-0.42</v>
+        <v>0.95</v>
       </c>
       <c r="J27">
-        <v>-1.22</v>
+        <v>-0.15</v>
       </c>
       <c r="K27">
-        <v>-1.71</v>
+        <v>-1.06</v>
       </c>
     </row>
     <row r="28" spans="1:14">
@@ -1627,16 +1627,16 @@
         <v>-100</v>
       </c>
       <c r="H28">
-        <v>-0.38</v>
+        <v>1</v>
       </c>
       <c r="I28">
-        <v>-0.34</v>
+        <v>0.34</v>
       </c>
       <c r="J28">
-        <v>-0.68</v>
+        <v>-0.22</v>
       </c>
       <c r="K28">
-        <v>-0.9399999999999999</v>
+        <v>-0.64</v>
       </c>
       <c r="L28">
         <v>3.16</v>
@@ -1645,7 +1645,7 @@
         <v>-25.39</v>
       </c>
       <c r="N28">
-        <v>-42.92</v>
+        <v>-44.68</v>
       </c>
     </row>
     <row r="29" spans="1:14">
@@ -1656,31 +1656,31 @@
         <v>40</v>
       </c>
       <c r="C29">
-        <v>-51.2</v>
+        <v>-51.1</v>
       </c>
       <c r="D29">
-        <v>-50.2</v>
+        <v>-50.1</v>
       </c>
       <c r="E29">
-        <v>-57</v>
+        <v>-56.7</v>
       </c>
       <c r="F29">
-        <v>1.4</v>
+        <v>2.4</v>
       </c>
       <c r="G29">
-        <v>-99</v>
+        <v>-98.2</v>
       </c>
       <c r="H29">
-        <v>-0.12</v>
+        <v>0.72</v>
       </c>
       <c r="I29">
-        <v>0.43</v>
+        <v>0.8</v>
       </c>
       <c r="J29">
-        <v>-0.98</v>
+        <v>-0.65</v>
       </c>
       <c r="K29">
-        <v>-0.73</v>
+        <v>-0.53</v>
       </c>
       <c r="L29">
         <v>-36.83</v>
@@ -1689,7 +1689,7 @@
         <v>13.78</v>
       </c>
       <c r="N29">
-        <v>-44.82</v>
+        <v>-50.77</v>
       </c>
     </row>
     <row r="30" spans="1:14">
@@ -1700,31 +1700,31 @@
         <v>41</v>
       </c>
       <c r="C30">
-        <v>-7.3</v>
+        <v>-7.2</v>
       </c>
       <c r="D30">
-        <v>-3.4</v>
+        <v>-3.3</v>
       </c>
       <c r="E30">
-        <v>-26.4</v>
+        <v>-26.1</v>
       </c>
       <c r="F30">
-        <v>3.6</v>
+        <v>4.4</v>
       </c>
       <c r="G30">
-        <v>-97.2</v>
+        <v>-96.59999999999999</v>
       </c>
       <c r="H30">
-        <v>-0.44</v>
+        <v>0.7</v>
       </c>
       <c r="I30">
-        <v>-0.01</v>
+        <v>0.53</v>
       </c>
       <c r="J30">
-        <v>-0.85</v>
+        <v>-0.38</v>
       </c>
       <c r="K30">
-        <v>-1.07</v>
+        <v>-0.8</v>
       </c>
       <c r="L30">
         <v>3.16</v>
@@ -1733,7 +1733,7 @@
         <v>-25.39</v>
       </c>
       <c r="N30">
-        <v>-42.92</v>
+        <v>-44.68</v>
       </c>
     </row>
     <row r="31" spans="1:14">
@@ -1759,16 +1759,16 @@
         <v>-100</v>
       </c>
       <c r="H31">
+        <v>0.87</v>
+      </c>
+      <c r="I31">
+        <v>0.42</v>
+      </c>
+      <c r="J31">
+        <v>-0.32</v>
+      </c>
+      <c r="K31">
         <v>-0.49</v>
-      </c>
-      <c r="I31">
-        <v>-0.24</v>
-      </c>
-      <c r="J31">
-        <v>-0.86</v>
-      </c>
-      <c r="K31">
-        <v>-0.8</v>
       </c>
     </row>
     <row r="32" spans="1:14">
@@ -1794,16 +1794,16 @@
         <v>-100</v>
       </c>
       <c r="H32">
-        <v>-0.37</v>
+        <v>1.03</v>
       </c>
       <c r="I32">
-        <v>-0.33</v>
+        <v>0.36</v>
       </c>
       <c r="J32">
-        <v>-0.68</v>
+        <v>-0.21</v>
       </c>
       <c r="K32">
-        <v>-0.95</v>
+        <v>-0.64</v>
       </c>
       <c r="L32">
         <v>3.16</v>
@@ -1812,7 +1812,7 @@
         <v>-25.39</v>
       </c>
       <c r="N32">
-        <v>-42.92</v>
+        <v>-44.68</v>
       </c>
     </row>
     <row r="33" spans="1:14">
@@ -1838,16 +1838,16 @@
         <v>-100</v>
       </c>
       <c r="H33">
-        <v>-0.38</v>
+        <v>0.72</v>
       </c>
       <c r="I33">
-        <v>-0.61</v>
+        <v>0.21</v>
       </c>
       <c r="J33">
-        <v>-1.32</v>
+        <v>-0.52</v>
       </c>
       <c r="K33">
-        <v>-0.82</v>
+        <v>-2.3</v>
       </c>
     </row>
     <row r="34" spans="1:14">
@@ -1873,16 +1873,16 @@
         <v>-100</v>
       </c>
       <c r="H34">
-        <v>-0.08</v>
+        <v>0.73</v>
       </c>
       <c r="I34">
-        <v>-0.21</v>
+        <v>0.16</v>
       </c>
       <c r="J34">
-        <v>-1.69</v>
+        <v>-1.35</v>
       </c>
       <c r="K34">
-        <v>-1.41</v>
+        <v>-1.23</v>
       </c>
       <c r="L34">
         <v>-21.07</v>
@@ -1891,7 +1891,7 @@
         <v>23.68</v>
       </c>
       <c r="N34">
-        <v>-31.7</v>
+        <v>-35.96</v>
       </c>
     </row>
     <row r="35" spans="1:14">
@@ -1917,16 +1917,16 @@
         <v>-100</v>
       </c>
       <c r="H35">
-        <v>-0.7</v>
+        <v>1.51</v>
       </c>
       <c r="I35">
-        <v>-0.2</v>
+        <v>1.16</v>
       </c>
       <c r="J35">
-        <v>-1</v>
+        <v>0.08</v>
       </c>
       <c r="K35">
-        <v>-1.75</v>
+        <v>-1.1</v>
       </c>
     </row>
     <row r="36" spans="1:14">
@@ -1952,16 +1952,16 @@
         <v>-99.59999999999999</v>
       </c>
       <c r="H36">
-        <v>0.02</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="I36">
-        <v>-0.18</v>
+        <v>0.11</v>
       </c>
       <c r="J36">
-        <v>-1.65</v>
+        <v>-1.35</v>
       </c>
       <c r="K36">
-        <v>-1.24</v>
+        <v>-1.1</v>
       </c>
       <c r="L36">
         <v>-78.22</v>
@@ -1970,7 +1970,7 @@
         <v>-30.35</v>
       </c>
       <c r="N36">
-        <v>-70.63</v>
+        <v>-75.06999999999999</v>
       </c>
     </row>
     <row r="37" spans="1:14">
@@ -1996,16 +1996,16 @@
         <v>-100</v>
       </c>
       <c r="H37">
-        <v>-0.46</v>
+        <v>0.84</v>
       </c>
       <c r="I37">
-        <v>-0.27</v>
+        <v>0.36</v>
       </c>
       <c r="J37">
-        <v>-0.79</v>
+        <v>-0.3</v>
       </c>
       <c r="K37">
-        <v>-0.89</v>
+        <v>-0.61</v>
       </c>
       <c r="L37">
         <v>3.16</v>
@@ -2014,7 +2014,7 @@
         <v>-25.39</v>
       </c>
       <c r="N37">
-        <v>-42.92</v>
+        <v>-44.68</v>
       </c>
     </row>
     <row r="38" spans="1:14">
@@ -2040,16 +2040,16 @@
         <v>-100</v>
       </c>
       <c r="H38">
-        <v>-0.68</v>
+        <v>0.96</v>
       </c>
       <c r="I38">
-        <v>-0.68</v>
+        <v>0.25</v>
       </c>
       <c r="J38">
-        <v>-2.77</v>
+        <v>-1.75</v>
       </c>
       <c r="K38">
-        <v>-2.65</v>
+        <v>-2.1</v>
       </c>
       <c r="L38">
         <v>-38.28</v>
@@ -2058,7 +2058,7 @@
         <v>-3.15</v>
       </c>
       <c r="N38">
-        <v>-17.86</v>
+        <v>-20.78</v>
       </c>
     </row>
     <row r="39" spans="1:14">
@@ -2072,28 +2072,28 @@
         <v>-5.4</v>
       </c>
       <c r="D39">
-        <v>-0.3</v>
+        <v>-0.1</v>
       </c>
       <c r="E39">
-        <v>-23.7</v>
+        <v>-23.3</v>
       </c>
       <c r="F39">
-        <v>4.4</v>
+        <v>5.7</v>
       </c>
       <c r="G39">
-        <v>-96.59999999999999</v>
+        <v>-95.5</v>
       </c>
       <c r="H39">
-        <v>-0.43</v>
+        <v>0.68</v>
       </c>
       <c r="I39">
-        <v>0.04</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="J39">
-        <v>-0.85</v>
+        <v>-0.39</v>
       </c>
       <c r="K39">
-        <v>-1.13</v>
+        <v>-0.87</v>
       </c>
       <c r="L39">
         <v>3.16</v>
@@ -2102,7 +2102,7 @@
         <v>-25.39</v>
       </c>
       <c r="N39">
-        <v>-42.92</v>
+        <v>-44.68</v>
       </c>
     </row>
     <row r="40" spans="1:14">
@@ -2128,16 +2128,16 @@
         <v>-100</v>
       </c>
       <c r="H40">
-        <v>-0.44</v>
+        <v>0.9</v>
       </c>
       <c r="I40">
-        <v>-0.29</v>
+        <v>0.37</v>
       </c>
       <c r="J40">
-        <v>-0.77</v>
+        <v>-0.28</v>
       </c>
       <c r="K40">
-        <v>-0.89</v>
+        <v>-0.59</v>
       </c>
       <c r="L40">
         <v>3.16</v>
@@ -2146,7 +2146,7 @@
         <v>-25.39</v>
       </c>
       <c r="N40">
-        <v>-42.92</v>
+        <v>-44.68</v>
       </c>
     </row>
     <row r="41" spans="1:14">
@@ -2172,16 +2172,16 @@
         <v>-99.90000000000001</v>
       </c>
       <c r="H41">
-        <v>-0.3</v>
+        <v>0.89</v>
       </c>
       <c r="I41">
-        <v>-0.19</v>
+        <v>0.39</v>
       </c>
       <c r="J41">
-        <v>-1.68</v>
+        <v>-1.28</v>
       </c>
       <c r="K41">
-        <v>-1.86</v>
+        <v>-1.59</v>
       </c>
       <c r="L41">
         <v>-21.07</v>
@@ -2190,7 +2190,7 @@
         <v>23.68</v>
       </c>
       <c r="N41">
-        <v>-31.7</v>
+        <v>-35.96</v>
       </c>
     </row>
     <row r="42" spans="1:14">
@@ -2204,28 +2204,28 @@
         <v>-27.9</v>
       </c>
       <c r="D42">
-        <v>-32.5</v>
+        <v>-32.4</v>
       </c>
       <c r="E42">
         <v>-41</v>
       </c>
       <c r="F42">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="G42">
-        <v>-100</v>
+        <v>-99.90000000000001</v>
       </c>
       <c r="H42">
-        <v>-0.87</v>
+        <v>0.9</v>
       </c>
       <c r="I42">
-        <v>-1.44</v>
+        <v>-0.36</v>
       </c>
       <c r="J42">
-        <v>-2.06</v>
+        <v>-1.21</v>
       </c>
       <c r="K42">
-        <v>-1.64</v>
+        <v>-1.29</v>
       </c>
       <c r="L42">
         <v>-13.2</v>
@@ -2234,7 +2234,7 @@
         <v>-9.390000000000001</v>
       </c>
       <c r="N42">
-        <v>-6.54</v>
+        <v>-6.58</v>
       </c>
     </row>
   </sheetData>

--- a/Sistema-Operacional/Saidas/Monitoramento - Mananciais Críticos.xlsx
+++ b/Sistema-Operacional/Saidas/Monitoramento - Mananciais Críticos.xlsx
@@ -28,10 +28,10 @@
     <t>AN_TRI_202009</t>
   </si>
   <si>
-    <t>AC_20200915</t>
-  </si>
-  <si>
-    <t>AN_20200915</t>
+    <t>AC_20200921</t>
+  </si>
+  <si>
+    <t>AN_20200921</t>
   </si>
   <si>
     <t>SPI1_202008</t>
@@ -52,7 +52,7 @@
     <t>AN_COTA_202008</t>
   </si>
   <si>
-    <t>AN_COTA_20200915</t>
+    <t>AN_COTA_20200921</t>
   </si>
   <si>
     <t>SIA</t>
@@ -591,19 +591,19 @@
         <v>14</v>
       </c>
       <c r="C2">
-        <v>-21.4</v>
+        <v>-21.1</v>
       </c>
       <c r="D2">
-        <v>-27.3</v>
+        <v>-26.5</v>
       </c>
       <c r="E2">
-        <v>-27.3</v>
+        <v>-25.5</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>4.9</v>
       </c>
       <c r="G2">
-        <v>-100</v>
+        <v>-95.7</v>
       </c>
       <c r="H2">
         <v>1.39</v>
@@ -624,7 +624,7 @@
         <v>-2.49</v>
       </c>
       <c r="N2">
-        <v>-5.9</v>
+        <v>-5.92</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -668,7 +668,7 @@
         <v>8.51</v>
       </c>
       <c r="N3">
-        <v>-51.64</v>
+        <v>-54.67</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -679,7 +679,7 @@
         <v>16</v>
       </c>
       <c r="C4">
-        <v>-33.5</v>
+        <v>-33.4</v>
       </c>
       <c r="D4">
         <v>-30</v>
@@ -688,10 +688,10 @@
         <v>-41.7</v>
       </c>
       <c r="F4">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="G4">
-        <v>-100</v>
+        <v>-99.90000000000001</v>
       </c>
       <c r="H4">
         <v>1.34</v>
@@ -714,19 +714,19 @@
         <v>17</v>
       </c>
       <c r="C5">
-        <v>-9.199999999999999</v>
+        <v>-9</v>
       </c>
       <c r="D5">
-        <v>-6.8</v>
+        <v>-6.5</v>
       </c>
       <c r="E5">
-        <v>-36.6</v>
+        <v>-35.7</v>
       </c>
       <c r="F5">
-        <v>0.2</v>
+        <v>2.5</v>
       </c>
       <c r="G5">
-        <v>-99.8</v>
+        <v>-97.7</v>
       </c>
       <c r="H5">
         <v>0.65</v>
@@ -747,7 +747,7 @@
         <v>-25.39</v>
       </c>
       <c r="N5">
-        <v>-44.68</v>
+        <v>-45.85</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -758,19 +758,19 @@
         <v>18</v>
       </c>
       <c r="C6">
-        <v>-25</v>
+        <v>-24.9</v>
       </c>
       <c r="D6">
-        <v>-29.4</v>
+        <v>-29.2</v>
       </c>
       <c r="E6">
-        <v>-45</v>
+        <v>-44.4</v>
       </c>
       <c r="F6">
-        <v>0</v>
+        <v>1.7</v>
       </c>
       <c r="G6">
-        <v>-100</v>
+        <v>-98.2</v>
       </c>
       <c r="H6">
         <v>0.9</v>
@@ -791,7 +791,7 @@
         <v>-9.390000000000001</v>
       </c>
       <c r="N6">
-        <v>-6.58</v>
+        <v>-6.7</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -802,19 +802,19 @@
         <v>19</v>
       </c>
       <c r="C7">
-        <v>-18.2</v>
+        <v>-17.9</v>
       </c>
       <c r="D7">
-        <v>-21.8</v>
+        <v>-21.2</v>
       </c>
       <c r="E7">
-        <v>-30.5</v>
+        <v>-28.7</v>
       </c>
       <c r="F7">
-        <v>0</v>
+        <v>4.6</v>
       </c>
       <c r="G7">
-        <v>-100</v>
+        <v>-94.90000000000001</v>
       </c>
       <c r="H7">
         <v>1.14</v>
@@ -870,7 +870,7 @@
         <v>-8.06</v>
       </c>
       <c r="N8">
-        <v>-6.31</v>
+        <v>-5.96</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -881,19 +881,19 @@
         <v>21</v>
       </c>
       <c r="C9">
-        <v>-25.3</v>
+        <v>-24.7</v>
       </c>
       <c r="D9">
-        <v>-25.1</v>
+        <v>-23.6</v>
       </c>
       <c r="E9">
-        <v>-48.3</v>
+        <v>-44.9</v>
       </c>
       <c r="F9">
-        <v>0</v>
+        <v>11.4</v>
       </c>
       <c r="G9">
-        <v>-100</v>
+        <v>-91.3</v>
       </c>
       <c r="H9">
         <v>0.96</v>
@@ -928,7 +928,7 @@
         <v>0.1</v>
       </c>
       <c r="G10">
-        <v>-100</v>
+        <v>-99.90000000000001</v>
       </c>
       <c r="H10">
         <v>0.93</v>
@@ -949,7 +949,7 @@
         <v>-3.15</v>
       </c>
       <c r="N10">
-        <v>-20.78</v>
+        <v>-23.39</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -960,19 +960,19 @@
         <v>23</v>
       </c>
       <c r="C11">
+        <v>-49.5</v>
+      </c>
+      <c r="D11">
         <v>-49.6</v>
       </c>
-      <c r="D11">
-        <v>-49.9</v>
-      </c>
       <c r="E11">
-        <v>-55.2</v>
+        <v>-54.7</v>
       </c>
       <c r="F11">
-        <v>3</v>
+        <v>4.6</v>
       </c>
       <c r="G11">
-        <v>-97.7</v>
+        <v>-96.5</v>
       </c>
       <c r="H11">
         <v>1.04</v>
@@ -993,7 +993,7 @@
         <v>20.08</v>
       </c>
       <c r="N11">
-        <v>-15.12</v>
+        <v>-20.17</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -1004,19 +1004,19 @@
         <v>24</v>
       </c>
       <c r="C12">
-        <v>-49.6</v>
+        <v>-49.5</v>
       </c>
       <c r="D12">
-        <v>-50.1</v>
+        <v>-49.7</v>
       </c>
       <c r="E12">
-        <v>-55.2</v>
+        <v>-54.4</v>
       </c>
       <c r="F12">
-        <v>4.4</v>
+        <v>7</v>
       </c>
       <c r="G12">
-        <v>-96.8</v>
+        <v>-94.90000000000001</v>
       </c>
       <c r="H12">
         <v>1.08</v>
@@ -1037,7 +1037,7 @@
         <v>20.08</v>
       </c>
       <c r="N12">
-        <v>-15.12</v>
+        <v>-20.17</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -1048,19 +1048,19 @@
         <v>25</v>
       </c>
       <c r="C13">
-        <v>-24.7</v>
+        <v>-24.2</v>
       </c>
       <c r="D13">
-        <v>-24.6</v>
+        <v>-23.4</v>
       </c>
       <c r="E13">
-        <v>-51.9</v>
+        <v>-48.9</v>
       </c>
       <c r="F13">
-        <v>0</v>
+        <v>10.1</v>
       </c>
       <c r="G13">
-        <v>-100</v>
+        <v>-92.59999999999999</v>
       </c>
       <c r="H13">
         <v>0.74</v>
@@ -1116,7 +1116,7 @@
         <v>23.68</v>
       </c>
       <c r="N14">
-        <v>-35.96</v>
+        <v>-37.79</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -1127,19 +1127,19 @@
         <v>21</v>
       </c>
       <c r="C15">
-        <v>-23</v>
+        <v>-22.6</v>
       </c>
       <c r="D15">
-        <v>-23.2</v>
+        <v>-22.1</v>
       </c>
       <c r="E15">
-        <v>-51.6</v>
+        <v>-49</v>
       </c>
       <c r="F15">
-        <v>0.6</v>
+        <v>9</v>
       </c>
       <c r="G15">
-        <v>-99.59999999999999</v>
+        <v>-93.5</v>
       </c>
       <c r="H15">
         <v>0.5</v>
@@ -1160,7 +1160,7 @@
         <v>1.32</v>
       </c>
       <c r="N15">
-        <v>-22.12</v>
+        <v>-24.35</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -1171,19 +1171,19 @@
         <v>27</v>
       </c>
       <c r="C16">
-        <v>-17.3</v>
+        <v>-17.1</v>
       </c>
       <c r="D16">
-        <v>-14.1</v>
+        <v>-13.4</v>
       </c>
       <c r="E16">
-        <v>-34.5</v>
+        <v>-32.7</v>
       </c>
       <c r="F16">
-        <v>4</v>
+        <v>9.5</v>
       </c>
       <c r="G16">
-        <v>-97.2</v>
+        <v>-93.3</v>
       </c>
       <c r="H16">
         <v>0.64</v>
@@ -1204,7 +1204,7 @@
         <v>7.01</v>
       </c>
       <c r="N16">
-        <v>-4.98</v>
+        <v>-6.84</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1215,19 +1215,19 @@
         <v>28</v>
       </c>
       <c r="C17">
-        <v>-48.8</v>
+        <v>-48.7</v>
       </c>
       <c r="D17">
-        <v>-41.2</v>
+        <v>-40.9</v>
       </c>
       <c r="E17">
-        <v>-61.8</v>
+        <v>-61.3</v>
       </c>
       <c r="F17">
-        <v>0</v>
+        <v>1.4</v>
       </c>
       <c r="G17">
-        <v>-100</v>
+        <v>-99</v>
       </c>
       <c r="H17">
         <v>1.81</v>
@@ -1250,19 +1250,19 @@
         <v>29</v>
       </c>
       <c r="C18">
-        <v>-36.1</v>
+        <v>-35.9</v>
       </c>
       <c r="D18">
-        <v>-39.6</v>
+        <v>-39.1</v>
       </c>
       <c r="E18">
-        <v>-40.9</v>
+        <v>-39.9</v>
       </c>
       <c r="F18">
-        <v>0</v>
+        <v>3.1</v>
       </c>
       <c r="G18">
-        <v>-100</v>
+        <v>-97.7</v>
       </c>
       <c r="H18">
         <v>1.39</v>
@@ -1283,7 +1283,7 @@
         <v>-2.49</v>
       </c>
       <c r="N18">
-        <v>-5.9</v>
+        <v>-5.92</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1294,19 +1294,19 @@
         <v>30</v>
       </c>
       <c r="C19">
-        <v>-26.5</v>
+        <v>-25.9</v>
       </c>
       <c r="D19">
-        <v>-15.8</v>
+        <v>-14.1</v>
       </c>
       <c r="E19">
-        <v>-36.3</v>
+        <v>-32.5</v>
       </c>
       <c r="F19">
-        <v>0</v>
+        <v>10.1</v>
       </c>
       <c r="G19">
-        <v>-100</v>
+        <v>-90.5</v>
       </c>
       <c r="H19">
         <v>0.55</v>
@@ -1329,19 +1329,19 @@
         <v>31</v>
       </c>
       <c r="C20">
-        <v>-34.7</v>
+        <v>-34.6</v>
       </c>
       <c r="D20">
-        <v>-31.6</v>
+        <v>-31.5</v>
       </c>
       <c r="E20">
-        <v>-33.8</v>
+        <v>-33.5</v>
       </c>
       <c r="F20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G20">
-        <v>-100</v>
+        <v>-99.3</v>
       </c>
       <c r="H20">
         <v>1.15</v>
@@ -1364,19 +1364,19 @@
         <v>32</v>
       </c>
       <c r="C21">
-        <v>-18.1</v>
+        <v>-17.9</v>
       </c>
       <c r="D21">
-        <v>-15.6</v>
+        <v>-15.3</v>
       </c>
       <c r="E21">
-        <v>-35.7</v>
+        <v>-34.8</v>
       </c>
       <c r="F21">
-        <v>4.4</v>
+        <v>7.2</v>
       </c>
       <c r="G21">
-        <v>-96.8</v>
+        <v>-94.8</v>
       </c>
       <c r="H21">
         <v>0.58</v>
@@ -1437,19 +1437,19 @@
         <v>34</v>
       </c>
       <c r="C23">
-        <v>-25</v>
+        <v>-24.3</v>
       </c>
       <c r="D23">
-        <v>-26.9</v>
+        <v>-25.1</v>
       </c>
       <c r="E23">
-        <v>-38.9</v>
+        <v>-34.5</v>
       </c>
       <c r="F23">
-        <v>2.5</v>
+        <v>15.1</v>
       </c>
       <c r="G23">
-        <v>-97.7</v>
+        <v>-86.09999999999999</v>
       </c>
       <c r="H23">
         <v>0.73</v>
@@ -1472,19 +1472,19 @@
         <v>35</v>
       </c>
       <c r="C24">
-        <v>-27.4</v>
+        <v>-27.3</v>
       </c>
       <c r="D24">
-        <v>-28.1</v>
+        <v>-27.7</v>
       </c>
       <c r="E24">
-        <v>-38</v>
+        <v>-37.1</v>
       </c>
       <c r="F24">
-        <v>0</v>
+        <v>2.8</v>
       </c>
       <c r="G24">
-        <v>-100</v>
+        <v>-97.59999999999999</v>
       </c>
       <c r="H24">
         <v>1.24</v>
@@ -1542,19 +1542,19 @@
         <v>37</v>
       </c>
       <c r="C26">
-        <v>-28.1</v>
+        <v>-27.5</v>
       </c>
       <c r="D26">
-        <v>-34.6</v>
+        <v>-32.9</v>
       </c>
       <c r="E26">
-        <v>-43.5</v>
+        <v>-39.9</v>
       </c>
       <c r="F26">
-        <v>0</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="G26">
-        <v>-100</v>
+        <v>-92.59999999999999</v>
       </c>
       <c r="H26">
         <v>1.31</v>
@@ -1577,19 +1577,19 @@
         <v>38</v>
       </c>
       <c r="C27">
-        <v>-52.8</v>
+        <v>-52.7</v>
       </c>
       <c r="D27">
-        <v>-45.2</v>
+        <v>-44.9</v>
       </c>
       <c r="E27">
-        <v>-56.1</v>
+        <v>-55.3</v>
       </c>
       <c r="F27">
-        <v>0</v>
+        <v>2.4</v>
       </c>
       <c r="G27">
-        <v>-100</v>
+        <v>-97.90000000000001</v>
       </c>
       <c r="H27">
         <v>1.38</v>
@@ -1612,19 +1612,19 @@
         <v>39</v>
       </c>
       <c r="C28">
-        <v>-14.3</v>
+        <v>-14.1</v>
       </c>
       <c r="D28">
-        <v>-16.5</v>
+        <v>-16</v>
       </c>
       <c r="E28">
-        <v>-42.5</v>
+        <v>-41.2</v>
       </c>
       <c r="F28">
-        <v>0</v>
+        <v>3.6</v>
       </c>
       <c r="G28">
-        <v>-100</v>
+        <v>-96.8</v>
       </c>
       <c r="H28">
         <v>1</v>
@@ -1645,7 +1645,7 @@
         <v>-25.39</v>
       </c>
       <c r="N28">
-        <v>-44.68</v>
+        <v>-45.85</v>
       </c>
     </row>
     <row r="29" spans="1:14">
@@ -1656,19 +1656,19 @@
         <v>40</v>
       </c>
       <c r="C29">
-        <v>-51.1</v>
+        <v>-51</v>
       </c>
       <c r="D29">
-        <v>-50.1</v>
+        <v>-49.6</v>
       </c>
       <c r="E29">
-        <v>-56.7</v>
+        <v>-55.9</v>
       </c>
       <c r="F29">
-        <v>2.4</v>
+        <v>5.2</v>
       </c>
       <c r="G29">
-        <v>-98.2</v>
+        <v>-96.3</v>
       </c>
       <c r="H29">
         <v>0.72</v>
@@ -1689,7 +1689,7 @@
         <v>13.78</v>
       </c>
       <c r="N29">
-        <v>-50.77</v>
+        <v>-54.73</v>
       </c>
     </row>
     <row r="30" spans="1:14">
@@ -1700,19 +1700,19 @@
         <v>41</v>
       </c>
       <c r="C30">
-        <v>-7.2</v>
+        <v>-6.7</v>
       </c>
       <c r="D30">
-        <v>-3.3</v>
+        <v>-2.1</v>
       </c>
       <c r="E30">
-        <v>-26.1</v>
+        <v>-23.2</v>
       </c>
       <c r="F30">
-        <v>4.4</v>
+        <v>13.3</v>
       </c>
       <c r="G30">
-        <v>-96.59999999999999</v>
+        <v>-89.7</v>
       </c>
       <c r="H30">
         <v>0.7</v>
@@ -1733,7 +1733,7 @@
         <v>-25.39</v>
       </c>
       <c r="N30">
-        <v>-44.68</v>
+        <v>-45.85</v>
       </c>
     </row>
     <row r="31" spans="1:14">
@@ -1744,19 +1744,19 @@
         <v>42</v>
       </c>
       <c r="C31">
-        <v>-17.7</v>
+        <v>-17.5</v>
       </c>
       <c r="D31">
-        <v>-17.3</v>
+        <v>-16.8</v>
       </c>
       <c r="E31">
-        <v>-44.4</v>
+        <v>-43.1</v>
       </c>
       <c r="F31">
-        <v>0</v>
+        <v>3.9</v>
       </c>
       <c r="G31">
-        <v>-100</v>
+        <v>-96.7</v>
       </c>
       <c r="H31">
         <v>0.87</v>
@@ -1779,19 +1779,19 @@
         <v>43</v>
       </c>
       <c r="C32">
-        <v>-13.8</v>
+        <v>-13.5</v>
       </c>
       <c r="D32">
-        <v>-15.4</v>
+        <v>-14.9</v>
       </c>
       <c r="E32">
-        <v>-42.9</v>
+        <v>-41.5</v>
       </c>
       <c r="F32">
-        <v>0</v>
+        <v>3.9</v>
       </c>
       <c r="G32">
-        <v>-100</v>
+        <v>-96.59999999999999</v>
       </c>
       <c r="H32">
         <v>1.03</v>
@@ -1812,7 +1812,7 @@
         <v>-25.39</v>
       </c>
       <c r="N32">
-        <v>-44.68</v>
+        <v>-45.85</v>
       </c>
     </row>
     <row r="33" spans="1:14">
@@ -1823,19 +1823,19 @@
         <v>44</v>
       </c>
       <c r="C33">
-        <v>-31.2</v>
+        <v>-30.5</v>
       </c>
       <c r="D33">
-        <v>-33</v>
+        <v>-31.5</v>
       </c>
       <c r="E33">
-        <v>-55.5</v>
+        <v>-51.9</v>
       </c>
       <c r="F33">
-        <v>0</v>
+        <v>10.8</v>
       </c>
       <c r="G33">
-        <v>-100</v>
+        <v>-91.09999999999999</v>
       </c>
       <c r="H33">
         <v>0.72</v>
@@ -1891,7 +1891,7 @@
         <v>23.68</v>
       </c>
       <c r="N34">
-        <v>-35.96</v>
+        <v>-37.79</v>
       </c>
     </row>
     <row r="35" spans="1:14">
@@ -1902,19 +1902,19 @@
         <v>46</v>
       </c>
       <c r="C35">
-        <v>-55.2</v>
+        <v>-55.1</v>
       </c>
       <c r="D35">
-        <v>-46.4</v>
+        <v>-46.1</v>
       </c>
       <c r="E35">
-        <v>-55.5</v>
+        <v>-54.9</v>
       </c>
       <c r="F35">
-        <v>0</v>
+        <v>1.9</v>
       </c>
       <c r="G35">
-        <v>-100</v>
+        <v>-98.40000000000001</v>
       </c>
       <c r="H35">
         <v>1.51</v>
@@ -1943,10 +1943,10 @@
         <v>-60.8</v>
       </c>
       <c r="E36">
-        <v>-68.90000000000001</v>
+        <v>-68.8</v>
       </c>
       <c r="F36">
-        <v>0.5</v>
+        <v>0.7</v>
       </c>
       <c r="G36">
         <v>-99.59999999999999</v>
@@ -1970,7 +1970,7 @@
         <v>-30.35</v>
       </c>
       <c r="N36">
-        <v>-75.06999999999999</v>
+        <v>-77.95</v>
       </c>
     </row>
     <row r="37" spans="1:14">
@@ -1981,19 +1981,19 @@
         <v>48</v>
       </c>
       <c r="C37">
-        <v>-11.5</v>
+        <v>-11</v>
       </c>
       <c r="D37">
-        <v>-11.6</v>
+        <v>-10.5</v>
       </c>
       <c r="E37">
-        <v>-38.2</v>
+        <v>-35.1</v>
       </c>
       <c r="F37">
-        <v>0</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="G37">
-        <v>-100</v>
+        <v>-92.59999999999999</v>
       </c>
       <c r="H37">
         <v>0.84</v>
@@ -2014,7 +2014,7 @@
         <v>-25.39</v>
       </c>
       <c r="N37">
-        <v>-44.68</v>
+        <v>-45.85</v>
       </c>
     </row>
     <row r="38" spans="1:14">
@@ -2025,19 +2025,19 @@
         <v>49</v>
       </c>
       <c r="C38">
-        <v>-44</v>
+        <v>-43.9</v>
       </c>
       <c r="D38">
-        <v>-46.4</v>
+        <v>-46.3</v>
       </c>
       <c r="E38">
-        <v>-52.4</v>
+        <v>-52.2</v>
       </c>
       <c r="F38">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="G38">
-        <v>-100</v>
+        <v>-99.59999999999999</v>
       </c>
       <c r="H38">
         <v>0.96</v>
@@ -2058,7 +2058,7 @@
         <v>-3.15</v>
       </c>
       <c r="N38">
-        <v>-20.78</v>
+        <v>-23.39</v>
       </c>
     </row>
     <row r="39" spans="1:14">
@@ -2069,19 +2069,19 @@
         <v>50</v>
       </c>
       <c r="C39">
-        <v>-5.4</v>
+        <v>-4.8</v>
       </c>
       <c r="D39">
-        <v>-0.1</v>
+        <v>1.2</v>
       </c>
       <c r="E39">
-        <v>-23.3</v>
+        <v>-19.9</v>
       </c>
       <c r="F39">
-        <v>5.7</v>
+        <v>15.8</v>
       </c>
       <c r="G39">
-        <v>-95.5</v>
+        <v>-87.59999999999999</v>
       </c>
       <c r="H39">
         <v>0.68</v>
@@ -2102,7 +2102,7 @@
         <v>-25.39</v>
       </c>
       <c r="N39">
-        <v>-44.68</v>
+        <v>-45.85</v>
       </c>
     </row>
     <row r="40" spans="1:14">
@@ -2113,19 +2113,19 @@
         <v>51</v>
       </c>
       <c r="C40">
-        <v>-13.6</v>
+        <v>-13.4</v>
       </c>
       <c r="D40">
-        <v>-15.7</v>
+        <v>-15</v>
       </c>
       <c r="E40">
-        <v>-41.3</v>
+        <v>-39.6</v>
       </c>
       <c r="F40">
-        <v>0</v>
+        <v>4.9</v>
       </c>
       <c r="G40">
-        <v>-100</v>
+        <v>-95.8</v>
       </c>
       <c r="H40">
         <v>0.9</v>
@@ -2146,7 +2146,7 @@
         <v>-25.39</v>
       </c>
       <c r="N40">
-        <v>-44.68</v>
+        <v>-45.85</v>
       </c>
     </row>
     <row r="41" spans="1:14">
@@ -2169,7 +2169,7 @@
         <v>0.2</v>
       </c>
       <c r="G41">
-        <v>-99.90000000000001</v>
+        <v>-99.8</v>
       </c>
       <c r="H41">
         <v>0.89</v>
@@ -2190,7 +2190,7 @@
         <v>23.68</v>
       </c>
       <c r="N41">
-        <v>-35.96</v>
+        <v>-37.79</v>
       </c>
     </row>
     <row r="42" spans="1:14">
@@ -2201,19 +2201,19 @@
         <v>53</v>
       </c>
       <c r="C42">
-        <v>-27.9</v>
+        <v>-27.7</v>
       </c>
       <c r="D42">
-        <v>-32.4</v>
+        <v>-31.9</v>
       </c>
       <c r="E42">
-        <v>-41</v>
+        <v>-39.8</v>
       </c>
       <c r="F42">
-        <v>0.1</v>
+        <v>3.6</v>
       </c>
       <c r="G42">
-        <v>-99.90000000000001</v>
+        <v>-96.40000000000001</v>
       </c>
       <c r="H42">
         <v>0.9</v>
@@ -2234,7 +2234,7 @@
         <v>-9.390000000000001</v>
       </c>
       <c r="N42">
-        <v>-6.58</v>
+        <v>-6.7</v>
       </c>
     </row>
   </sheetData>

--- a/Sistema-Operacional/Saidas/Monitoramento - Mananciais Críticos.xlsx
+++ b/Sistema-Operacional/Saidas/Monitoramento - Mananciais Críticos.xlsx
@@ -28,22 +28,22 @@
     <t>AN_TRI_202009</t>
   </si>
   <si>
-    <t>AC_20200921</t>
-  </si>
-  <si>
-    <t>AN_20200921</t>
-  </si>
-  <si>
-    <t>SPI1_202008</t>
-  </si>
-  <si>
-    <t>SPI3_202008</t>
-  </si>
-  <si>
-    <t>SPI6_202008</t>
-  </si>
-  <si>
-    <t>SPI12_202008</t>
+    <t>AC_202009</t>
+  </si>
+  <si>
+    <t>AN_202009</t>
+  </si>
+  <si>
+    <t>SPI1_202009</t>
+  </si>
+  <si>
+    <t>SPI3_202009</t>
+  </si>
+  <si>
+    <t>SPI6_202009</t>
+  </si>
+  <si>
+    <t>SPI12_202009</t>
   </si>
   <si>
     <t>AN_COTA_202007</t>
@@ -52,7 +52,7 @@
     <t>AN_COTA_202008</t>
   </si>
   <si>
-    <t>AN_COTA_20200921</t>
+    <t>AN_COTA_20200930</t>
   </si>
   <si>
     <t>SIA</t>
@@ -591,31 +591,31 @@
         <v>14</v>
       </c>
       <c r="C2">
-        <v>-21.1</v>
+        <v>-20.4</v>
       </c>
       <c r="D2">
-        <v>-26.5</v>
+        <v>-24.6</v>
       </c>
       <c r="E2">
-        <v>-25.5</v>
+        <v>-21.5</v>
       </c>
       <c r="F2">
-        <v>4.9</v>
+        <v>15.4</v>
       </c>
       <c r="G2">
-        <v>-95.7</v>
+        <v>-86.59999999999999</v>
       </c>
       <c r="H2">
-        <v>1.39</v>
+        <v>-1.96</v>
       </c>
       <c r="I2">
-        <v>0.76</v>
+        <v>-0.37</v>
       </c>
       <c r="J2">
-        <v>-0.37</v>
+        <v>-0.75</v>
       </c>
       <c r="K2">
-        <v>-0.63</v>
+        <v>-0.85</v>
       </c>
       <c r="L2">
         <v>-10.64</v>
@@ -624,7 +624,7 @@
         <v>-2.49</v>
       </c>
       <c r="N2">
-        <v>-5.92</v>
+        <v>-5.68</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -635,31 +635,31 @@
         <v>15</v>
       </c>
       <c r="C3">
-        <v>-36.3</v>
+        <v>-33.9</v>
       </c>
       <c r="D3">
-        <v>-36.1</v>
+        <v>-30.2</v>
       </c>
       <c r="E3">
-        <v>-41.5</v>
+        <v>-29.9</v>
       </c>
       <c r="F3">
-        <v>0</v>
+        <v>29.5</v>
       </c>
       <c r="G3">
-        <v>-100</v>
+        <v>-72.2</v>
       </c>
       <c r="H3">
-        <v>1.29</v>
+        <v>-1.43</v>
       </c>
       <c r="I3">
-        <v>0.74</v>
+        <v>-0.37</v>
       </c>
       <c r="J3">
-        <v>-0.9399999999999999</v>
+        <v>-0.74</v>
       </c>
       <c r="K3">
-        <v>-1.23</v>
+        <v>-1.8</v>
       </c>
       <c r="L3">
         <v>-50.72</v>
@@ -668,7 +668,7 @@
         <v>8.51</v>
       </c>
       <c r="N3">
-        <v>-54.67</v>
+        <v>-54.38</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -679,31 +679,31 @@
         <v>16</v>
       </c>
       <c r="C4">
-        <v>-33.4</v>
+        <v>-33</v>
       </c>
       <c r="D4">
-        <v>-30</v>
+        <v>-28.9</v>
       </c>
       <c r="E4">
-        <v>-41.7</v>
+        <v>-39.1</v>
       </c>
       <c r="F4">
-        <v>0.2</v>
+        <v>8.1</v>
       </c>
       <c r="G4">
-        <v>-99.90000000000001</v>
+        <v>-93.2</v>
       </c>
       <c r="H4">
-        <v>1.34</v>
+        <v>-1.76</v>
       </c>
       <c r="I4">
-        <v>0.71</v>
+        <v>-0.36</v>
       </c>
       <c r="J4">
-        <v>-0.42</v>
+        <v>-0.63</v>
       </c>
       <c r="K4">
-        <v>-0.64</v>
+        <v>-0.79</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -714,31 +714,31 @@
         <v>17</v>
       </c>
       <c r="C5">
-        <v>-9</v>
+        <v>-7.7</v>
       </c>
       <c r="D5">
-        <v>-6.5</v>
+        <v>-3.4</v>
       </c>
       <c r="E5">
-        <v>-35.7</v>
+        <v>-28.4</v>
       </c>
       <c r="F5">
-        <v>2.5</v>
+        <v>21.3</v>
       </c>
       <c r="G5">
-        <v>-97.7</v>
+        <v>-80.5</v>
       </c>
       <c r="H5">
-        <v>0.65</v>
+        <v>-1.14</v>
       </c>
       <c r="I5">
-        <v>0.16</v>
+        <v>-0.58</v>
       </c>
       <c r="J5">
+        <v>-0.37</v>
+      </c>
+      <c r="K5">
         <v>-0.29</v>
-      </c>
-      <c r="K5">
-        <v>-0.48</v>
       </c>
       <c r="L5">
         <v>3.16</v>
@@ -747,7 +747,7 @@
         <v>-25.39</v>
       </c>
       <c r="N5">
-        <v>-45.85</v>
+        <v>-46.96</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -758,31 +758,31 @@
         <v>18</v>
       </c>
       <c r="C6">
-        <v>-24.9</v>
+        <v>-23.9</v>
       </c>
       <c r="D6">
-        <v>-29.2</v>
+        <v>-26.6</v>
       </c>
       <c r="E6">
-        <v>-44.4</v>
+        <v>-38.5</v>
       </c>
       <c r="F6">
-        <v>1.7</v>
+        <v>18.5</v>
       </c>
       <c r="G6">
-        <v>-98.2</v>
+        <v>-80.59999999999999</v>
       </c>
       <c r="H6">
-        <v>0.9</v>
+        <v>-1.58</v>
       </c>
       <c r="I6">
-        <v>-0.36</v>
+        <v>-0.77</v>
       </c>
       <c r="J6">
-        <v>-1.21</v>
+        <v>-1.1</v>
       </c>
       <c r="K6">
-        <v>-1.28</v>
+        <v>-1.07</v>
       </c>
       <c r="L6">
         <v>-13.2</v>
@@ -791,7 +791,7 @@
         <v>-9.390000000000001</v>
       </c>
       <c r="N6">
-        <v>-6.7</v>
+        <v>-6.29</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -802,31 +802,31 @@
         <v>19</v>
       </c>
       <c r="C7">
-        <v>-17.9</v>
+        <v>-16.1</v>
       </c>
       <c r="D7">
-        <v>-21.2</v>
+        <v>-16.7</v>
       </c>
       <c r="E7">
-        <v>-28.7</v>
+        <v>-17</v>
       </c>
       <c r="F7">
-        <v>4.6</v>
+        <v>34.6</v>
       </c>
       <c r="G7">
-        <v>-94.90000000000001</v>
+        <v>-61.5</v>
       </c>
       <c r="H7">
-        <v>1.14</v>
+        <v>-0.53</v>
       </c>
       <c r="I7">
-        <v>0.32</v>
+        <v>-0.03</v>
       </c>
       <c r="J7">
-        <v>-0.15</v>
+        <v>-0.1</v>
       </c>
       <c r="K7">
-        <v>-0.19</v>
+        <v>0.07000000000000001</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -837,31 +837,31 @@
         <v>20</v>
       </c>
       <c r="C8">
-        <v>-54.1</v>
+        <v>-54</v>
       </c>
       <c r="D8">
-        <v>-42.2</v>
+        <v>-42</v>
       </c>
       <c r="E8">
-        <v>-51.9</v>
+        <v>-51.5</v>
       </c>
       <c r="F8">
-        <v>0</v>
+        <v>1.4</v>
       </c>
       <c r="G8">
-        <v>-100</v>
+        <v>-99</v>
       </c>
       <c r="H8">
-        <v>1.68</v>
+        <v>-2.93</v>
       </c>
       <c r="I8">
-        <v>0.95</v>
+        <v>-0.58</v>
       </c>
       <c r="J8">
-        <v>-0.54</v>
+        <v>-0.75</v>
       </c>
       <c r="K8">
-        <v>-1.27</v>
+        <v>-2.14</v>
       </c>
       <c r="L8">
         <v>-0.99</v>
@@ -870,7 +870,7 @@
         <v>-8.06</v>
       </c>
       <c r="N8">
-        <v>-5.96</v>
+        <v>-5.66</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -881,31 +881,31 @@
         <v>21</v>
       </c>
       <c r="C9">
-        <v>-24.7</v>
+        <v>-23</v>
       </c>
       <c r="D9">
-        <v>-23.6</v>
+        <v>-19.9</v>
       </c>
       <c r="E9">
-        <v>-44.9</v>
+        <v>-36.1</v>
       </c>
       <c r="F9">
-        <v>11.4</v>
+        <v>40.9</v>
       </c>
       <c r="G9">
-        <v>-91.3</v>
+        <v>-69</v>
       </c>
       <c r="H9">
-        <v>0.96</v>
+        <v>-0.63</v>
       </c>
       <c r="I9">
-        <v>0.38</v>
+        <v>-0.24</v>
       </c>
       <c r="J9">
-        <v>-0.25</v>
+        <v>-0.16</v>
       </c>
       <c r="K9">
-        <v>-0.25</v>
+        <v>-0.08</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -916,31 +916,31 @@
         <v>22</v>
       </c>
       <c r="C10">
-        <v>-54</v>
+        <v>-51.6</v>
       </c>
       <c r="D10">
-        <v>-52</v>
+        <v>-46.3</v>
       </c>
       <c r="E10">
-        <v>-56.3</v>
+        <v>-45.4</v>
       </c>
       <c r="F10">
-        <v>0.1</v>
+        <v>34.9</v>
       </c>
       <c r="G10">
-        <v>-99.90000000000001</v>
+        <v>-74.3</v>
       </c>
       <c r="H10">
-        <v>0.93</v>
+        <v>-1.62</v>
       </c>
       <c r="I10">
-        <v>0.22</v>
+        <v>-0.7</v>
       </c>
       <c r="J10">
-        <v>-1.8</v>
+        <v>-1.18</v>
       </c>
       <c r="K10">
-        <v>-2.13</v>
+        <v>-2.71</v>
       </c>
       <c r="L10">
         <v>-38.28</v>
@@ -949,7 +949,7 @@
         <v>-3.15</v>
       </c>
       <c r="N10">
-        <v>-23.39</v>
+        <v>-22.57</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -960,31 +960,31 @@
         <v>23</v>
       </c>
       <c r="C11">
-        <v>-49.5</v>
+        <v>-47.3</v>
       </c>
       <c r="D11">
-        <v>-49.6</v>
+        <v>-43.6</v>
       </c>
       <c r="E11">
-        <v>-54.7</v>
+        <v>-43</v>
       </c>
       <c r="F11">
-        <v>4.6</v>
+        <v>42.6</v>
       </c>
       <c r="G11">
-        <v>-96.5</v>
+        <v>-67.90000000000001</v>
       </c>
       <c r="H11">
-        <v>1.04</v>
+        <v>-1.48</v>
       </c>
       <c r="I11">
-        <v>0.51</v>
+        <v>-0.5</v>
       </c>
       <c r="J11">
-        <v>-1.19</v>
+        <v>-1.09</v>
       </c>
       <c r="K11">
-        <v>-1.5</v>
+        <v>-1.89</v>
       </c>
       <c r="L11">
         <v>-30.45</v>
@@ -993,7 +993,7 @@
         <v>20.08</v>
       </c>
       <c r="N11">
-        <v>-20.17</v>
+        <v>-19.6</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -1004,31 +1004,31 @@
         <v>24</v>
       </c>
       <c r="C12">
-        <v>-49.5</v>
+        <v>-47.3</v>
       </c>
       <c r="D12">
-        <v>-49.7</v>
+        <v>-44</v>
       </c>
       <c r="E12">
-        <v>-54.4</v>
+        <v>-43.4</v>
       </c>
       <c r="F12">
-        <v>7</v>
+        <v>44.1</v>
       </c>
       <c r="G12">
-        <v>-94.90000000000001</v>
+        <v>-68</v>
       </c>
       <c r="H12">
-        <v>1.08</v>
+        <v>-1.51</v>
       </c>
       <c r="I12">
-        <v>0.57</v>
+        <v>-0.44</v>
       </c>
       <c r="J12">
-        <v>-1.11</v>
+        <v>-1.03</v>
       </c>
       <c r="K12">
-        <v>-1.42</v>
+        <v>-1.79</v>
       </c>
       <c r="L12">
         <v>-30.45</v>
@@ -1037,7 +1037,7 @@
         <v>20.08</v>
       </c>
       <c r="N12">
-        <v>-20.17</v>
+        <v>-19.6</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -1048,31 +1048,31 @@
         <v>25</v>
       </c>
       <c r="C13">
-        <v>-24.2</v>
+        <v>-22.6</v>
       </c>
       <c r="D13">
-        <v>-23.4</v>
+        <v>-20</v>
       </c>
       <c r="E13">
-        <v>-48.9</v>
+        <v>-40.8</v>
       </c>
       <c r="F13">
-        <v>10.1</v>
+        <v>38.4</v>
       </c>
       <c r="G13">
-        <v>-92.59999999999999</v>
+        <v>-72</v>
       </c>
       <c r="H13">
-        <v>0.74</v>
+        <v>-0.77</v>
       </c>
       <c r="I13">
-        <v>0.42</v>
+        <v>-0.52</v>
       </c>
       <c r="J13">
-        <v>-0.39</v>
+        <v>-0.26</v>
       </c>
       <c r="K13">
-        <v>-0.31</v>
+        <v>-0.23</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -1083,31 +1083,31 @@
         <v>26</v>
       </c>
       <c r="C14">
-        <v>-56.2</v>
+        <v>-54.2</v>
       </c>
       <c r="D14">
-        <v>-53.4</v>
+        <v>-48.3</v>
       </c>
       <c r="E14">
-        <v>-58.7</v>
+        <v>-48.3</v>
       </c>
       <c r="F14">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="G14">
-        <v>-100</v>
+        <v>-74.8</v>
       </c>
       <c r="H14">
-        <v>0.73</v>
+        <v>-1.34</v>
       </c>
       <c r="I14">
-        <v>0.16</v>
+        <v>-0.71</v>
       </c>
       <c r="J14">
-        <v>-1.36</v>
+        <v>-1.54</v>
       </c>
       <c r="K14">
-        <v>-1.22</v>
+        <v>-1.76</v>
       </c>
       <c r="L14">
         <v>-21.07</v>
@@ -1116,7 +1116,7 @@
         <v>23.68</v>
       </c>
       <c r="N14">
-        <v>-37.79</v>
+        <v>-37.1</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -1127,31 +1127,31 @@
         <v>21</v>
       </c>
       <c r="C15">
-        <v>-22.6</v>
+        <v>-20.7</v>
       </c>
       <c r="D15">
-        <v>-22.1</v>
+        <v>-17.5</v>
       </c>
       <c r="E15">
-        <v>-49</v>
+        <v>-38.6</v>
       </c>
       <c r="F15">
-        <v>9</v>
+        <v>42.7</v>
       </c>
       <c r="G15">
-        <v>-93.5</v>
+        <v>-69.40000000000001</v>
       </c>
       <c r="H15">
-        <v>0.5</v>
+        <v>-1.51</v>
       </c>
       <c r="I15">
-        <v>0.53</v>
+        <v>-0.82</v>
       </c>
       <c r="J15">
-        <v>-0.45</v>
+        <v>-0.48</v>
       </c>
       <c r="K15">
-        <v>-0.95</v>
+        <v>-0.92</v>
       </c>
       <c r="L15">
         <v>-4.67</v>
@@ -1160,7 +1160,7 @@
         <v>1.32</v>
       </c>
       <c r="N15">
-        <v>-24.35</v>
+        <v>-26.98</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -1171,31 +1171,31 @@
         <v>27</v>
       </c>
       <c r="C16">
-        <v>-17.1</v>
+        <v>-15.4</v>
       </c>
       <c r="D16">
-        <v>-13.4</v>
+        <v>-9.5</v>
       </c>
       <c r="E16">
-        <v>-32.7</v>
+        <v>-23.1</v>
       </c>
       <c r="F16">
-        <v>9.5</v>
+        <v>40.2</v>
       </c>
       <c r="G16">
-        <v>-93.3</v>
+        <v>-71.5</v>
       </c>
       <c r="H16">
-        <v>0.64</v>
+        <v>-1.31</v>
       </c>
       <c r="I16">
-        <v>0.64</v>
+        <v>-0.68</v>
       </c>
       <c r="J16">
-        <v>-0.41</v>
+        <v>-0.4</v>
       </c>
       <c r="K16">
-        <v>-0.95</v>
+        <v>-0.87</v>
       </c>
       <c r="L16">
         <v>4.66</v>
@@ -1204,7 +1204,7 @@
         <v>7.01</v>
       </c>
       <c r="N16">
-        <v>-6.84</v>
+        <v>-9.210000000000001</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1215,31 +1215,31 @@
         <v>28</v>
       </c>
       <c r="C17">
-        <v>-48.7</v>
+        <v>-47.4</v>
       </c>
       <c r="D17">
-        <v>-40.9</v>
+        <v>-37.2</v>
       </c>
       <c r="E17">
-        <v>-61.3</v>
+        <v>-53.8</v>
       </c>
       <c r="F17">
-        <v>1.4</v>
+        <v>26.2</v>
       </c>
       <c r="G17">
-        <v>-99</v>
+        <v>-81</v>
       </c>
       <c r="H17">
-        <v>1.81</v>
+        <v>-2.06</v>
       </c>
       <c r="I17">
-        <v>1.29</v>
+        <v>-0.15</v>
       </c>
       <c r="J17">
-        <v>0.26</v>
+        <v>0.1</v>
       </c>
       <c r="K17">
-        <v>-0.59</v>
+        <v>-0.88</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1250,31 +1250,31 @@
         <v>29</v>
       </c>
       <c r="C18">
-        <v>-35.9</v>
+        <v>-35.3</v>
       </c>
       <c r="D18">
-        <v>-39.1</v>
+        <v>-37.5</v>
       </c>
       <c r="E18">
-        <v>-39.9</v>
+        <v>-36.4</v>
       </c>
       <c r="F18">
-        <v>3.1</v>
+        <v>14.4</v>
       </c>
       <c r="G18">
-        <v>-97.7</v>
+        <v>-89.3</v>
       </c>
       <c r="H18">
-        <v>1.39</v>
+        <v>-1.96</v>
       </c>
       <c r="I18">
-        <v>0.76</v>
+        <v>-0.38</v>
       </c>
       <c r="J18">
-        <v>-0.37</v>
+        <v>-0.74</v>
       </c>
       <c r="K18">
-        <v>-0.62</v>
+        <v>-0.84</v>
       </c>
       <c r="L18">
         <v>-10.64</v>
@@ -1283,7 +1283,7 @@
         <v>-2.49</v>
       </c>
       <c r="N18">
-        <v>-5.92</v>
+        <v>-5.68</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1294,31 +1294,31 @@
         <v>30</v>
       </c>
       <c r="C19">
-        <v>-25.9</v>
+        <v>-23.5</v>
       </c>
       <c r="D19">
-        <v>-14.1</v>
+        <v>-7.4</v>
       </c>
       <c r="E19">
-        <v>-32.5</v>
+        <v>-17.2</v>
       </c>
       <c r="F19">
-        <v>10.1</v>
+        <v>51.4</v>
       </c>
       <c r="G19">
-        <v>-90.5</v>
+        <v>-51.8</v>
       </c>
       <c r="H19">
-        <v>0.55</v>
+        <v>-2.06</v>
       </c>
       <c r="I19">
-        <v>0.19</v>
+        <v>-1.41</v>
       </c>
       <c r="J19">
-        <v>-0.53</v>
+        <v>-0.59</v>
       </c>
       <c r="K19">
-        <v>-1.06</v>
+        <v>-1.11</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1329,31 +1329,31 @@
         <v>31</v>
       </c>
       <c r="C20">
-        <v>-34.6</v>
+        <v>-34.3</v>
       </c>
       <c r="D20">
-        <v>-31.5</v>
+        <v>-30.5</v>
       </c>
       <c r="E20">
-        <v>-33.5</v>
+        <v>-31.2</v>
       </c>
       <c r="F20">
-        <v>1</v>
+        <v>8.6</v>
       </c>
       <c r="G20">
-        <v>-99.3</v>
+        <v>-93.59999999999999</v>
       </c>
       <c r="H20">
-        <v>1.15</v>
+        <v>-1.09</v>
       </c>
       <c r="I20">
-        <v>0.63</v>
+        <v>-0.28</v>
       </c>
       <c r="J20">
+        <v>-0.41</v>
+      </c>
+      <c r="K20">
         <v>-0.46</v>
-      </c>
-      <c r="K20">
-        <v>-0.44</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1364,31 +1364,31 @@
         <v>32</v>
       </c>
       <c r="C21">
-        <v>-17.9</v>
+        <v>-15.9</v>
       </c>
       <c r="D21">
-        <v>-15.3</v>
+        <v>-10.4</v>
       </c>
       <c r="E21">
-        <v>-34.8</v>
+        <v>-22.9</v>
       </c>
       <c r="F21">
-        <v>7.2</v>
+        <v>44.6</v>
       </c>
       <c r="G21">
-        <v>-94.8</v>
+        <v>-67.7</v>
       </c>
       <c r="H21">
-        <v>0.58</v>
+        <v>-1.5</v>
       </c>
       <c r="I21">
-        <v>0.74</v>
+        <v>-0.75</v>
       </c>
       <c r="J21">
-        <v>-0.42</v>
+        <v>-0.45</v>
       </c>
       <c r="K21">
-        <v>-1.18</v>
+        <v>-1.1</v>
       </c>
       <c r="L21">
         <v>330.35</v>
@@ -1402,31 +1402,31 @@
         <v>33</v>
       </c>
       <c r="C22">
-        <v>-28.5</v>
+        <v>-26.8</v>
       </c>
       <c r="D22">
-        <v>-15.2</v>
+        <v>-10.9</v>
       </c>
       <c r="E22">
-        <v>-25.5</v>
+        <v>-15</v>
       </c>
       <c r="F22">
-        <v>0</v>
+        <v>31.4</v>
       </c>
       <c r="G22">
-        <v>-100</v>
+        <v>-75.59999999999999</v>
       </c>
       <c r="H22">
-        <v>1.26</v>
+        <v>-1.57</v>
       </c>
       <c r="I22">
-        <v>0.49</v>
+        <v>-0.27</v>
       </c>
       <c r="J22">
-        <v>-0.54</v>
+        <v>-0.71</v>
       </c>
       <c r="K22">
-        <v>-1.98</v>
+        <v>-2.33</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1437,31 +1437,31 @@
         <v>34</v>
       </c>
       <c r="C23">
-        <v>-24.3</v>
+        <v>-23.3</v>
       </c>
       <c r="D23">
-        <v>-25.1</v>
+        <v>-22.7</v>
       </c>
       <c r="E23">
-        <v>-34.5</v>
+        <v>-28.5</v>
       </c>
       <c r="F23">
-        <v>15.1</v>
+        <v>31.9</v>
       </c>
       <c r="G23">
-        <v>-86.09999999999999</v>
+        <v>-70.40000000000001</v>
       </c>
       <c r="H23">
-        <v>0.73</v>
+        <v>-1.14</v>
       </c>
       <c r="I23">
-        <v>0.18</v>
+        <v>-0.54</v>
       </c>
       <c r="J23">
-        <v>-0.53</v>
+        <v>-0.41</v>
       </c>
       <c r="K23">
-        <v>-1.98</v>
+        <v>-1.13</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1472,31 +1472,31 @@
         <v>35</v>
       </c>
       <c r="C24">
-        <v>-27.3</v>
+        <v>-26.1</v>
       </c>
       <c r="D24">
-        <v>-27.7</v>
+        <v>-24.9</v>
       </c>
       <c r="E24">
-        <v>-37.1</v>
+        <v>-30</v>
       </c>
       <c r="F24">
-        <v>2.8</v>
+        <v>23.3</v>
       </c>
       <c r="G24">
-        <v>-97.59999999999999</v>
+        <v>-79.90000000000001</v>
       </c>
       <c r="H24">
-        <v>1.24</v>
+        <v>-0.66</v>
       </c>
       <c r="I24">
-        <v>0.42</v>
+        <v>-0.06</v>
       </c>
       <c r="J24">
-        <v>-0.14</v>
+        <v>-0.13</v>
       </c>
       <c r="K24">
-        <v>-0.74</v>
+        <v>-0.78</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1507,31 +1507,31 @@
         <v>36</v>
       </c>
       <c r="C25">
-        <v>-47.5</v>
+        <v>-43.5</v>
       </c>
       <c r="D25">
-        <v>-52.1</v>
+        <v>-42.5</v>
       </c>
       <c r="E25">
-        <v>-60.9</v>
+        <v>-41.5</v>
       </c>
       <c r="F25">
-        <v>0</v>
+        <v>69.09999999999999</v>
       </c>
       <c r="G25">
-        <v>-100</v>
+        <v>-45.3</v>
       </c>
       <c r="H25">
-        <v>1.54</v>
+        <v>-1.46</v>
       </c>
       <c r="I25">
-        <v>0.64</v>
+        <v>-0.14</v>
       </c>
       <c r="J25">
-        <v>-1.08</v>
+        <v>-0.77</v>
       </c>
       <c r="K25">
-        <v>-1.07</v>
+        <v>-1.77</v>
       </c>
     </row>
     <row r="26" spans="1:14">
@@ -1557,16 +1557,16 @@
         <v>-92.59999999999999</v>
       </c>
       <c r="H26">
-        <v>1.31</v>
+        <v>-1.62</v>
       </c>
       <c r="I26">
-        <v>1.01</v>
+        <v>-0.41</v>
       </c>
       <c r="J26">
-        <v>-0.43</v>
+        <v>-1.08</v>
       </c>
       <c r="K26">
-        <v>-0.84</v>
+        <v>-0.97</v>
       </c>
     </row>
     <row r="27" spans="1:14">
@@ -1577,31 +1577,31 @@
         <v>38</v>
       </c>
       <c r="C27">
-        <v>-52.7</v>
+        <v>-51.9</v>
       </c>
       <c r="D27">
-        <v>-44.9</v>
+        <v>-42.6</v>
       </c>
       <c r="E27">
-        <v>-55.3</v>
+        <v>-50.8</v>
       </c>
       <c r="F27">
-        <v>2.4</v>
+        <v>16.4</v>
       </c>
       <c r="G27">
-        <v>-97.90000000000001</v>
+        <v>-85.5</v>
       </c>
       <c r="H27">
-        <v>1.38</v>
+        <v>-1.58</v>
       </c>
       <c r="I27">
-        <v>0.95</v>
+        <v>-0.33</v>
       </c>
       <c r="J27">
-        <v>-0.15</v>
+        <v>-0.18</v>
       </c>
       <c r="K27">
-        <v>-1.06</v>
+        <v>-1.35</v>
       </c>
     </row>
     <row r="28" spans="1:14">
@@ -1612,31 +1612,31 @@
         <v>39</v>
       </c>
       <c r="C28">
-        <v>-14.1</v>
+        <v>-12.9</v>
       </c>
       <c r="D28">
-        <v>-16</v>
+        <v>-13.1</v>
       </c>
       <c r="E28">
-        <v>-41.2</v>
+        <v>-33.8</v>
       </c>
       <c r="F28">
-        <v>3.6</v>
+        <v>24.5</v>
       </c>
       <c r="G28">
-        <v>-96.8</v>
+        <v>-78.59999999999999</v>
       </c>
       <c r="H28">
-        <v>1</v>
+        <v>-0.84</v>
       </c>
       <c r="I28">
-        <v>0.34</v>
+        <v>-0.27</v>
       </c>
       <c r="J28">
-        <v>-0.22</v>
+        <v>-0.23</v>
       </c>
       <c r="K28">
-        <v>-0.64</v>
+        <v>-0.58</v>
       </c>
       <c r="L28">
         <v>3.16</v>
@@ -1645,7 +1645,7 @@
         <v>-25.39</v>
       </c>
       <c r="N28">
-        <v>-45.85</v>
+        <v>-46.96</v>
       </c>
     </row>
     <row r="29" spans="1:14">
@@ -1656,31 +1656,31 @@
         <v>40</v>
       </c>
       <c r="C29">
-        <v>-51</v>
+        <v>-49.3</v>
       </c>
       <c r="D29">
-        <v>-49.6</v>
+        <v>-45.6</v>
       </c>
       <c r="E29">
-        <v>-55.9</v>
+        <v>-48</v>
       </c>
       <c r="F29">
-        <v>5.2</v>
+        <v>32</v>
       </c>
       <c r="G29">
-        <v>-96.3</v>
+        <v>-77</v>
       </c>
       <c r="H29">
-        <v>0.72</v>
+        <v>-1.26</v>
       </c>
       <c r="I29">
-        <v>0.8</v>
+        <v>-0.41</v>
       </c>
       <c r="J29">
-        <v>-0.65</v>
+        <v>-0.5600000000000001</v>
       </c>
       <c r="K29">
-        <v>-0.53</v>
+        <v>-0.95</v>
       </c>
       <c r="L29">
         <v>-36.83</v>
@@ -1689,7 +1689,7 @@
         <v>13.78</v>
       </c>
       <c r="N29">
-        <v>-54.73</v>
+        <v>-56.55</v>
       </c>
     </row>
     <row r="30" spans="1:14">
@@ -1700,31 +1700,31 @@
         <v>41</v>
       </c>
       <c r="C30">
-        <v>-6.7</v>
+        <v>-5.7</v>
       </c>
       <c r="D30">
-        <v>-2.1</v>
+        <v>0.4</v>
       </c>
       <c r="E30">
-        <v>-23.2</v>
+        <v>-16.8</v>
       </c>
       <c r="F30">
-        <v>13.3</v>
+        <v>32.3</v>
       </c>
       <c r="G30">
-        <v>-89.7</v>
+        <v>-75</v>
       </c>
       <c r="H30">
-        <v>0.7</v>
+        <v>-1.17</v>
       </c>
       <c r="I30">
-        <v>0.53</v>
+        <v>-0.6</v>
       </c>
       <c r="J30">
-        <v>-0.38</v>
+        <v>-0.36</v>
       </c>
       <c r="K30">
-        <v>-0.8</v>
+        <v>-0.71</v>
       </c>
       <c r="L30">
         <v>3.16</v>
@@ -1733,7 +1733,7 @@
         <v>-25.39</v>
       </c>
       <c r="N30">
-        <v>-45.85</v>
+        <v>-46.96</v>
       </c>
     </row>
     <row r="31" spans="1:14">
@@ -1744,31 +1744,31 @@
         <v>42</v>
       </c>
       <c r="C31">
-        <v>-17.5</v>
+        <v>-16</v>
       </c>
       <c r="D31">
-        <v>-16.8</v>
+        <v>-13.1</v>
       </c>
       <c r="E31">
-        <v>-43.1</v>
+        <v>-33.2</v>
       </c>
       <c r="F31">
-        <v>3.9</v>
+        <v>32.7</v>
       </c>
       <c r="G31">
-        <v>-96.7</v>
+        <v>-72.2</v>
       </c>
       <c r="H31">
-        <v>0.87</v>
+        <v>-0.8100000000000001</v>
       </c>
       <c r="I31">
-        <v>0.42</v>
+        <v>-0.41</v>
       </c>
       <c r="J31">
-        <v>-0.32</v>
+        <v>-0.24</v>
       </c>
       <c r="K31">
-        <v>-0.49</v>
+        <v>-0.42</v>
       </c>
     </row>
     <row r="32" spans="1:14">
@@ -1779,31 +1779,31 @@
         <v>43</v>
       </c>
       <c r="C32">
-        <v>-13.5</v>
+        <v>-12.2</v>
       </c>
       <c r="D32">
-        <v>-14.9</v>
+        <v>-11.7</v>
       </c>
       <c r="E32">
-        <v>-41.5</v>
+        <v>-33.3</v>
       </c>
       <c r="F32">
-        <v>3.9</v>
+        <v>26.9</v>
       </c>
       <c r="G32">
-        <v>-96.59999999999999</v>
+        <v>-76.3</v>
       </c>
       <c r="H32">
-        <v>1.03</v>
+        <v>-0.8100000000000001</v>
       </c>
       <c r="I32">
-        <v>0.36</v>
+        <v>-0.25</v>
       </c>
       <c r="J32">
         <v>-0.21</v>
       </c>
       <c r="K32">
-        <v>-0.64</v>
+        <v>-0.6</v>
       </c>
       <c r="L32">
         <v>3.16</v>
@@ -1812,7 +1812,7 @@
         <v>-25.39</v>
       </c>
       <c r="N32">
-        <v>-45.85</v>
+        <v>-46.96</v>
       </c>
     </row>
     <row r="33" spans="1:14">
@@ -1823,31 +1823,31 @@
         <v>44</v>
       </c>
       <c r="C33">
-        <v>-30.5</v>
+        <v>-29.6</v>
       </c>
       <c r="D33">
-        <v>-31.5</v>
+        <v>-29.4</v>
       </c>
       <c r="E33">
-        <v>-51.9</v>
+        <v>-46.9</v>
       </c>
       <c r="F33">
-        <v>10.8</v>
+        <v>25.7</v>
       </c>
       <c r="G33">
-        <v>-91.09999999999999</v>
+        <v>-78.90000000000001</v>
       </c>
       <c r="H33">
-        <v>0.72</v>
+        <v>-1.08</v>
       </c>
       <c r="I33">
-        <v>0.21</v>
+        <v>-0.54</v>
       </c>
       <c r="J33">
-        <v>-0.52</v>
+        <v>-0.38</v>
       </c>
       <c r="K33">
-        <v>-2.3</v>
+        <v>-1.29</v>
       </c>
     </row>
     <row r="34" spans="1:14">
@@ -1858,31 +1858,31 @@
         <v>45</v>
       </c>
       <c r="C34">
-        <v>-55.7</v>
+        <v>-53.3</v>
       </c>
       <c r="D34">
-        <v>-52.7</v>
+        <v>-46.8</v>
       </c>
       <c r="E34">
-        <v>-57.2</v>
+        <v>-44.6</v>
       </c>
       <c r="F34">
-        <v>0</v>
+        <v>37.5</v>
       </c>
       <c r="G34">
-        <v>-100</v>
+        <v>-70.09999999999999</v>
       </c>
       <c r="H34">
-        <v>0.73</v>
+        <v>-1.32</v>
       </c>
       <c r="I34">
-        <v>0.16</v>
+        <v>-0.71</v>
       </c>
       <c r="J34">
-        <v>-1.35</v>
+        <v>-1.55</v>
       </c>
       <c r="K34">
-        <v>-1.23</v>
+        <v>-1.76</v>
       </c>
       <c r="L34">
         <v>-21.07</v>
@@ -1891,7 +1891,7 @@
         <v>23.68</v>
       </c>
       <c r="N34">
-        <v>-37.79</v>
+        <v>-37.1</v>
       </c>
     </row>
     <row r="35" spans="1:14">
@@ -1902,31 +1902,31 @@
         <v>46</v>
       </c>
       <c r="C35">
-        <v>-55.1</v>
+        <v>-54.4</v>
       </c>
       <c r="D35">
-        <v>-46.1</v>
+        <v>-44.1</v>
       </c>
       <c r="E35">
-        <v>-54.9</v>
+        <v>-50.9</v>
       </c>
       <c r="F35">
-        <v>1.9</v>
+        <v>15</v>
       </c>
       <c r="G35">
-        <v>-98.40000000000001</v>
+        <v>-87.40000000000001</v>
       </c>
       <c r="H35">
-        <v>1.51</v>
+        <v>-1.75</v>
       </c>
       <c r="I35">
-        <v>1.16</v>
+        <v>-0.17</v>
       </c>
       <c r="J35">
-        <v>0.08</v>
+        <v>0.01</v>
       </c>
       <c r="K35">
-        <v>-1.1</v>
+        <v>-1.41</v>
       </c>
     </row>
     <row r="36" spans="1:14">
@@ -1937,31 +1937,31 @@
         <v>47</v>
       </c>
       <c r="C36">
-        <v>-64</v>
+        <v>-61.6</v>
       </c>
       <c r="D36">
-        <v>-60.8</v>
+        <v>-54.6</v>
       </c>
       <c r="E36">
-        <v>-68.8</v>
+        <v>-56</v>
       </c>
       <c r="F36">
-        <v>0.7</v>
+        <v>48.1</v>
       </c>
       <c r="G36">
-        <v>-99.59999999999999</v>
+        <v>-68.90000000000001</v>
       </c>
       <c r="H36">
-        <v>0.6899999999999999</v>
+        <v>-1.33</v>
       </c>
       <c r="I36">
-        <v>0.11</v>
+        <v>-0.71</v>
       </c>
       <c r="J36">
-        <v>-1.35</v>
+        <v>-1.61</v>
       </c>
       <c r="K36">
-        <v>-1.1</v>
+        <v>-1.68</v>
       </c>
       <c r="L36">
         <v>-78.22</v>
@@ -1970,7 +1970,7 @@
         <v>-30.35</v>
       </c>
       <c r="N36">
-        <v>-77.95</v>
+        <v>-78.22</v>
       </c>
     </row>
     <row r="37" spans="1:14">
@@ -1981,31 +1981,31 @@
         <v>48</v>
       </c>
       <c r="C37">
-        <v>-11</v>
+        <v>-10.1</v>
       </c>
       <c r="D37">
-        <v>-10.5</v>
+        <v>-8.1</v>
       </c>
       <c r="E37">
-        <v>-35.1</v>
+        <v>-29.2</v>
       </c>
       <c r="F37">
-        <v>8.800000000000001</v>
+        <v>25.9</v>
       </c>
       <c r="G37">
-        <v>-92.59999999999999</v>
+        <v>-78.3</v>
       </c>
       <c r="H37">
-        <v>0.84</v>
+        <v>-0.96</v>
       </c>
       <c r="I37">
-        <v>0.36</v>
+        <v>-0.43</v>
       </c>
       <c r="J37">
-        <v>-0.3</v>
+        <v>-0.29</v>
       </c>
       <c r="K37">
-        <v>-0.61</v>
+        <v>-0.52</v>
       </c>
       <c r="L37">
         <v>3.16</v>
@@ -2014,7 +2014,7 @@
         <v>-25.39</v>
       </c>
       <c r="N37">
-        <v>-45.85</v>
+        <v>-46.96</v>
       </c>
     </row>
     <row r="38" spans="1:14">
@@ -2025,31 +2025,31 @@
         <v>49</v>
       </c>
       <c r="C38">
-        <v>-43.9</v>
+        <v>-41</v>
       </c>
       <c r="D38">
-        <v>-46.3</v>
+        <v>-39.6</v>
       </c>
       <c r="E38">
-        <v>-52.2</v>
+        <v>-39.7</v>
       </c>
       <c r="F38">
-        <v>0.6</v>
+        <v>42.9</v>
       </c>
       <c r="G38">
-        <v>-99.59999999999999</v>
+        <v>-68.90000000000001</v>
       </c>
       <c r="H38">
-        <v>0.96</v>
+        <v>-1.65</v>
       </c>
       <c r="I38">
-        <v>0.25</v>
+        <v>-0.68</v>
       </c>
       <c r="J38">
-        <v>-1.75</v>
+        <v>-1.17</v>
       </c>
       <c r="K38">
-        <v>-2.1</v>
+        <v>-2.66</v>
       </c>
       <c r="L38">
         <v>-38.28</v>
@@ -2058,7 +2058,7 @@
         <v>-3.15</v>
       </c>
       <c r="N38">
-        <v>-23.39</v>
+        <v>-22.57</v>
       </c>
     </row>
     <row r="39" spans="1:14">
@@ -2069,31 +2069,31 @@
         <v>50</v>
       </c>
       <c r="C39">
-        <v>-4.8</v>
+        <v>-3.6</v>
       </c>
       <c r="D39">
-        <v>1.2</v>
+        <v>4</v>
       </c>
       <c r="E39">
-        <v>-19.9</v>
+        <v>-12.9</v>
       </c>
       <c r="F39">
-        <v>15.8</v>
+        <v>36.6</v>
       </c>
       <c r="G39">
-        <v>-87.59999999999999</v>
+        <v>-71.09999999999999</v>
       </c>
       <c r="H39">
-        <v>0.68</v>
+        <v>-1.23</v>
       </c>
       <c r="I39">
-        <v>0.5600000000000001</v>
+        <v>-0.63</v>
       </c>
       <c r="J39">
-        <v>-0.39</v>
+        <v>-0.38</v>
       </c>
       <c r="K39">
-        <v>-0.87</v>
+        <v>-0.78</v>
       </c>
       <c r="L39">
         <v>3.16</v>
@@ -2102,7 +2102,7 @@
         <v>-25.39</v>
       </c>
       <c r="N39">
-        <v>-45.85</v>
+        <v>-46.96</v>
       </c>
     </row>
     <row r="40" spans="1:14">
@@ -2113,31 +2113,31 @@
         <v>51</v>
       </c>
       <c r="C40">
-        <v>-13.4</v>
+        <v>-12.3</v>
       </c>
       <c r="D40">
-        <v>-15</v>
+        <v>-12.5</v>
       </c>
       <c r="E40">
-        <v>-39.6</v>
+        <v>-33</v>
       </c>
       <c r="F40">
-        <v>4.9</v>
+        <v>23.8</v>
       </c>
       <c r="G40">
-        <v>-95.8</v>
+        <v>-79.40000000000001</v>
       </c>
       <c r="H40">
-        <v>0.9</v>
+        <v>-0.89</v>
       </c>
       <c r="I40">
-        <v>0.37</v>
+        <v>-0.37</v>
       </c>
       <c r="J40">
-        <v>-0.28</v>
+        <v>-0.26</v>
       </c>
       <c r="K40">
-        <v>-0.59</v>
+        <v>-0.51</v>
       </c>
       <c r="L40">
         <v>3.16</v>
@@ -2146,7 +2146,7 @@
         <v>-25.39</v>
       </c>
       <c r="N40">
-        <v>-45.85</v>
+        <v>-46.96</v>
       </c>
     </row>
     <row r="41" spans="1:14">
@@ -2157,31 +2157,31 @@
         <v>52</v>
       </c>
       <c r="C41">
-        <v>-52.9</v>
+        <v>-50.5</v>
       </c>
       <c r="D41">
-        <v>-52</v>
+        <v>-45.5</v>
       </c>
       <c r="E41">
-        <v>-56.2</v>
+        <v>-43</v>
       </c>
       <c r="F41">
-        <v>0.2</v>
+        <v>42</v>
       </c>
       <c r="G41">
-        <v>-99.8</v>
+        <v>-68.40000000000001</v>
       </c>
       <c r="H41">
-        <v>0.89</v>
+        <v>-1.29</v>
       </c>
       <c r="I41">
-        <v>0.39</v>
+        <v>-0.71</v>
       </c>
       <c r="J41">
-        <v>-1.28</v>
+        <v>-1.32</v>
       </c>
       <c r="K41">
-        <v>-1.59</v>
+        <v>-1.95</v>
       </c>
       <c r="L41">
         <v>-21.07</v>
@@ -2190,7 +2190,7 @@
         <v>23.68</v>
       </c>
       <c r="N41">
-        <v>-37.79</v>
+        <v>-37.1</v>
       </c>
     </row>
     <row r="42" spans="1:14">
@@ -2201,31 +2201,31 @@
         <v>53</v>
       </c>
       <c r="C42">
-        <v>-27.7</v>
+        <v>-26.8</v>
       </c>
       <c r="D42">
-        <v>-31.9</v>
+        <v>-29.8</v>
       </c>
       <c r="E42">
-        <v>-39.8</v>
+        <v>-34.6</v>
       </c>
       <c r="F42">
-        <v>3.6</v>
+        <v>18.9</v>
       </c>
       <c r="G42">
-        <v>-96.40000000000001</v>
+        <v>-80.90000000000001</v>
       </c>
       <c r="H42">
-        <v>0.9</v>
+        <v>-1.59</v>
       </c>
       <c r="I42">
-        <v>-0.36</v>
+        <v>-0.77</v>
       </c>
       <c r="J42">
-        <v>-1.21</v>
+        <v>-1.1</v>
       </c>
       <c r="K42">
-        <v>-1.29</v>
+        <v>-1.07</v>
       </c>
       <c r="L42">
         <v>-13.2</v>
@@ -2234,7 +2234,7 @@
         <v>-9.390000000000001</v>
       </c>
       <c r="N42">
-        <v>-6.7</v>
+        <v>-6.29</v>
       </c>
     </row>
   </sheetData>

--- a/Sistema-Operacional/Saidas/Monitoramento - Mananciais Críticos.xlsx
+++ b/Sistema-Operacional/Saidas/Monitoramento - Mananciais Críticos.xlsx
@@ -19,19 +19,19 @@
     <t>MUNICIPIO</t>
   </si>
   <si>
-    <t>AN_ANUAL_202009</t>
-  </si>
-  <si>
-    <t>AN_SEM_202009</t>
-  </si>
-  <si>
-    <t>AN_TRI_202009</t>
-  </si>
-  <si>
-    <t>AC_202009</t>
-  </si>
-  <si>
-    <t>AN_202009</t>
+    <t>AN_ANUAL_202010</t>
+  </si>
+  <si>
+    <t>AN_SEM_202010</t>
+  </si>
+  <si>
+    <t>AN_TRI_202010</t>
+  </si>
+  <si>
+    <t>AC_20201010</t>
+  </si>
+  <si>
+    <t>AN_20201010</t>
   </si>
   <si>
     <t>SPI1_202009</t>
@@ -591,19 +591,19 @@
         <v>14</v>
       </c>
       <c r="C2">
-        <v>-20.4</v>
+        <v>-25.2</v>
       </c>
       <c r="D2">
-        <v>-24.6</v>
+        <v>-38.7</v>
       </c>
       <c r="E2">
-        <v>-21.5</v>
+        <v>-39.7</v>
       </c>
       <c r="F2">
-        <v>15.4</v>
+        <v>15.2</v>
       </c>
       <c r="G2">
-        <v>-86.59999999999999</v>
+        <v>-90.8</v>
       </c>
       <c r="H2">
         <v>-1.96</v>
@@ -635,19 +635,19 @@
         <v>15</v>
       </c>
       <c r="C3">
+        <v>-36.2</v>
+      </c>
+      <c r="D3">
         <v>-33.9</v>
       </c>
-      <c r="D3">
-        <v>-30.2</v>
-      </c>
       <c r="E3">
-        <v>-29.9</v>
+        <v>-32.5</v>
       </c>
       <c r="F3">
-        <v>29.5</v>
+        <v>37.8</v>
       </c>
       <c r="G3">
-        <v>-72.2</v>
+        <v>-70.7</v>
       </c>
       <c r="H3">
         <v>-1.43</v>
@@ -679,19 +679,19 @@
         <v>16</v>
       </c>
       <c r="C4">
-        <v>-33</v>
+        <v>-35.9</v>
       </c>
       <c r="D4">
-        <v>-28.9</v>
+        <v>-39.6</v>
       </c>
       <c r="E4">
-        <v>-39.1</v>
+        <v>-52.2</v>
       </c>
       <c r="F4">
-        <v>8.1</v>
+        <v>16.3</v>
       </c>
       <c r="G4">
-        <v>-93.2</v>
+        <v>-91.40000000000001</v>
       </c>
       <c r="H4">
         <v>-1.76</v>
@@ -714,19 +714,19 @@
         <v>17</v>
       </c>
       <c r="C5">
-        <v>-7.7</v>
+        <v>-15.3</v>
       </c>
       <c r="D5">
-        <v>-3.4</v>
+        <v>-12.3</v>
       </c>
       <c r="E5">
-        <v>-28.4</v>
+        <v>-47.7</v>
       </c>
       <c r="F5">
-        <v>21.3</v>
+        <v>18.3</v>
       </c>
       <c r="G5">
-        <v>-80.5</v>
+        <v>-88.3</v>
       </c>
       <c r="H5">
         <v>-1.14</v>
@@ -758,19 +758,19 @@
         <v>18</v>
       </c>
       <c r="C6">
-        <v>-23.9</v>
+        <v>-30.2</v>
       </c>
       <c r="D6">
-        <v>-26.6</v>
+        <v>-47</v>
       </c>
       <c r="E6">
-        <v>-38.5</v>
+        <v>-66.8</v>
       </c>
       <c r="F6">
-        <v>18.5</v>
+        <v>3.3</v>
       </c>
       <c r="G6">
-        <v>-80.59999999999999</v>
+        <v>-98.90000000000001</v>
       </c>
       <c r="H6">
         <v>-1.58</v>
@@ -802,19 +802,19 @@
         <v>19</v>
       </c>
       <c r="C7">
-        <v>-16.1</v>
+        <v>-21.8</v>
       </c>
       <c r="D7">
-        <v>-16.7</v>
+        <v>-27.5</v>
       </c>
       <c r="E7">
-        <v>-17</v>
+        <v>-45.6</v>
       </c>
       <c r="F7">
-        <v>34.6</v>
+        <v>28.6</v>
       </c>
       <c r="G7">
-        <v>-61.5</v>
+        <v>-86.8</v>
       </c>
       <c r="H7">
         <v>-0.53</v>
@@ -837,19 +837,19 @@
         <v>20</v>
       </c>
       <c r="C8">
-        <v>-54</v>
+        <v>-53.3</v>
       </c>
       <c r="D8">
-        <v>-42</v>
+        <v>-46.2</v>
       </c>
       <c r="E8">
-        <v>-51.5</v>
+        <v>-49.7</v>
       </c>
       <c r="F8">
-        <v>1.4</v>
+        <v>36</v>
       </c>
       <c r="G8">
-        <v>-99</v>
+        <v>-76.8</v>
       </c>
       <c r="H8">
         <v>-2.93</v>
@@ -881,19 +881,19 @@
         <v>21</v>
       </c>
       <c r="C9">
-        <v>-23</v>
+        <v>-27.8</v>
       </c>
       <c r="D9">
-        <v>-19.9</v>
+        <v>-29.4</v>
       </c>
       <c r="E9">
-        <v>-36.1</v>
+        <v>-49</v>
       </c>
       <c r="F9">
-        <v>40.9</v>
+        <v>38.4</v>
       </c>
       <c r="G9">
-        <v>-69</v>
+        <v>-82.59999999999999</v>
       </c>
       <c r="H9">
         <v>-0.63</v>
@@ -916,19 +916,19 @@
         <v>22</v>
       </c>
       <c r="C10">
-        <v>-51.6</v>
+        <v>-53</v>
       </c>
       <c r="D10">
-        <v>-46.3</v>
+        <v>-50.2</v>
       </c>
       <c r="E10">
-        <v>-45.4</v>
+        <v>-47</v>
       </c>
       <c r="F10">
-        <v>34.9</v>
+        <v>37.3</v>
       </c>
       <c r="G10">
-        <v>-74.3</v>
+        <v>-73.90000000000001</v>
       </c>
       <c r="H10">
         <v>-1.62</v>
@@ -960,19 +960,19 @@
         <v>23</v>
       </c>
       <c r="C11">
-        <v>-47.3</v>
+        <v>-50.2</v>
       </c>
       <c r="D11">
-        <v>-43.6</v>
+        <v>-48.5</v>
       </c>
       <c r="E11">
-        <v>-43</v>
+        <v>-51.1</v>
       </c>
       <c r="F11">
-        <v>42.6</v>
+        <v>44.8</v>
       </c>
       <c r="G11">
-        <v>-67.90000000000001</v>
+        <v>-74.7</v>
       </c>
       <c r="H11">
         <v>-1.48</v>
@@ -1004,19 +1004,19 @@
         <v>24</v>
       </c>
       <c r="C12">
-        <v>-47.3</v>
+        <v>-49.6</v>
       </c>
       <c r="D12">
-        <v>-44</v>
+        <v>-48.4</v>
       </c>
       <c r="E12">
-        <v>-43.4</v>
+        <v>-50.6</v>
       </c>
       <c r="F12">
-        <v>44.1</v>
+        <v>48.7</v>
       </c>
       <c r="G12">
-        <v>-68</v>
+        <v>-73.2</v>
       </c>
       <c r="H12">
         <v>-1.51</v>
@@ -1048,19 +1048,19 @@
         <v>25</v>
       </c>
       <c r="C13">
-        <v>-22.6</v>
+        <v>-26.5</v>
       </c>
       <c r="D13">
-        <v>-20</v>
+        <v>-28.2</v>
       </c>
       <c r="E13">
-        <v>-40.8</v>
+        <v>-52.4</v>
       </c>
       <c r="F13">
-        <v>38.4</v>
+        <v>38.9</v>
       </c>
       <c r="G13">
-        <v>-72</v>
+        <v>-82</v>
       </c>
       <c r="H13">
         <v>-0.77</v>
@@ -1083,19 +1083,19 @@
         <v>26</v>
       </c>
       <c r="C14">
-        <v>-54.2</v>
+        <v>-57.7</v>
       </c>
       <c r="D14">
-        <v>-48.3</v>
+        <v>-50.2</v>
       </c>
       <c r="E14">
-        <v>-48.3</v>
+        <v>-55</v>
       </c>
       <c r="F14">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="G14">
-        <v>-74.8</v>
+        <v>-77</v>
       </c>
       <c r="H14">
         <v>-1.34</v>
@@ -1127,19 +1127,19 @@
         <v>21</v>
       </c>
       <c r="C15">
-        <v>-20.7</v>
+        <v>-26.7</v>
       </c>
       <c r="D15">
-        <v>-17.5</v>
+        <v>-28.1</v>
       </c>
       <c r="E15">
-        <v>-38.6</v>
+        <v>-61.1</v>
       </c>
       <c r="F15">
-        <v>42.7</v>
+        <v>32.9</v>
       </c>
       <c r="G15">
-        <v>-69.40000000000001</v>
+        <v>-86.2</v>
       </c>
       <c r="H15">
         <v>-1.51</v>
@@ -1171,19 +1171,19 @@
         <v>27</v>
       </c>
       <c r="C16">
-        <v>-15.4</v>
+        <v>-22.6</v>
       </c>
       <c r="D16">
-        <v>-9.5</v>
+        <v>-18.1</v>
       </c>
       <c r="E16">
-        <v>-23.1</v>
+        <v>-59.1</v>
       </c>
       <c r="F16">
-        <v>40.2</v>
+        <v>25.2</v>
       </c>
       <c r="G16">
-        <v>-71.5</v>
+        <v>-89.2</v>
       </c>
       <c r="H16">
         <v>-1.31</v>
@@ -1215,19 +1215,19 @@
         <v>28</v>
       </c>
       <c r="C17">
-        <v>-47.4</v>
+        <v>-46.8</v>
       </c>
       <c r="D17">
-        <v>-37.2</v>
+        <v>-44.2</v>
       </c>
       <c r="E17">
-        <v>-53.8</v>
+        <v>-61.8</v>
       </c>
       <c r="F17">
-        <v>26.2</v>
+        <v>28.4</v>
       </c>
       <c r="G17">
-        <v>-81</v>
+        <v>-84.40000000000001</v>
       </c>
       <c r="H17">
         <v>-2.06</v>
@@ -1250,19 +1250,19 @@
         <v>29</v>
       </c>
       <c r="C18">
-        <v>-35.3</v>
+        <v>-38.7</v>
       </c>
       <c r="D18">
-        <v>-37.5</v>
+        <v>-49.3</v>
       </c>
       <c r="E18">
-        <v>-36.4</v>
+        <v>-50.9</v>
       </c>
       <c r="F18">
-        <v>14.4</v>
+        <v>16.2</v>
       </c>
       <c r="G18">
-        <v>-89.3</v>
+        <v>-92.09999999999999</v>
       </c>
       <c r="H18">
         <v>-1.96</v>
@@ -1294,19 +1294,19 @@
         <v>30</v>
       </c>
       <c r="C19">
-        <v>-23.5</v>
+        <v>-28.3</v>
       </c>
       <c r="D19">
-        <v>-7.4</v>
+        <v>-18.7</v>
       </c>
       <c r="E19">
-        <v>-17.2</v>
+        <v>-41.7</v>
       </c>
       <c r="F19">
-        <v>51.4</v>
+        <v>60.4</v>
       </c>
       <c r="G19">
-        <v>-51.8</v>
+        <v>-74</v>
       </c>
       <c r="H19">
         <v>-2.06</v>
@@ -1329,19 +1329,19 @@
         <v>31</v>
       </c>
       <c r="C20">
-        <v>-34.3</v>
+        <v>-37.7</v>
       </c>
       <c r="D20">
-        <v>-30.5</v>
+        <v>-38.7</v>
       </c>
       <c r="E20">
-        <v>-31.2</v>
+        <v>-44.4</v>
       </c>
       <c r="F20">
-        <v>8.6</v>
+        <v>18.6</v>
       </c>
       <c r="G20">
-        <v>-93.59999999999999</v>
+        <v>-90.7</v>
       </c>
       <c r="H20">
         <v>-1.09</v>
@@ -1364,19 +1364,19 @@
         <v>32</v>
       </c>
       <c r="C21">
-        <v>-15.9</v>
+        <v>-22.9</v>
       </c>
       <c r="D21">
-        <v>-10.4</v>
+        <v>-20.8</v>
       </c>
       <c r="E21">
-        <v>-22.9</v>
+        <v>-60</v>
       </c>
       <c r="F21">
-        <v>44.6</v>
+        <v>25</v>
       </c>
       <c r="G21">
-        <v>-67.7</v>
+        <v>-89.3</v>
       </c>
       <c r="H21">
         <v>-1.5</v>
@@ -1402,19 +1402,19 @@
         <v>33</v>
       </c>
       <c r="C22">
-        <v>-26.8</v>
+        <v>-31.5</v>
       </c>
       <c r="D22">
-        <v>-10.9</v>
+        <v>-20.8</v>
       </c>
       <c r="E22">
-        <v>-15</v>
+        <v>-41</v>
       </c>
       <c r="F22">
-        <v>31.4</v>
+        <v>44.7</v>
       </c>
       <c r="G22">
-        <v>-75.59999999999999</v>
+        <v>-81.2</v>
       </c>
       <c r="H22">
         <v>-1.57</v>
@@ -1437,19 +1437,19 @@
         <v>34</v>
       </c>
       <c r="C23">
-        <v>-23.3</v>
+        <v>-30.1</v>
       </c>
       <c r="D23">
-        <v>-22.7</v>
+        <v>-36.2</v>
       </c>
       <c r="E23">
-        <v>-28.5</v>
+        <v>-56.8</v>
       </c>
       <c r="F23">
-        <v>31.9</v>
+        <v>10.9</v>
       </c>
       <c r="G23">
-        <v>-70.40000000000001</v>
+        <v>-94.8</v>
       </c>
       <c r="H23">
         <v>-1.14</v>
@@ -1472,19 +1472,19 @@
         <v>35</v>
       </c>
       <c r="C24">
-        <v>-26.1</v>
+        <v>-32.6</v>
       </c>
       <c r="D24">
-        <v>-24.9</v>
+        <v>-36.7</v>
       </c>
       <c r="E24">
-        <v>-30</v>
+        <v>-53</v>
       </c>
       <c r="F24">
-        <v>23.3</v>
+        <v>20.9</v>
       </c>
       <c r="G24">
-        <v>-79.90000000000001</v>
+        <v>-91.09999999999999</v>
       </c>
       <c r="H24">
         <v>-0.66</v>
@@ -1507,19 +1507,19 @@
         <v>36</v>
       </c>
       <c r="C25">
-        <v>-43.5</v>
+        <v>-47</v>
       </c>
       <c r="D25">
-        <v>-42.5</v>
+        <v>-47.2</v>
       </c>
       <c r="E25">
-        <v>-41.5</v>
+        <v>-42.3</v>
       </c>
       <c r="F25">
-        <v>69.09999999999999</v>
+        <v>32.4</v>
       </c>
       <c r="G25">
-        <v>-45.3</v>
+        <v>-83</v>
       </c>
       <c r="H25">
         <v>-1.46</v>
@@ -1542,19 +1542,19 @@
         <v>37</v>
       </c>
       <c r="C26">
-        <v>-27.5</v>
+        <v>-32.4</v>
       </c>
       <c r="D26">
-        <v>-32.9</v>
+        <v>-45.2</v>
       </c>
       <c r="E26">
-        <v>-39.9</v>
+        <v>-51.7</v>
       </c>
       <c r="F26">
-        <v>8.800000000000001</v>
+        <v>12.4</v>
       </c>
       <c r="G26">
-        <v>-92.59999999999999</v>
+        <v>-91.59999999999999</v>
       </c>
       <c r="H26">
         <v>-1.62</v>
@@ -1580,16 +1580,16 @@
         <v>-51.9</v>
       </c>
       <c r="D27">
-        <v>-42.6</v>
+        <v>-50.7</v>
       </c>
       <c r="E27">
-        <v>-50.8</v>
+        <v>-63</v>
       </c>
       <c r="F27">
-        <v>16.4</v>
+        <v>24.9</v>
       </c>
       <c r="G27">
-        <v>-85.5</v>
+        <v>-87.2</v>
       </c>
       <c r="H27">
         <v>-1.58</v>
@@ -1612,19 +1612,19 @@
         <v>39</v>
       </c>
       <c r="C28">
-        <v>-12.9</v>
+        <v>-21.8</v>
       </c>
       <c r="D28">
-        <v>-13.1</v>
+        <v>-21.5</v>
       </c>
       <c r="E28">
-        <v>-33.8</v>
+        <v>-53.9</v>
       </c>
       <c r="F28">
-        <v>24.5</v>
+        <v>25.7</v>
       </c>
       <c r="G28">
-        <v>-78.59999999999999</v>
+        <v>-87.40000000000001</v>
       </c>
       <c r="H28">
         <v>-0.84</v>
@@ -1656,19 +1656,19 @@
         <v>40</v>
       </c>
       <c r="C29">
-        <v>-49.3</v>
+        <v>-52.6</v>
       </c>
       <c r="D29">
-        <v>-45.6</v>
+        <v>-47.9</v>
       </c>
       <c r="E29">
-        <v>-48</v>
+        <v>-60.5</v>
       </c>
       <c r="F29">
-        <v>32</v>
+        <v>42.5</v>
       </c>
       <c r="G29">
-        <v>-77</v>
+        <v>-76.5</v>
       </c>
       <c r="H29">
         <v>-1.26</v>
@@ -1700,19 +1700,19 @@
         <v>41</v>
       </c>
       <c r="C30">
-        <v>-5.7</v>
+        <v>-15.6</v>
       </c>
       <c r="D30">
-        <v>0.4</v>
+        <v>-10.7</v>
       </c>
       <c r="E30">
-        <v>-16.8</v>
+        <v>-56.8</v>
       </c>
       <c r="F30">
-        <v>32.3</v>
+        <v>25.5</v>
       </c>
       <c r="G30">
-        <v>-75</v>
+        <v>-89.3</v>
       </c>
       <c r="H30">
         <v>-1.17</v>
@@ -1744,19 +1744,19 @@
         <v>42</v>
       </c>
       <c r="C31">
-        <v>-16</v>
+        <v>-23.7</v>
       </c>
       <c r="D31">
-        <v>-13.1</v>
+        <v>-20.1</v>
       </c>
       <c r="E31">
-        <v>-33.2</v>
+        <v>-52</v>
       </c>
       <c r="F31">
-        <v>32.7</v>
+        <v>39.4</v>
       </c>
       <c r="G31">
-        <v>-72.2</v>
+        <v>-82.5</v>
       </c>
       <c r="H31">
         <v>-0.8100000000000001</v>
@@ -1779,19 +1779,19 @@
         <v>43</v>
       </c>
       <c r="C32">
-        <v>-12.2</v>
+        <v>-21.3</v>
       </c>
       <c r="D32">
-        <v>-11.7</v>
+        <v>-20.5</v>
       </c>
       <c r="E32">
-        <v>-33.3</v>
+        <v>-53.7</v>
       </c>
       <c r="F32">
-        <v>26.9</v>
+        <v>24.9</v>
       </c>
       <c r="G32">
-        <v>-76.3</v>
+        <v>-88</v>
       </c>
       <c r="H32">
         <v>-0.8100000000000001</v>
@@ -1823,19 +1823,19 @@
         <v>44</v>
       </c>
       <c r="C33">
-        <v>-29.6</v>
+        <v>-37.3</v>
       </c>
       <c r="D33">
-        <v>-29.4</v>
+        <v>-40.4</v>
       </c>
       <c r="E33">
-        <v>-46.9</v>
+        <v>-68.40000000000001</v>
       </c>
       <c r="F33">
-        <v>25.7</v>
+        <v>6.8</v>
       </c>
       <c r="G33">
-        <v>-78.90000000000001</v>
+        <v>-96.59999999999999</v>
       </c>
       <c r="H33">
         <v>-1.08</v>
@@ -1858,19 +1858,19 @@
         <v>45</v>
       </c>
       <c r="C34">
-        <v>-53.3</v>
+        <v>-57</v>
       </c>
       <c r="D34">
-        <v>-46.8</v>
+        <v>-49.2</v>
       </c>
       <c r="E34">
-        <v>-44.6</v>
+        <v>-53.4</v>
       </c>
       <c r="F34">
-        <v>37.5</v>
+        <v>34.8</v>
       </c>
       <c r="G34">
-        <v>-70.09999999999999</v>
+        <v>-77.90000000000001</v>
       </c>
       <c r="H34">
         <v>-1.32</v>
@@ -1902,19 +1902,19 @@
         <v>46</v>
       </c>
       <c r="C35">
-        <v>-54.4</v>
+        <v>-54.7</v>
       </c>
       <c r="D35">
-        <v>-44.1</v>
+        <v>-51.7</v>
       </c>
       <c r="E35">
-        <v>-50.9</v>
+        <v>-64.2</v>
       </c>
       <c r="F35">
-        <v>15</v>
+        <v>24.5</v>
       </c>
       <c r="G35">
-        <v>-87.40000000000001</v>
+        <v>-87.90000000000001</v>
       </c>
       <c r="H35">
         <v>-1.75</v>
@@ -1937,19 +1937,19 @@
         <v>47</v>
       </c>
       <c r="C36">
-        <v>-61.6</v>
+        <v>-64.09999999999999</v>
       </c>
       <c r="D36">
-        <v>-54.6</v>
+        <v>-56.7</v>
       </c>
       <c r="E36">
-        <v>-56</v>
+        <v>-66.40000000000001</v>
       </c>
       <c r="F36">
-        <v>48.1</v>
+        <v>38.6</v>
       </c>
       <c r="G36">
-        <v>-68.90000000000001</v>
+        <v>-81.7</v>
       </c>
       <c r="H36">
         <v>-1.33</v>
@@ -1981,19 +1981,19 @@
         <v>48</v>
       </c>
       <c r="C37">
-        <v>-10.1</v>
+        <v>-19.8</v>
       </c>
       <c r="D37">
-        <v>-8.1</v>
+        <v>-15.9</v>
       </c>
       <c r="E37">
-        <v>-29.2</v>
+        <v>-56.4</v>
       </c>
       <c r="F37">
-        <v>25.9</v>
+        <v>26.9</v>
       </c>
       <c r="G37">
-        <v>-78.3</v>
+        <v>-87.2</v>
       </c>
       <c r="H37">
         <v>-0.96</v>
@@ -2025,19 +2025,19 @@
         <v>49</v>
       </c>
       <c r="C38">
-        <v>-41</v>
+        <v>-42.5</v>
       </c>
       <c r="D38">
-        <v>-39.6</v>
+        <v>-42.6</v>
       </c>
       <c r="E38">
-        <v>-39.7</v>
+        <v>-40.6</v>
       </c>
       <c r="F38">
-        <v>42.9</v>
+        <v>33.8</v>
       </c>
       <c r="G38">
-        <v>-68.90000000000001</v>
+        <v>-74.2</v>
       </c>
       <c r="H38">
         <v>-1.65</v>
@@ -2069,19 +2069,19 @@
         <v>50</v>
       </c>
       <c r="C39">
-        <v>-3.6</v>
+        <v>-13.8</v>
       </c>
       <c r="D39">
-        <v>4</v>
+        <v>-7.6</v>
       </c>
       <c r="E39">
-        <v>-12.9</v>
+        <v>-55.7</v>
       </c>
       <c r="F39">
-        <v>36.6</v>
+        <v>26.2</v>
       </c>
       <c r="G39">
-        <v>-71.09999999999999</v>
+        <v>-89</v>
       </c>
       <c r="H39">
         <v>-1.23</v>
@@ -2113,19 +2113,19 @@
         <v>51</v>
       </c>
       <c r="C40">
-        <v>-12.3</v>
+        <v>-21.5</v>
       </c>
       <c r="D40">
-        <v>-12.5</v>
+        <v>-19.3</v>
       </c>
       <c r="E40">
-        <v>-33</v>
+        <v>-55.1</v>
       </c>
       <c r="F40">
-        <v>23.8</v>
+        <v>32.5</v>
       </c>
       <c r="G40">
-        <v>-79.40000000000001</v>
+        <v>-84.7</v>
       </c>
       <c r="H40">
         <v>-0.89</v>
@@ -2157,19 +2157,19 @@
         <v>52</v>
       </c>
       <c r="C41">
-        <v>-50.5</v>
+        <v>-54.5</v>
       </c>
       <c r="D41">
-        <v>-45.5</v>
+        <v>-50.2</v>
       </c>
       <c r="E41">
-        <v>-43</v>
+        <v>-53.2</v>
       </c>
       <c r="F41">
-        <v>42</v>
+        <v>37.2</v>
       </c>
       <c r="G41">
-        <v>-68.40000000000001</v>
+        <v>-78.7</v>
       </c>
       <c r="H41">
         <v>-1.29</v>
@@ -2201,19 +2201,19 @@
         <v>53</v>
       </c>
       <c r="C42">
-        <v>-26.8</v>
+        <v>-32.6</v>
       </c>
       <c r="D42">
-        <v>-29.8</v>
+        <v>-45.2</v>
       </c>
       <c r="E42">
-        <v>-34.6</v>
+        <v>-61.3</v>
       </c>
       <c r="F42">
-        <v>18.9</v>
+        <v>5.8</v>
       </c>
       <c r="G42">
-        <v>-80.90000000000001</v>
+        <v>-97.90000000000001</v>
       </c>
       <c r="H42">
         <v>-1.59</v>

--- a/Sistema-Operacional/Saidas/Monitoramento - Mananciais Críticos.xlsx
+++ b/Sistema-Operacional/Saidas/Monitoramento - Mananciais Críticos.xlsx
@@ -46,13 +46,13 @@
     <t>SPI12_202009</t>
   </si>
   <si>
-    <t>AN_COTA_202007</t>
-  </si>
-  <si>
     <t>AN_COTA_202008</t>
   </si>
   <si>
-    <t>AN_COTA_20200930</t>
+    <t>AN_COTA_202009</t>
+  </si>
+  <si>
+    <t>AN_COTA_20201010</t>
   </si>
   <si>
     <t>SIA</t>
@@ -618,13 +618,13 @@
         <v>-0.85</v>
       </c>
       <c r="L2">
-        <v>-10.64</v>
+        <v>-2.49</v>
       </c>
       <c r="M2">
-        <v>-2.49</v>
+        <v>-5.68</v>
       </c>
       <c r="N2">
-        <v>-5.68</v>
+        <v>-10.47</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -662,13 +662,13 @@
         <v>-1.8</v>
       </c>
       <c r="L3">
-        <v>-50.72</v>
+        <v>8.51</v>
       </c>
       <c r="M3">
-        <v>8.51</v>
+        <v>-54.38</v>
       </c>
       <c r="N3">
-        <v>-54.38</v>
+        <v>-49.47</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -741,13 +741,13 @@
         <v>-0.29</v>
       </c>
       <c r="L5">
-        <v>3.16</v>
+        <v>-25.39</v>
       </c>
       <c r="M5">
-        <v>-25.39</v>
+        <v>-46.96</v>
       </c>
       <c r="N5">
-        <v>-46.96</v>
+        <v>-64.5</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -785,13 +785,13 @@
         <v>-1.07</v>
       </c>
       <c r="L6">
-        <v>-13.2</v>
+        <v>-9.390000000000001</v>
       </c>
       <c r="M6">
-        <v>-9.390000000000001</v>
+        <v>-6.29</v>
       </c>
       <c r="N6">
-        <v>-6.29</v>
+        <v>-7.9</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -864,13 +864,13 @@
         <v>-2.14</v>
       </c>
       <c r="L8">
-        <v>-0.99</v>
+        <v>-8.06</v>
       </c>
       <c r="M8">
-        <v>-8.06</v>
+        <v>-5.66</v>
       </c>
       <c r="N8">
-        <v>-5.66</v>
+        <v>-5.83</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -943,13 +943,13 @@
         <v>-2.71</v>
       </c>
       <c r="L10">
-        <v>-38.28</v>
+        <v>-3.15</v>
       </c>
       <c r="M10">
-        <v>-3.15</v>
+        <v>-22.57</v>
       </c>
       <c r="N10">
-        <v>-22.57</v>
+        <v>-34.83</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -987,13 +987,13 @@
         <v>-1.89</v>
       </c>
       <c r="L11">
-        <v>-30.45</v>
+        <v>20.08</v>
       </c>
       <c r="M11">
-        <v>20.08</v>
+        <v>-19.6</v>
       </c>
       <c r="N11">
-        <v>-19.6</v>
+        <v>-15.45</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -1031,13 +1031,13 @@
         <v>-1.79</v>
       </c>
       <c r="L12">
-        <v>-30.45</v>
+        <v>20.08</v>
       </c>
       <c r="M12">
-        <v>20.08</v>
+        <v>-19.6</v>
       </c>
       <c r="N12">
-        <v>-19.6</v>
+        <v>-15.45</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -1110,13 +1110,13 @@
         <v>-1.76</v>
       </c>
       <c r="L14">
-        <v>-21.07</v>
+        <v>23.68</v>
       </c>
       <c r="M14">
-        <v>23.68</v>
+        <v>-37.1</v>
       </c>
       <c r="N14">
-        <v>-37.1</v>
+        <v>-42</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -1154,13 +1154,13 @@
         <v>-0.92</v>
       </c>
       <c r="L15">
-        <v>-4.67</v>
+        <v>1.32</v>
       </c>
       <c r="M15">
-        <v>1.32</v>
+        <v>-26.98</v>
       </c>
       <c r="N15">
-        <v>-26.98</v>
+        <v>-46.86</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -1198,13 +1198,13 @@
         <v>-0.87</v>
       </c>
       <c r="L16">
-        <v>4.66</v>
+        <v>7.01</v>
       </c>
       <c r="M16">
-        <v>7.01</v>
+        <v>-9.210000000000001</v>
       </c>
       <c r="N16">
-        <v>-9.210000000000001</v>
+        <v>-29.11</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1277,13 +1277,13 @@
         <v>-0.84</v>
       </c>
       <c r="L18">
-        <v>-10.64</v>
+        <v>-2.49</v>
       </c>
       <c r="M18">
-        <v>-2.49</v>
+        <v>-5.68</v>
       </c>
       <c r="N18">
-        <v>-5.68</v>
+        <v>-10.47</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1390,9 +1390,6 @@
       <c r="K21">
         <v>-1.1</v>
       </c>
-      <c r="L21">
-        <v>330.35</v>
-      </c>
     </row>
     <row r="22" spans="1:14">
       <c r="A22" s="1">
@@ -1639,13 +1636,13 @@
         <v>-0.58</v>
       </c>
       <c r="L28">
-        <v>3.16</v>
+        <v>-25.39</v>
       </c>
       <c r="M28">
-        <v>-25.39</v>
+        <v>-46.96</v>
       </c>
       <c r="N28">
-        <v>-46.96</v>
+        <v>-64.5</v>
       </c>
     </row>
     <row r="29" spans="1:14">
@@ -1683,13 +1680,13 @@
         <v>-0.95</v>
       </c>
       <c r="L29">
-        <v>-36.83</v>
+        <v>13.78</v>
       </c>
       <c r="M29">
-        <v>13.78</v>
+        <v>-56.55</v>
       </c>
       <c r="N29">
-        <v>-56.55</v>
+        <v>-64.61</v>
       </c>
     </row>
     <row r="30" spans="1:14">
@@ -1727,13 +1724,13 @@
         <v>-0.71</v>
       </c>
       <c r="L30">
-        <v>3.16</v>
+        <v>-25.39</v>
       </c>
       <c r="M30">
-        <v>-25.39</v>
+        <v>-46.96</v>
       </c>
       <c r="N30">
-        <v>-46.96</v>
+        <v>-64.5</v>
       </c>
     </row>
     <row r="31" spans="1:14">
@@ -1806,13 +1803,13 @@
         <v>-0.6</v>
       </c>
       <c r="L32">
-        <v>3.16</v>
+        <v>-25.39</v>
       </c>
       <c r="M32">
-        <v>-25.39</v>
+        <v>-46.96</v>
       </c>
       <c r="N32">
-        <v>-46.96</v>
+        <v>-64.5</v>
       </c>
     </row>
     <row r="33" spans="1:14">
@@ -1885,13 +1882,13 @@
         <v>-1.76</v>
       </c>
       <c r="L34">
-        <v>-21.07</v>
+        <v>23.68</v>
       </c>
       <c r="M34">
-        <v>23.68</v>
+        <v>-37.1</v>
       </c>
       <c r="N34">
-        <v>-37.1</v>
+        <v>-42</v>
       </c>
     </row>
     <row r="35" spans="1:14">
@@ -1964,13 +1961,13 @@
         <v>-1.68</v>
       </c>
       <c r="L36">
+        <v>-30.35</v>
+      </c>
+      <c r="M36">
         <v>-78.22</v>
       </c>
-      <c r="M36">
-        <v>-30.35</v>
-      </c>
       <c r="N36">
-        <v>-78.22</v>
+        <v>-73.31999999999999</v>
       </c>
     </row>
     <row r="37" spans="1:14">
@@ -2008,13 +2005,13 @@
         <v>-0.52</v>
       </c>
       <c r="L37">
-        <v>3.16</v>
+        <v>-25.39</v>
       </c>
       <c r="M37">
-        <v>-25.39</v>
+        <v>-46.96</v>
       </c>
       <c r="N37">
-        <v>-46.96</v>
+        <v>-64.5</v>
       </c>
     </row>
     <row r="38" spans="1:14">
@@ -2052,13 +2049,13 @@
         <v>-2.66</v>
       </c>
       <c r="L38">
-        <v>-38.28</v>
+        <v>-3.15</v>
       </c>
       <c r="M38">
-        <v>-3.15</v>
+        <v>-22.57</v>
       </c>
       <c r="N38">
-        <v>-22.57</v>
+        <v>-34.83</v>
       </c>
     </row>
     <row r="39" spans="1:14">
@@ -2096,13 +2093,13 @@
         <v>-0.78</v>
       </c>
       <c r="L39">
-        <v>3.16</v>
+        <v>-25.39</v>
       </c>
       <c r="M39">
-        <v>-25.39</v>
+        <v>-46.96</v>
       </c>
       <c r="N39">
-        <v>-46.96</v>
+        <v>-64.5</v>
       </c>
     </row>
     <row r="40" spans="1:14">
@@ -2140,13 +2137,13 @@
         <v>-0.51</v>
       </c>
       <c r="L40">
-        <v>3.16</v>
+        <v>-25.39</v>
       </c>
       <c r="M40">
-        <v>-25.39</v>
+        <v>-46.96</v>
       </c>
       <c r="N40">
-        <v>-46.96</v>
+        <v>-64.5</v>
       </c>
     </row>
     <row r="41" spans="1:14">
@@ -2184,13 +2181,13 @@
         <v>-1.95</v>
       </c>
       <c r="L41">
-        <v>-21.07</v>
+        <v>23.68</v>
       </c>
       <c r="M41">
-        <v>23.68</v>
+        <v>-37.1</v>
       </c>
       <c r="N41">
-        <v>-37.1</v>
+        <v>-42</v>
       </c>
     </row>
     <row r="42" spans="1:14">
@@ -2228,13 +2225,13 @@
         <v>-1.07</v>
       </c>
       <c r="L42">
-        <v>-13.2</v>
+        <v>-9.390000000000001</v>
       </c>
       <c r="M42">
-        <v>-9.390000000000001</v>
+        <v>-6.29</v>
       </c>
       <c r="N42">
-        <v>-6.29</v>
+        <v>-7.9</v>
       </c>
     </row>
   </sheetData>

--- a/Sistema-Operacional/Saidas/Monitoramento - Mananciais Críticos.xlsx
+++ b/Sistema-Operacional/Saidas/Monitoramento - Mananciais Críticos.xlsx
@@ -28,10 +28,10 @@
     <t>AN_TRI_202010</t>
   </si>
   <si>
-    <t>AC_20201010</t>
-  </si>
-  <si>
-    <t>AN_20201010</t>
+    <t>AC_20201020</t>
+  </si>
+  <si>
+    <t>AN_20201020</t>
   </si>
   <si>
     <t>SPI1_202009</t>
@@ -52,7 +52,7 @@
     <t>AN_COTA_202009</t>
   </si>
   <si>
-    <t>AN_COTA_20201010</t>
+    <t>AN_COTA_20201020</t>
   </si>
   <si>
     <t>SIA</t>
@@ -591,19 +591,19 @@
         <v>14</v>
       </c>
       <c r="C2">
-        <v>-25.2</v>
+        <v>-23</v>
       </c>
       <c r="D2">
-        <v>-38.7</v>
+        <v>-33.3</v>
       </c>
       <c r="E2">
-        <v>-39.7</v>
+        <v>-29.5</v>
       </c>
       <c r="F2">
-        <v>15.2</v>
+        <v>49.8</v>
       </c>
       <c r="G2">
-        <v>-90.8</v>
+        <v>-69.8</v>
       </c>
       <c r="H2">
         <v>-1.96</v>
@@ -624,7 +624,7 @@
         <v>-5.68</v>
       </c>
       <c r="N2">
-        <v>-10.47</v>
+        <v>-9.94</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -668,7 +668,7 @@
         <v>-54.38</v>
       </c>
       <c r="N3">
-        <v>-49.47</v>
+        <v>-49.3</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -679,19 +679,19 @@
         <v>16</v>
       </c>
       <c r="C4">
-        <v>-35.9</v>
+        <v>-35.2</v>
       </c>
       <c r="D4">
-        <v>-39.6</v>
+        <v>-37.9</v>
       </c>
       <c r="E4">
-        <v>-52.2</v>
+        <v>-48.8</v>
       </c>
       <c r="F4">
-        <v>16.3</v>
+        <v>29.3</v>
       </c>
       <c r="G4">
-        <v>-91.40000000000001</v>
+        <v>-84.59999999999999</v>
       </c>
       <c r="H4">
         <v>-1.76</v>
@@ -714,19 +714,19 @@
         <v>17</v>
       </c>
       <c r="C5">
-        <v>-15.3</v>
+        <v>-12.6</v>
       </c>
       <c r="D5">
-        <v>-12.3</v>
+        <v>-6.4</v>
       </c>
       <c r="E5">
-        <v>-47.7</v>
+        <v>-36</v>
       </c>
       <c r="F5">
-        <v>18.3</v>
+        <v>56.5</v>
       </c>
       <c r="G5">
-        <v>-88.3</v>
+        <v>-63.8</v>
       </c>
       <c r="H5">
         <v>-1.14</v>
@@ -747,7 +747,7 @@
         <v>-46.96</v>
       </c>
       <c r="N5">
-        <v>-64.5</v>
+        <v>-63.14</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -758,19 +758,19 @@
         <v>18</v>
       </c>
       <c r="C6">
-        <v>-30.2</v>
+        <v>-29.1</v>
       </c>
       <c r="D6">
-        <v>-47</v>
+        <v>-44.8</v>
       </c>
       <c r="E6">
-        <v>-66.8</v>
+        <v>-63.1</v>
       </c>
       <c r="F6">
-        <v>3.3</v>
+        <v>21.2</v>
       </c>
       <c r="G6">
-        <v>-98.90000000000001</v>
+        <v>-93</v>
       </c>
       <c r="H6">
         <v>-1.58</v>
@@ -791,7 +791,7 @@
         <v>-6.29</v>
       </c>
       <c r="N6">
-        <v>-7.9</v>
+        <v>-5.76</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -802,19 +802,19 @@
         <v>19</v>
       </c>
       <c r="C7">
-        <v>-21.8</v>
+        <v>-20.4</v>
       </c>
       <c r="D7">
-        <v>-27.5</v>
+        <v>-24.3</v>
       </c>
       <c r="E7">
-        <v>-45.6</v>
+        <v>-39.7</v>
       </c>
       <c r="F7">
-        <v>28.6</v>
+        <v>52.4</v>
       </c>
       <c r="G7">
-        <v>-86.8</v>
+        <v>-75.8</v>
       </c>
       <c r="H7">
         <v>-0.53</v>
@@ -837,19 +837,19 @@
         <v>20</v>
       </c>
       <c r="C8">
-        <v>-53.3</v>
+        <v>-53.2</v>
       </c>
       <c r="D8">
-        <v>-46.2</v>
+        <v>-46</v>
       </c>
       <c r="E8">
-        <v>-49.7</v>
+        <v>-49.5</v>
       </c>
       <c r="F8">
-        <v>36</v>
+        <v>36.9</v>
       </c>
       <c r="G8">
-        <v>-76.8</v>
+        <v>-76.3</v>
       </c>
       <c r="H8">
         <v>-2.93</v>
@@ -870,7 +870,7 @@
         <v>-5.66</v>
       </c>
       <c r="N8">
-        <v>-5.83</v>
+        <v>-5.92</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -881,19 +881,19 @@
         <v>21</v>
       </c>
       <c r="C9">
-        <v>-27.8</v>
+        <v>-25.9</v>
       </c>
       <c r="D9">
-        <v>-29.4</v>
+        <v>-25.6</v>
       </c>
       <c r="E9">
-        <v>-49</v>
+        <v>-41.5</v>
       </c>
       <c r="F9">
-        <v>38.4</v>
+        <v>71.7</v>
       </c>
       <c r="G9">
-        <v>-82.59999999999999</v>
+        <v>-67.5</v>
       </c>
       <c r="H9">
         <v>-0.63</v>
@@ -922,7 +922,7 @@
         <v>-50.2</v>
       </c>
       <c r="E10">
-        <v>-47</v>
+        <v>-46.9</v>
       </c>
       <c r="F10">
         <v>37.3</v>
@@ -949,7 +949,7 @@
         <v>-22.57</v>
       </c>
       <c r="N10">
-        <v>-34.83</v>
+        <v>-40.93</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -960,19 +960,19 @@
         <v>23</v>
       </c>
       <c r="C11">
-        <v>-50.2</v>
+        <v>-50.1</v>
       </c>
       <c r="D11">
-        <v>-48.5</v>
+        <v>-48.3</v>
       </c>
       <c r="E11">
-        <v>-51.1</v>
+        <v>-50.6</v>
       </c>
       <c r="F11">
-        <v>44.8</v>
+        <v>46.7</v>
       </c>
       <c r="G11">
-        <v>-74.7</v>
+        <v>-73.59999999999999</v>
       </c>
       <c r="H11">
         <v>-1.48</v>
@@ -993,7 +993,7 @@
         <v>-19.6</v>
       </c>
       <c r="N11">
-        <v>-15.45</v>
+        <v>-19.93</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -1004,19 +1004,19 @@
         <v>24</v>
       </c>
       <c r="C12">
-        <v>-49.6</v>
+        <v>-49.4</v>
       </c>
       <c r="D12">
-        <v>-48.4</v>
+        <v>-48</v>
       </c>
       <c r="E12">
-        <v>-50.6</v>
+        <v>-50</v>
       </c>
       <c r="F12">
-        <v>48.7</v>
+        <v>51.4</v>
       </c>
       <c r="G12">
-        <v>-73.2</v>
+        <v>-71.7</v>
       </c>
       <c r="H12">
         <v>-1.51</v>
@@ -1037,7 +1037,7 @@
         <v>-19.6</v>
       </c>
       <c r="N12">
-        <v>-15.45</v>
+        <v>-19.93</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -1048,19 +1048,19 @@
         <v>25</v>
       </c>
       <c r="C13">
-        <v>-26.5</v>
+        <v>-24.4</v>
       </c>
       <c r="D13">
-        <v>-28.2</v>
+        <v>-24</v>
       </c>
       <c r="E13">
-        <v>-52.4</v>
+        <v>-44</v>
       </c>
       <c r="F13">
-        <v>38.9</v>
+        <v>76.8</v>
       </c>
       <c r="G13">
-        <v>-82</v>
+        <v>-64.59999999999999</v>
       </c>
       <c r="H13">
         <v>-0.77</v>
@@ -1086,16 +1086,16 @@
         <v>-57.7</v>
       </c>
       <c r="D14">
-        <v>-50.2</v>
+        <v>-50.1</v>
       </c>
       <c r="E14">
-        <v>-55</v>
+        <v>-54.8</v>
       </c>
       <c r="F14">
-        <v>37</v>
+        <v>37.6</v>
       </c>
       <c r="G14">
-        <v>-77</v>
+        <v>-76.59999999999999</v>
       </c>
       <c r="H14">
         <v>-1.34</v>
@@ -1116,7 +1116,7 @@
         <v>-37.1</v>
       </c>
       <c r="N14">
-        <v>-42</v>
+        <v>-42.11</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -1127,19 +1127,19 @@
         <v>21</v>
       </c>
       <c r="C15">
-        <v>-26.7</v>
+        <v>-25.9</v>
       </c>
       <c r="D15">
-        <v>-28.1</v>
+        <v>-26.3</v>
       </c>
       <c r="E15">
-        <v>-61.1</v>
+        <v>-58.1</v>
       </c>
       <c r="F15">
-        <v>32.9</v>
+        <v>47.1</v>
       </c>
       <c r="G15">
-        <v>-86.2</v>
+        <v>-80.3</v>
       </c>
       <c r="H15">
         <v>-1.51</v>
@@ -1160,7 +1160,7 @@
         <v>-26.98</v>
       </c>
       <c r="N15">
-        <v>-46.86</v>
+        <v>-46.27</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -1171,19 +1171,19 @@
         <v>27</v>
       </c>
       <c r="C16">
-        <v>-22.6</v>
+        <v>-22</v>
       </c>
       <c r="D16">
-        <v>-18.1</v>
+        <v>-16.8</v>
       </c>
       <c r="E16">
-        <v>-59.1</v>
+        <v>-56.8</v>
       </c>
       <c r="F16">
-        <v>25.2</v>
+        <v>36.5</v>
       </c>
       <c r="G16">
-        <v>-89.2</v>
+        <v>-84.40000000000001</v>
       </c>
       <c r="H16">
         <v>-1.31</v>
@@ -1204,7 +1204,7 @@
         <v>-9.210000000000001</v>
       </c>
       <c r="N16">
-        <v>-29.11</v>
+        <v>-29.3</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1215,19 +1215,19 @@
         <v>28</v>
       </c>
       <c r="C17">
-        <v>-46.8</v>
+        <v>-46.1</v>
       </c>
       <c r="D17">
-        <v>-44.2</v>
+        <v>-42.4</v>
       </c>
       <c r="E17">
-        <v>-61.8</v>
+        <v>-58.6</v>
       </c>
       <c r="F17">
-        <v>28.4</v>
+        <v>41.7</v>
       </c>
       <c r="G17">
-        <v>-84.40000000000001</v>
+        <v>-77.09999999999999</v>
       </c>
       <c r="H17">
         <v>-2.06</v>
@@ -1250,19 +1250,19 @@
         <v>29</v>
       </c>
       <c r="C18">
-        <v>-38.7</v>
+        <v>-37</v>
       </c>
       <c r="D18">
-        <v>-49.3</v>
+        <v>-44.9</v>
       </c>
       <c r="E18">
-        <v>-50.9</v>
+        <v>-42.8</v>
       </c>
       <c r="F18">
-        <v>16.2</v>
+        <v>50.6</v>
       </c>
       <c r="G18">
-        <v>-92.09999999999999</v>
+        <v>-75.3</v>
       </c>
       <c r="H18">
         <v>-1.96</v>
@@ -1283,7 +1283,7 @@
         <v>-5.68</v>
       </c>
       <c r="N18">
-        <v>-10.47</v>
+        <v>-9.94</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1294,19 +1294,19 @@
         <v>30</v>
       </c>
       <c r="C19">
-        <v>-28.3</v>
+        <v>-27.4</v>
       </c>
       <c r="D19">
-        <v>-18.7</v>
+        <v>-16.6</v>
       </c>
       <c r="E19">
-        <v>-41.7</v>
+        <v>-38.2</v>
       </c>
       <c r="F19">
-        <v>60.4</v>
+        <v>75.40000000000001</v>
       </c>
       <c r="G19">
-        <v>-74</v>
+        <v>-67.5</v>
       </c>
       <c r="H19">
         <v>-2.06</v>
@@ -1329,19 +1329,19 @@
         <v>31</v>
       </c>
       <c r="C20">
-        <v>-37.7</v>
+        <v>-36.8</v>
       </c>
       <c r="D20">
-        <v>-38.7</v>
+        <v>-36.6</v>
       </c>
       <c r="E20">
-        <v>-44.4</v>
+        <v>-40.2</v>
       </c>
       <c r="F20">
-        <v>18.6</v>
+        <v>36.1</v>
       </c>
       <c r="G20">
-        <v>-90.7</v>
+        <v>-82</v>
       </c>
       <c r="H20">
         <v>-1.09</v>
@@ -1364,19 +1364,19 @@
         <v>32</v>
       </c>
       <c r="C21">
-        <v>-22.9</v>
+        <v>-22.4</v>
       </c>
       <c r="D21">
-        <v>-20.8</v>
+        <v>-19.7</v>
       </c>
       <c r="E21">
-        <v>-60</v>
+        <v>-58.2</v>
       </c>
       <c r="F21">
-        <v>25</v>
+        <v>34.1</v>
       </c>
       <c r="G21">
-        <v>-89.3</v>
+        <v>-85.40000000000001</v>
       </c>
       <c r="H21">
         <v>-1.5</v>
@@ -1399,19 +1399,19 @@
         <v>33</v>
       </c>
       <c r="C22">
-        <v>-31.5</v>
+        <v>-30.8</v>
       </c>
       <c r="D22">
-        <v>-20.8</v>
+        <v>-19.2</v>
       </c>
       <c r="E22">
-        <v>-41</v>
+        <v>-38.2</v>
       </c>
       <c r="F22">
-        <v>44.7</v>
+        <v>57.8</v>
       </c>
       <c r="G22">
-        <v>-81.2</v>
+        <v>-75.7</v>
       </c>
       <c r="H22">
         <v>-1.57</v>
@@ -1434,19 +1434,19 @@
         <v>34</v>
       </c>
       <c r="C23">
-        <v>-30.1</v>
+        <v>-27.7</v>
       </c>
       <c r="D23">
-        <v>-36.2</v>
+        <v>-31.1</v>
       </c>
       <c r="E23">
-        <v>-56.8</v>
+        <v>-47.3</v>
       </c>
       <c r="F23">
-        <v>10.9</v>
+        <v>50.6</v>
       </c>
       <c r="G23">
-        <v>-94.8</v>
+        <v>-76.09999999999999</v>
       </c>
       <c r="H23">
         <v>-1.14</v>
@@ -1469,19 +1469,19 @@
         <v>35</v>
       </c>
       <c r="C24">
-        <v>-32.6</v>
+        <v>-31.6</v>
       </c>
       <c r="D24">
-        <v>-36.7</v>
+        <v>-34.4</v>
       </c>
       <c r="E24">
-        <v>-53</v>
+        <v>-48.7</v>
       </c>
       <c r="F24">
-        <v>20.9</v>
+        <v>39.5</v>
       </c>
       <c r="G24">
-        <v>-91.09999999999999</v>
+        <v>-83.3</v>
       </c>
       <c r="H24">
         <v>-0.66</v>
@@ -1504,19 +1504,19 @@
         <v>36</v>
       </c>
       <c r="C25">
-        <v>-47</v>
+        <v>-46.6</v>
       </c>
       <c r="D25">
-        <v>-47.2</v>
+        <v>-46.3</v>
       </c>
       <c r="E25">
-        <v>-42.3</v>
+        <v>-40.5</v>
       </c>
       <c r="F25">
-        <v>32.4</v>
+        <v>39.5</v>
       </c>
       <c r="G25">
-        <v>-83</v>
+        <v>-79.2</v>
       </c>
       <c r="H25">
         <v>-1.46</v>
@@ -1539,19 +1539,19 @@
         <v>37</v>
       </c>
       <c r="C26">
-        <v>-32.4</v>
+        <v>-32.1</v>
       </c>
       <c r="D26">
-        <v>-45.2</v>
+        <v>-44.3</v>
       </c>
       <c r="E26">
-        <v>-51.7</v>
+        <v>-50.1</v>
       </c>
       <c r="F26">
-        <v>12.4</v>
+        <v>17.7</v>
       </c>
       <c r="G26">
-        <v>-91.59999999999999</v>
+        <v>-88</v>
       </c>
       <c r="H26">
         <v>-1.62</v>
@@ -1574,19 +1574,19 @@
         <v>38</v>
       </c>
       <c r="C27">
-        <v>-51.9</v>
+        <v>-51</v>
       </c>
       <c r="D27">
-        <v>-50.7</v>
+        <v>-48.4</v>
       </c>
       <c r="E27">
-        <v>-63</v>
+        <v>-58.7</v>
       </c>
       <c r="F27">
-        <v>24.9</v>
+        <v>41.9</v>
       </c>
       <c r="G27">
-        <v>-87.2</v>
+        <v>-78.5</v>
       </c>
       <c r="H27">
         <v>-1.58</v>
@@ -1609,19 +1609,19 @@
         <v>39</v>
       </c>
       <c r="C28">
-        <v>-21.8</v>
+        <v>-20.6</v>
       </c>
       <c r="D28">
-        <v>-21.5</v>
+        <v>-19</v>
       </c>
       <c r="E28">
-        <v>-53.9</v>
+        <v>-48.9</v>
       </c>
       <c r="F28">
-        <v>25.7</v>
+        <v>45.5</v>
       </c>
       <c r="G28">
-        <v>-87.40000000000001</v>
+        <v>-77.7</v>
       </c>
       <c r="H28">
         <v>-0.84</v>
@@ -1642,7 +1642,7 @@
         <v>-46.96</v>
       </c>
       <c r="N28">
-        <v>-64.5</v>
+        <v>-63.14</v>
       </c>
     </row>
     <row r="29" spans="1:14">
@@ -1659,13 +1659,13 @@
         <v>-47.9</v>
       </c>
       <c r="E29">
-        <v>-60.5</v>
+        <v>-60.4</v>
       </c>
       <c r="F29">
-        <v>42.5</v>
+        <v>42.7</v>
       </c>
       <c r="G29">
-        <v>-76.5</v>
+        <v>-76.40000000000001</v>
       </c>
       <c r="H29">
         <v>-1.26</v>
@@ -1686,7 +1686,7 @@
         <v>-56.55</v>
       </c>
       <c r="N29">
-        <v>-64.61</v>
+        <v>-63.35</v>
       </c>
     </row>
     <row r="30" spans="1:14">
@@ -1697,19 +1697,19 @@
         <v>41</v>
       </c>
       <c r="C30">
-        <v>-15.6</v>
+        <v>-15</v>
       </c>
       <c r="D30">
-        <v>-10.7</v>
+        <v>-9.300000000000001</v>
       </c>
       <c r="E30">
-        <v>-56.8</v>
+        <v>-54.3</v>
       </c>
       <c r="F30">
-        <v>25.5</v>
+        <v>37.3</v>
       </c>
       <c r="G30">
-        <v>-89.3</v>
+        <v>-84.40000000000001</v>
       </c>
       <c r="H30">
         <v>-1.17</v>
@@ -1730,7 +1730,7 @@
         <v>-46.96</v>
       </c>
       <c r="N30">
-        <v>-64.5</v>
+        <v>-63.14</v>
       </c>
     </row>
     <row r="31" spans="1:14">
@@ -1741,19 +1741,19 @@
         <v>42</v>
       </c>
       <c r="C31">
-        <v>-23.7</v>
+        <v>-22.5</v>
       </c>
       <c r="D31">
-        <v>-20.1</v>
+        <v>-17.2</v>
       </c>
       <c r="E31">
-        <v>-52</v>
+        <v>-46.5</v>
       </c>
       <c r="F31">
-        <v>39.4</v>
+        <v>62.8</v>
       </c>
       <c r="G31">
-        <v>-82.5</v>
+        <v>-72.2</v>
       </c>
       <c r="H31">
         <v>-0.8100000000000001</v>
@@ -1776,19 +1776,19 @@
         <v>43</v>
       </c>
       <c r="C32">
-        <v>-21.3</v>
+        <v>-20.2</v>
       </c>
       <c r="D32">
-        <v>-20.5</v>
+        <v>-18</v>
       </c>
       <c r="E32">
-        <v>-53.7</v>
+        <v>-48.8</v>
       </c>
       <c r="F32">
-        <v>24.9</v>
+        <v>44.2</v>
       </c>
       <c r="G32">
-        <v>-88</v>
+        <v>-78.7</v>
       </c>
       <c r="H32">
         <v>-0.8100000000000001</v>
@@ -1809,7 +1809,7 @@
         <v>-46.96</v>
       </c>
       <c r="N32">
-        <v>-64.5</v>
+        <v>-63.14</v>
       </c>
     </row>
     <row r="33" spans="1:14">
@@ -1820,19 +1820,19 @@
         <v>44</v>
       </c>
       <c r="C33">
-        <v>-37.3</v>
+        <v>-34.8</v>
       </c>
       <c r="D33">
-        <v>-40.4</v>
+        <v>-35</v>
       </c>
       <c r="E33">
-        <v>-68.40000000000001</v>
+        <v>-58.4</v>
       </c>
       <c r="F33">
-        <v>6.8</v>
+        <v>47.7</v>
       </c>
       <c r="G33">
-        <v>-96.59999999999999</v>
+        <v>-76.2</v>
       </c>
       <c r="H33">
         <v>-1.08</v>
@@ -1855,19 +1855,19 @@
         <v>45</v>
       </c>
       <c r="C34">
-        <v>-57</v>
+        <v>-56.9</v>
       </c>
       <c r="D34">
-        <v>-49.2</v>
+        <v>-49.1</v>
       </c>
       <c r="E34">
-        <v>-53.4</v>
+        <v>-53.1</v>
       </c>
       <c r="F34">
-        <v>34.8</v>
+        <v>35.8</v>
       </c>
       <c r="G34">
-        <v>-77.90000000000001</v>
+        <v>-77.3</v>
       </c>
       <c r="H34">
         <v>-1.32</v>
@@ -1888,7 +1888,7 @@
         <v>-37.1</v>
       </c>
       <c r="N34">
-        <v>-42</v>
+        <v>-42.11</v>
       </c>
     </row>
     <row r="35" spans="1:14">
@@ -1899,19 +1899,19 @@
         <v>46</v>
       </c>
       <c r="C35">
-        <v>-54.7</v>
+        <v>-53.7</v>
       </c>
       <c r="D35">
-        <v>-51.7</v>
+        <v>-49.2</v>
       </c>
       <c r="E35">
-        <v>-64.2</v>
+        <v>-59.6</v>
       </c>
       <c r="F35">
-        <v>24.5</v>
+        <v>43.8</v>
       </c>
       <c r="G35">
-        <v>-87.90000000000001</v>
+        <v>-78.3</v>
       </c>
       <c r="H35">
         <v>-1.75</v>
@@ -1937,16 +1937,16 @@
         <v>-64.09999999999999</v>
       </c>
       <c r="D36">
-        <v>-56.7</v>
+        <v>-56.6</v>
       </c>
       <c r="E36">
-        <v>-66.40000000000001</v>
+        <v>-66.09999999999999</v>
       </c>
       <c r="F36">
-        <v>38.6</v>
+        <v>39.8</v>
       </c>
       <c r="G36">
-        <v>-81.7</v>
+        <v>-81.2</v>
       </c>
       <c r="H36">
         <v>-1.33</v>
@@ -1967,7 +1967,7 @@
         <v>-78.22</v>
       </c>
       <c r="N36">
-        <v>-73.31999999999999</v>
+        <v>-71.95</v>
       </c>
     </row>
     <row r="37" spans="1:14">
@@ -1978,19 +1978,19 @@
         <v>48</v>
       </c>
       <c r="C37">
-        <v>-19.8</v>
+        <v>-18.5</v>
       </c>
       <c r="D37">
-        <v>-15.9</v>
+        <v>-12.8</v>
       </c>
       <c r="E37">
-        <v>-56.4</v>
+        <v>-50.8</v>
       </c>
       <c r="F37">
-        <v>26.9</v>
+        <v>50.6</v>
       </c>
       <c r="G37">
-        <v>-87.2</v>
+        <v>-75.90000000000001</v>
       </c>
       <c r="H37">
         <v>-0.96</v>
@@ -2011,7 +2011,7 @@
         <v>-46.96</v>
       </c>
       <c r="N37">
-        <v>-64.5</v>
+        <v>-63.14</v>
       </c>
     </row>
     <row r="38" spans="1:14">
@@ -2031,10 +2031,10 @@
         <v>-40.6</v>
       </c>
       <c r="F38">
-        <v>33.8</v>
+        <v>33.9</v>
       </c>
       <c r="G38">
-        <v>-74.2</v>
+        <v>-74.09999999999999</v>
       </c>
       <c r="H38">
         <v>-1.65</v>
@@ -2055,7 +2055,7 @@
         <v>-22.57</v>
       </c>
       <c r="N38">
-        <v>-34.83</v>
+        <v>-40.93</v>
       </c>
     </row>
     <row r="39" spans="1:14">
@@ -2066,19 +2066,19 @@
         <v>50</v>
       </c>
       <c r="C39">
-        <v>-13.8</v>
+        <v>-13.3</v>
       </c>
       <c r="D39">
-        <v>-7.6</v>
+        <v>-6.4</v>
       </c>
       <c r="E39">
-        <v>-55.7</v>
+        <v>-53.6</v>
       </c>
       <c r="F39">
-        <v>26.2</v>
+        <v>36.2</v>
       </c>
       <c r="G39">
-        <v>-89</v>
+        <v>-84.90000000000001</v>
       </c>
       <c r="H39">
         <v>-1.23</v>
@@ -2099,7 +2099,7 @@
         <v>-46.96</v>
       </c>
       <c r="N39">
-        <v>-64.5</v>
+        <v>-63.14</v>
       </c>
     </row>
     <row r="40" spans="1:14">
@@ -2110,19 +2110,19 @@
         <v>51</v>
       </c>
       <c r="C40">
-        <v>-21.5</v>
+        <v>-20.3</v>
       </c>
       <c r="D40">
-        <v>-19.3</v>
+        <v>-16.5</v>
       </c>
       <c r="E40">
-        <v>-55.1</v>
+        <v>-49.8</v>
       </c>
       <c r="F40">
-        <v>32.5</v>
+        <v>54.4</v>
       </c>
       <c r="G40">
-        <v>-84.7</v>
+        <v>-74.5</v>
       </c>
       <c r="H40">
         <v>-0.89</v>
@@ -2143,7 +2143,7 @@
         <v>-46.96</v>
       </c>
       <c r="N40">
-        <v>-64.5</v>
+        <v>-63.14</v>
       </c>
     </row>
     <row r="41" spans="1:14">
@@ -2154,19 +2154,19 @@
         <v>52</v>
       </c>
       <c r="C41">
-        <v>-54.5</v>
+        <v>-54.4</v>
       </c>
       <c r="D41">
-        <v>-50.2</v>
+        <v>-50</v>
       </c>
       <c r="E41">
-        <v>-53.2</v>
+        <v>-52.9</v>
       </c>
       <c r="F41">
-        <v>37.2</v>
+        <v>38.6</v>
       </c>
       <c r="G41">
-        <v>-78.7</v>
+        <v>-77.90000000000001</v>
       </c>
       <c r="H41">
         <v>-1.29</v>
@@ -2187,7 +2187,7 @@
         <v>-37.1</v>
       </c>
       <c r="N41">
-        <v>-42</v>
+        <v>-42.11</v>
       </c>
     </row>
     <row r="42" spans="1:14">
@@ -2198,19 +2198,19 @@
         <v>53</v>
       </c>
       <c r="C42">
-        <v>-32.6</v>
+        <v>-31.4</v>
       </c>
       <c r="D42">
-        <v>-45.2</v>
+        <v>-42.7</v>
       </c>
       <c r="E42">
-        <v>-61.3</v>
+        <v>-57</v>
       </c>
       <c r="F42">
-        <v>5.8</v>
+        <v>26.3</v>
       </c>
       <c r="G42">
-        <v>-97.90000000000001</v>
+        <v>-90.3</v>
       </c>
       <c r="H42">
         <v>-1.59</v>
@@ -2231,7 +2231,7 @@
         <v>-6.29</v>
       </c>
       <c r="N42">
-        <v>-7.9</v>
+        <v>-5.76</v>
       </c>
     </row>
   </sheetData>

--- a/Sistema-Operacional/Saidas/Monitoramento - Mananciais Críticos.xlsx
+++ b/Sistema-Operacional/Saidas/Monitoramento - Mananciais Críticos.xlsx
@@ -28,10 +28,10 @@
     <t>AN_TRI_202010</t>
   </si>
   <si>
-    <t>AC_20201020</t>
-  </si>
-  <si>
-    <t>AN_20201020</t>
+    <t>AC_20201025</t>
+  </si>
+  <si>
+    <t>AN_20201025</t>
   </si>
   <si>
     <t>SPI1_202009</t>
@@ -52,7 +52,7 @@
     <t>AN_COTA_202009</t>
   </si>
   <si>
-    <t>AN_COTA_20201020</t>
+    <t>AN_COTA_20201025</t>
   </si>
   <si>
     <t>SIA</t>
@@ -591,19 +591,19 @@
         <v>14</v>
       </c>
       <c r="C2">
-        <v>-23</v>
+        <v>-21.5</v>
       </c>
       <c r="D2">
-        <v>-33.3</v>
+        <v>-29.5</v>
       </c>
       <c r="E2">
-        <v>-29.5</v>
+        <v>-22.5</v>
       </c>
       <c r="F2">
-        <v>49.8</v>
+        <v>73.7</v>
       </c>
       <c r="G2">
-        <v>-69.8</v>
+        <v>-55.3</v>
       </c>
       <c r="H2">
         <v>-1.96</v>
@@ -624,7 +624,7 @@
         <v>-5.68</v>
       </c>
       <c r="N2">
-        <v>-9.94</v>
+        <v>-9.58</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -635,19 +635,19 @@
         <v>15</v>
       </c>
       <c r="C3">
-        <v>-36.2</v>
+        <v>-35.6</v>
       </c>
       <c r="D3">
-        <v>-33.9</v>
+        <v>-32.5</v>
       </c>
       <c r="E3">
-        <v>-32.5</v>
+        <v>-29.7</v>
       </c>
       <c r="F3">
-        <v>37.8</v>
+        <v>45.4</v>
       </c>
       <c r="G3">
-        <v>-70.7</v>
+        <v>-64.8</v>
       </c>
       <c r="H3">
         <v>-1.43</v>
@@ -668,7 +668,7 @@
         <v>-54.38</v>
       </c>
       <c r="N3">
-        <v>-49.3</v>
+        <v>-52.73</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -679,19 +679,19 @@
         <v>16</v>
       </c>
       <c r="C4">
-        <v>-35.2</v>
+        <v>-35.1</v>
       </c>
       <c r="D4">
-        <v>-37.9</v>
+        <v>-37.7</v>
       </c>
       <c r="E4">
-        <v>-48.8</v>
+        <v>-48.5</v>
       </c>
       <c r="F4">
-        <v>29.3</v>
+        <v>30.4</v>
       </c>
       <c r="G4">
-        <v>-84.59999999999999</v>
+        <v>-84</v>
       </c>
       <c r="H4">
         <v>-1.76</v>
@@ -747,7 +747,7 @@
         <v>-46.96</v>
       </c>
       <c r="N5">
-        <v>-63.14</v>
+        <v>-63.48</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -758,19 +758,19 @@
         <v>18</v>
       </c>
       <c r="C6">
-        <v>-29.1</v>
+        <v>-29</v>
       </c>
       <c r="D6">
-        <v>-44.8</v>
+        <v>-44.7</v>
       </c>
       <c r="E6">
-        <v>-63.1</v>
+        <v>-62.9</v>
       </c>
       <c r="F6">
-        <v>21.2</v>
+        <v>22.3</v>
       </c>
       <c r="G6">
-        <v>-93</v>
+        <v>-92.7</v>
       </c>
       <c r="H6">
         <v>-1.58</v>
@@ -791,7 +791,7 @@
         <v>-6.29</v>
       </c>
       <c r="N6">
-        <v>-5.76</v>
+        <v>-5.02</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -837,19 +837,19 @@
         <v>20</v>
       </c>
       <c r="C8">
-        <v>-53.2</v>
+        <v>-52.8</v>
       </c>
       <c r="D8">
-        <v>-46</v>
+        <v>-45.2</v>
       </c>
       <c r="E8">
-        <v>-49.5</v>
+        <v>-48</v>
       </c>
       <c r="F8">
-        <v>36.9</v>
+        <v>42.4</v>
       </c>
       <c r="G8">
-        <v>-76.3</v>
+        <v>-72.7</v>
       </c>
       <c r="H8">
         <v>-2.93</v>
@@ -870,7 +870,7 @@
         <v>-5.66</v>
       </c>
       <c r="N8">
-        <v>-5.92</v>
+        <v>-5.26</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -916,19 +916,19 @@
         <v>22</v>
       </c>
       <c r="C10">
-        <v>-53</v>
+        <v>-52.2</v>
       </c>
       <c r="D10">
-        <v>-50.2</v>
+        <v>-48.5</v>
       </c>
       <c r="E10">
-        <v>-46.9</v>
+        <v>-43.8</v>
       </c>
       <c r="F10">
-        <v>37.3</v>
+        <v>48.7</v>
       </c>
       <c r="G10">
-        <v>-73.90000000000001</v>
+        <v>-65.90000000000001</v>
       </c>
       <c r="H10">
         <v>-1.62</v>
@@ -949,7 +949,7 @@
         <v>-22.57</v>
       </c>
       <c r="N10">
-        <v>-40.93</v>
+        <v>-42.42</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -960,19 +960,19 @@
         <v>23</v>
       </c>
       <c r="C11">
-        <v>-50.1</v>
+        <v>-49.2</v>
       </c>
       <c r="D11">
-        <v>-48.3</v>
+        <v>-46.1</v>
       </c>
       <c r="E11">
-        <v>-50.6</v>
+        <v>-46.6</v>
       </c>
       <c r="F11">
-        <v>46.7</v>
+        <v>62.2</v>
       </c>
       <c r="G11">
-        <v>-73.59999999999999</v>
+        <v>-64.90000000000001</v>
       </c>
       <c r="H11">
         <v>-1.48</v>
@@ -993,7 +993,7 @@
         <v>-19.6</v>
       </c>
       <c r="N11">
-        <v>-19.93</v>
+        <v>-22.88</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -1004,19 +1004,19 @@
         <v>24</v>
       </c>
       <c r="C12">
-        <v>-49.4</v>
+        <v>-48.5</v>
       </c>
       <c r="D12">
-        <v>-48</v>
+        <v>-45.8</v>
       </c>
       <c r="E12">
-        <v>-50</v>
+        <v>-45.9</v>
       </c>
       <c r="F12">
-        <v>51.4</v>
+        <v>67.90000000000001</v>
       </c>
       <c r="G12">
-        <v>-71.7</v>
+        <v>-62.6</v>
       </c>
       <c r="H12">
         <v>-1.51</v>
@@ -1037,7 +1037,7 @@
         <v>-19.6</v>
       </c>
       <c r="N12">
-        <v>-19.93</v>
+        <v>-22.88</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -1048,19 +1048,19 @@
         <v>25</v>
       </c>
       <c r="C13">
-        <v>-24.4</v>
+        <v>-24.3</v>
       </c>
       <c r="D13">
-        <v>-24</v>
+        <v>-23.9</v>
       </c>
       <c r="E13">
-        <v>-44</v>
+        <v>-43.7</v>
       </c>
       <c r="F13">
-        <v>76.8</v>
+        <v>78.09999999999999</v>
       </c>
       <c r="G13">
-        <v>-64.59999999999999</v>
+        <v>-63.9</v>
       </c>
       <c r="H13">
         <v>-0.77</v>
@@ -1083,19 +1083,19 @@
         <v>26</v>
       </c>
       <c r="C14">
-        <v>-57.7</v>
+        <v>-57.5</v>
       </c>
       <c r="D14">
-        <v>-50.1</v>
+        <v>-49.6</v>
       </c>
       <c r="E14">
-        <v>-54.8</v>
+        <v>-53.9</v>
       </c>
       <c r="F14">
-        <v>37.6</v>
+        <v>40.9</v>
       </c>
       <c r="G14">
-        <v>-76.59999999999999</v>
+        <v>-74.59999999999999</v>
       </c>
       <c r="H14">
         <v>-1.34</v>
@@ -1116,7 +1116,7 @@
         <v>-37.1</v>
       </c>
       <c r="N14">
-        <v>-42.11</v>
+        <v>-43.56</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -1127,19 +1127,19 @@
         <v>21</v>
       </c>
       <c r="C15">
+        <v>-25.7</v>
+      </c>
+      <c r="D15">
         <v>-25.9</v>
       </c>
-      <c r="D15">
-        <v>-26.3</v>
-      </c>
       <c r="E15">
-        <v>-58.1</v>
+        <v>-57.5</v>
       </c>
       <c r="F15">
-        <v>47.1</v>
+        <v>50.2</v>
       </c>
       <c r="G15">
-        <v>-80.3</v>
+        <v>-79</v>
       </c>
       <c r="H15">
         <v>-1.51</v>
@@ -1160,7 +1160,7 @@
         <v>-26.98</v>
       </c>
       <c r="N15">
-        <v>-46.27</v>
+        <v>-47.31</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -1204,7 +1204,7 @@
         <v>-9.210000000000001</v>
       </c>
       <c r="N16">
-        <v>-29.3</v>
+        <v>-29.4</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1215,19 +1215,19 @@
         <v>28</v>
       </c>
       <c r="C17">
-        <v>-46.1</v>
+        <v>-45.4</v>
       </c>
       <c r="D17">
-        <v>-42.4</v>
+        <v>-40.8</v>
       </c>
       <c r="E17">
-        <v>-58.6</v>
+        <v>-55.6</v>
       </c>
       <c r="F17">
-        <v>41.7</v>
+        <v>53.8</v>
       </c>
       <c r="G17">
-        <v>-77.09999999999999</v>
+        <v>-70.5</v>
       </c>
       <c r="H17">
         <v>-2.06</v>
@@ -1250,19 +1250,19 @@
         <v>29</v>
       </c>
       <c r="C18">
-        <v>-37</v>
+        <v>-35.9</v>
       </c>
       <c r="D18">
-        <v>-44.9</v>
+        <v>-42.1</v>
       </c>
       <c r="E18">
-        <v>-42.8</v>
+        <v>-37.5</v>
       </c>
       <c r="F18">
-        <v>50.6</v>
+        <v>73.09999999999999</v>
       </c>
       <c r="G18">
-        <v>-75.3</v>
+        <v>-64.3</v>
       </c>
       <c r="H18">
         <v>-1.96</v>
@@ -1283,7 +1283,7 @@
         <v>-5.68</v>
       </c>
       <c r="N18">
-        <v>-9.94</v>
+        <v>-9.58</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1303,7 +1303,7 @@
         <v>-38.2</v>
       </c>
       <c r="F19">
-        <v>75.40000000000001</v>
+        <v>75.5</v>
       </c>
       <c r="G19">
         <v>-67.5</v>
@@ -1332,16 +1332,16 @@
         <v>-36.8</v>
       </c>
       <c r="D20">
-        <v>-36.6</v>
+        <v>-36.5</v>
       </c>
       <c r="E20">
-        <v>-40.2</v>
+        <v>-40.1</v>
       </c>
       <c r="F20">
-        <v>36.1</v>
+        <v>36.5</v>
       </c>
       <c r="G20">
-        <v>-82</v>
+        <v>-81.8</v>
       </c>
       <c r="H20">
         <v>-1.09</v>
@@ -1469,19 +1469,19 @@
         <v>35</v>
       </c>
       <c r="C24">
-        <v>-31.6</v>
+        <v>-31.5</v>
       </c>
       <c r="D24">
-        <v>-34.4</v>
+        <v>-34.3</v>
       </c>
       <c r="E24">
-        <v>-48.7</v>
+        <v>-48.5</v>
       </c>
       <c r="F24">
-        <v>39.5</v>
+        <v>40.4</v>
       </c>
       <c r="G24">
-        <v>-83.3</v>
+        <v>-82.90000000000001</v>
       </c>
       <c r="H24">
         <v>-0.66</v>
@@ -1504,19 +1504,19 @@
         <v>36</v>
       </c>
       <c r="C25">
-        <v>-46.6</v>
+        <v>-45.5</v>
       </c>
       <c r="D25">
-        <v>-46.3</v>
+        <v>-44.1</v>
       </c>
       <c r="E25">
-        <v>-40.5</v>
+        <v>-36.1</v>
       </c>
       <c r="F25">
-        <v>39.5</v>
+        <v>57.1</v>
       </c>
       <c r="G25">
-        <v>-79.2</v>
+        <v>-69.90000000000001</v>
       </c>
       <c r="H25">
         <v>-1.46</v>
@@ -1539,19 +1539,19 @@
         <v>37</v>
       </c>
       <c r="C26">
-        <v>-32.1</v>
+        <v>-31.7</v>
       </c>
       <c r="D26">
-        <v>-44.3</v>
+        <v>-43.3</v>
       </c>
       <c r="E26">
-        <v>-50.1</v>
+        <v>-48.4</v>
       </c>
       <c r="F26">
-        <v>17.7</v>
+        <v>23.5</v>
       </c>
       <c r="G26">
-        <v>-88</v>
+        <v>-84.2</v>
       </c>
       <c r="H26">
         <v>-1.62</v>
@@ -1574,19 +1574,19 @@
         <v>38</v>
       </c>
       <c r="C27">
-        <v>-51</v>
+        <v>-50.2</v>
       </c>
       <c r="D27">
-        <v>-48.4</v>
+        <v>-46.4</v>
       </c>
       <c r="E27">
-        <v>-58.7</v>
+        <v>-55.1</v>
       </c>
       <c r="F27">
-        <v>41.9</v>
+        <v>56.5</v>
       </c>
       <c r="G27">
-        <v>-78.5</v>
+        <v>-71</v>
       </c>
       <c r="H27">
         <v>-1.58</v>
@@ -1609,19 +1609,19 @@
         <v>39</v>
       </c>
       <c r="C28">
-        <v>-20.6</v>
+        <v>-20.5</v>
       </c>
       <c r="D28">
-        <v>-19</v>
+        <v>-18.8</v>
       </c>
       <c r="E28">
-        <v>-48.9</v>
+        <v>-48.5</v>
       </c>
       <c r="F28">
-        <v>45.5</v>
+        <v>47</v>
       </c>
       <c r="G28">
-        <v>-77.7</v>
+        <v>-77</v>
       </c>
       <c r="H28">
         <v>-0.84</v>
@@ -1642,7 +1642,7 @@
         <v>-46.96</v>
       </c>
       <c r="N28">
-        <v>-63.14</v>
+        <v>-63.48</v>
       </c>
     </row>
     <row r="29" spans="1:14">
@@ -1653,19 +1653,19 @@
         <v>40</v>
       </c>
       <c r="C29">
-        <v>-52.6</v>
+        <v>-52.5</v>
       </c>
       <c r="D29">
-        <v>-47.9</v>
+        <v>-47.7</v>
       </c>
       <c r="E29">
-        <v>-60.4</v>
+        <v>-60</v>
       </c>
       <c r="F29">
-        <v>42.7</v>
+        <v>44.3</v>
       </c>
       <c r="G29">
-        <v>-76.40000000000001</v>
+        <v>-75.5</v>
       </c>
       <c r="H29">
         <v>-1.26</v>
@@ -1686,7 +1686,7 @@
         <v>-56.55</v>
       </c>
       <c r="N29">
-        <v>-63.35</v>
+        <v>-66.09</v>
       </c>
     </row>
     <row r="30" spans="1:14">
@@ -1730,7 +1730,7 @@
         <v>-46.96</v>
       </c>
       <c r="N30">
-        <v>-63.14</v>
+        <v>-63.48</v>
       </c>
     </row>
     <row r="31" spans="1:14">
@@ -1741,19 +1741,19 @@
         <v>42</v>
       </c>
       <c r="C31">
-        <v>-22.5</v>
+        <v>-22.4</v>
       </c>
       <c r="D31">
         <v>-17.2</v>
       </c>
       <c r="E31">
-        <v>-46.5</v>
+        <v>-46.4</v>
       </c>
       <c r="F31">
-        <v>62.8</v>
+        <v>63.4</v>
       </c>
       <c r="G31">
-        <v>-72.2</v>
+        <v>-71.90000000000001</v>
       </c>
       <c r="H31">
         <v>-0.8100000000000001</v>
@@ -1776,19 +1776,19 @@
         <v>43</v>
       </c>
       <c r="C32">
-        <v>-20.2</v>
+        <v>-20.1</v>
       </c>
       <c r="D32">
-        <v>-18</v>
+        <v>-17.9</v>
       </c>
       <c r="E32">
-        <v>-48.8</v>
+        <v>-48.6</v>
       </c>
       <c r="F32">
-        <v>44.2</v>
+        <v>45.2</v>
       </c>
       <c r="G32">
-        <v>-78.7</v>
+        <v>-78.2</v>
       </c>
       <c r="H32">
         <v>-0.8100000000000001</v>
@@ -1809,7 +1809,7 @@
         <v>-46.96</v>
       </c>
       <c r="N32">
-        <v>-63.14</v>
+        <v>-63.48</v>
       </c>
     </row>
     <row r="33" spans="1:14">
@@ -1855,19 +1855,19 @@
         <v>45</v>
       </c>
       <c r="C34">
-        <v>-56.9</v>
+        <v>-56.8</v>
       </c>
       <c r="D34">
-        <v>-49.1</v>
+        <v>-48.8</v>
       </c>
       <c r="E34">
-        <v>-53.1</v>
+        <v>-52.4</v>
       </c>
       <c r="F34">
-        <v>35.8</v>
+        <v>38.2</v>
       </c>
       <c r="G34">
-        <v>-77.3</v>
+        <v>-75.7</v>
       </c>
       <c r="H34">
         <v>-1.32</v>
@@ -1888,7 +1888,7 @@
         <v>-37.1</v>
       </c>
       <c r="N34">
-        <v>-42.11</v>
+        <v>-43.56</v>
       </c>
     </row>
     <row r="35" spans="1:14">
@@ -1899,19 +1899,19 @@
         <v>46</v>
       </c>
       <c r="C35">
-        <v>-53.7</v>
+        <v>-52.9</v>
       </c>
       <c r="D35">
-        <v>-49.2</v>
+        <v>-47.3</v>
       </c>
       <c r="E35">
-        <v>-59.6</v>
+        <v>-56.1</v>
       </c>
       <c r="F35">
-        <v>43.8</v>
+        <v>58.4</v>
       </c>
       <c r="G35">
-        <v>-78.3</v>
+        <v>-71.09999999999999</v>
       </c>
       <c r="H35">
         <v>-1.75</v>
@@ -1934,19 +1934,19 @@
         <v>47</v>
       </c>
       <c r="C36">
-        <v>-64.09999999999999</v>
+        <v>-63.8</v>
       </c>
       <c r="D36">
-        <v>-56.6</v>
+        <v>-55.8</v>
       </c>
       <c r="E36">
-        <v>-66.09999999999999</v>
+        <v>-64.8</v>
       </c>
       <c r="F36">
-        <v>39.8</v>
+        <v>46.2</v>
       </c>
       <c r="G36">
-        <v>-81.2</v>
+        <v>-78.09999999999999</v>
       </c>
       <c r="H36">
         <v>-1.33</v>
@@ -1967,7 +1967,7 @@
         <v>-78.22</v>
       </c>
       <c r="N36">
-        <v>-71.95</v>
+        <v>-75.26000000000001</v>
       </c>
     </row>
     <row r="37" spans="1:14">
@@ -1978,19 +1978,19 @@
         <v>48</v>
       </c>
       <c r="C37">
-        <v>-18.5</v>
+        <v>-18.4</v>
       </c>
       <c r="D37">
-        <v>-12.8</v>
+        <v>-12.6</v>
       </c>
       <c r="E37">
-        <v>-50.8</v>
+        <v>-50.4</v>
       </c>
       <c r="F37">
-        <v>50.6</v>
+        <v>52.2</v>
       </c>
       <c r="G37">
-        <v>-75.90000000000001</v>
+        <v>-75.09999999999999</v>
       </c>
       <c r="H37">
         <v>-0.96</v>
@@ -2011,7 +2011,7 @@
         <v>-46.96</v>
       </c>
       <c r="N37">
-        <v>-63.14</v>
+        <v>-63.48</v>
       </c>
     </row>
     <row r="38" spans="1:14">
@@ -2022,19 +2022,19 @@
         <v>49</v>
       </c>
       <c r="C38">
-        <v>-42.5</v>
+        <v>-41.2</v>
       </c>
       <c r="D38">
-        <v>-42.6</v>
+        <v>-39.8</v>
       </c>
       <c r="E38">
-        <v>-40.6</v>
+        <v>-35.3</v>
       </c>
       <c r="F38">
-        <v>33.9</v>
+        <v>52.4</v>
       </c>
       <c r="G38">
-        <v>-74.09999999999999</v>
+        <v>-59.9</v>
       </c>
       <c r="H38">
         <v>-1.65</v>
@@ -2055,7 +2055,7 @@
         <v>-22.57</v>
       </c>
       <c r="N38">
-        <v>-40.93</v>
+        <v>-42.42</v>
       </c>
     </row>
     <row r="39" spans="1:14">
@@ -2078,7 +2078,7 @@
         <v>36.2</v>
       </c>
       <c r="G39">
-        <v>-84.90000000000001</v>
+        <v>-84.8</v>
       </c>
       <c r="H39">
         <v>-1.23</v>
@@ -2099,7 +2099,7 @@
         <v>-46.96</v>
       </c>
       <c r="N39">
-        <v>-63.14</v>
+        <v>-63.48</v>
       </c>
     </row>
     <row r="40" spans="1:14">
@@ -2110,19 +2110,19 @@
         <v>51</v>
       </c>
       <c r="C40">
-        <v>-20.3</v>
+        <v>-20.1</v>
       </c>
       <c r="D40">
-        <v>-16.5</v>
+        <v>-16</v>
       </c>
       <c r="E40">
-        <v>-49.8</v>
+        <v>-48.9</v>
       </c>
       <c r="F40">
-        <v>54.4</v>
+        <v>58.1</v>
       </c>
       <c r="G40">
-        <v>-74.5</v>
+        <v>-72.7</v>
       </c>
       <c r="H40">
         <v>-0.89</v>
@@ -2143,7 +2143,7 @@
         <v>-46.96</v>
       </c>
       <c r="N40">
-        <v>-63.14</v>
+        <v>-63.48</v>
       </c>
     </row>
     <row r="41" spans="1:14">
@@ -2154,19 +2154,19 @@
         <v>52</v>
       </c>
       <c r="C41">
-        <v>-54.4</v>
+        <v>-54</v>
       </c>
       <c r="D41">
-        <v>-50</v>
+        <v>-49</v>
       </c>
       <c r="E41">
-        <v>-52.9</v>
+        <v>-51.1</v>
       </c>
       <c r="F41">
-        <v>38.6</v>
+        <v>45.7</v>
       </c>
       <c r="G41">
-        <v>-77.90000000000001</v>
+        <v>-73.8</v>
       </c>
       <c r="H41">
         <v>-1.29</v>
@@ -2187,7 +2187,7 @@
         <v>-37.1</v>
       </c>
       <c r="N41">
-        <v>-42.11</v>
+        <v>-43.56</v>
       </c>
     </row>
     <row r="42" spans="1:14">
@@ -2204,13 +2204,13 @@
         <v>-42.7</v>
       </c>
       <c r="E42">
-        <v>-57</v>
+        <v>-56.9</v>
       </c>
       <c r="F42">
-        <v>26.3</v>
+        <v>26.6</v>
       </c>
       <c r="G42">
-        <v>-90.3</v>
+        <v>-90.2</v>
       </c>
       <c r="H42">
         <v>-1.59</v>
@@ -2231,7 +2231,7 @@
         <v>-6.29</v>
       </c>
       <c r="N42">
-        <v>-5.76</v>
+        <v>-5.02</v>
       </c>
     </row>
   </sheetData>

--- a/Sistema-Operacional/Saidas/Monitoramento - Mananciais Críticos.xlsx
+++ b/Sistema-Operacional/Saidas/Monitoramento - Mananciais Críticos.xlsx
@@ -28,22 +28,22 @@
     <t>AN_TRI_202010</t>
   </si>
   <si>
-    <t>AC_20201025</t>
-  </si>
-  <si>
-    <t>AN_20201025</t>
-  </si>
-  <si>
-    <t>SPI1_202009</t>
-  </si>
-  <si>
-    <t>SPI3_202009</t>
-  </si>
-  <si>
-    <t>SPI6_202009</t>
-  </si>
-  <si>
-    <t>SPI12_202009</t>
+    <t>AC_202010</t>
+  </si>
+  <si>
+    <t>AN_202010</t>
+  </si>
+  <si>
+    <t>SPI1_202010</t>
+  </si>
+  <si>
+    <t>SPI3_202010</t>
+  </si>
+  <si>
+    <t>SPI6_202010</t>
+  </si>
+  <si>
+    <t>SPI12_202010</t>
   </si>
   <si>
     <t>AN_COTA_202008</t>
@@ -52,7 +52,7 @@
     <t>AN_COTA_202009</t>
   </si>
   <si>
-    <t>AN_COTA_20201025</t>
+    <t>AN_COTA_20201031</t>
   </si>
   <si>
     <t>SIA</t>
@@ -591,31 +591,31 @@
         <v>14</v>
       </c>
       <c r="C2">
-        <v>-21.5</v>
+        <v>-20.9</v>
       </c>
       <c r="D2">
-        <v>-29.5</v>
+        <v>-28</v>
       </c>
       <c r="E2">
-        <v>-22.5</v>
+        <v>-19.7</v>
       </c>
       <c r="F2">
-        <v>73.7</v>
+        <v>83.3</v>
       </c>
       <c r="G2">
-        <v>-55.3</v>
+        <v>-49.4</v>
       </c>
       <c r="H2">
-        <v>-1.96</v>
+        <v>-0.51</v>
       </c>
       <c r="I2">
-        <v>-0.37</v>
+        <v>-0.29</v>
       </c>
       <c r="J2">
-        <v>-0.75</v>
+        <v>-0.72</v>
       </c>
       <c r="K2">
-        <v>-0.85</v>
+        <v>-0.76</v>
       </c>
       <c r="L2">
         <v>-2.49</v>
@@ -624,7 +624,7 @@
         <v>-5.68</v>
       </c>
       <c r="N2">
-        <v>-9.58</v>
+        <v>-9.220000000000001</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -635,31 +635,31 @@
         <v>15</v>
       </c>
       <c r="C3">
-        <v>-35.6</v>
+        <v>-32.7</v>
       </c>
       <c r="D3">
-        <v>-32.5</v>
+        <v>-26</v>
       </c>
       <c r="E3">
-        <v>-29.7</v>
+        <v>-16.6</v>
       </c>
       <c r="F3">
-        <v>45.4</v>
+        <v>82</v>
       </c>
       <c r="G3">
-        <v>-64.8</v>
+        <v>-36.5</v>
       </c>
       <c r="H3">
-        <v>-1.43</v>
+        <v>-1.03</v>
       </c>
       <c r="I3">
         <v>-0.37</v>
       </c>
       <c r="J3">
-        <v>-0.74</v>
+        <v>-0.6899999999999999</v>
       </c>
       <c r="K3">
-        <v>-1.8</v>
+        <v>-1.67</v>
       </c>
       <c r="L3">
         <v>8.51</v>
@@ -668,7 +668,7 @@
         <v>-54.38</v>
       </c>
       <c r="N3">
-        <v>-52.73</v>
+        <v>-51.9</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -679,31 +679,31 @@
         <v>16</v>
       </c>
       <c r="C4">
-        <v>-35.1</v>
+        <v>-34.6</v>
       </c>
       <c r="D4">
-        <v>-37.7</v>
+        <v>-36.5</v>
       </c>
       <c r="E4">
-        <v>-48.5</v>
+        <v>-46.2</v>
       </c>
       <c r="F4">
-        <v>30.4</v>
+        <v>39.5</v>
       </c>
       <c r="G4">
-        <v>-84</v>
+        <v>-79.3</v>
       </c>
       <c r="H4">
-        <v>-1.76</v>
+        <v>-0.83</v>
       </c>
       <c r="I4">
-        <v>-0.36</v>
+        <v>-0.39</v>
       </c>
       <c r="J4">
-        <v>-0.63</v>
+        <v>-0.73</v>
       </c>
       <c r="K4">
-        <v>-0.79</v>
+        <v>-0.73</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -714,31 +714,31 @@
         <v>17</v>
       </c>
       <c r="C5">
-        <v>-12.6</v>
+        <v>-11.9</v>
       </c>
       <c r="D5">
-        <v>-6.4</v>
+        <v>-4.8</v>
       </c>
       <c r="E5">
-        <v>-36</v>
+        <v>-32.7</v>
       </c>
       <c r="F5">
-        <v>56.5</v>
+        <v>67.40000000000001</v>
       </c>
       <c r="G5">
-        <v>-63.8</v>
+        <v>-56.8</v>
       </c>
       <c r="H5">
-        <v>-1.14</v>
+        <v>-0.71</v>
       </c>
       <c r="I5">
-        <v>-0.58</v>
+        <v>-0.6</v>
       </c>
       <c r="J5">
-        <v>-0.37</v>
+        <v>-0.44</v>
       </c>
       <c r="K5">
-        <v>-0.29</v>
+        <v>-0.65</v>
       </c>
       <c r="L5">
         <v>-25.39</v>
@@ -747,7 +747,7 @@
         <v>-46.96</v>
       </c>
       <c r="N5">
-        <v>-63.48</v>
+        <v>-64.04000000000001</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -758,31 +758,31 @@
         <v>18</v>
       </c>
       <c r="C6">
-        <v>-29</v>
+        <v>-28.2</v>
       </c>
       <c r="D6">
-        <v>-44.7</v>
+        <v>-43.1</v>
       </c>
       <c r="E6">
-        <v>-62.9</v>
+        <v>-60.1</v>
       </c>
       <c r="F6">
-        <v>22.3</v>
+        <v>35.7</v>
       </c>
       <c r="G6">
-        <v>-92.7</v>
+        <v>-88.3</v>
       </c>
       <c r="H6">
-        <v>-1.58</v>
+        <v>-2.04</v>
       </c>
       <c r="I6">
-        <v>-0.77</v>
+        <v>-1.22</v>
       </c>
       <c r="J6">
-        <v>-1.1</v>
+        <v>-1.55</v>
       </c>
       <c r="K6">
-        <v>-1.07</v>
+        <v>-1.16</v>
       </c>
       <c r="L6">
         <v>-9.390000000000001</v>
@@ -791,7 +791,7 @@
         <v>-6.29</v>
       </c>
       <c r="N6">
-        <v>-5.02</v>
+        <v>-4.1</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -802,31 +802,31 @@
         <v>19</v>
       </c>
       <c r="C7">
-        <v>-20.4</v>
+        <v>-20</v>
       </c>
       <c r="D7">
-        <v>-24.3</v>
+        <v>-23.4</v>
       </c>
       <c r="E7">
-        <v>-39.7</v>
+        <v>-38.1</v>
       </c>
       <c r="F7">
-        <v>52.4</v>
+        <v>58.9</v>
       </c>
       <c r="G7">
-        <v>-75.8</v>
+        <v>-72.8</v>
       </c>
       <c r="H7">
-        <v>-0.53</v>
+        <v>-1.02</v>
       </c>
       <c r="I7">
-        <v>-0.03</v>
+        <v>-0.37</v>
       </c>
       <c r="J7">
-        <v>-0.1</v>
+        <v>-0.25</v>
       </c>
       <c r="K7">
-        <v>0.07000000000000001</v>
+        <v>-0.12</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -837,31 +837,31 @@
         <v>20</v>
       </c>
       <c r="C8">
-        <v>-52.8</v>
+        <v>-50.4</v>
       </c>
       <c r="D8">
-        <v>-45.2</v>
+        <v>-39.7</v>
       </c>
       <c r="E8">
-        <v>-48</v>
+        <v>-37.8</v>
       </c>
       <c r="F8">
-        <v>42.4</v>
+        <v>80.8</v>
       </c>
       <c r="G8">
-        <v>-72.7</v>
+        <v>-48.1</v>
       </c>
       <c r="H8">
-        <v>-2.93</v>
+        <v>-0.5</v>
       </c>
       <c r="I8">
-        <v>-0.58</v>
+        <v>-0.25</v>
       </c>
       <c r="J8">
-        <v>-0.75</v>
+        <v>-0.65</v>
       </c>
       <c r="K8">
-        <v>-2.14</v>
+        <v>-1.56</v>
       </c>
       <c r="L8">
         <v>-8.06</v>
@@ -870,7 +870,7 @@
         <v>-5.66</v>
       </c>
       <c r="N8">
-        <v>-5.26</v>
+        <v>-4.55</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -881,31 +881,31 @@
         <v>21</v>
       </c>
       <c r="C9">
-        <v>-25.9</v>
+        <v>-25.6</v>
       </c>
       <c r="D9">
-        <v>-25.6</v>
+        <v>-24.9</v>
       </c>
       <c r="E9">
-        <v>-41.5</v>
+        <v>-40.1</v>
       </c>
       <c r="F9">
-        <v>71.7</v>
+        <v>77.8</v>
       </c>
       <c r="G9">
-        <v>-67.5</v>
+        <v>-64.7</v>
       </c>
       <c r="H9">
-        <v>-0.63</v>
+        <v>-1.12</v>
       </c>
       <c r="I9">
-        <v>-0.24</v>
+        <v>-0.52</v>
       </c>
       <c r="J9">
-        <v>-0.16</v>
+        <v>-0.3</v>
       </c>
       <c r="K9">
-        <v>-0.08</v>
+        <v>-0.22</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -916,31 +916,31 @@
         <v>22</v>
       </c>
       <c r="C10">
-        <v>-52.2</v>
+        <v>-50.4</v>
       </c>
       <c r="D10">
-        <v>-48.5</v>
+        <v>-44.5</v>
       </c>
       <c r="E10">
-        <v>-43.8</v>
+        <v>-36.3</v>
       </c>
       <c r="F10">
-        <v>48.7</v>
+        <v>75.09999999999999</v>
       </c>
       <c r="G10">
-        <v>-65.90000000000001</v>
+        <v>-47.5</v>
       </c>
       <c r="H10">
-        <v>-1.62</v>
+        <v>-0.83</v>
       </c>
       <c r="I10">
-        <v>-0.7</v>
+        <v>-0.61</v>
       </c>
       <c r="J10">
-        <v>-1.18</v>
+        <v>-1.13</v>
       </c>
       <c r="K10">
-        <v>-2.71</v>
+        <v>-2.25</v>
       </c>
       <c r="L10">
         <v>-3.15</v>
@@ -949,7 +949,7 @@
         <v>-22.57</v>
       </c>
       <c r="N10">
-        <v>-42.42</v>
+        <v>-42.3</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -960,31 +960,31 @@
         <v>23</v>
       </c>
       <c r="C11">
-        <v>-49.2</v>
+        <v>-47.5</v>
       </c>
       <c r="D11">
-        <v>-46.1</v>
+        <v>-42.2</v>
       </c>
       <c r="E11">
-        <v>-46.6</v>
+        <v>-39.5</v>
       </c>
       <c r="F11">
-        <v>62.2</v>
+        <v>90.2</v>
       </c>
       <c r="G11">
-        <v>-64.90000000000001</v>
+        <v>-49.1</v>
       </c>
       <c r="H11">
-        <v>-1.48</v>
+        <v>-0.6899999999999999</v>
       </c>
       <c r="I11">
-        <v>-0.5</v>
+        <v>-0.58</v>
       </c>
       <c r="J11">
-        <v>-1.09</v>
+        <v>-1.02</v>
       </c>
       <c r="K11">
-        <v>-1.89</v>
+        <v>-1.69</v>
       </c>
       <c r="L11">
         <v>20.08</v>
@@ -993,7 +993,7 @@
         <v>-19.6</v>
       </c>
       <c r="N11">
-        <v>-22.88</v>
+        <v>-24.87</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -1004,31 +1004,31 @@
         <v>24</v>
       </c>
       <c r="C12">
-        <v>-48.5</v>
+        <v>-46.7</v>
       </c>
       <c r="D12">
-        <v>-45.8</v>
+        <v>-41.6</v>
       </c>
       <c r="E12">
-        <v>-45.9</v>
+        <v>-38.2</v>
       </c>
       <c r="F12">
-        <v>67.90000000000001</v>
+        <v>99.40000000000001</v>
       </c>
       <c r="G12">
-        <v>-62.6</v>
+        <v>-45.3</v>
       </c>
       <c r="H12">
-        <v>-1.51</v>
+        <v>-0.6899999999999999</v>
       </c>
       <c r="I12">
-        <v>-0.44</v>
+        <v>-0.51</v>
       </c>
       <c r="J12">
-        <v>-1.03</v>
+        <v>-0.92</v>
       </c>
       <c r="K12">
-        <v>-1.79</v>
+        <v>-1.57</v>
       </c>
       <c r="L12">
         <v>20.08</v>
@@ -1037,7 +1037,7 @@
         <v>-19.6</v>
       </c>
       <c r="N12">
-        <v>-22.88</v>
+        <v>-24.87</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -1048,31 +1048,31 @@
         <v>25</v>
       </c>
       <c r="C13">
-        <v>-24.3</v>
+        <v>-24.1</v>
       </c>
       <c r="D13">
-        <v>-23.9</v>
+        <v>-23.4</v>
       </c>
       <c r="E13">
-        <v>-43.7</v>
+        <v>-42.8</v>
       </c>
       <c r="F13">
-        <v>78.09999999999999</v>
+        <v>82.3</v>
       </c>
       <c r="G13">
-        <v>-63.9</v>
+        <v>-62</v>
       </c>
       <c r="H13">
-        <v>-0.77</v>
+        <v>-1.21</v>
       </c>
       <c r="I13">
-        <v>-0.52</v>
+        <v>-0.6899999999999999</v>
       </c>
       <c r="J13">
-        <v>-0.26</v>
+        <v>-0.38</v>
       </c>
       <c r="K13">
-        <v>-0.23</v>
+        <v>-0.32</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -1083,31 +1083,31 @@
         <v>26</v>
       </c>
       <c r="C14">
-        <v>-57.5</v>
+        <v>-55.4</v>
       </c>
       <c r="D14">
-        <v>-49.6</v>
+        <v>-44.8</v>
       </c>
       <c r="E14">
-        <v>-53.9</v>
+        <v>-44.4</v>
       </c>
       <c r="F14">
-        <v>40.9</v>
+        <v>75.5</v>
       </c>
       <c r="G14">
-        <v>-74.59999999999999</v>
+        <v>-53.1</v>
       </c>
       <c r="H14">
-        <v>-1.34</v>
+        <v>-0.07000000000000001</v>
       </c>
       <c r="I14">
-        <v>-0.71</v>
+        <v>-0.66</v>
       </c>
       <c r="J14">
-        <v>-1.54</v>
+        <v>-1.46</v>
       </c>
       <c r="K14">
-        <v>-1.76</v>
+        <v>-1.74</v>
       </c>
       <c r="L14">
         <v>23.68</v>
@@ -1116,7 +1116,7 @@
         <v>-37.1</v>
       </c>
       <c r="N14">
-        <v>-43.56</v>
+        <v>-44.48</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -1127,31 +1127,31 @@
         <v>21</v>
       </c>
       <c r="C15">
-        <v>-25.7</v>
+        <v>-25.6</v>
       </c>
       <c r="D15">
-        <v>-25.9</v>
+        <v>-25.5</v>
       </c>
       <c r="E15">
-        <v>-57.5</v>
+        <v>-56.8</v>
       </c>
       <c r="F15">
-        <v>50.2</v>
+        <v>53.5</v>
       </c>
       <c r="G15">
-        <v>-79</v>
+        <v>-77.59999999999999</v>
       </c>
       <c r="H15">
-        <v>-1.51</v>
+        <v>-1.99</v>
       </c>
       <c r="I15">
-        <v>-0.82</v>
+        <v>-1.44</v>
       </c>
       <c r="J15">
-        <v>-0.48</v>
+        <v>-0.72</v>
       </c>
       <c r="K15">
-        <v>-0.92</v>
+        <v>-0.96</v>
       </c>
       <c r="L15">
         <v>1.32</v>
@@ -1160,7 +1160,7 @@
         <v>-26.98</v>
       </c>
       <c r="N15">
-        <v>-47.31</v>
+        <v>-48.38</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -1171,31 +1171,31 @@
         <v>27</v>
       </c>
       <c r="C16">
-        <v>-22</v>
+        <v>-21.6</v>
       </c>
       <c r="D16">
-        <v>-16.8</v>
+        <v>-15.8</v>
       </c>
       <c r="E16">
-        <v>-56.8</v>
+        <v>-55.1</v>
       </c>
       <c r="F16">
-        <v>36.5</v>
+        <v>44.7</v>
       </c>
       <c r="G16">
-        <v>-84.40000000000001</v>
+        <v>-80.90000000000001</v>
       </c>
       <c r="H16">
-        <v>-1.31</v>
+        <v>-1.84</v>
       </c>
       <c r="I16">
-        <v>-0.68</v>
+        <v>-1.25</v>
       </c>
       <c r="J16">
-        <v>-0.4</v>
+        <v>-0.58</v>
       </c>
       <c r="K16">
-        <v>-0.87</v>
+        <v>-0.91</v>
       </c>
       <c r="L16">
         <v>7.01</v>
@@ -1204,7 +1204,7 @@
         <v>-9.210000000000001</v>
       </c>
       <c r="N16">
-        <v>-29.4</v>
+        <v>-29.29</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1215,31 +1215,31 @@
         <v>28</v>
       </c>
       <c r="C17">
-        <v>-45.4</v>
+        <v>-45</v>
       </c>
       <c r="D17">
-        <v>-40.8</v>
+        <v>-39.8</v>
       </c>
       <c r="E17">
-        <v>-55.6</v>
+        <v>-53.7</v>
       </c>
       <c r="F17">
-        <v>53.8</v>
+        <v>61.8</v>
       </c>
       <c r="G17">
-        <v>-70.5</v>
+        <v>-66.09999999999999</v>
       </c>
       <c r="H17">
-        <v>-2.06</v>
+        <v>-0.87</v>
       </c>
       <c r="I17">
-        <v>-0.15</v>
+        <v>-0.18</v>
       </c>
       <c r="J17">
-        <v>0.1</v>
+        <v>0.01</v>
       </c>
       <c r="K17">
-        <v>-0.88</v>
+        <v>-0.59</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1250,31 +1250,31 @@
         <v>29</v>
       </c>
       <c r="C18">
-        <v>-35.9</v>
+        <v>-35.4</v>
       </c>
       <c r="D18">
-        <v>-42.1</v>
+        <v>-40.6</v>
       </c>
       <c r="E18">
-        <v>-37.5</v>
+        <v>-34.8</v>
       </c>
       <c r="F18">
-        <v>73.09999999999999</v>
+        <v>84.8</v>
       </c>
       <c r="G18">
-        <v>-64.3</v>
+        <v>-58.6</v>
       </c>
       <c r="H18">
-        <v>-1.96</v>
+        <v>-0.52</v>
       </c>
       <c r="I18">
-        <v>-0.38</v>
+        <v>-0.29</v>
       </c>
       <c r="J18">
-        <v>-0.74</v>
+        <v>-0.72</v>
       </c>
       <c r="K18">
-        <v>-0.84</v>
+        <v>-0.76</v>
       </c>
       <c r="L18">
         <v>-2.49</v>
@@ -1283,7 +1283,7 @@
         <v>-5.68</v>
       </c>
       <c r="N18">
-        <v>-9.58</v>
+        <v>-9.220000000000001</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1294,31 +1294,31 @@
         <v>30</v>
       </c>
       <c r="C19">
-        <v>-27.4</v>
+        <v>-27.3</v>
       </c>
       <c r="D19">
-        <v>-16.6</v>
+        <v>-16.3</v>
       </c>
       <c r="E19">
-        <v>-38.2</v>
+        <v>-37.7</v>
       </c>
       <c r="F19">
-        <v>75.5</v>
+        <v>77.8</v>
       </c>
       <c r="G19">
-        <v>-67.5</v>
+        <v>-66.5</v>
       </c>
       <c r="H19">
-        <v>-2.06</v>
+        <v>-2.23</v>
       </c>
       <c r="I19">
-        <v>-1.41</v>
+        <v>-1.82</v>
       </c>
       <c r="J19">
-        <v>-0.59</v>
+        <v>-0.88</v>
       </c>
       <c r="K19">
-        <v>-1.11</v>
+        <v>-1.13</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1329,31 +1329,31 @@
         <v>31</v>
       </c>
       <c r="C20">
-        <v>-36.8</v>
+        <v>-36.2</v>
       </c>
       <c r="D20">
-        <v>-36.5</v>
+        <v>-35.2</v>
       </c>
       <c r="E20">
-        <v>-40.1</v>
+        <v>-37.6</v>
       </c>
       <c r="F20">
-        <v>36.5</v>
+        <v>47.2</v>
       </c>
       <c r="G20">
-        <v>-81.8</v>
+        <v>-76.5</v>
       </c>
       <c r="H20">
-        <v>-1.09</v>
+        <v>-1.02</v>
       </c>
       <c r="I20">
-        <v>-0.28</v>
+        <v>-0.4</v>
       </c>
       <c r="J20">
-        <v>-0.41</v>
+        <v>-0.66</v>
       </c>
       <c r="K20">
-        <v>-0.46</v>
+        <v>-0.43</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1364,31 +1364,31 @@
         <v>32</v>
       </c>
       <c r="C21">
-        <v>-22.4</v>
+        <v>-21.9</v>
       </c>
       <c r="D21">
-        <v>-19.7</v>
+        <v>-18.6</v>
       </c>
       <c r="E21">
-        <v>-58.2</v>
+        <v>-56.3</v>
       </c>
       <c r="F21">
-        <v>34.1</v>
+        <v>42.8</v>
       </c>
       <c r="G21">
-        <v>-85.40000000000001</v>
+        <v>-81.59999999999999</v>
       </c>
       <c r="H21">
-        <v>-1.5</v>
+        <v>-2.09</v>
       </c>
       <c r="I21">
-        <v>-0.75</v>
+        <v>-1.47</v>
       </c>
       <c r="J21">
-        <v>-0.45</v>
+        <v>-0.65</v>
       </c>
       <c r="K21">
-        <v>-1.1</v>
+        <v>-1.11</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1399,31 +1399,31 @@
         <v>33</v>
       </c>
       <c r="C22">
-        <v>-30.8</v>
+        <v>-30.6</v>
       </c>
       <c r="D22">
-        <v>-19.2</v>
+        <v>-18.7</v>
       </c>
       <c r="E22">
-        <v>-38.2</v>
+        <v>-37.3</v>
       </c>
       <c r="F22">
-        <v>57.8</v>
+        <v>61.9</v>
       </c>
       <c r="G22">
-        <v>-75.7</v>
+        <v>-74</v>
       </c>
       <c r="H22">
-        <v>-1.57</v>
+        <v>-3.74</v>
       </c>
       <c r="I22">
-        <v>-0.27</v>
+        <v>-1.07</v>
       </c>
       <c r="J22">
-        <v>-0.71</v>
+        <v>-1.14</v>
       </c>
       <c r="K22">
-        <v>-2.33</v>
+        <v>-1.92</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1434,31 +1434,31 @@
         <v>34</v>
       </c>
       <c r="C23">
-        <v>-27.7</v>
+        <v>-26.6</v>
       </c>
       <c r="D23">
-        <v>-31.1</v>
+        <v>-28.7</v>
       </c>
       <c r="E23">
-        <v>-47.3</v>
+        <v>-42.8</v>
       </c>
       <c r="F23">
-        <v>50.6</v>
+        <v>69.3</v>
       </c>
       <c r="G23">
-        <v>-76.09999999999999</v>
+        <v>-67.2</v>
       </c>
       <c r="H23">
-        <v>-1.14</v>
+        <v>-1.18</v>
       </c>
       <c r="I23">
-        <v>-0.54</v>
+        <v>-0.73</v>
       </c>
       <c r="J23">
-        <v>-0.41</v>
+        <v>-0.43</v>
       </c>
       <c r="K23">
-        <v>-1.13</v>
+        <v>-1.07</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1469,31 +1469,31 @@
         <v>35</v>
       </c>
       <c r="C24">
-        <v>-31.5</v>
+        <v>-31.1</v>
       </c>
       <c r="D24">
-        <v>-34.3</v>
+        <v>-33.5</v>
       </c>
       <c r="E24">
-        <v>-48.5</v>
+        <v>-46.8</v>
       </c>
       <c r="F24">
-        <v>40.4</v>
+        <v>47.5</v>
       </c>
       <c r="G24">
-        <v>-82.90000000000001</v>
+        <v>-79.90000000000001</v>
       </c>
       <c r="H24">
-        <v>-0.66</v>
+        <v>-1.66</v>
       </c>
       <c r="I24">
-        <v>-0.06</v>
+        <v>-0.74</v>
       </c>
       <c r="J24">
-        <v>-0.13</v>
+        <v>-0.42</v>
       </c>
       <c r="K24">
-        <v>-0.78</v>
+        <v>-0.84</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1504,31 +1504,31 @@
         <v>36</v>
       </c>
       <c r="C25">
-        <v>-45.5</v>
+        <v>-44</v>
       </c>
       <c r="D25">
-        <v>-44.1</v>
+        <v>-40.8</v>
       </c>
       <c r="E25">
-        <v>-36.1</v>
+        <v>-29.5</v>
       </c>
       <c r="F25">
-        <v>57.1</v>
+        <v>83.8</v>
       </c>
       <c r="G25">
-        <v>-69.90000000000001</v>
+        <v>-55.8</v>
       </c>
       <c r="H25">
-        <v>-1.46</v>
+        <v>-0.53</v>
       </c>
       <c r="I25">
-        <v>-0.14</v>
+        <v>-0.01</v>
       </c>
       <c r="J25">
-        <v>-0.77</v>
+        <v>-0.59</v>
       </c>
       <c r="K25">
-        <v>-1.77</v>
+        <v>-1.64</v>
       </c>
     </row>
     <row r="26" spans="1:14">
@@ -1539,31 +1539,31 @@
         <v>37</v>
       </c>
       <c r="C26">
-        <v>-31.7</v>
+        <v>-28</v>
       </c>
       <c r="D26">
-        <v>-43.3</v>
+        <v>-34</v>
       </c>
       <c r="E26">
+        <v>-32.3</v>
+      </c>
+      <c r="F26">
+        <v>76.5</v>
+      </c>
+      <c r="G26">
         <v>-48.4</v>
       </c>
-      <c r="F26">
-        <v>23.5</v>
-      </c>
-      <c r="G26">
-        <v>-84.2</v>
-      </c>
       <c r="H26">
-        <v>-1.62</v>
+        <v>-0.5</v>
       </c>
       <c r="I26">
-        <v>-0.41</v>
+        <v>-0.33</v>
       </c>
       <c r="J26">
-        <v>-1.08</v>
+        <v>-1</v>
       </c>
       <c r="K26">
-        <v>-0.97</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="27" spans="1:14">
@@ -1574,31 +1574,31 @@
         <v>38</v>
       </c>
       <c r="C27">
-        <v>-50.2</v>
+        <v>-50</v>
       </c>
       <c r="D27">
-        <v>-46.4</v>
+        <v>-45.9</v>
       </c>
       <c r="E27">
-        <v>-55.1</v>
+        <v>-54.1</v>
       </c>
       <c r="F27">
-        <v>56.5</v>
+        <v>60.3</v>
       </c>
       <c r="G27">
-        <v>-71</v>
+        <v>-69</v>
       </c>
       <c r="H27">
-        <v>-1.58</v>
+        <v>-0.75</v>
       </c>
       <c r="I27">
-        <v>-0.33</v>
+        <v>-0.4</v>
       </c>
       <c r="J27">
-        <v>-0.18</v>
+        <v>-0.42</v>
       </c>
       <c r="K27">
-        <v>-1.35</v>
+        <v>-1.07</v>
       </c>
     </row>
     <row r="28" spans="1:14">
@@ -1609,31 +1609,31 @@
         <v>39</v>
       </c>
       <c r="C28">
-        <v>-20.5</v>
+        <v>-19.9</v>
       </c>
       <c r="D28">
-        <v>-18.8</v>
+        <v>-17.3</v>
       </c>
       <c r="E28">
-        <v>-48.5</v>
+        <v>-45.6</v>
       </c>
       <c r="F28">
-        <v>47</v>
+        <v>58.7</v>
       </c>
       <c r="G28">
-        <v>-77</v>
+        <v>-71.3</v>
       </c>
       <c r="H28">
-        <v>-0.84</v>
+        <v>-1.34</v>
       </c>
       <c r="I28">
-        <v>-0.27</v>
+        <v>-0.71</v>
       </c>
       <c r="J28">
-        <v>-0.23</v>
+        <v>-0.43</v>
       </c>
       <c r="K28">
-        <v>-0.58</v>
+        <v>-0.74</v>
       </c>
       <c r="L28">
         <v>-25.39</v>
@@ -1642,7 +1642,7 @@
         <v>-46.96</v>
       </c>
       <c r="N28">
-        <v>-63.48</v>
+        <v>-64.04000000000001</v>
       </c>
     </row>
     <row r="29" spans="1:14">
@@ -1653,31 +1653,31 @@
         <v>40</v>
       </c>
       <c r="C29">
-        <v>-52.5</v>
+        <v>-51.6</v>
       </c>
       <c r="D29">
-        <v>-47.7</v>
+        <v>-45.8</v>
       </c>
       <c r="E29">
-        <v>-60</v>
+        <v>-56.6</v>
       </c>
       <c r="F29">
-        <v>44.3</v>
+        <v>58.5</v>
       </c>
       <c r="G29">
-        <v>-75.5</v>
+        <v>-67.7</v>
       </c>
       <c r="H29">
-        <v>-1.26</v>
+        <v>-0.99</v>
       </c>
       <c r="I29">
-        <v>-0.41</v>
+        <v>-0.84</v>
       </c>
       <c r="J29">
-        <v>-0.5600000000000001</v>
+        <v>-0.63</v>
       </c>
       <c r="K29">
-        <v>-0.95</v>
+        <v>-1.01</v>
       </c>
       <c r="L29">
         <v>13.78</v>
@@ -1686,7 +1686,7 @@
         <v>-56.55</v>
       </c>
       <c r="N29">
-        <v>-66.09</v>
+        <v>-68.41</v>
       </c>
     </row>
     <row r="30" spans="1:14">
@@ -1697,31 +1697,31 @@
         <v>41</v>
       </c>
       <c r="C30">
-        <v>-15</v>
+        <v>-14.5</v>
       </c>
       <c r="D30">
-        <v>-9.300000000000001</v>
+        <v>-8.199999999999999</v>
       </c>
       <c r="E30">
-        <v>-54.3</v>
+        <v>-52.4</v>
       </c>
       <c r="F30">
-        <v>37.3</v>
+        <v>46.2</v>
       </c>
       <c r="G30">
-        <v>-84.40000000000001</v>
+        <v>-80.7</v>
       </c>
       <c r="H30">
-        <v>-1.17</v>
+        <v>-1.63</v>
       </c>
       <c r="I30">
-        <v>-0.6</v>
+        <v>-1.07</v>
       </c>
       <c r="J30">
-        <v>-0.36</v>
+        <v>-0.53</v>
       </c>
       <c r="K30">
-        <v>-0.71</v>
+        <v>-0.79</v>
       </c>
       <c r="L30">
         <v>-25.39</v>
@@ -1730,7 +1730,7 @@
         <v>-46.96</v>
       </c>
       <c r="N30">
-        <v>-63.48</v>
+        <v>-64.04000000000001</v>
       </c>
     </row>
     <row r="31" spans="1:14">
@@ -1741,31 +1741,31 @@
         <v>42</v>
       </c>
       <c r="C31">
-        <v>-22.4</v>
+        <v>-21.7</v>
       </c>
       <c r="D31">
-        <v>-17.2</v>
+        <v>-15.6</v>
       </c>
       <c r="E31">
-        <v>-46.4</v>
+        <v>-43.3</v>
       </c>
       <c r="F31">
-        <v>63.4</v>
+        <v>76.59999999999999</v>
       </c>
       <c r="G31">
-        <v>-71.90000000000001</v>
+        <v>-66.09999999999999</v>
       </c>
       <c r="H31">
-        <v>-0.8100000000000001</v>
+        <v>-1.34</v>
       </c>
       <c r="I31">
+        <v>-0.74</v>
+      </c>
+      <c r="J31">
         <v>-0.41</v>
       </c>
-      <c r="J31">
-        <v>-0.24</v>
-      </c>
       <c r="K31">
-        <v>-0.42</v>
+        <v>-0.52</v>
       </c>
     </row>
     <row r="32" spans="1:14">
@@ -1776,31 +1776,31 @@
         <v>43</v>
       </c>
       <c r="C32">
-        <v>-20.1</v>
+        <v>-19.4</v>
       </c>
       <c r="D32">
-        <v>-17.9</v>
+        <v>-16.3</v>
       </c>
       <c r="E32">
-        <v>-48.6</v>
+        <v>-45.5</v>
       </c>
       <c r="F32">
-        <v>45.2</v>
+        <v>57.3</v>
       </c>
       <c r="G32">
-        <v>-78.2</v>
+        <v>-72.40000000000001</v>
       </c>
       <c r="H32">
-        <v>-0.8100000000000001</v>
+        <v>-1.38</v>
       </c>
       <c r="I32">
-        <v>-0.25</v>
+        <v>-0.71</v>
       </c>
       <c r="J32">
-        <v>-0.21</v>
+        <v>-0.43</v>
       </c>
       <c r="K32">
-        <v>-0.6</v>
+        <v>-0.74</v>
       </c>
       <c r="L32">
         <v>-25.39</v>
@@ -1809,7 +1809,7 @@
         <v>-46.96</v>
       </c>
       <c r="N32">
-        <v>-63.48</v>
+        <v>-64.04000000000001</v>
       </c>
     </row>
     <row r="33" spans="1:14">
@@ -1820,31 +1820,31 @@
         <v>44</v>
       </c>
       <c r="C33">
-        <v>-34.8</v>
+        <v>-33.5</v>
       </c>
       <c r="D33">
-        <v>-35</v>
+        <v>-32.2</v>
       </c>
       <c r="E33">
-        <v>-58.4</v>
+        <v>-53.1</v>
       </c>
       <c r="F33">
-        <v>47.7</v>
+        <v>69.2</v>
       </c>
       <c r="G33">
-        <v>-76.2</v>
+        <v>-65.5</v>
       </c>
       <c r="H33">
-        <v>-1.08</v>
+        <v>-1.2</v>
       </c>
       <c r="I33">
-        <v>-0.54</v>
+        <v>-0.73</v>
       </c>
       <c r="J33">
-        <v>-0.38</v>
+        <v>-0.37</v>
       </c>
       <c r="K33">
-        <v>-1.29</v>
+        <v>-1.15</v>
       </c>
     </row>
     <row r="34" spans="1:14">
@@ -1855,31 +1855,31 @@
         <v>45</v>
       </c>
       <c r="C34">
-        <v>-56.8</v>
+        <v>-54.8</v>
       </c>
       <c r="D34">
-        <v>-48.8</v>
+        <v>-44.2</v>
       </c>
       <c r="E34">
-        <v>-52.4</v>
+        <v>-43.6</v>
       </c>
       <c r="F34">
-        <v>38.2</v>
+        <v>69.2</v>
       </c>
       <c r="G34">
-        <v>-75.7</v>
+        <v>-56</v>
       </c>
       <c r="H34">
-        <v>-1.32</v>
+        <v>-0.08</v>
       </c>
       <c r="I34">
-        <v>-0.71</v>
+        <v>-0.68</v>
       </c>
       <c r="J34">
-        <v>-1.55</v>
+        <v>-1.49</v>
       </c>
       <c r="K34">
-        <v>-1.76</v>
+        <v>-1.75</v>
       </c>
       <c r="L34">
         <v>23.68</v>
@@ -1888,7 +1888,7 @@
         <v>-37.1</v>
       </c>
       <c r="N34">
-        <v>-43.56</v>
+        <v>-44.48</v>
       </c>
     </row>
     <row r="35" spans="1:14">
@@ -1899,31 +1899,31 @@
         <v>46</v>
       </c>
       <c r="C35">
-        <v>-52.9</v>
+        <v>-52.6</v>
       </c>
       <c r="D35">
-        <v>-47.3</v>
+        <v>-46.5</v>
       </c>
       <c r="E35">
-        <v>-56.1</v>
+        <v>-54.7</v>
       </c>
       <c r="F35">
-        <v>58.4</v>
+        <v>64.3</v>
       </c>
       <c r="G35">
-        <v>-71.09999999999999</v>
+        <v>-68.2</v>
       </c>
       <c r="H35">
-        <v>-1.75</v>
+        <v>-0.59</v>
       </c>
       <c r="I35">
-        <v>-0.17</v>
+        <v>-0.18</v>
       </c>
       <c r="J35">
-        <v>0.01</v>
+        <v>-0.18</v>
       </c>
       <c r="K35">
-        <v>-1.41</v>
+        <v>-1.11</v>
       </c>
     </row>
     <row r="36" spans="1:14">
@@ -1934,31 +1934,31 @@
         <v>47</v>
       </c>
       <c r="C36">
-        <v>-63.8</v>
+        <v>-61.9</v>
       </c>
       <c r="D36">
-        <v>-55.8</v>
+        <v>-51.3</v>
       </c>
       <c r="E36">
-        <v>-64.8</v>
+        <v>-56.6</v>
       </c>
       <c r="F36">
-        <v>46.2</v>
+        <v>84.5</v>
       </c>
       <c r="G36">
-        <v>-78.09999999999999</v>
+        <v>-59.9</v>
       </c>
       <c r="H36">
-        <v>-1.33</v>
+        <v>0.1</v>
       </c>
       <c r="I36">
-        <v>-0.71</v>
+        <v>-0.62</v>
       </c>
       <c r="J36">
-        <v>-1.61</v>
+        <v>-1.5</v>
       </c>
       <c r="K36">
-        <v>-1.68</v>
+        <v>-1.65</v>
       </c>
       <c r="L36">
         <v>-30.35</v>
@@ -1967,7 +1967,7 @@
         <v>-78.22</v>
       </c>
       <c r="N36">
-        <v>-75.26000000000001</v>
+        <v>-77.61</v>
       </c>
     </row>
     <row r="37" spans="1:14">
@@ -1978,31 +1978,31 @@
         <v>48</v>
       </c>
       <c r="C37">
-        <v>-18.4</v>
+        <v>-17.8</v>
       </c>
       <c r="D37">
-        <v>-12.6</v>
+        <v>-11.2</v>
       </c>
       <c r="E37">
-        <v>-50.4</v>
+        <v>-47.7</v>
       </c>
       <c r="F37">
-        <v>52.2</v>
+        <v>63.6</v>
       </c>
       <c r="G37">
-        <v>-75.09999999999999</v>
+        <v>-69.7</v>
       </c>
       <c r="H37">
-        <v>-0.96</v>
+        <v>-1.3</v>
       </c>
       <c r="I37">
-        <v>-0.43</v>
+        <v>-0.77</v>
       </c>
       <c r="J37">
-        <v>-0.29</v>
+        <v>-0.45</v>
       </c>
       <c r="K37">
-        <v>-0.52</v>
+        <v>-0.67</v>
       </c>
       <c r="L37">
         <v>-25.39</v>
@@ -2011,7 +2011,7 @@
         <v>-46.96</v>
       </c>
       <c r="N37">
-        <v>-63.48</v>
+        <v>-64.04000000000001</v>
       </c>
     </row>
     <row r="38" spans="1:14">
@@ -2022,31 +2022,31 @@
         <v>49</v>
       </c>
       <c r="C38">
-        <v>-41.2</v>
+        <v>-39.5</v>
       </c>
       <c r="D38">
-        <v>-39.8</v>
+        <v>-36</v>
       </c>
       <c r="E38">
-        <v>-35.3</v>
+        <v>-28</v>
       </c>
       <c r="F38">
-        <v>52.4</v>
+        <v>78</v>
       </c>
       <c r="G38">
-        <v>-59.9</v>
+        <v>-40.4</v>
       </c>
       <c r="H38">
-        <v>-1.65</v>
+        <v>-0.8100000000000001</v>
       </c>
       <c r="I38">
-        <v>-0.68</v>
+        <v>-0.59</v>
       </c>
       <c r="J38">
-        <v>-1.17</v>
+        <v>-1.11</v>
       </c>
       <c r="K38">
-        <v>-2.66</v>
+        <v>-2.21</v>
       </c>
       <c r="L38">
         <v>-3.15</v>
@@ -2055,7 +2055,7 @@
         <v>-22.57</v>
       </c>
       <c r="N38">
-        <v>-42.42</v>
+        <v>-42.3</v>
       </c>
     </row>
     <row r="39" spans="1:14">
@@ -2066,31 +2066,31 @@
         <v>50</v>
       </c>
       <c r="C39">
-        <v>-13.3</v>
+        <v>-12.7</v>
       </c>
       <c r="D39">
-        <v>-6.4</v>
+        <v>-5.2</v>
       </c>
       <c r="E39">
-        <v>-53.6</v>
+        <v>-51.6</v>
       </c>
       <c r="F39">
-        <v>36.2</v>
+        <v>45.6</v>
       </c>
       <c r="G39">
-        <v>-84.8</v>
+        <v>-80.90000000000001</v>
       </c>
       <c r="H39">
-        <v>-1.23</v>
+        <v>-1.71</v>
       </c>
       <c r="I39">
-        <v>-0.63</v>
+        <v>-1.14</v>
       </c>
       <c r="J39">
-        <v>-0.38</v>
+        <v>-0.55</v>
       </c>
       <c r="K39">
-        <v>-0.78</v>
+        <v>-0.84</v>
       </c>
       <c r="L39">
         <v>-25.39</v>
@@ -2099,7 +2099,7 @@
         <v>-46.96</v>
       </c>
       <c r="N39">
-        <v>-63.48</v>
+        <v>-64.04000000000001</v>
       </c>
     </row>
     <row r="40" spans="1:14">
@@ -2110,31 +2110,31 @@
         <v>51</v>
       </c>
       <c r="C40">
-        <v>-20.1</v>
+        <v>-19.4</v>
       </c>
       <c r="D40">
-        <v>-16</v>
+        <v>-14.3</v>
       </c>
       <c r="E40">
-        <v>-48.9</v>
+        <v>-45.7</v>
       </c>
       <c r="F40">
-        <v>58.1</v>
+        <v>71.5</v>
       </c>
       <c r="G40">
-        <v>-72.7</v>
+        <v>-66.40000000000001</v>
       </c>
       <c r="H40">
-        <v>-0.89</v>
+        <v>-1.31</v>
       </c>
       <c r="I40">
-        <v>-0.37</v>
+        <v>-0.74</v>
       </c>
       <c r="J40">
-        <v>-0.26</v>
+        <v>-0.44</v>
       </c>
       <c r="K40">
-        <v>-0.51</v>
+        <v>-0.66</v>
       </c>
       <c r="L40">
         <v>-25.39</v>
@@ -2143,7 +2143,7 @@
         <v>-46.96</v>
       </c>
       <c r="N40">
-        <v>-63.48</v>
+        <v>-64.04000000000001</v>
       </c>
     </row>
     <row r="41" spans="1:14">
@@ -2154,31 +2154,31 @@
         <v>52</v>
       </c>
       <c r="C41">
-        <v>-54</v>
+        <v>-52.4</v>
       </c>
       <c r="D41">
-        <v>-49</v>
+        <v>-45.2</v>
       </c>
       <c r="E41">
-        <v>-51.1</v>
+        <v>-44</v>
       </c>
       <c r="F41">
-        <v>45.7</v>
+        <v>73.09999999999999</v>
       </c>
       <c r="G41">
-        <v>-73.8</v>
+        <v>-58.1</v>
       </c>
       <c r="H41">
-        <v>-1.29</v>
+        <v>-0.65</v>
       </c>
       <c r="I41">
-        <v>-0.71</v>
+        <v>-0.88</v>
       </c>
       <c r="J41">
-        <v>-1.32</v>
+        <v>-1.38</v>
       </c>
       <c r="K41">
-        <v>-1.95</v>
+        <v>-1.98</v>
       </c>
       <c r="L41">
         <v>23.68</v>
@@ -2187,7 +2187,7 @@
         <v>-37.1</v>
       </c>
       <c r="N41">
-        <v>-43.56</v>
+        <v>-44.48</v>
       </c>
     </row>
     <row r="42" spans="1:14">
@@ -2198,31 +2198,31 @@
         <v>53</v>
       </c>
       <c r="C42">
-        <v>-31.4</v>
+        <v>-30.6</v>
       </c>
       <c r="D42">
-        <v>-42.7</v>
+        <v>-41.1</v>
       </c>
       <c r="E42">
-        <v>-56.9</v>
+        <v>-54.1</v>
       </c>
       <c r="F42">
-        <v>26.6</v>
+        <v>39.7</v>
       </c>
       <c r="G42">
-        <v>-90.2</v>
+        <v>-85.40000000000001</v>
       </c>
       <c r="H42">
-        <v>-1.59</v>
+        <v>-2.05</v>
       </c>
       <c r="I42">
-        <v>-0.77</v>
+        <v>-1.23</v>
       </c>
       <c r="J42">
-        <v>-1.1</v>
+        <v>-1.55</v>
       </c>
       <c r="K42">
-        <v>-1.07</v>
+        <v>-1.17</v>
       </c>
       <c r="L42">
         <v>-9.390000000000001</v>
@@ -2231,7 +2231,7 @@
         <v>-6.29</v>
       </c>
       <c r="N42">
-        <v>-5.02</v>
+        <v>-4.1</v>
       </c>
     </row>
   </sheetData>

--- a/Sistema-Operacional/Saidas/Monitoramento - Mananciais Críticos.xlsx
+++ b/Sistema-Operacional/Saidas/Monitoramento - Mananciais Críticos.xlsx
@@ -19,19 +19,19 @@
     <t>MUNICIPIO</t>
   </si>
   <si>
-    <t>AN_ANUAL_202010</t>
-  </si>
-  <si>
-    <t>AN_SEM_202010</t>
-  </si>
-  <si>
-    <t>AN_TRI_202010</t>
-  </si>
-  <si>
-    <t>AC_202010</t>
-  </si>
-  <si>
-    <t>AN_202010</t>
+    <t>AN_ANUAL_202011</t>
+  </si>
+  <si>
+    <t>AN_SEM_202011</t>
+  </si>
+  <si>
+    <t>AN_TRI_202011</t>
+  </si>
+  <si>
+    <t>AC_20201115</t>
+  </si>
+  <si>
+    <t>AN_20201115</t>
   </si>
   <si>
     <t>SPI1_202010</t>
@@ -46,13 +46,13 @@
     <t>SPI12_202010</t>
   </si>
   <si>
-    <t>AN_COTA_202008</t>
-  </si>
-  <si>
     <t>AN_COTA_202009</t>
   </si>
   <si>
-    <t>AN_COTA_20201031</t>
+    <t>AN_COTA_202010</t>
+  </si>
+  <si>
+    <t>AN_COTA_20201115</t>
   </si>
   <si>
     <t>SIA</t>
@@ -591,19 +591,19 @@
         <v>14</v>
       </c>
       <c r="C2">
-        <v>-20.9</v>
+        <v>-27.4</v>
       </c>
       <c r="D2">
-        <v>-28</v>
+        <v>-38.7</v>
       </c>
       <c r="E2">
-        <v>-19.7</v>
+        <v>-76.3</v>
       </c>
       <c r="F2">
-        <v>83.3</v>
+        <v>4.7</v>
       </c>
       <c r="G2">
-        <v>-49.4</v>
+        <v>-97</v>
       </c>
       <c r="H2">
         <v>-0.51</v>
@@ -618,13 +618,13 @@
         <v>-0.76</v>
       </c>
       <c r="L2">
-        <v>-2.49</v>
+        <v>-5.68</v>
       </c>
       <c r="M2">
-        <v>-5.68</v>
+        <v>-9.220000000000001</v>
       </c>
       <c r="N2">
-        <v>-9.220000000000001</v>
+        <v>-11.55</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -635,19 +635,19 @@
         <v>15</v>
       </c>
       <c r="C3">
-        <v>-32.7</v>
+        <v>-41</v>
       </c>
       <c r="D3">
-        <v>-26</v>
+        <v>-25.3</v>
       </c>
       <c r="E3">
-        <v>-16.6</v>
+        <v>-53.4</v>
       </c>
       <c r="F3">
-        <v>82</v>
+        <v>53.5</v>
       </c>
       <c r="G3">
-        <v>-36.5</v>
+        <v>-55.1</v>
       </c>
       <c r="H3">
         <v>-1.03</v>
@@ -662,13 +662,13 @@
         <v>-1.67</v>
       </c>
       <c r="L3">
-        <v>8.51</v>
+        <v>-54.38</v>
       </c>
       <c r="M3">
-        <v>-54.38</v>
+        <v>-51.9</v>
       </c>
       <c r="N3">
-        <v>-51.9</v>
+        <v>-31.19</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -679,19 +679,19 @@
         <v>16</v>
       </c>
       <c r="C4">
-        <v>-34.6</v>
+        <v>-40.8</v>
       </c>
       <c r="D4">
-        <v>-36.5</v>
+        <v>-46.5</v>
       </c>
       <c r="E4">
-        <v>-46.2</v>
+        <v>-84</v>
       </c>
       <c r="F4">
-        <v>39.5</v>
+        <v>34.5</v>
       </c>
       <c r="G4">
-        <v>-79.3</v>
+        <v>-83</v>
       </c>
       <c r="H4">
         <v>-0.83</v>
@@ -714,19 +714,19 @@
         <v>17</v>
       </c>
       <c r="C5">
-        <v>-11.9</v>
+        <v>-18.8</v>
       </c>
       <c r="D5">
-        <v>-4.8</v>
+        <v>-35.3</v>
       </c>
       <c r="E5">
-        <v>-32.7</v>
+        <v>-70.7</v>
       </c>
       <c r="F5">
-        <v>67.40000000000001</v>
+        <v>24.4</v>
       </c>
       <c r="G5">
-        <v>-56.8</v>
+        <v>-79.8</v>
       </c>
       <c r="H5">
         <v>-0.71</v>
@@ -741,13 +741,13 @@
         <v>-0.65</v>
       </c>
       <c r="L5">
-        <v>-25.39</v>
+        <v>-46.96</v>
       </c>
       <c r="M5">
-        <v>-46.96</v>
+        <v>-64.04000000000001</v>
       </c>
       <c r="N5">
-        <v>-64.04000000000001</v>
+        <v>-59.66</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -758,19 +758,19 @@
         <v>18</v>
       </c>
       <c r="C6">
-        <v>-28.2</v>
+        <v>-34</v>
       </c>
       <c r="D6">
-        <v>-43.1</v>
+        <v>-60</v>
       </c>
       <c r="E6">
-        <v>-60.1</v>
+        <v>-87</v>
       </c>
       <c r="F6">
-        <v>35.7</v>
+        <v>13.6</v>
       </c>
       <c r="G6">
-        <v>-88.3</v>
+        <v>-88.90000000000001</v>
       </c>
       <c r="H6">
         <v>-2.04</v>
@@ -785,13 +785,13 @@
         <v>-1.16</v>
       </c>
       <c r="L6">
-        <v>-9.390000000000001</v>
+        <v>-6.29</v>
       </c>
       <c r="M6">
-        <v>-6.29</v>
+        <v>-4.1</v>
       </c>
       <c r="N6">
-        <v>-4.1</v>
+        <v>-16.53</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -802,19 +802,19 @@
         <v>19</v>
       </c>
       <c r="C7">
-        <v>-20</v>
+        <v>-27.6</v>
       </c>
       <c r="D7">
-        <v>-23.4</v>
+        <v>-42.7</v>
       </c>
       <c r="E7">
-        <v>-38.1</v>
+        <v>-71.59999999999999</v>
       </c>
       <c r="F7">
-        <v>58.9</v>
+        <v>32.4</v>
       </c>
       <c r="G7">
-        <v>-72.8</v>
+        <v>-76.3</v>
       </c>
       <c r="H7">
         <v>-1.02</v>
@@ -837,19 +837,19 @@
         <v>20</v>
       </c>
       <c r="C8">
-        <v>-50.4</v>
+        <v>-52.9</v>
       </c>
       <c r="D8">
-        <v>-39.7</v>
+        <v>-35.1</v>
       </c>
       <c r="E8">
-        <v>-37.8</v>
+        <v>-64.40000000000001</v>
       </c>
       <c r="F8">
-        <v>80.8</v>
+        <v>65.59999999999999</v>
       </c>
       <c r="G8">
-        <v>-48.1</v>
+        <v>-47.1</v>
       </c>
       <c r="H8">
         <v>-0.5</v>
@@ -864,13 +864,13 @@
         <v>-1.56</v>
       </c>
       <c r="L8">
-        <v>-8.06</v>
+        <v>-5.66</v>
       </c>
       <c r="M8">
-        <v>-5.66</v>
+        <v>-4.55</v>
       </c>
       <c r="N8">
-        <v>-4.55</v>
+        <v>10.46</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -881,19 +881,19 @@
         <v>21</v>
       </c>
       <c r="C9">
-        <v>-25.6</v>
+        <v>-33.5</v>
       </c>
       <c r="D9">
-        <v>-24.9</v>
+        <v>-46</v>
       </c>
       <c r="E9">
-        <v>-40.1</v>
+        <v>-71.40000000000001</v>
       </c>
       <c r="F9">
-        <v>77.8</v>
+        <v>27.9</v>
       </c>
       <c r="G9">
-        <v>-64.7</v>
+        <v>-82.5</v>
       </c>
       <c r="H9">
         <v>-1.12</v>
@@ -916,19 +916,19 @@
         <v>22</v>
       </c>
       <c r="C10">
-        <v>-50.4</v>
+        <v>-52.4</v>
       </c>
       <c r="D10">
-        <v>-44.5</v>
+        <v>-41</v>
       </c>
       <c r="E10">
-        <v>-36.3</v>
+        <v>-56.5</v>
       </c>
       <c r="F10">
-        <v>75.09999999999999</v>
+        <v>58.1</v>
       </c>
       <c r="G10">
-        <v>-47.5</v>
+        <v>-46</v>
       </c>
       <c r="H10">
         <v>-0.83</v>
@@ -943,13 +943,13 @@
         <v>-2.25</v>
       </c>
       <c r="L10">
-        <v>-3.15</v>
+        <v>-22.57</v>
       </c>
       <c r="M10">
-        <v>-22.57</v>
+        <v>-42.3</v>
       </c>
       <c r="N10">
-        <v>-42.3</v>
+        <v>-33.04</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -960,19 +960,19 @@
         <v>23</v>
       </c>
       <c r="C11">
-        <v>-47.5</v>
+        <v>-48.9</v>
       </c>
       <c r="D11">
-        <v>-42.2</v>
+        <v>-35.1</v>
       </c>
       <c r="E11">
-        <v>-39.5</v>
+        <v>-50.8</v>
       </c>
       <c r="F11">
-        <v>90.2</v>
+        <v>87.8</v>
       </c>
       <c r="G11">
-        <v>-49.1</v>
+        <v>-36.5</v>
       </c>
       <c r="H11">
         <v>-0.6899999999999999</v>
@@ -987,13 +987,13 @@
         <v>-1.69</v>
       </c>
       <c r="L11">
-        <v>20.08</v>
+        <v>-19.6</v>
       </c>
       <c r="M11">
-        <v>-19.6</v>
+        <v>-24.87</v>
       </c>
       <c r="N11">
-        <v>-24.87</v>
+        <v>-13.85</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -1004,19 +1004,19 @@
         <v>24</v>
       </c>
       <c r="C12">
-        <v>-46.7</v>
+        <v>-48.4</v>
       </c>
       <c r="D12">
-        <v>-41.6</v>
+        <v>-34.9</v>
       </c>
       <c r="E12">
-        <v>-38.2</v>
+        <v>-50</v>
       </c>
       <c r="F12">
-        <v>99.40000000000001</v>
+        <v>89.3</v>
       </c>
       <c r="G12">
-        <v>-45.3</v>
+        <v>-39.1</v>
       </c>
       <c r="H12">
         <v>-0.6899999999999999</v>
@@ -1031,13 +1031,13 @@
         <v>-1.57</v>
       </c>
       <c r="L12">
-        <v>20.08</v>
+        <v>-19.6</v>
       </c>
       <c r="M12">
-        <v>-19.6</v>
+        <v>-24.87</v>
       </c>
       <c r="N12">
-        <v>-24.87</v>
+        <v>-13.85</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -1048,19 +1048,19 @@
         <v>25</v>
       </c>
       <c r="C13">
-        <v>-24.1</v>
+        <v>-32.4</v>
       </c>
       <c r="D13">
-        <v>-23.4</v>
+        <v>-45.2</v>
       </c>
       <c r="E13">
-        <v>-42.8</v>
+        <v>-70.3</v>
       </c>
       <c r="F13">
-        <v>82.3</v>
+        <v>32.8</v>
       </c>
       <c r="G13">
-        <v>-62</v>
+        <v>-79.8</v>
       </c>
       <c r="H13">
         <v>-1.21</v>
@@ -1083,19 +1083,19 @@
         <v>26</v>
       </c>
       <c r="C14">
-        <v>-55.4</v>
+        <v>-57.5</v>
       </c>
       <c r="D14">
-        <v>-44.8</v>
+        <v>-40.5</v>
       </c>
       <c r="E14">
-        <v>-44.4</v>
+        <v>-62.7</v>
       </c>
       <c r="F14">
-        <v>75.5</v>
+        <v>45.6</v>
       </c>
       <c r="G14">
-        <v>-53.1</v>
+        <v>-62.5</v>
       </c>
       <c r="H14">
         <v>-0.07000000000000001</v>
@@ -1110,13 +1110,13 @@
         <v>-1.74</v>
       </c>
       <c r="L14">
-        <v>23.68</v>
+        <v>-37.1</v>
       </c>
       <c r="M14">
-        <v>-37.1</v>
+        <v>-44.48</v>
       </c>
       <c r="N14">
-        <v>-44.48</v>
+        <v>-35.07</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -1127,19 +1127,19 @@
         <v>21</v>
       </c>
       <c r="C15">
-        <v>-25.6</v>
+        <v>-34.5</v>
       </c>
       <c r="D15">
-        <v>-25.5</v>
+        <v>-40.3</v>
       </c>
       <c r="E15">
-        <v>-56.8</v>
+        <v>-74.7</v>
       </c>
       <c r="F15">
-        <v>53.5</v>
+        <v>40.8</v>
       </c>
       <c r="G15">
-        <v>-77.59999999999999</v>
+        <v>-74.90000000000001</v>
       </c>
       <c r="H15">
         <v>-1.99</v>
@@ -1154,13 +1154,13 @@
         <v>-0.96</v>
       </c>
       <c r="L15">
-        <v>1.32</v>
+        <v>-26.98</v>
       </c>
       <c r="M15">
-        <v>-26.98</v>
+        <v>-48.38</v>
       </c>
       <c r="N15">
-        <v>-48.38</v>
+        <v>-50.92</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -1171,19 +1171,19 @@
         <v>27</v>
       </c>
       <c r="C16">
-        <v>-21.6</v>
+        <v>-29.9</v>
       </c>
       <c r="D16">
-        <v>-15.8</v>
+        <v>-37.9</v>
       </c>
       <c r="E16">
-        <v>-55.1</v>
+        <v>-76.5</v>
       </c>
       <c r="F16">
-        <v>44.7</v>
+        <v>45.1</v>
       </c>
       <c r="G16">
-        <v>-80.90000000000001</v>
+        <v>-74.90000000000001</v>
       </c>
       <c r="H16">
         <v>-1.84</v>
@@ -1198,13 +1198,13 @@
         <v>-0.91</v>
       </c>
       <c r="L16">
-        <v>7.01</v>
+        <v>-9.210000000000001</v>
       </c>
       <c r="M16">
-        <v>-9.210000000000001</v>
+        <v>-29.29</v>
       </c>
       <c r="N16">
-        <v>-29.29</v>
+        <v>-21.35</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1215,19 +1215,19 @@
         <v>28</v>
       </c>
       <c r="C17">
-        <v>-45</v>
+        <v>-54.3</v>
       </c>
       <c r="D17">
-        <v>-39.8</v>
+        <v>-51.7</v>
       </c>
       <c r="E17">
-        <v>-53.7</v>
+        <v>-81.8</v>
       </c>
       <c r="F17">
-        <v>61.8</v>
+        <v>4.8</v>
       </c>
       <c r="G17">
-        <v>-66.09999999999999</v>
+        <v>-97.5</v>
       </c>
       <c r="H17">
         <v>-0.87</v>
@@ -1250,19 +1250,19 @@
         <v>29</v>
       </c>
       <c r="C18">
-        <v>-35.4</v>
+        <v>-41.2</v>
       </c>
       <c r="D18">
-        <v>-40.6</v>
+        <v>-49.8</v>
       </c>
       <c r="E18">
-        <v>-34.8</v>
+        <v>-80.59999999999999</v>
       </c>
       <c r="F18">
-        <v>84.8</v>
+        <v>5.6</v>
       </c>
       <c r="G18">
-        <v>-58.6</v>
+        <v>-97.2</v>
       </c>
       <c r="H18">
         <v>-0.52</v>
@@ -1277,13 +1277,13 @@
         <v>-0.76</v>
       </c>
       <c r="L18">
-        <v>-2.49</v>
+        <v>-5.68</v>
       </c>
       <c r="M18">
-        <v>-5.68</v>
+        <v>-9.220000000000001</v>
       </c>
       <c r="N18">
-        <v>-9.220000000000001</v>
+        <v>-11.55</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1294,19 +1294,19 @@
         <v>30</v>
       </c>
       <c r="C19">
-        <v>-27.3</v>
+        <v>-33.8</v>
       </c>
       <c r="D19">
-        <v>-16.3</v>
+        <v>-36.6</v>
       </c>
       <c r="E19">
-        <v>-37.7</v>
+        <v>-67</v>
       </c>
       <c r="F19">
-        <v>77.8</v>
+        <v>28.9</v>
       </c>
       <c r="G19">
-        <v>-66.5</v>
+        <v>-79.5</v>
       </c>
       <c r="H19">
         <v>-2.23</v>
@@ -1329,19 +1329,19 @@
         <v>31</v>
       </c>
       <c r="C20">
-        <v>-36.2</v>
+        <v>-43.1</v>
       </c>
       <c r="D20">
-        <v>-35.2</v>
+        <v>-45.4</v>
       </c>
       <c r="E20">
-        <v>-37.6</v>
+        <v>-84.8</v>
       </c>
       <c r="F20">
-        <v>47.2</v>
+        <v>26</v>
       </c>
       <c r="G20">
-        <v>-76.5</v>
+        <v>-87.2</v>
       </c>
       <c r="H20">
         <v>-1.02</v>
@@ -1364,19 +1364,19 @@
         <v>32</v>
       </c>
       <c r="C21">
-        <v>-21.9</v>
+        <v>-30</v>
       </c>
       <c r="D21">
-        <v>-18.6</v>
+        <v>-36.3</v>
       </c>
       <c r="E21">
-        <v>-56.3</v>
+        <v>-75</v>
       </c>
       <c r="F21">
-        <v>42.8</v>
+        <v>48.2</v>
       </c>
       <c r="G21">
-        <v>-81.59999999999999</v>
+        <v>-71.7</v>
       </c>
       <c r="H21">
         <v>-2.09</v>
@@ -1399,19 +1399,19 @@
         <v>33</v>
       </c>
       <c r="C22">
-        <v>-30.6</v>
+        <v>-37</v>
       </c>
       <c r="D22">
-        <v>-18.7</v>
+        <v>-32.8</v>
       </c>
       <c r="E22">
-        <v>-37.3</v>
+        <v>-75.3</v>
       </c>
       <c r="F22">
-        <v>61.9</v>
+        <v>32.4</v>
       </c>
       <c r="G22">
-        <v>-74</v>
+        <v>-77.3</v>
       </c>
       <c r="H22">
         <v>-3.74</v>
@@ -1434,19 +1434,19 @@
         <v>34</v>
       </c>
       <c r="C23">
-        <v>-26.6</v>
+        <v>-33.4</v>
       </c>
       <c r="D23">
-        <v>-28.7</v>
+        <v>-50.5</v>
       </c>
       <c r="E23">
-        <v>-42.8</v>
+        <v>-76.2</v>
       </c>
       <c r="F23">
-        <v>69.3</v>
+        <v>13.1</v>
       </c>
       <c r="G23">
-        <v>-67.2</v>
+        <v>-91.90000000000001</v>
       </c>
       <c r="H23">
         <v>-1.18</v>
@@ -1469,19 +1469,19 @@
         <v>35</v>
       </c>
       <c r="C24">
-        <v>-31.1</v>
+        <v>-38.7</v>
       </c>
       <c r="D24">
-        <v>-33.5</v>
+        <v>-53</v>
       </c>
       <c r="E24">
-        <v>-46.8</v>
+        <v>-81.3</v>
       </c>
       <c r="F24">
-        <v>47.5</v>
+        <v>20.8</v>
       </c>
       <c r="G24">
-        <v>-79.90000000000001</v>
+        <v>-84.8</v>
       </c>
       <c r="H24">
         <v>-1.66</v>
@@ -1504,19 +1504,19 @@
         <v>36</v>
       </c>
       <c r="C25">
-        <v>-44</v>
+        <v>-50.1</v>
       </c>
       <c r="D25">
-        <v>-40.8</v>
+        <v>-42.1</v>
       </c>
       <c r="E25">
-        <v>-29.5</v>
+        <v>-57.4</v>
       </c>
       <c r="F25">
-        <v>83.8</v>
+        <v>33.7</v>
       </c>
       <c r="G25">
-        <v>-55.8</v>
+        <v>-72.3</v>
       </c>
       <c r="H25">
         <v>-0.53</v>
@@ -1539,19 +1539,19 @@
         <v>37</v>
       </c>
       <c r="C26">
-        <v>-28</v>
+        <v>-33.2</v>
       </c>
       <c r="D26">
-        <v>-34</v>
+        <v>-44.1</v>
       </c>
       <c r="E26">
-        <v>-32.3</v>
+        <v>-77.8</v>
       </c>
       <c r="F26">
-        <v>76.5</v>
+        <v>6.3</v>
       </c>
       <c r="G26">
-        <v>-48.4</v>
+        <v>-95.7</v>
       </c>
       <c r="H26">
         <v>-0.5</v>
@@ -1574,19 +1574,19 @@
         <v>38</v>
       </c>
       <c r="C27">
-        <v>-50</v>
+        <v>-56.9</v>
       </c>
       <c r="D27">
-        <v>-45.9</v>
+        <v>-51.3</v>
       </c>
       <c r="E27">
-        <v>-54.1</v>
+        <v>-75.59999999999999</v>
       </c>
       <c r="F27">
-        <v>60.3</v>
+        <v>40.4</v>
       </c>
       <c r="G27">
-        <v>-69</v>
+        <v>-76.59999999999999</v>
       </c>
       <c r="H27">
         <v>-0.75</v>
@@ -1609,19 +1609,19 @@
         <v>39</v>
       </c>
       <c r="C28">
-        <v>-19.9</v>
+        <v>-27.3</v>
       </c>
       <c r="D28">
-        <v>-17.3</v>
+        <v>-41.9</v>
       </c>
       <c r="E28">
-        <v>-45.6</v>
+        <v>-73.09999999999999</v>
       </c>
       <c r="F28">
-        <v>58.7</v>
+        <v>39.8</v>
       </c>
       <c r="G28">
-        <v>-71.3</v>
+        <v>-71.09999999999999</v>
       </c>
       <c r="H28">
         <v>-1.34</v>
@@ -1636,13 +1636,13 @@
         <v>-0.74</v>
       </c>
       <c r="L28">
-        <v>-25.39</v>
+        <v>-46.96</v>
       </c>
       <c r="M28">
-        <v>-46.96</v>
+        <v>-64.04000000000001</v>
       </c>
       <c r="N28">
-        <v>-64.04000000000001</v>
+        <v>-59.66</v>
       </c>
     </row>
     <row r="29" spans="1:14">
@@ -1653,19 +1653,19 @@
         <v>40</v>
       </c>
       <c r="C29">
-        <v>-51.6</v>
+        <v>-54.6</v>
       </c>
       <c r="D29">
-        <v>-45.8</v>
+        <v>-44.7</v>
       </c>
       <c r="E29">
-        <v>-56.6</v>
+        <v>-70.5</v>
       </c>
       <c r="F29">
-        <v>58.5</v>
+        <v>42.9</v>
       </c>
       <c r="G29">
-        <v>-67.7</v>
+        <v>-67.40000000000001</v>
       </c>
       <c r="H29">
         <v>-0.99</v>
@@ -1680,13 +1680,13 @@
         <v>-1.01</v>
       </c>
       <c r="L29">
-        <v>13.78</v>
+        <v>-56.55</v>
       </c>
       <c r="M29">
-        <v>-56.55</v>
+        <v>-68.41</v>
       </c>
       <c r="N29">
-        <v>-68.41</v>
+        <v>-64.04000000000001</v>
       </c>
     </row>
     <row r="30" spans="1:14">
@@ -1697,19 +1697,19 @@
         <v>41</v>
       </c>
       <c r="C30">
-        <v>-14.5</v>
+        <v>-23</v>
       </c>
       <c r="D30">
-        <v>-8.199999999999999</v>
+        <v>-33.5</v>
       </c>
       <c r="E30">
-        <v>-52.4</v>
+        <v>-75.7</v>
       </c>
       <c r="F30">
-        <v>46.2</v>
+        <v>54.3</v>
       </c>
       <c r="G30">
-        <v>-80.7</v>
+        <v>-69.59999999999999</v>
       </c>
       <c r="H30">
         <v>-1.63</v>
@@ -1724,13 +1724,13 @@
         <v>-0.79</v>
       </c>
       <c r="L30">
-        <v>-25.39</v>
+        <v>-46.96</v>
       </c>
       <c r="M30">
-        <v>-46.96</v>
+        <v>-64.04000000000001</v>
       </c>
       <c r="N30">
-        <v>-64.04000000000001</v>
+        <v>-59.66</v>
       </c>
     </row>
     <row r="31" spans="1:14">
@@ -1741,19 +1741,19 @@
         <v>42</v>
       </c>
       <c r="C31">
-        <v>-21.7</v>
+        <v>-28.9</v>
       </c>
       <c r="D31">
-        <v>-15.6</v>
+        <v>-41.1</v>
       </c>
       <c r="E31">
-        <v>-43.3</v>
+        <v>-67.5</v>
       </c>
       <c r="F31">
-        <v>76.59999999999999</v>
+        <v>50.6</v>
       </c>
       <c r="G31">
-        <v>-66.09999999999999</v>
+        <v>-66</v>
       </c>
       <c r="H31">
         <v>-1.34</v>
@@ -1776,19 +1776,19 @@
         <v>43</v>
       </c>
       <c r="C32">
-        <v>-19.4</v>
+        <v>-27</v>
       </c>
       <c r="D32">
-        <v>-16.3</v>
+        <v>-42.4</v>
       </c>
       <c r="E32">
-        <v>-45.5</v>
+        <v>-72.90000000000001</v>
       </c>
       <c r="F32">
-        <v>57.3</v>
+        <v>39.8</v>
       </c>
       <c r="G32">
-        <v>-72.40000000000001</v>
+        <v>-70.90000000000001</v>
       </c>
       <c r="H32">
         <v>-1.38</v>
@@ -1803,13 +1803,13 @@
         <v>-0.74</v>
       </c>
       <c r="L32">
-        <v>-25.39</v>
+        <v>-46.96</v>
       </c>
       <c r="M32">
-        <v>-46.96</v>
+        <v>-64.04000000000001</v>
       </c>
       <c r="N32">
-        <v>-64.04000000000001</v>
+        <v>-59.66</v>
       </c>
     </row>
     <row r="33" spans="1:14">
@@ -1820,19 +1820,19 @@
         <v>44</v>
       </c>
       <c r="C33">
-        <v>-33.5</v>
+        <v>-38.1</v>
       </c>
       <c r="D33">
-        <v>-32.2</v>
+        <v>-50.8</v>
       </c>
       <c r="E33">
-        <v>-53.1</v>
+        <v>-76.2</v>
       </c>
       <c r="F33">
-        <v>69.2</v>
+        <v>19.4</v>
       </c>
       <c r="G33">
-        <v>-65.5</v>
+        <v>-87.59999999999999</v>
       </c>
       <c r="H33">
         <v>-1.2</v>
@@ -1855,19 +1855,19 @@
         <v>45</v>
       </c>
       <c r="C34">
-        <v>-54.8</v>
+        <v>-56.6</v>
       </c>
       <c r="D34">
-        <v>-44.2</v>
+        <v>-38.7</v>
       </c>
       <c r="E34">
-        <v>-43.6</v>
+        <v>-60.7</v>
       </c>
       <c r="F34">
-        <v>69.2</v>
+        <v>51</v>
       </c>
       <c r="G34">
-        <v>-56</v>
+        <v>-56.9</v>
       </c>
       <c r="H34">
         <v>-0.08</v>
@@ -1882,13 +1882,13 @@
         <v>-1.75</v>
       </c>
       <c r="L34">
-        <v>23.68</v>
+        <v>-37.1</v>
       </c>
       <c r="M34">
-        <v>-37.1</v>
+        <v>-44.48</v>
       </c>
       <c r="N34">
-        <v>-44.48</v>
+        <v>-35.07</v>
       </c>
     </row>
     <row r="35" spans="1:14">
@@ -1899,19 +1899,19 @@
         <v>46</v>
       </c>
       <c r="C35">
-        <v>-52.6</v>
+        <v>-59.4</v>
       </c>
       <c r="D35">
-        <v>-46.5</v>
+        <v>-52.4</v>
       </c>
       <c r="E35">
-        <v>-54.7</v>
+        <v>-76.90000000000001</v>
       </c>
       <c r="F35">
-        <v>64.3</v>
+        <v>35.9</v>
       </c>
       <c r="G35">
-        <v>-68.2</v>
+        <v>-79.90000000000001</v>
       </c>
       <c r="H35">
         <v>-0.59</v>
@@ -1934,19 +1934,19 @@
         <v>47</v>
       </c>
       <c r="C36">
-        <v>-61.9</v>
+        <v>-62.3</v>
       </c>
       <c r="D36">
-        <v>-51.3</v>
+        <v>-47.1</v>
       </c>
       <c r="E36">
-        <v>-56.6</v>
+        <v>-64.40000000000001</v>
       </c>
       <c r="F36">
-        <v>84.5</v>
+        <v>62.2</v>
       </c>
       <c r="G36">
-        <v>-59.9</v>
+        <v>-65.8</v>
       </c>
       <c r="H36">
         <v>0.1</v>
@@ -1961,13 +1961,13 @@
         <v>-1.65</v>
       </c>
       <c r="L36">
-        <v>-30.35</v>
+        <v>-78.22</v>
       </c>
       <c r="M36">
-        <v>-78.22</v>
+        <v>-77.61</v>
       </c>
       <c r="N36">
-        <v>-77.61</v>
+        <v>-70.23999999999999</v>
       </c>
     </row>
     <row r="37" spans="1:14">
@@ -1978,19 +1978,19 @@
         <v>48</v>
       </c>
       <c r="C37">
-        <v>-17.8</v>
+        <v>-24.8</v>
       </c>
       <c r="D37">
-        <v>-11.2</v>
+        <v>-33</v>
       </c>
       <c r="E37">
-        <v>-47.7</v>
+        <v>-69.2</v>
       </c>
       <c r="F37">
-        <v>63.6</v>
+        <v>60.6</v>
       </c>
       <c r="G37">
-        <v>-69.7</v>
+        <v>-61.7</v>
       </c>
       <c r="H37">
         <v>-1.3</v>
@@ -2005,13 +2005,13 @@
         <v>-0.67</v>
       </c>
       <c r="L37">
-        <v>-25.39</v>
+        <v>-46.96</v>
       </c>
       <c r="M37">
-        <v>-46.96</v>
+        <v>-64.04000000000001</v>
       </c>
       <c r="N37">
-        <v>-64.04000000000001</v>
+        <v>-59.66</v>
       </c>
     </row>
     <row r="38" spans="1:14">
@@ -2022,19 +2022,19 @@
         <v>49</v>
       </c>
       <c r="C38">
-        <v>-39.5</v>
+        <v>-43.5</v>
       </c>
       <c r="D38">
-        <v>-36</v>
+        <v>-31.5</v>
       </c>
       <c r="E38">
-        <v>-28</v>
+        <v>-50.6</v>
       </c>
       <c r="F38">
-        <v>78</v>
+        <v>61.3</v>
       </c>
       <c r="G38">
-        <v>-40.4</v>
+        <v>-38.7</v>
       </c>
       <c r="H38">
         <v>-0.8100000000000001</v>
@@ -2049,13 +2049,13 @@
         <v>-2.21</v>
       </c>
       <c r="L38">
-        <v>-3.15</v>
+        <v>-22.57</v>
       </c>
       <c r="M38">
-        <v>-22.57</v>
+        <v>-42.3</v>
       </c>
       <c r="N38">
-        <v>-42.3</v>
+        <v>-33.04</v>
       </c>
     </row>
     <row r="39" spans="1:14">
@@ -2066,19 +2066,19 @@
         <v>50</v>
       </c>
       <c r="C39">
-        <v>-12.7</v>
+        <v>-21.6</v>
       </c>
       <c r="D39">
-        <v>-5.2</v>
+        <v>-30.9</v>
       </c>
       <c r="E39">
-        <v>-51.6</v>
+        <v>-74.59999999999999</v>
       </c>
       <c r="F39">
-        <v>45.6</v>
+        <v>55.2</v>
       </c>
       <c r="G39">
-        <v>-80.90000000000001</v>
+        <v>-68.5</v>
       </c>
       <c r="H39">
         <v>-1.71</v>
@@ -2093,13 +2093,13 @@
         <v>-0.84</v>
       </c>
       <c r="L39">
-        <v>-25.39</v>
+        <v>-46.96</v>
       </c>
       <c r="M39">
-        <v>-46.96</v>
+        <v>-64.04000000000001</v>
       </c>
       <c r="N39">
-        <v>-64.04000000000001</v>
+        <v>-59.66</v>
       </c>
     </row>
     <row r="40" spans="1:14">
@@ -2110,19 +2110,19 @@
         <v>51</v>
       </c>
       <c r="C40">
-        <v>-19.4</v>
+        <v>-26.4</v>
       </c>
       <c r="D40">
-        <v>-14.3</v>
+        <v>-35.5</v>
       </c>
       <c r="E40">
-        <v>-45.7</v>
+        <v>-67.59999999999999</v>
       </c>
       <c r="F40">
-        <v>71.5</v>
+        <v>59.9</v>
       </c>
       <c r="G40">
-        <v>-66.40000000000001</v>
+        <v>-60.2</v>
       </c>
       <c r="H40">
         <v>-1.31</v>
@@ -2137,13 +2137,13 @@
         <v>-0.66</v>
       </c>
       <c r="L40">
-        <v>-25.39</v>
+        <v>-46.96</v>
       </c>
       <c r="M40">
-        <v>-46.96</v>
+        <v>-64.04000000000001</v>
       </c>
       <c r="N40">
-        <v>-64.04000000000001</v>
+        <v>-59.66</v>
       </c>
     </row>
     <row r="41" spans="1:14">
@@ -2154,19 +2154,19 @@
         <v>52</v>
       </c>
       <c r="C41">
-        <v>-52.4</v>
+        <v>-53.5</v>
       </c>
       <c r="D41">
-        <v>-45.2</v>
+        <v>-38.2</v>
       </c>
       <c r="E41">
-        <v>-44</v>
+        <v>-57</v>
       </c>
       <c r="F41">
-        <v>73.09999999999999</v>
+        <v>76.2</v>
       </c>
       <c r="G41">
-        <v>-58.1</v>
+        <v>-44.4</v>
       </c>
       <c r="H41">
         <v>-0.65</v>
@@ -2181,13 +2181,13 @@
         <v>-1.98</v>
       </c>
       <c r="L41">
-        <v>23.68</v>
+        <v>-37.1</v>
       </c>
       <c r="M41">
-        <v>-37.1</v>
+        <v>-44.48</v>
       </c>
       <c r="N41">
-        <v>-44.48</v>
+        <v>-35.07</v>
       </c>
     </row>
     <row r="42" spans="1:14">
@@ -2198,19 +2198,19 @@
         <v>53</v>
       </c>
       <c r="C42">
-        <v>-30.6</v>
+        <v>-35.9</v>
       </c>
       <c r="D42">
-        <v>-41.1</v>
+        <v>-59.1</v>
       </c>
       <c r="E42">
-        <v>-54.1</v>
+        <v>-85</v>
       </c>
       <c r="F42">
-        <v>39.7</v>
+        <v>18.7</v>
       </c>
       <c r="G42">
-        <v>-85.40000000000001</v>
+        <v>-87.09999999999999</v>
       </c>
       <c r="H42">
         <v>-2.05</v>
@@ -2225,13 +2225,13 @@
         <v>-1.17</v>
       </c>
       <c r="L42">
-        <v>-9.390000000000001</v>
+        <v>-6.29</v>
       </c>
       <c r="M42">
-        <v>-6.29</v>
+        <v>-4.1</v>
       </c>
       <c r="N42">
-        <v>-4.1</v>
+        <v>-16.53</v>
       </c>
     </row>
   </sheetData>

--- a/Sistema-Operacional/Saidas/Monitoramento - Mananciais Críticos.xlsx
+++ b/Sistema-Operacional/Saidas/Monitoramento - Mananciais Críticos.xlsx
@@ -28,10 +28,10 @@
     <t>AN_TRI_202011</t>
   </si>
   <si>
-    <t>AC_20201115</t>
-  </si>
-  <si>
-    <t>AN_20201115</t>
+    <t>AC_20201122</t>
+  </si>
+  <si>
+    <t>AN_20201122</t>
   </si>
   <si>
     <t>SPI1_202010</t>
@@ -52,7 +52,7 @@
     <t>AN_COTA_202010</t>
   </si>
   <si>
-    <t>AN_COTA_20201115</t>
+    <t>AN_COTA_20201122</t>
   </si>
   <si>
     <t>SIA</t>
@@ -591,19 +591,19 @@
         <v>14</v>
       </c>
       <c r="C2">
-        <v>-27.4</v>
+        <v>-25.2</v>
       </c>
       <c r="D2">
-        <v>-38.7</v>
+        <v>-33.4</v>
       </c>
       <c r="E2">
-        <v>-76.3</v>
+        <v>-68.2</v>
       </c>
       <c r="F2">
-        <v>4.7</v>
+        <v>40.4</v>
       </c>
       <c r="G2">
-        <v>-97</v>
+        <v>-74.40000000000001</v>
       </c>
       <c r="H2">
         <v>-0.51</v>
@@ -624,7 +624,7 @@
         <v>-9.220000000000001</v>
       </c>
       <c r="N2">
-        <v>-11.55</v>
+        <v>-10.73</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -635,19 +635,19 @@
         <v>15</v>
       </c>
       <c r="C3">
-        <v>-41</v>
+        <v>-38.9</v>
       </c>
       <c r="D3">
-        <v>-25.3</v>
+        <v>-20.9</v>
       </c>
       <c r="E3">
-        <v>-53.4</v>
+        <v>-45.9</v>
       </c>
       <c r="F3">
-        <v>53.5</v>
+        <v>80.09999999999999</v>
       </c>
       <c r="G3">
-        <v>-55.1</v>
+        <v>-32.8</v>
       </c>
       <c r="H3">
         <v>-1.03</v>
@@ -668,7 +668,7 @@
         <v>-51.9</v>
       </c>
       <c r="N3">
-        <v>-31.19</v>
+        <v>-23.56</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -679,19 +679,19 @@
         <v>16</v>
       </c>
       <c r="C4">
-        <v>-40.8</v>
+        <v>-38.2</v>
       </c>
       <c r="D4">
-        <v>-46.5</v>
+        <v>-40.6</v>
       </c>
       <c r="E4">
-        <v>-84</v>
+        <v>-74.5</v>
       </c>
       <c r="F4">
-        <v>34.5</v>
+        <v>83</v>
       </c>
       <c r="G4">
-        <v>-83</v>
+        <v>-59.1</v>
       </c>
       <c r="H4">
         <v>-0.83</v>
@@ -714,19 +714,19 @@
         <v>17</v>
       </c>
       <c r="C5">
-        <v>-18.8</v>
+        <v>-18.4</v>
       </c>
       <c r="D5">
-        <v>-35.3</v>
+        <v>-34.4</v>
       </c>
       <c r="E5">
-        <v>-70.7</v>
+        <v>-69.2</v>
       </c>
       <c r="F5">
-        <v>24.4</v>
+        <v>30.2</v>
       </c>
       <c r="G5">
-        <v>-79.8</v>
+        <v>-74.90000000000001</v>
       </c>
       <c r="H5">
         <v>-0.71</v>
@@ -747,7 +747,7 @@
         <v>-64.04000000000001</v>
       </c>
       <c r="N5">
-        <v>-59.66</v>
+        <v>-59.23</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -758,19 +758,19 @@
         <v>18</v>
       </c>
       <c r="C6">
-        <v>-34</v>
+        <v>-33.1</v>
       </c>
       <c r="D6">
-        <v>-60</v>
+        <v>-58.1</v>
       </c>
       <c r="E6">
-        <v>-87</v>
+        <v>-84.09999999999999</v>
       </c>
       <c r="F6">
-        <v>13.6</v>
+        <v>29</v>
       </c>
       <c r="G6">
-        <v>-88.90000000000001</v>
+        <v>-76.3</v>
       </c>
       <c r="H6">
         <v>-2.04</v>
@@ -791,7 +791,7 @@
         <v>-4.1</v>
       </c>
       <c r="N6">
-        <v>-16.53</v>
+        <v>-16.19</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -802,19 +802,19 @@
         <v>19</v>
       </c>
       <c r="C7">
-        <v>-27.6</v>
+        <v>-26.7</v>
       </c>
       <c r="D7">
-        <v>-42.7</v>
+        <v>-40.6</v>
       </c>
       <c r="E7">
-        <v>-71.59999999999999</v>
+        <v>-68.2</v>
       </c>
       <c r="F7">
-        <v>32.4</v>
+        <v>47.5</v>
       </c>
       <c r="G7">
-        <v>-76.3</v>
+        <v>-65.3</v>
       </c>
       <c r="H7">
         <v>-1.02</v>
@@ -837,19 +837,19 @@
         <v>20</v>
       </c>
       <c r="C8">
-        <v>-52.9</v>
+        <v>-51.9</v>
       </c>
       <c r="D8">
-        <v>-35.1</v>
+        <v>-32.8</v>
       </c>
       <c r="E8">
-        <v>-64.40000000000001</v>
+        <v>-60.4</v>
       </c>
       <c r="F8">
-        <v>65.59999999999999</v>
+        <v>82</v>
       </c>
       <c r="G8">
-        <v>-47.1</v>
+        <v>-33.8</v>
       </c>
       <c r="H8">
         <v>-0.5</v>
@@ -870,7 +870,7 @@
         <v>-4.55</v>
       </c>
       <c r="N8">
-        <v>10.46</v>
+        <v>12.42</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -881,19 +881,19 @@
         <v>21</v>
       </c>
       <c r="C9">
-        <v>-33.5</v>
+        <v>-32.9</v>
       </c>
       <c r="D9">
-        <v>-46</v>
+        <v>-44.6</v>
       </c>
       <c r="E9">
-        <v>-71.40000000000001</v>
+        <v>-69</v>
       </c>
       <c r="F9">
-        <v>27.9</v>
+        <v>40.1</v>
       </c>
       <c r="G9">
-        <v>-82.5</v>
+        <v>-74.90000000000001</v>
       </c>
       <c r="H9">
         <v>-1.12</v>
@@ -916,19 +916,19 @@
         <v>22</v>
       </c>
       <c r="C10">
-        <v>-52.4</v>
+        <v>-50.7</v>
       </c>
       <c r="D10">
-        <v>-41</v>
+        <v>-37.4</v>
       </c>
       <c r="E10">
-        <v>-56.5</v>
+        <v>-50.2</v>
       </c>
       <c r="F10">
-        <v>58.1</v>
+        <v>82.5</v>
       </c>
       <c r="G10">
-        <v>-46</v>
+        <v>-23.3</v>
       </c>
       <c r="H10">
         <v>-0.83</v>
@@ -949,7 +949,7 @@
         <v>-42.3</v>
       </c>
       <c r="N10">
-        <v>-33.04</v>
+        <v>-27.78</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -960,19 +960,19 @@
         <v>23</v>
       </c>
       <c r="C11">
-        <v>-48.9</v>
+        <v>-47</v>
       </c>
       <c r="D11">
-        <v>-35.1</v>
+        <v>-30.7</v>
       </c>
       <c r="E11">
-        <v>-50.8</v>
+        <v>-43.5</v>
       </c>
       <c r="F11">
-        <v>87.8</v>
+        <v>120.6</v>
       </c>
       <c r="G11">
-        <v>-36.5</v>
+        <v>-12.7</v>
       </c>
       <c r="H11">
         <v>-0.6899999999999999</v>
@@ -993,7 +993,7 @@
         <v>-24.87</v>
       </c>
       <c r="N11">
-        <v>-13.85</v>
+        <v>3.33</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -1004,19 +1004,19 @@
         <v>24</v>
       </c>
       <c r="C12">
-        <v>-48.4</v>
+        <v>-46.4</v>
       </c>
       <c r="D12">
-        <v>-34.9</v>
+        <v>-30.4</v>
       </c>
       <c r="E12">
-        <v>-50</v>
+        <v>-42.6</v>
       </c>
       <c r="F12">
-        <v>89.3</v>
+        <v>124</v>
       </c>
       <c r="G12">
-        <v>-39.1</v>
+        <v>-15.4</v>
       </c>
       <c r="H12">
         <v>-0.6899999999999999</v>
@@ -1037,7 +1037,7 @@
         <v>-24.87</v>
       </c>
       <c r="N12">
-        <v>-13.85</v>
+        <v>3.33</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -1048,19 +1048,19 @@
         <v>25</v>
       </c>
       <c r="C13">
-        <v>-32.4</v>
+        <v>-31.9</v>
       </c>
       <c r="D13">
-        <v>-45.2</v>
+        <v>-44</v>
       </c>
       <c r="E13">
-        <v>-70.3</v>
+        <v>-68.2</v>
       </c>
       <c r="F13">
-        <v>32.8</v>
+        <v>43.3</v>
       </c>
       <c r="G13">
-        <v>-79.8</v>
+        <v>-73.3</v>
       </c>
       <c r="H13">
         <v>-1.21</v>
@@ -1083,19 +1083,19 @@
         <v>26</v>
       </c>
       <c r="C14">
-        <v>-57.5</v>
+        <v>-56.1</v>
       </c>
       <c r="D14">
-        <v>-40.5</v>
+        <v>-37.3</v>
       </c>
       <c r="E14">
-        <v>-62.7</v>
+        <v>-57.3</v>
       </c>
       <c r="F14">
-        <v>45.6</v>
+        <v>68.2</v>
       </c>
       <c r="G14">
-        <v>-62.5</v>
+        <v>-43.9</v>
       </c>
       <c r="H14">
         <v>-0.07000000000000001</v>
@@ -1116,7 +1116,7 @@
         <v>-44.48</v>
       </c>
       <c r="N14">
-        <v>-35.07</v>
+        <v>-28.25</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -1127,19 +1127,19 @@
         <v>21</v>
       </c>
       <c r="C15">
-        <v>-34.5</v>
+        <v>-34</v>
       </c>
       <c r="D15">
-        <v>-40.3</v>
+        <v>-39.2</v>
       </c>
       <c r="E15">
-        <v>-74.7</v>
+        <v>-73</v>
       </c>
       <c r="F15">
-        <v>40.8</v>
+        <v>49.9</v>
       </c>
       <c r="G15">
-        <v>-74.90000000000001</v>
+        <v>-69.2</v>
       </c>
       <c r="H15">
         <v>-1.99</v>
@@ -1160,7 +1160,7 @@
         <v>-48.38</v>
       </c>
       <c r="N15">
-        <v>-50.92</v>
+        <v>-49.66</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -1171,19 +1171,19 @@
         <v>27</v>
       </c>
       <c r="C16">
-        <v>-29.9</v>
+        <v>-29.6</v>
       </c>
       <c r="D16">
-        <v>-37.9</v>
+        <v>-37.3</v>
       </c>
       <c r="E16">
-        <v>-76.5</v>
+        <v>-75.7</v>
       </c>
       <c r="F16">
-        <v>45.1</v>
+        <v>49.5</v>
       </c>
       <c r="G16">
-        <v>-74.90000000000001</v>
+        <v>-72.5</v>
       </c>
       <c r="H16">
         <v>-1.84</v>
@@ -1204,7 +1204,7 @@
         <v>-29.29</v>
       </c>
       <c r="N16">
-        <v>-21.35</v>
+        <v>-18.25</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1215,19 +1215,19 @@
         <v>28</v>
       </c>
       <c r="C17">
-        <v>-54.3</v>
+        <v>-53.8</v>
       </c>
       <c r="D17">
-        <v>-51.7</v>
+        <v>-50.5</v>
       </c>
       <c r="E17">
-        <v>-81.8</v>
+        <v>-79.90000000000001</v>
       </c>
       <c r="F17">
-        <v>4.8</v>
+        <v>14.7</v>
       </c>
       <c r="G17">
-        <v>-97.5</v>
+        <v>-92.3</v>
       </c>
       <c r="H17">
         <v>-0.87</v>
@@ -1250,19 +1250,19 @@
         <v>29</v>
       </c>
       <c r="C18">
-        <v>-41.2</v>
+        <v>-39.3</v>
       </c>
       <c r="D18">
-        <v>-49.8</v>
+        <v>-45.1</v>
       </c>
       <c r="E18">
-        <v>-80.59999999999999</v>
+        <v>-73.40000000000001</v>
       </c>
       <c r="F18">
-        <v>5.6</v>
+        <v>44.9</v>
       </c>
       <c r="G18">
-        <v>-97.2</v>
+        <v>-77.8</v>
       </c>
       <c r="H18">
         <v>-0.52</v>
@@ -1283,7 +1283,7 @@
         <v>-9.220000000000001</v>
       </c>
       <c r="N18">
-        <v>-11.55</v>
+        <v>-10.73</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1294,19 +1294,19 @@
         <v>30</v>
       </c>
       <c r="C19">
-        <v>-33.8</v>
+        <v>-32.7</v>
       </c>
       <c r="D19">
-        <v>-36.6</v>
+        <v>-34</v>
       </c>
       <c r="E19">
-        <v>-67</v>
+        <v>-63.1</v>
       </c>
       <c r="F19">
-        <v>28.9</v>
+        <v>47.5</v>
       </c>
       <c r="G19">
-        <v>-79.5</v>
+        <v>-66.2</v>
       </c>
       <c r="H19">
         <v>-2.23</v>
@@ -1329,19 +1329,19 @@
         <v>31</v>
       </c>
       <c r="C20">
-        <v>-43.1</v>
+        <v>-41</v>
       </c>
       <c r="D20">
-        <v>-45.4</v>
+        <v>-40.8</v>
       </c>
       <c r="E20">
-        <v>-84.8</v>
+        <v>-77.5</v>
       </c>
       <c r="F20">
-        <v>26</v>
+        <v>65.40000000000001</v>
       </c>
       <c r="G20">
-        <v>-87.2</v>
+        <v>-67.7</v>
       </c>
       <c r="H20">
         <v>-1.02</v>
@@ -1364,19 +1364,19 @@
         <v>32</v>
       </c>
       <c r="C21">
-        <v>-30</v>
+        <v>-29.9</v>
       </c>
       <c r="D21">
-        <v>-36.3</v>
+        <v>-35.9</v>
       </c>
       <c r="E21">
-        <v>-75</v>
+        <v>-74.5</v>
       </c>
       <c r="F21">
-        <v>48.2</v>
+        <v>50.8</v>
       </c>
       <c r="G21">
-        <v>-71.7</v>
+        <v>-70.2</v>
       </c>
       <c r="H21">
         <v>-2.09</v>
@@ -1399,19 +1399,19 @@
         <v>33</v>
       </c>
       <c r="C22">
-        <v>-37</v>
+        <v>-35.8</v>
       </c>
       <c r="D22">
-        <v>-32.8</v>
+        <v>-30.1</v>
       </c>
       <c r="E22">
-        <v>-75.3</v>
+        <v>-71.09999999999999</v>
       </c>
       <c r="F22">
-        <v>32.4</v>
+        <v>54.1</v>
       </c>
       <c r="G22">
-        <v>-77.3</v>
+        <v>-62.1</v>
       </c>
       <c r="H22">
         <v>-3.74</v>
@@ -1434,19 +1434,19 @@
         <v>34</v>
       </c>
       <c r="C23">
-        <v>-33.4</v>
+        <v>-32.9</v>
       </c>
       <c r="D23">
-        <v>-50.5</v>
+        <v>-49.4</v>
       </c>
       <c r="E23">
-        <v>-76.2</v>
+        <v>-74.40000000000001</v>
       </c>
       <c r="F23">
-        <v>13.1</v>
+        <v>21.9</v>
       </c>
       <c r="G23">
-        <v>-91.90000000000001</v>
+        <v>-86.40000000000001</v>
       </c>
       <c r="H23">
         <v>-1.18</v>
@@ -1469,19 +1469,19 @@
         <v>35</v>
       </c>
       <c r="C24">
-        <v>-38.7</v>
+        <v>-38</v>
       </c>
       <c r="D24">
-        <v>-53</v>
+        <v>-51.6</v>
       </c>
       <c r="E24">
-        <v>-81.3</v>
+        <v>-78.90000000000001</v>
       </c>
       <c r="F24">
-        <v>20.8</v>
+        <v>32.2</v>
       </c>
       <c r="G24">
-        <v>-84.8</v>
+        <v>-76.40000000000001</v>
       </c>
       <c r="H24">
         <v>-1.66</v>
@@ -1504,19 +1504,19 @@
         <v>36</v>
       </c>
       <c r="C25">
-        <v>-50.1</v>
+        <v>-49.3</v>
       </c>
       <c r="D25">
-        <v>-42.1</v>
+        <v>-40.4</v>
       </c>
       <c r="E25">
-        <v>-57.4</v>
+        <v>-54.1</v>
       </c>
       <c r="F25">
-        <v>33.7</v>
+        <v>48</v>
       </c>
       <c r="G25">
-        <v>-72.3</v>
+        <v>-60.5</v>
       </c>
       <c r="H25">
         <v>-0.53</v>
@@ -1539,19 +1539,19 @@
         <v>37</v>
       </c>
       <c r="C26">
-        <v>-33.2</v>
+        <v>-32.5</v>
       </c>
       <c r="D26">
-        <v>-44.1</v>
+        <v>-42.5</v>
       </c>
       <c r="E26">
-        <v>-77.8</v>
+        <v>-75.40000000000001</v>
       </c>
       <c r="F26">
-        <v>6.3</v>
+        <v>16.3</v>
       </c>
       <c r="G26">
-        <v>-95.7</v>
+        <v>-88.8</v>
       </c>
       <c r="H26">
         <v>-0.5</v>
@@ -1574,19 +1574,19 @@
         <v>38</v>
       </c>
       <c r="C27">
-        <v>-56.9</v>
+        <v>-55.7</v>
       </c>
       <c r="D27">
-        <v>-51.3</v>
+        <v>-48.6</v>
       </c>
       <c r="E27">
-        <v>-75.59999999999999</v>
+        <v>-71.3</v>
       </c>
       <c r="F27">
-        <v>40.4</v>
+        <v>61</v>
       </c>
       <c r="G27">
-        <v>-76.59999999999999</v>
+        <v>-64.59999999999999</v>
       </c>
       <c r="H27">
         <v>-0.75</v>
@@ -1609,19 +1609,19 @@
         <v>39</v>
       </c>
       <c r="C28">
-        <v>-27.3</v>
+        <v>-26.5</v>
       </c>
       <c r="D28">
-        <v>-41.9</v>
+        <v>-40</v>
       </c>
       <c r="E28">
-        <v>-73.09999999999999</v>
+        <v>-70</v>
       </c>
       <c r="F28">
-        <v>39.8</v>
+        <v>53.7</v>
       </c>
       <c r="G28">
-        <v>-71.09999999999999</v>
+        <v>-61</v>
       </c>
       <c r="H28">
         <v>-1.34</v>
@@ -1642,7 +1642,7 @@
         <v>-64.04000000000001</v>
       </c>
       <c r="N28">
-        <v>-59.66</v>
+        <v>-59.23</v>
       </c>
     </row>
     <row r="29" spans="1:14">
@@ -1653,19 +1653,19 @@
         <v>40</v>
       </c>
       <c r="C29">
-        <v>-54.6</v>
+        <v>-53.5</v>
       </c>
       <c r="D29">
-        <v>-44.7</v>
+        <v>-42.4</v>
       </c>
       <c r="E29">
-        <v>-70.5</v>
+        <v>-66.59999999999999</v>
       </c>
       <c r="F29">
-        <v>42.9</v>
+        <v>60.5</v>
       </c>
       <c r="G29">
-        <v>-67.40000000000001</v>
+        <v>-54</v>
       </c>
       <c r="H29">
         <v>-0.99</v>
@@ -1686,7 +1686,7 @@
         <v>-68.41</v>
       </c>
       <c r="N29">
-        <v>-64.04000000000001</v>
+        <v>-61.18</v>
       </c>
     </row>
     <row r="30" spans="1:14">
@@ -1697,19 +1697,19 @@
         <v>41</v>
       </c>
       <c r="C30">
-        <v>-23</v>
+        <v>-22.8</v>
       </c>
       <c r="D30">
-        <v>-33.5</v>
+        <v>-32.9</v>
       </c>
       <c r="E30">
-        <v>-75.7</v>
+        <v>-74.8</v>
       </c>
       <c r="F30">
-        <v>54.3</v>
+        <v>59.2</v>
       </c>
       <c r="G30">
-        <v>-69.59999999999999</v>
+        <v>-66.90000000000001</v>
       </c>
       <c r="H30">
         <v>-1.63</v>
@@ -1730,7 +1730,7 @@
         <v>-64.04000000000001</v>
       </c>
       <c r="N30">
-        <v>-59.66</v>
+        <v>-59.23</v>
       </c>
     </row>
     <row r="31" spans="1:14">
@@ -1741,19 +1741,19 @@
         <v>42</v>
       </c>
       <c r="C31">
-        <v>-28.9</v>
+        <v>-28.2</v>
       </c>
       <c r="D31">
-        <v>-41.1</v>
+        <v>-39.3</v>
       </c>
       <c r="E31">
-        <v>-67.5</v>
+        <v>-64.59999999999999</v>
       </c>
       <c r="F31">
-        <v>50.6</v>
+        <v>64.8</v>
       </c>
       <c r="G31">
-        <v>-66</v>
+        <v>-56.5</v>
       </c>
       <c r="H31">
         <v>-1.34</v>
@@ -1776,19 +1776,19 @@
         <v>43</v>
       </c>
       <c r="C32">
-        <v>-27</v>
+        <v>-26.2</v>
       </c>
       <c r="D32">
-        <v>-42.4</v>
+        <v>-40.6</v>
       </c>
       <c r="E32">
-        <v>-72.90000000000001</v>
+        <v>-69.8</v>
       </c>
       <c r="F32">
-        <v>39.8</v>
+        <v>53.9</v>
       </c>
       <c r="G32">
-        <v>-70.90000000000001</v>
+        <v>-60.7</v>
       </c>
       <c r="H32">
         <v>-1.38</v>
@@ -1809,7 +1809,7 @@
         <v>-64.04000000000001</v>
       </c>
       <c r="N32">
-        <v>-59.66</v>
+        <v>-59.23</v>
       </c>
     </row>
     <row r="33" spans="1:14">
@@ -1820,19 +1820,19 @@
         <v>44</v>
       </c>
       <c r="C33">
-        <v>-38.1</v>
+        <v>-38</v>
       </c>
       <c r="D33">
-        <v>-50.8</v>
+        <v>-50.6</v>
       </c>
       <c r="E33">
-        <v>-76.2</v>
+        <v>-75.8</v>
       </c>
       <c r="F33">
-        <v>19.4</v>
+        <v>21.2</v>
       </c>
       <c r="G33">
-        <v>-87.59999999999999</v>
+        <v>-86.5</v>
       </c>
       <c r="H33">
         <v>-1.2</v>
@@ -1855,19 +1855,19 @@
         <v>45</v>
       </c>
       <c r="C34">
-        <v>-56.6</v>
+        <v>-55</v>
       </c>
       <c r="D34">
-        <v>-38.7</v>
+        <v>-35.2</v>
       </c>
       <c r="E34">
-        <v>-60.7</v>
+        <v>-54.7</v>
       </c>
       <c r="F34">
-        <v>51</v>
+        <v>75</v>
       </c>
       <c r="G34">
-        <v>-56.9</v>
+        <v>-36.6</v>
       </c>
       <c r="H34">
         <v>-0.08</v>
@@ -1888,7 +1888,7 @@
         <v>-44.48</v>
       </c>
       <c r="N34">
-        <v>-35.07</v>
+        <v>-28.25</v>
       </c>
     </row>
     <row r="35" spans="1:14">
@@ -1899,19 +1899,19 @@
         <v>46</v>
       </c>
       <c r="C35">
-        <v>-59.4</v>
+        <v>-58.5</v>
       </c>
       <c r="D35">
-        <v>-52.4</v>
+        <v>-50.2</v>
       </c>
       <c r="E35">
-        <v>-76.90000000000001</v>
+        <v>-73.40000000000001</v>
       </c>
       <c r="F35">
-        <v>35.9</v>
+        <v>53.6</v>
       </c>
       <c r="G35">
-        <v>-79.90000000000001</v>
+        <v>-70</v>
       </c>
       <c r="H35">
         <v>-0.59</v>
@@ -1934,19 +1934,19 @@
         <v>47</v>
       </c>
       <c r="C36">
-        <v>-62.3</v>
+        <v>-61</v>
       </c>
       <c r="D36">
-        <v>-47.1</v>
+        <v>-43.9</v>
       </c>
       <c r="E36">
-        <v>-64.40000000000001</v>
+        <v>-59.3</v>
       </c>
       <c r="F36">
-        <v>62.2</v>
+        <v>90.2</v>
       </c>
       <c r="G36">
-        <v>-65.8</v>
+        <v>-50.4</v>
       </c>
       <c r="H36">
         <v>0.1</v>
@@ -1967,7 +1967,7 @@
         <v>-77.61</v>
       </c>
       <c r="N36">
-        <v>-70.23999999999999</v>
+        <v>-69.06</v>
       </c>
     </row>
     <row r="37" spans="1:14">
@@ -1978,19 +1978,19 @@
         <v>48</v>
       </c>
       <c r="C37">
-        <v>-24.8</v>
+        <v>-24</v>
       </c>
       <c r="D37">
-        <v>-33</v>
+        <v>-31.1</v>
       </c>
       <c r="E37">
-        <v>-69.2</v>
+        <v>-66.2</v>
       </c>
       <c r="F37">
-        <v>60.6</v>
+        <v>75.2</v>
       </c>
       <c r="G37">
-        <v>-61.7</v>
+        <v>-52.5</v>
       </c>
       <c r="H37">
         <v>-1.3</v>
@@ -2011,7 +2011,7 @@
         <v>-64.04000000000001</v>
       </c>
       <c r="N37">
-        <v>-59.66</v>
+        <v>-59.23</v>
       </c>
     </row>
     <row r="38" spans="1:14">
@@ -2022,19 +2022,19 @@
         <v>49</v>
       </c>
       <c r="C38">
-        <v>-43.5</v>
+        <v>-42</v>
       </c>
       <c r="D38">
-        <v>-31.5</v>
+        <v>-28.4</v>
       </c>
       <c r="E38">
-        <v>-50.6</v>
+        <v>-44.8</v>
       </c>
       <c r="F38">
-        <v>61.3</v>
+        <v>82.59999999999999</v>
       </c>
       <c r="G38">
-        <v>-38.7</v>
+        <v>-17.4</v>
       </c>
       <c r="H38">
         <v>-0.8100000000000001</v>
@@ -2055,7 +2055,7 @@
         <v>-42.3</v>
       </c>
       <c r="N38">
-        <v>-33.04</v>
+        <v>-27.78</v>
       </c>
     </row>
     <row r="39" spans="1:14">
@@ -2066,19 +2066,19 @@
         <v>50</v>
       </c>
       <c r="C39">
-        <v>-21.6</v>
+        <v>-21.4</v>
       </c>
       <c r="D39">
-        <v>-30.9</v>
+        <v>-30.6</v>
       </c>
       <c r="E39">
-        <v>-74.59999999999999</v>
+        <v>-74.2</v>
       </c>
       <c r="F39">
-        <v>55.2</v>
+        <v>57.7</v>
       </c>
       <c r="G39">
-        <v>-68.5</v>
+        <v>-67.09999999999999</v>
       </c>
       <c r="H39">
         <v>-1.71</v>
@@ -2099,7 +2099,7 @@
         <v>-64.04000000000001</v>
       </c>
       <c r="N39">
-        <v>-59.66</v>
+        <v>-59.23</v>
       </c>
     </row>
     <row r="40" spans="1:14">
@@ -2110,19 +2110,19 @@
         <v>51</v>
       </c>
       <c r="C40">
-        <v>-26.4</v>
+        <v>-25.5</v>
       </c>
       <c r="D40">
-        <v>-35.5</v>
+        <v>-33.4</v>
       </c>
       <c r="E40">
-        <v>-67.59999999999999</v>
+        <v>-64.3</v>
       </c>
       <c r="F40">
-        <v>59.9</v>
+        <v>75.7</v>
       </c>
       <c r="G40">
-        <v>-60.2</v>
+        <v>-49.8</v>
       </c>
       <c r="H40">
         <v>-1.31</v>
@@ -2143,7 +2143,7 @@
         <v>-64.04000000000001</v>
       </c>
       <c r="N40">
-        <v>-59.66</v>
+        <v>-59.23</v>
       </c>
     </row>
     <row r="41" spans="1:14">
@@ -2154,19 +2154,19 @@
         <v>52</v>
       </c>
       <c r="C41">
-        <v>-53.5</v>
+        <v>-51.9</v>
       </c>
       <c r="D41">
-        <v>-38.2</v>
+        <v>-34.3</v>
       </c>
       <c r="E41">
-        <v>-57</v>
+        <v>-50.4</v>
       </c>
       <c r="F41">
-        <v>76.2</v>
+        <v>105.3</v>
       </c>
       <c r="G41">
-        <v>-44.4</v>
+        <v>-23.2</v>
       </c>
       <c r="H41">
         <v>-0.65</v>
@@ -2187,7 +2187,7 @@
         <v>-44.48</v>
       </c>
       <c r="N41">
-        <v>-35.07</v>
+        <v>-28.25</v>
       </c>
     </row>
     <row r="42" spans="1:14">
@@ -2198,19 +2198,19 @@
         <v>53</v>
       </c>
       <c r="C42">
-        <v>-35.9</v>
+        <v>-35</v>
       </c>
       <c r="D42">
-        <v>-59.1</v>
+        <v>-57.2</v>
       </c>
       <c r="E42">
-        <v>-85</v>
+        <v>-82</v>
       </c>
       <c r="F42">
-        <v>18.7</v>
+        <v>34.4</v>
       </c>
       <c r="G42">
-        <v>-87.09999999999999</v>
+        <v>-76.2</v>
       </c>
       <c r="H42">
         <v>-2.05</v>
@@ -2231,7 +2231,7 @@
         <v>-4.1</v>
       </c>
       <c r="N42">
-        <v>-16.53</v>
+        <v>-16.19</v>
       </c>
     </row>
   </sheetData>

--- a/Sistema-Operacional/Saidas/Monitoramento - Mananciais Críticos.xlsx
+++ b/Sistema-Operacional/Saidas/Monitoramento - Mananciais Críticos.xlsx
@@ -28,22 +28,22 @@
     <t>AN_TRI_202011</t>
   </si>
   <si>
-    <t>AC_20201122</t>
-  </si>
-  <si>
-    <t>AN_20201122</t>
-  </si>
-  <si>
-    <t>SPI1_202010</t>
-  </si>
-  <si>
-    <t>SPI3_202010</t>
-  </si>
-  <si>
-    <t>SPI6_202010</t>
-  </si>
-  <si>
-    <t>SPI12_202010</t>
+    <t>AC_202011</t>
+  </si>
+  <si>
+    <t>AN_202011</t>
+  </si>
+  <si>
+    <t>SPI1_202011</t>
+  </si>
+  <si>
+    <t>SPI3_202011</t>
+  </si>
+  <si>
+    <t>SPI6_202011</t>
+  </si>
+  <si>
+    <t>SPI12_202011</t>
   </si>
   <si>
     <t>AN_COTA_202009</t>
@@ -52,7 +52,7 @@
     <t>AN_COTA_202010</t>
   </si>
   <si>
-    <t>AN_COTA_20201122</t>
+    <t>AN_COTA_20201130</t>
   </si>
   <si>
     <t>SIA</t>
@@ -591,31 +591,31 @@
         <v>14</v>
       </c>
       <c r="C2">
-        <v>-25.2</v>
+        <v>-23.4</v>
       </c>
       <c r="D2">
-        <v>-33.4</v>
+        <v>-29.2</v>
       </c>
       <c r="E2">
-        <v>-68.2</v>
+        <v>-61.7</v>
       </c>
       <c r="F2">
-        <v>40.4</v>
+        <v>68.7</v>
       </c>
       <c r="G2">
-        <v>-74.40000000000001</v>
+        <v>-56.4</v>
       </c>
       <c r="H2">
-        <v>-0.51</v>
+        <v>-0.68</v>
       </c>
       <c r="I2">
-        <v>-0.29</v>
+        <v>-1.93</v>
       </c>
       <c r="J2">
-        <v>-0.72</v>
+        <v>-0.68</v>
       </c>
       <c r="K2">
-        <v>-0.76</v>
+        <v>-0.9</v>
       </c>
       <c r="L2">
         <v>-5.68</v>
@@ -624,7 +624,7 @@
         <v>-9.220000000000001</v>
       </c>
       <c r="N2">
-        <v>-10.73</v>
+        <v>-10.93</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -635,31 +635,31 @@
         <v>15</v>
       </c>
       <c r="C3">
-        <v>-38.9</v>
+        <v>-37.9</v>
       </c>
       <c r="D3">
-        <v>-20.9</v>
+        <v>-18.8</v>
       </c>
       <c r="E3">
-        <v>-45.9</v>
+        <v>-42.4</v>
       </c>
       <c r="F3">
-        <v>80.09999999999999</v>
+        <v>92.40000000000001</v>
       </c>
       <c r="G3">
-        <v>-32.8</v>
+        <v>-22.5</v>
       </c>
       <c r="H3">
-        <v>-1.03</v>
+        <v>0.21</v>
       </c>
       <c r="I3">
-        <v>-0.37</v>
+        <v>-1.49</v>
       </c>
       <c r="J3">
-        <v>-0.6899999999999999</v>
+        <v>-0.3</v>
       </c>
       <c r="K3">
-        <v>-1.67</v>
+        <v>-2.1</v>
       </c>
       <c r="L3">
         <v>-54.38</v>
@@ -668,7 +668,7 @@
         <v>-51.9</v>
       </c>
       <c r="N3">
-        <v>-23.56</v>
+        <v>-21.06</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -679,31 +679,31 @@
         <v>16</v>
       </c>
       <c r="C4">
-        <v>-38.2</v>
+        <v>-37</v>
       </c>
       <c r="D4">
-        <v>-40.6</v>
+        <v>-38</v>
       </c>
       <c r="E4">
-        <v>-74.5</v>
+        <v>-70.2</v>
       </c>
       <c r="F4">
-        <v>83</v>
+        <v>105.3</v>
       </c>
       <c r="G4">
-        <v>-59.1</v>
+        <v>-48.1</v>
       </c>
       <c r="H4">
-        <v>-0.83</v>
+        <v>-0.71</v>
       </c>
       <c r="I4">
-        <v>-0.39</v>
+        <v>-1.98</v>
       </c>
       <c r="J4">
         <v>-0.73</v>
       </c>
       <c r="K4">
-        <v>-0.73</v>
+        <v>-0.9399999999999999</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -714,31 +714,31 @@
         <v>17</v>
       </c>
       <c r="C5">
-        <v>-18.4</v>
+        <v>-17.3</v>
       </c>
       <c r="D5">
-        <v>-34.4</v>
+        <v>-32.1</v>
       </c>
       <c r="E5">
-        <v>-69.2</v>
+        <v>-65.2</v>
       </c>
       <c r="F5">
-        <v>30.2</v>
+        <v>45.4</v>
       </c>
       <c r="G5">
-        <v>-74.90000000000001</v>
+        <v>-62.3</v>
       </c>
       <c r="H5">
-        <v>-0.71</v>
+        <v>-0.97</v>
       </c>
       <c r="I5">
-        <v>-0.6</v>
+        <v>-1.4</v>
       </c>
       <c r="J5">
-        <v>-0.44</v>
+        <v>-0.89</v>
       </c>
       <c r="K5">
-        <v>-0.65</v>
+        <v>-0.85</v>
       </c>
       <c r="L5">
         <v>-46.96</v>
@@ -747,7 +747,7 @@
         <v>-64.04000000000001</v>
       </c>
       <c r="N5">
-        <v>-59.23</v>
+        <v>-59.31</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -758,31 +758,31 @@
         <v>18</v>
       </c>
       <c r="C6">
-        <v>-33.1</v>
+        <v>-30.6</v>
       </c>
       <c r="D6">
-        <v>-58.1</v>
+        <v>-53.3</v>
       </c>
       <c r="E6">
-        <v>-84.09999999999999</v>
+        <v>-76.5</v>
       </c>
       <c r="F6">
-        <v>29</v>
+        <v>68.59999999999999</v>
       </c>
       <c r="G6">
-        <v>-76.3</v>
+        <v>-44</v>
       </c>
       <c r="H6">
-        <v>-2.04</v>
+        <v>-1.46</v>
       </c>
       <c r="I6">
-        <v>-1.22</v>
+        <v>-3.85</v>
       </c>
       <c r="J6">
-        <v>-1.55</v>
+        <v>-2.36</v>
       </c>
       <c r="K6">
-        <v>-1.16</v>
+        <v>-1.84</v>
       </c>
       <c r="L6">
         <v>-6.29</v>
@@ -791,7 +791,7 @@
         <v>-4.1</v>
       </c>
       <c r="N6">
-        <v>-16.19</v>
+        <v>-15.28</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -802,31 +802,31 @@
         <v>19</v>
       </c>
       <c r="C7">
-        <v>-26.7</v>
+        <v>-23.4</v>
       </c>
       <c r="D7">
-        <v>-40.6</v>
+        <v>-33.2</v>
       </c>
       <c r="E7">
-        <v>-68.2</v>
+        <v>-56.1</v>
       </c>
       <c r="F7">
-        <v>47.5</v>
+        <v>101.2</v>
       </c>
       <c r="G7">
-        <v>-65.3</v>
+        <v>-26</v>
       </c>
       <c r="H7">
-        <v>-1.02</v>
+        <v>0.12</v>
       </c>
       <c r="I7">
-        <v>-0.37</v>
+        <v>-0.9399999999999999</v>
       </c>
       <c r="J7">
-        <v>-0.25</v>
+        <v>-0.5600000000000001</v>
       </c>
       <c r="K7">
-        <v>-0.12</v>
+        <v>-0.2</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -837,31 +837,31 @@
         <v>20</v>
       </c>
       <c r="C8">
-        <v>-51.9</v>
+        <v>-49.2</v>
       </c>
       <c r="D8">
-        <v>-32.8</v>
+        <v>-26.9</v>
       </c>
       <c r="E8">
-        <v>-60.4</v>
+        <v>-50.3</v>
       </c>
       <c r="F8">
-        <v>82</v>
+        <v>123.8</v>
       </c>
       <c r="G8">
-        <v>-33.8</v>
+        <v>-0.1</v>
       </c>
       <c r="H8">
-        <v>-0.5</v>
+        <v>0.78</v>
       </c>
       <c r="I8">
-        <v>-0.25</v>
+        <v>-0.82</v>
       </c>
       <c r="J8">
-        <v>-0.65</v>
+        <v>0.21</v>
       </c>
       <c r="K8">
-        <v>-1.56</v>
+        <v>-1.62</v>
       </c>
       <c r="L8">
         <v>-5.66</v>
@@ -870,7 +870,7 @@
         <v>-4.55</v>
       </c>
       <c r="N8">
-        <v>12.42</v>
+        <v>12.38</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -881,31 +881,31 @@
         <v>21</v>
       </c>
       <c r="C9">
-        <v>-32.9</v>
+        <v>-30.1</v>
       </c>
       <c r="D9">
-        <v>-44.6</v>
+        <v>-39</v>
       </c>
       <c r="E9">
-        <v>-69</v>
+        <v>-59.3</v>
       </c>
       <c r="F9">
-        <v>40.1</v>
+        <v>89.7</v>
       </c>
       <c r="G9">
-        <v>-74.90000000000001</v>
+        <v>-43.9</v>
       </c>
       <c r="H9">
-        <v>-1.12</v>
+        <v>-0.19</v>
       </c>
       <c r="I9">
-        <v>-0.52</v>
+        <v>-1.1</v>
       </c>
       <c r="J9">
-        <v>-0.3</v>
+        <v>-0.59</v>
       </c>
       <c r="K9">
-        <v>-0.22</v>
+        <v>-0.38</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -916,31 +916,31 @@
         <v>22</v>
       </c>
       <c r="C10">
-        <v>-50.7</v>
+        <v>-47.9</v>
       </c>
       <c r="D10">
-        <v>-37.4</v>
+        <v>-31.4</v>
       </c>
       <c r="E10">
-        <v>-50.2</v>
+        <v>-39.7</v>
       </c>
       <c r="F10">
-        <v>82.5</v>
+        <v>123.2</v>
       </c>
       <c r="G10">
-        <v>-23.3</v>
+        <v>14.6</v>
       </c>
       <c r="H10">
-        <v>-0.83</v>
+        <v>1.3</v>
       </c>
       <c r="I10">
-        <v>-0.61</v>
+        <v>-0.62</v>
       </c>
       <c r="J10">
-        <v>-1.13</v>
+        <v>-0.22</v>
       </c>
       <c r="K10">
-        <v>-2.25</v>
+        <v>-2.09</v>
       </c>
       <c r="L10">
         <v>-22.57</v>
@@ -949,7 +949,7 @@
         <v>-42.3</v>
       </c>
       <c r="N10">
-        <v>-27.78</v>
+        <v>-23.19</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -960,31 +960,31 @@
         <v>23</v>
       </c>
       <c r="C11">
-        <v>-47</v>
+        <v>-45.4</v>
       </c>
       <c r="D11">
-        <v>-30.7</v>
+        <v>-27.4</v>
       </c>
       <c r="E11">
-        <v>-43.5</v>
+        <v>-37.8</v>
       </c>
       <c r="F11">
-        <v>120.6</v>
+        <v>146</v>
       </c>
       <c r="G11">
-        <v>-12.7</v>
+        <v>5.6</v>
       </c>
       <c r="H11">
-        <v>-0.6899999999999999</v>
+        <v>0.59</v>
       </c>
       <c r="I11">
-        <v>-0.58</v>
+        <v>-1.08</v>
       </c>
       <c r="J11">
-        <v>-1.02</v>
+        <v>-0.29</v>
       </c>
       <c r="K11">
-        <v>-1.69</v>
+        <v>-1.81</v>
       </c>
       <c r="L11">
         <v>-19.6</v>
@@ -993,7 +993,7 @@
         <v>-24.87</v>
       </c>
       <c r="N11">
-        <v>3.33</v>
+        <v>6.7</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -1004,31 +1004,31 @@
         <v>24</v>
       </c>
       <c r="C12">
-        <v>-46.4</v>
+        <v>-44.9</v>
       </c>
       <c r="D12">
-        <v>-30.4</v>
+        <v>-27.1</v>
       </c>
       <c r="E12">
-        <v>-42.6</v>
+        <v>-37</v>
       </c>
       <c r="F12">
-        <v>124</v>
+        <v>150</v>
       </c>
       <c r="G12">
-        <v>-15.4</v>
+        <v>2.3</v>
       </c>
       <c r="H12">
-        <v>-0.6899999999999999</v>
+        <v>0.61</v>
       </c>
       <c r="I12">
-        <v>-0.51</v>
+        <v>-1.09</v>
       </c>
       <c r="J12">
-        <v>-0.92</v>
+        <v>-0.22</v>
       </c>
       <c r="K12">
-        <v>-1.57</v>
+        <v>-1.71</v>
       </c>
       <c r="L12">
         <v>-19.6</v>
@@ -1037,7 +1037,7 @@
         <v>-24.87</v>
       </c>
       <c r="N12">
-        <v>3.33</v>
+        <v>6.7</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -1048,31 +1048,31 @@
         <v>25</v>
       </c>
       <c r="C13">
-        <v>-31.9</v>
+        <v>-29.7</v>
       </c>
       <c r="D13">
-        <v>-44</v>
+        <v>-39.5</v>
       </c>
       <c r="E13">
-        <v>-68.2</v>
+        <v>-60.4</v>
       </c>
       <c r="F13">
-        <v>43.3</v>
+        <v>83.8</v>
       </c>
       <c r="G13">
-        <v>-73.3</v>
+        <v>-48.4</v>
       </c>
       <c r="H13">
-        <v>-1.21</v>
+        <v>-0.54</v>
       </c>
       <c r="I13">
-        <v>-0.6899999999999999</v>
+        <v>-1.29</v>
       </c>
       <c r="J13">
-        <v>-0.38</v>
+        <v>-0.66</v>
       </c>
       <c r="K13">
-        <v>-0.32</v>
+        <v>-0.5600000000000001</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -1083,31 +1083,31 @@
         <v>26</v>
       </c>
       <c r="C14">
-        <v>-56.1</v>
+        <v>-55</v>
       </c>
       <c r="D14">
-        <v>-37.3</v>
+        <v>-34.7</v>
       </c>
       <c r="E14">
-        <v>-57.3</v>
+        <v>-52.8</v>
       </c>
       <c r="F14">
-        <v>68.2</v>
+        <v>86.8</v>
       </c>
       <c r="G14">
-        <v>-43.9</v>
+        <v>-28.6</v>
       </c>
       <c r="H14">
-        <v>-0.07000000000000001</v>
+        <v>1.06</v>
       </c>
       <c r="I14">
-        <v>-0.66</v>
+        <v>-0.5</v>
       </c>
       <c r="J14">
-        <v>-1.46</v>
+        <v>-0.31</v>
       </c>
       <c r="K14">
-        <v>-1.74</v>
+        <v>-1.59</v>
       </c>
       <c r="L14">
         <v>-37.1</v>
@@ -1116,7 +1116,7 @@
         <v>-44.48</v>
       </c>
       <c r="N14">
-        <v>-28.25</v>
+        <v>-28.17</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -1127,31 +1127,31 @@
         <v>21</v>
       </c>
       <c r="C15">
-        <v>-34</v>
+        <v>-31.5</v>
       </c>
       <c r="D15">
-        <v>-39.2</v>
+        <v>-33.7</v>
       </c>
       <c r="E15">
-        <v>-73</v>
+        <v>-64.59999999999999</v>
       </c>
       <c r="F15">
-        <v>49.9</v>
+        <v>95.40000000000001</v>
       </c>
       <c r="G15">
-        <v>-69.2</v>
+        <v>-41.2</v>
       </c>
       <c r="H15">
-        <v>-1.99</v>
+        <v>-0.75</v>
       </c>
       <c r="I15">
-        <v>-1.44</v>
+        <v>-2.79</v>
       </c>
       <c r="J15">
-        <v>-0.72</v>
+        <v>-0.98</v>
       </c>
       <c r="K15">
-        <v>-0.96</v>
+        <v>-1.3</v>
       </c>
       <c r="L15">
         <v>-26.98</v>
@@ -1160,7 +1160,7 @@
         <v>-48.38</v>
       </c>
       <c r="N15">
-        <v>-49.66</v>
+        <v>-49.92</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -1171,31 +1171,31 @@
         <v>27</v>
       </c>
       <c r="C16">
-        <v>-29.6</v>
+        <v>-28.2</v>
       </c>
       <c r="D16">
-        <v>-37.3</v>
+        <v>-34.1</v>
       </c>
       <c r="E16">
-        <v>-75.7</v>
+        <v>-70.8</v>
       </c>
       <c r="F16">
-        <v>49.5</v>
+        <v>76.90000000000001</v>
       </c>
       <c r="G16">
-        <v>-72.5</v>
+        <v>-57.2</v>
       </c>
       <c r="H16">
-        <v>-1.84</v>
+        <v>-1.01</v>
       </c>
       <c r="I16">
-        <v>-1.25</v>
+        <v>-2.86</v>
       </c>
       <c r="J16">
-        <v>-0.58</v>
+        <v>-0.91</v>
       </c>
       <c r="K16">
-        <v>-0.91</v>
+        <v>-1.21</v>
       </c>
       <c r="L16">
         <v>-9.210000000000001</v>
@@ -1204,7 +1204,7 @@
         <v>-29.29</v>
       </c>
       <c r="N16">
-        <v>-18.25</v>
+        <v>-15.41</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1215,31 +1215,31 @@
         <v>28</v>
       </c>
       <c r="C17">
-        <v>-53.8</v>
+        <v>-53.6</v>
       </c>
       <c r="D17">
-        <v>-50.5</v>
+        <v>-50</v>
       </c>
       <c r="E17">
-        <v>-79.90000000000001</v>
+        <v>-79.2</v>
       </c>
       <c r="F17">
-        <v>14.7</v>
+        <v>18</v>
       </c>
       <c r="G17">
-        <v>-92.3</v>
+        <v>-90.5</v>
       </c>
       <c r="H17">
-        <v>-0.87</v>
+        <v>-1.23</v>
       </c>
       <c r="I17">
-        <v>-0.18</v>
+        <v>-2.17</v>
       </c>
       <c r="J17">
-        <v>0.01</v>
+        <v>-0.27</v>
       </c>
       <c r="K17">
-        <v>-0.59</v>
+        <v>-0.95</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1250,31 +1250,31 @@
         <v>29</v>
       </c>
       <c r="C18">
-        <v>-39.3</v>
+        <v>-37.9</v>
       </c>
       <c r="D18">
-        <v>-45.1</v>
+        <v>-41.7</v>
       </c>
       <c r="E18">
-        <v>-73.40000000000001</v>
+        <v>-68.09999999999999</v>
       </c>
       <c r="F18">
-        <v>44.9</v>
+        <v>73.7</v>
       </c>
       <c r="G18">
-        <v>-77.8</v>
+        <v>-63.5</v>
       </c>
       <c r="H18">
-        <v>-0.52</v>
+        <v>-0.6899999999999999</v>
       </c>
       <c r="I18">
-        <v>-0.29</v>
+        <v>-1.95</v>
       </c>
       <c r="J18">
-        <v>-0.72</v>
+        <v>-0.68</v>
       </c>
       <c r="K18">
-        <v>-0.76</v>
+        <v>-0.9</v>
       </c>
       <c r="L18">
         <v>-5.68</v>
@@ -1283,7 +1283,7 @@
         <v>-9.220000000000001</v>
       </c>
       <c r="N18">
-        <v>-10.73</v>
+        <v>-10.93</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1294,31 +1294,31 @@
         <v>30</v>
       </c>
       <c r="C19">
-        <v>-32.7</v>
+        <v>-29.7</v>
       </c>
       <c r="D19">
-        <v>-34</v>
+        <v>-27.2</v>
       </c>
       <c r="E19">
-        <v>-63.1</v>
+        <v>-52.9</v>
       </c>
       <c r="F19">
-        <v>47.5</v>
+        <v>96.90000000000001</v>
       </c>
       <c r="G19">
-        <v>-66.2</v>
+        <v>-31.2</v>
       </c>
       <c r="H19">
-        <v>-2.23</v>
+        <v>-0.77</v>
       </c>
       <c r="I19">
-        <v>-1.82</v>
+        <v>-3.19</v>
       </c>
       <c r="J19">
-        <v>-0.88</v>
+        <v>-1.15</v>
       </c>
       <c r="K19">
-        <v>-1.13</v>
+        <v>-1.35</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1329,31 +1329,31 @@
         <v>31</v>
       </c>
       <c r="C20">
-        <v>-41</v>
+        <v>-40.4</v>
       </c>
       <c r="D20">
-        <v>-40.8</v>
+        <v>-39.4</v>
       </c>
       <c r="E20">
-        <v>-77.5</v>
+        <v>-75.2</v>
       </c>
       <c r="F20">
-        <v>65.40000000000001</v>
+        <v>77.59999999999999</v>
       </c>
       <c r="G20">
-        <v>-67.7</v>
+        <v>-61.7</v>
       </c>
       <c r="H20">
-        <v>-1.02</v>
+        <v>-0.5600000000000001</v>
       </c>
       <c r="I20">
-        <v>-0.4</v>
+        <v>-1.57</v>
       </c>
       <c r="J20">
-        <v>-0.66</v>
+        <v>-0.71</v>
       </c>
       <c r="K20">
-        <v>-0.43</v>
+        <v>-0.7</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1364,31 +1364,31 @@
         <v>32</v>
       </c>
       <c r="C21">
-        <v>-29.9</v>
+        <v>-28.2</v>
       </c>
       <c r="D21">
-        <v>-35.9</v>
+        <v>-32.3</v>
       </c>
       <c r="E21">
-        <v>-74.5</v>
+        <v>-69</v>
       </c>
       <c r="F21">
-        <v>50.8</v>
+        <v>80.7</v>
       </c>
       <c r="G21">
-        <v>-70.2</v>
+        <v>-52.6</v>
       </c>
       <c r="H21">
-        <v>-2.09</v>
+        <v>-1.19</v>
       </c>
       <c r="I21">
-        <v>-1.47</v>
+        <v>-3.47</v>
       </c>
       <c r="J21">
-        <v>-0.65</v>
+        <v>-0.99</v>
       </c>
       <c r="K21">
-        <v>-1.11</v>
+        <v>-1.44</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1399,31 +1399,31 @@
         <v>33</v>
       </c>
       <c r="C22">
-        <v>-35.8</v>
+        <v>-34.3</v>
       </c>
       <c r="D22">
-        <v>-30.1</v>
+        <v>-26.6</v>
       </c>
       <c r="E22">
-        <v>-71.09999999999999</v>
+        <v>-65.5</v>
       </c>
       <c r="F22">
-        <v>54.1</v>
+        <v>82.40000000000001</v>
       </c>
       <c r="G22">
-        <v>-62.1</v>
+        <v>-42.3</v>
       </c>
       <c r="H22">
-        <v>-3.74</v>
+        <v>-2.7</v>
       </c>
       <c r="I22">
-        <v>-1.07</v>
+        <v>-7.53</v>
       </c>
       <c r="J22">
-        <v>-1.14</v>
+        <v>-1.63</v>
       </c>
       <c r="K22">
-        <v>-1.92</v>
+        <v>-2.26</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1434,31 +1434,31 @@
         <v>34</v>
       </c>
       <c r="C23">
-        <v>-32.9</v>
+        <v>-31.2</v>
       </c>
       <c r="D23">
-        <v>-49.4</v>
+        <v>-45.8</v>
       </c>
       <c r="E23">
-        <v>-74.40000000000001</v>
+        <v>-68.59999999999999</v>
       </c>
       <c r="F23">
-        <v>21.9</v>
+        <v>49.7</v>
       </c>
       <c r="G23">
-        <v>-86.40000000000001</v>
+        <v>-69.2</v>
       </c>
       <c r="H23">
-        <v>-1.18</v>
+        <v>-2.08</v>
       </c>
       <c r="I23">
-        <v>-0.73</v>
+        <v>-2.03</v>
       </c>
       <c r="J23">
-        <v>-0.43</v>
+        <v>-1.27</v>
       </c>
       <c r="K23">
-        <v>-1.07</v>
+        <v>-1.51</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1469,31 +1469,31 @@
         <v>35</v>
       </c>
       <c r="C24">
-        <v>-38</v>
+        <v>-36.2</v>
       </c>
       <c r="D24">
-        <v>-51.6</v>
+        <v>-47.4</v>
       </c>
       <c r="E24">
-        <v>-78.90000000000001</v>
+        <v>-72.09999999999999</v>
       </c>
       <c r="F24">
-        <v>32.2</v>
+        <v>65.8</v>
       </c>
       <c r="G24">
-        <v>-76.40000000000001</v>
+        <v>-51.8</v>
       </c>
       <c r="H24">
-        <v>-1.66</v>
+        <v>-0.68</v>
       </c>
       <c r="I24">
-        <v>-0.74</v>
+        <v>-1.92</v>
       </c>
       <c r="J24">
-        <v>-0.42</v>
+        <v>-0.85</v>
       </c>
       <c r="K24">
-        <v>-0.84</v>
+        <v>-1.04</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1504,31 +1504,31 @@
         <v>36</v>
       </c>
       <c r="C25">
-        <v>-49.3</v>
+        <v>-47.7</v>
       </c>
       <c r="D25">
-        <v>-40.4</v>
+        <v>-37</v>
       </c>
       <c r="E25">
-        <v>-54.1</v>
+        <v>-47.8</v>
       </c>
       <c r="F25">
-        <v>48</v>
+        <v>75.40000000000001</v>
       </c>
       <c r="G25">
-        <v>-60.5</v>
+        <v>-37.9</v>
       </c>
       <c r="H25">
-        <v>-0.53</v>
+        <v>0.17</v>
       </c>
       <c r="I25">
-        <v>-0.01</v>
+        <v>-1.27</v>
       </c>
       <c r="J25">
-        <v>-0.59</v>
+        <v>-0.31</v>
       </c>
       <c r="K25">
-        <v>-1.64</v>
+        <v>-2.35</v>
       </c>
     </row>
     <row r="26" spans="1:14">
@@ -1539,31 +1539,31 @@
         <v>37</v>
       </c>
       <c r="C26">
-        <v>-32.5</v>
+        <v>-32.3</v>
       </c>
       <c r="D26">
-        <v>-42.5</v>
+        <v>-41.9</v>
       </c>
       <c r="E26">
-        <v>-75.40000000000001</v>
+        <v>-74.59999999999999</v>
       </c>
       <c r="F26">
-        <v>16.3</v>
+        <v>19.6</v>
       </c>
       <c r="G26">
-        <v>-88.8</v>
+        <v>-86.5</v>
       </c>
       <c r="H26">
-        <v>-0.5</v>
+        <v>-1.45</v>
       </c>
       <c r="I26">
-        <v>-0.33</v>
+        <v>-1.84</v>
       </c>
       <c r="J26">
-        <v>-1</v>
+        <v>-1.17</v>
       </c>
       <c r="K26">
-        <v>-1</v>
+        <v>-1.29</v>
       </c>
     </row>
     <row r="27" spans="1:14">
@@ -1574,31 +1574,31 @@
         <v>38</v>
       </c>
       <c r="C27">
-        <v>-55.7</v>
+        <v>-55.4</v>
       </c>
       <c r="D27">
-        <v>-48.6</v>
+        <v>-48</v>
       </c>
       <c r="E27">
-        <v>-71.3</v>
+        <v>-70.3</v>
       </c>
       <c r="F27">
-        <v>61</v>
+        <v>65.8</v>
       </c>
       <c r="G27">
-        <v>-64.59999999999999</v>
+        <v>-61.8</v>
       </c>
       <c r="H27">
-        <v>-0.75</v>
+        <v>-0.88</v>
       </c>
       <c r="I27">
-        <v>-0.4</v>
+        <v>-1.81</v>
       </c>
       <c r="J27">
-        <v>-0.42</v>
+        <v>-0.48</v>
       </c>
       <c r="K27">
-        <v>-1.07</v>
+        <v>-0.93</v>
       </c>
     </row>
     <row r="28" spans="1:14">
@@ -1609,31 +1609,31 @@
         <v>39</v>
       </c>
       <c r="C28">
-        <v>-26.5</v>
+        <v>-25</v>
       </c>
       <c r="D28">
-        <v>-40</v>
+        <v>-36.5</v>
       </c>
       <c r="E28">
-        <v>-70</v>
+        <v>-64.40000000000001</v>
       </c>
       <c r="F28">
-        <v>53.7</v>
+        <v>79.3</v>
       </c>
       <c r="G28">
-        <v>-61</v>
+        <v>-42.4</v>
       </c>
       <c r="H28">
-        <v>-1.34</v>
+        <v>-0.76</v>
       </c>
       <c r="I28">
-        <v>-0.71</v>
+        <v>-1.73</v>
       </c>
       <c r="J28">
-        <v>-0.43</v>
+        <v>-0.85</v>
       </c>
       <c r="K28">
-        <v>-0.74</v>
+        <v>-0.9399999999999999</v>
       </c>
       <c r="L28">
         <v>-46.96</v>
@@ -1642,7 +1642,7 @@
         <v>-64.04000000000001</v>
       </c>
       <c r="N28">
-        <v>-59.23</v>
+        <v>-59.31</v>
       </c>
     </row>
     <row r="29" spans="1:14">
@@ -1653,31 +1653,31 @@
         <v>40</v>
       </c>
       <c r="C29">
-        <v>-53.5</v>
+        <v>-51.4</v>
       </c>
       <c r="D29">
-        <v>-42.4</v>
+        <v>-37.8</v>
       </c>
       <c r="E29">
-        <v>-66.59999999999999</v>
+        <v>-59</v>
       </c>
       <c r="F29">
-        <v>60.5</v>
+        <v>94.8</v>
       </c>
       <c r="G29">
-        <v>-54</v>
+        <v>-28</v>
       </c>
       <c r="H29">
-        <v>-0.99</v>
+        <v>0.66</v>
       </c>
       <c r="I29">
-        <v>-0.84</v>
+        <v>-0.86</v>
       </c>
       <c r="J29">
-        <v>-0.63</v>
+        <v>-0.04</v>
       </c>
       <c r="K29">
-        <v>-1.01</v>
+        <v>-0.98</v>
       </c>
       <c r="L29">
         <v>-56.55</v>
@@ -1686,7 +1686,7 @@
         <v>-68.41</v>
       </c>
       <c r="N29">
-        <v>-61.18</v>
+        <v>-57.47</v>
       </c>
     </row>
     <row r="30" spans="1:14">
@@ -1697,31 +1697,31 @@
         <v>41</v>
       </c>
       <c r="C30">
-        <v>-22.8</v>
+        <v>-21.3</v>
       </c>
       <c r="D30">
-        <v>-32.9</v>
+        <v>-29.6</v>
       </c>
       <c r="E30">
-        <v>-74.8</v>
+        <v>-70</v>
       </c>
       <c r="F30">
-        <v>59.2</v>
+        <v>85.59999999999999</v>
       </c>
       <c r="G30">
-        <v>-66.90000000000001</v>
+        <v>-52.2</v>
       </c>
       <c r="H30">
-        <v>-1.63</v>
+        <v>-0.89</v>
       </c>
       <c r="I30">
-        <v>-1.07</v>
+        <v>-2.4</v>
       </c>
       <c r="J30">
-        <v>-0.53</v>
+        <v>-0.87</v>
       </c>
       <c r="K30">
-        <v>-0.79</v>
+        <v>-1.06</v>
       </c>
       <c r="L30">
         <v>-46.96</v>
@@ -1730,7 +1730,7 @@
         <v>-64.04000000000001</v>
       </c>
       <c r="N30">
-        <v>-59.23</v>
+        <v>-59.31</v>
       </c>
     </row>
     <row r="31" spans="1:14">
@@ -1741,31 +1741,31 @@
         <v>42</v>
       </c>
       <c r="C31">
-        <v>-28.2</v>
+        <v>-26.6</v>
       </c>
       <c r="D31">
-        <v>-39.3</v>
+        <v>-35.7</v>
       </c>
       <c r="E31">
-        <v>-64.59999999999999</v>
+        <v>-58.7</v>
       </c>
       <c r="F31">
-        <v>64.8</v>
+        <v>94</v>
       </c>
       <c r="G31">
-        <v>-56.5</v>
+        <v>-36.9</v>
       </c>
       <c r="H31">
-        <v>-1.34</v>
+        <v>-0.62</v>
       </c>
       <c r="I31">
+        <v>-1.59</v>
+      </c>
+      <c r="J31">
         <v>-0.74</v>
       </c>
-      <c r="J31">
-        <v>-0.41</v>
-      </c>
       <c r="K31">
-        <v>-0.52</v>
+        <v>-0.75</v>
       </c>
     </row>
     <row r="32" spans="1:14">
@@ -1776,31 +1776,31 @@
         <v>43</v>
       </c>
       <c r="C32">
-        <v>-26.2</v>
+        <v>-24.7</v>
       </c>
       <c r="D32">
-        <v>-40.6</v>
+        <v>-37</v>
       </c>
       <c r="E32">
-        <v>-69.8</v>
+        <v>-64</v>
       </c>
       <c r="F32">
-        <v>53.9</v>
+        <v>80.40000000000001</v>
       </c>
       <c r="G32">
-        <v>-60.7</v>
+        <v>-41.2</v>
       </c>
       <c r="H32">
-        <v>-1.38</v>
+        <v>-0.74</v>
       </c>
       <c r="I32">
-        <v>-0.71</v>
+        <v>-1.75</v>
       </c>
       <c r="J32">
-        <v>-0.43</v>
+        <v>-0.84</v>
       </c>
       <c r="K32">
-        <v>-0.74</v>
+        <v>-0.9399999999999999</v>
       </c>
       <c r="L32">
         <v>-46.96</v>
@@ -1809,7 +1809,7 @@
         <v>-64.04000000000001</v>
       </c>
       <c r="N32">
-        <v>-59.23</v>
+        <v>-59.31</v>
       </c>
     </row>
     <row r="33" spans="1:14">
@@ -1820,31 +1820,31 @@
         <v>44</v>
       </c>
       <c r="C33">
-        <v>-38</v>
+        <v>-37.1</v>
       </c>
       <c r="D33">
-        <v>-50.6</v>
+        <v>-48.8</v>
       </c>
       <c r="E33">
-        <v>-75.8</v>
+        <v>-73</v>
       </c>
       <c r="F33">
-        <v>21.2</v>
+        <v>34.8</v>
       </c>
       <c r="G33">
-        <v>-86.5</v>
+        <v>-77.8</v>
       </c>
       <c r="H33">
-        <v>-1.2</v>
+        <v>-2.28</v>
       </c>
       <c r="I33">
-        <v>-0.73</v>
+        <v>-2.03</v>
       </c>
       <c r="J33">
-        <v>-0.37</v>
+        <v>-1.29</v>
       </c>
       <c r="K33">
-        <v>-1.15</v>
+        <v>-1.63</v>
       </c>
     </row>
     <row r="34" spans="1:14">
@@ -1855,31 +1855,31 @@
         <v>45</v>
       </c>
       <c r="C34">
-        <v>-55</v>
+        <v>-54</v>
       </c>
       <c r="D34">
-        <v>-35.2</v>
+        <v>-32.9</v>
       </c>
       <c r="E34">
-        <v>-54.7</v>
+        <v>-50.6</v>
       </c>
       <c r="F34">
-        <v>75</v>
+        <v>91.5</v>
       </c>
       <c r="G34">
-        <v>-36.6</v>
+        <v>-22.7</v>
       </c>
       <c r="H34">
-        <v>-0.08</v>
+        <v>1.01</v>
       </c>
       <c r="I34">
-        <v>-0.68</v>
+        <v>-0.53</v>
       </c>
       <c r="J34">
-        <v>-1.49</v>
+        <v>-0.33</v>
       </c>
       <c r="K34">
-        <v>-1.75</v>
+        <v>-1.62</v>
       </c>
       <c r="L34">
         <v>-37.1</v>
@@ -1888,7 +1888,7 @@
         <v>-44.48</v>
       </c>
       <c r="N34">
-        <v>-28.25</v>
+        <v>-28.17</v>
       </c>
     </row>
     <row r="35" spans="1:14">
@@ -1899,31 +1899,31 @@
         <v>46</v>
       </c>
       <c r="C35">
-        <v>-58.5</v>
+        <v>-58.3</v>
       </c>
       <c r="D35">
-        <v>-50.2</v>
+        <v>-49.7</v>
       </c>
       <c r="E35">
-        <v>-73.40000000000001</v>
+        <v>-72.59999999999999</v>
       </c>
       <c r="F35">
-        <v>53.6</v>
+        <v>57.7</v>
       </c>
       <c r="G35">
-        <v>-70</v>
+        <v>-67.7</v>
       </c>
       <c r="H35">
-        <v>-0.59</v>
+        <v>-1.16</v>
       </c>
       <c r="I35">
-        <v>-0.18</v>
+        <v>-1.88</v>
       </c>
       <c r="J35">
-        <v>-0.18</v>
+        <v>-0.29</v>
       </c>
       <c r="K35">
-        <v>-1.11</v>
+        <v>-0.89</v>
       </c>
     </row>
     <row r="36" spans="1:14">
@@ -1934,31 +1934,31 @@
         <v>47</v>
       </c>
       <c r="C36">
-        <v>-61</v>
+        <v>-59.2</v>
       </c>
       <c r="D36">
-        <v>-43.9</v>
+        <v>-39.8</v>
       </c>
       <c r="E36">
-        <v>-59.3</v>
+        <v>-52.7</v>
       </c>
       <c r="F36">
-        <v>90.2</v>
+        <v>126.7</v>
       </c>
       <c r="G36">
-        <v>-50.4</v>
+        <v>-30.4</v>
       </c>
       <c r="H36">
-        <v>0.1</v>
+        <v>1.19</v>
       </c>
       <c r="I36">
-        <v>-0.62</v>
+        <v>-0.35</v>
       </c>
       <c r="J36">
-        <v>-1.5</v>
+        <v>-0.27</v>
       </c>
       <c r="K36">
-        <v>-1.65</v>
+        <v>-1.47</v>
       </c>
       <c r="L36">
         <v>-78.22</v>
@@ -1967,7 +1967,7 @@
         <v>-77.61</v>
       </c>
       <c r="N36">
-        <v>-69.06</v>
+        <v>-66.40000000000001</v>
       </c>
     </row>
     <row r="37" spans="1:14">
@@ -1978,31 +1978,31 @@
         <v>48</v>
       </c>
       <c r="C37">
-        <v>-24</v>
+        <v>-22.9</v>
       </c>
       <c r="D37">
-        <v>-31.1</v>
+        <v>-28.4</v>
       </c>
       <c r="E37">
-        <v>-66.2</v>
+        <v>-62</v>
       </c>
       <c r="F37">
-        <v>75.2</v>
+        <v>96</v>
       </c>
       <c r="G37">
-        <v>-52.5</v>
+        <v>-39.4</v>
       </c>
       <c r="H37">
-        <v>-1.3</v>
+        <v>-0.79</v>
       </c>
       <c r="I37">
-        <v>-0.77</v>
+        <v>-1.78</v>
       </c>
       <c r="J37">
-        <v>-0.45</v>
+        <v>-0.84</v>
       </c>
       <c r="K37">
-        <v>-0.67</v>
+        <v>-0.9</v>
       </c>
       <c r="L37">
         <v>-46.96</v>
@@ -2011,7 +2011,7 @@
         <v>-64.04000000000001</v>
       </c>
       <c r="N37">
-        <v>-59.23</v>
+        <v>-59.31</v>
       </c>
     </row>
     <row r="38" spans="1:14">
@@ -2022,31 +2022,31 @@
         <v>49</v>
       </c>
       <c r="C38">
-        <v>-42</v>
+        <v>-40.8</v>
       </c>
       <c r="D38">
-        <v>-28.4</v>
+        <v>-25.8</v>
       </c>
       <c r="E38">
-        <v>-44.8</v>
+        <v>-40.1</v>
       </c>
       <c r="F38">
-        <v>82.59999999999999</v>
+        <v>100.2</v>
       </c>
       <c r="G38">
-        <v>-17.4</v>
+        <v>0.2</v>
       </c>
       <c r="H38">
-        <v>-0.8100000000000001</v>
+        <v>1.24</v>
       </c>
       <c r="I38">
-        <v>-0.59</v>
+        <v>-0.66</v>
       </c>
       <c r="J38">
-        <v>-1.11</v>
+        <v>-0.21</v>
       </c>
       <c r="K38">
-        <v>-2.21</v>
+        <v>-2.07</v>
       </c>
       <c r="L38">
         <v>-22.57</v>
@@ -2055,7 +2055,7 @@
         <v>-42.3</v>
       </c>
       <c r="N38">
-        <v>-27.78</v>
+        <v>-23.19</v>
       </c>
     </row>
     <row r="39" spans="1:14">
@@ -2066,31 +2066,31 @@
         <v>50</v>
       </c>
       <c r="C39">
-        <v>-21.4</v>
+        <v>-19.9</v>
       </c>
       <c r="D39">
-        <v>-30.6</v>
+        <v>-27.3</v>
       </c>
       <c r="E39">
-        <v>-74.2</v>
+        <v>-69.09999999999999</v>
       </c>
       <c r="F39">
-        <v>57.7</v>
+        <v>84.90000000000001</v>
       </c>
       <c r="G39">
-        <v>-67.09999999999999</v>
+        <v>-51.6</v>
       </c>
       <c r="H39">
-        <v>-1.71</v>
+        <v>-0.9399999999999999</v>
       </c>
       <c r="I39">
-        <v>-1.14</v>
+        <v>-2.57</v>
       </c>
       <c r="J39">
-        <v>-0.55</v>
+        <v>-0.89</v>
       </c>
       <c r="K39">
-        <v>-0.84</v>
+        <v>-1.13</v>
       </c>
       <c r="L39">
         <v>-46.96</v>
@@ -2099,7 +2099,7 @@
         <v>-64.04000000000001</v>
       </c>
       <c r="N39">
-        <v>-59.23</v>
+        <v>-59.31</v>
       </c>
     </row>
     <row r="40" spans="1:14">
@@ -2110,31 +2110,31 @@
         <v>51</v>
       </c>
       <c r="C40">
-        <v>-25.5</v>
+        <v>-24.1</v>
       </c>
       <c r="D40">
-        <v>-33.4</v>
+        <v>-30.2</v>
       </c>
       <c r="E40">
-        <v>-64.3</v>
+        <v>-59.2</v>
       </c>
       <c r="F40">
-        <v>75.7</v>
+        <v>100.3</v>
       </c>
       <c r="G40">
-        <v>-49.8</v>
+        <v>-33.5</v>
       </c>
       <c r="H40">
-        <v>-1.31</v>
+        <v>-0.74</v>
       </c>
       <c r="I40">
-        <v>-0.74</v>
+        <v>-1.72</v>
       </c>
       <c r="J40">
-        <v>-0.44</v>
+        <v>-0.82</v>
       </c>
       <c r="K40">
-        <v>-0.66</v>
+        <v>-0.88</v>
       </c>
       <c r="L40">
         <v>-46.96</v>
@@ -2143,7 +2143,7 @@
         <v>-64.04000000000001</v>
       </c>
       <c r="N40">
-        <v>-59.23</v>
+        <v>-59.31</v>
       </c>
     </row>
     <row r="41" spans="1:14">
@@ -2154,31 +2154,31 @@
         <v>52</v>
       </c>
       <c r="C41">
-        <v>-51.9</v>
+        <v>-50.5</v>
       </c>
       <c r="D41">
-        <v>-34.3</v>
+        <v>-31.2</v>
       </c>
       <c r="E41">
-        <v>-50.4</v>
+        <v>-45.1</v>
       </c>
       <c r="F41">
-        <v>105.3</v>
+        <v>128.7</v>
       </c>
       <c r="G41">
-        <v>-23.2</v>
+        <v>-6.1</v>
       </c>
       <c r="H41">
-        <v>-0.65</v>
+        <v>0.23</v>
       </c>
       <c r="I41">
-        <v>-0.88</v>
+        <v>-1.21</v>
       </c>
       <c r="J41">
-        <v>-1.38</v>
+        <v>-0.6</v>
       </c>
       <c r="K41">
-        <v>-1.98</v>
+        <v>-2.07</v>
       </c>
       <c r="L41">
         <v>-37.1</v>
@@ -2187,7 +2187,7 @@
         <v>-44.48</v>
       </c>
       <c r="N41">
-        <v>-28.25</v>
+        <v>-28.17</v>
       </c>
     </row>
     <row r="42" spans="1:14">
@@ -2198,31 +2198,31 @@
         <v>53</v>
       </c>
       <c r="C42">
-        <v>-35</v>
+        <v>-32.1</v>
       </c>
       <c r="D42">
-        <v>-57.2</v>
+        <v>-51.3</v>
       </c>
       <c r="E42">
-        <v>-82</v>
+        <v>-72.5</v>
       </c>
       <c r="F42">
-        <v>34.4</v>
+        <v>83.5</v>
       </c>
       <c r="G42">
-        <v>-76.2</v>
+        <v>-42.3</v>
       </c>
       <c r="H42">
-        <v>-2.05</v>
+        <v>-1.48</v>
       </c>
       <c r="I42">
-        <v>-1.23</v>
+        <v>-3.85</v>
       </c>
       <c r="J42">
-        <v>-1.55</v>
+        <v>-2.36</v>
       </c>
       <c r="K42">
-        <v>-1.17</v>
+        <v>-1.85</v>
       </c>
       <c r="L42">
         <v>-6.29</v>
@@ -2231,7 +2231,7 @@
         <v>-4.1</v>
       </c>
       <c r="N42">
-        <v>-16.19</v>
+        <v>-15.28</v>
       </c>
     </row>
   </sheetData>

--- a/Sistema-Operacional/Saidas/Monitoramento - Mananciais Críticos.xlsx
+++ b/Sistema-Operacional/Saidas/Monitoramento - Mananciais Críticos.xlsx
@@ -19,40 +19,40 @@
     <t>MUNICIPIO</t>
   </si>
   <si>
-    <t>AN_ANUAL_202011</t>
-  </si>
-  <si>
-    <t>AN_SEM_202011</t>
-  </si>
-  <si>
-    <t>AN_TRI_202011</t>
-  </si>
-  <si>
-    <t>AC_202011</t>
-  </si>
-  <si>
-    <t>AN_202011</t>
-  </si>
-  <si>
-    <t>SPI1_202011</t>
-  </si>
-  <si>
-    <t>SPI3_202011</t>
-  </si>
-  <si>
-    <t>SPI6_202011</t>
-  </si>
-  <si>
-    <t>SPI12_202011</t>
-  </si>
-  <si>
-    <t>AN_COTA_202009</t>
+    <t>AN_ANUAL_202012</t>
+  </si>
+  <si>
+    <t>AN_SEM_202012</t>
+  </si>
+  <si>
+    <t>AN_TRI_202012</t>
+  </si>
+  <si>
+    <t>AC_202012</t>
+  </si>
+  <si>
+    <t>AN_202012</t>
+  </si>
+  <si>
+    <t>SPI1_202012</t>
+  </si>
+  <si>
+    <t>SPI3_202012</t>
+  </si>
+  <si>
+    <t>SPI6_202012</t>
+  </si>
+  <si>
+    <t>SPI12_202012</t>
   </si>
   <si>
     <t>AN_COTA_202010</t>
   </si>
   <si>
-    <t>AN_COTA_20201130</t>
+    <t>AN_COTA_202011</t>
+  </si>
+  <si>
+    <t>AN_COTA_20201231</t>
   </si>
   <si>
     <t>SIA</t>
@@ -591,40 +591,40 @@
         <v>14</v>
       </c>
       <c r="C2">
-        <v>-23.4</v>
+        <v>-28.6</v>
       </c>
       <c r="D2">
-        <v>-29.2</v>
+        <v>-30.8</v>
       </c>
       <c r="E2">
-        <v>-61.7</v>
+        <v>-35.8</v>
       </c>
       <c r="F2">
-        <v>68.7</v>
+        <v>158.3</v>
       </c>
       <c r="G2">
-        <v>-56.4</v>
+        <v>-1.9</v>
       </c>
       <c r="H2">
-        <v>-0.68</v>
+        <v>0.88</v>
       </c>
       <c r="I2">
-        <v>-1.93</v>
+        <v>-0.13</v>
       </c>
       <c r="J2">
-        <v>-0.68</v>
+        <v>-0.53</v>
       </c>
       <c r="K2">
-        <v>-0.9</v>
+        <v>-1.09</v>
       </c>
       <c r="L2">
-        <v>-5.68</v>
+        <v>-9.220000000000001</v>
       </c>
       <c r="M2">
-        <v>-9.220000000000001</v>
+        <v>-10.93</v>
       </c>
       <c r="N2">
-        <v>-10.93</v>
+        <v>-6.44</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -635,40 +635,40 @@
         <v>15</v>
       </c>
       <c r="C3">
-        <v>-37.9</v>
+        <v>-29.7</v>
       </c>
       <c r="D3">
-        <v>-18.8</v>
+        <v>-19.1</v>
       </c>
       <c r="E3">
-        <v>-42.4</v>
+        <v>-11.5</v>
       </c>
       <c r="F3">
-        <v>92.40000000000001</v>
+        <v>148.6</v>
       </c>
       <c r="G3">
-        <v>-22.5</v>
+        <v>27.2</v>
       </c>
       <c r="H3">
-        <v>0.21</v>
+        <v>0.96</v>
       </c>
       <c r="I3">
-        <v>-1.49</v>
+        <v>0.11</v>
       </c>
       <c r="J3">
-        <v>-0.3</v>
+        <v>-0.29</v>
       </c>
       <c r="K3">
-        <v>-2.1</v>
+        <v>-1.43</v>
       </c>
       <c r="L3">
-        <v>-54.38</v>
+        <v>-51.9</v>
       </c>
       <c r="M3">
-        <v>-51.9</v>
+        <v>-21.06</v>
       </c>
       <c r="N3">
-        <v>-21.06</v>
+        <v>17.25</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -679,31 +679,31 @@
         <v>16</v>
       </c>
       <c r="C4">
-        <v>-37</v>
+        <v>-43.5</v>
       </c>
       <c r="D4">
-        <v>-38</v>
+        <v>-48.9</v>
       </c>
       <c r="E4">
-        <v>-70.2</v>
+        <v>-54</v>
       </c>
       <c r="F4">
-        <v>105.3</v>
+        <v>126.5</v>
       </c>
       <c r="G4">
-        <v>-48.1</v>
+        <v>-35.8</v>
       </c>
       <c r="H4">
-        <v>-0.71</v>
+        <v>0.76</v>
       </c>
       <c r="I4">
-        <v>-1.98</v>
+        <v>-0.4</v>
       </c>
       <c r="J4">
-        <v>-0.73</v>
+        <v>-0.65</v>
       </c>
       <c r="K4">
-        <v>-0.9399999999999999</v>
+        <v>-1.17</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -714,40 +714,40 @@
         <v>17</v>
       </c>
       <c r="C5">
-        <v>-17.3</v>
+        <v>-13.9</v>
       </c>
       <c r="D5">
-        <v>-32.1</v>
+        <v>-25.3</v>
       </c>
       <c r="E5">
-        <v>-65.2</v>
+        <v>-23.4</v>
       </c>
       <c r="F5">
-        <v>45.4</v>
+        <v>216.4</v>
       </c>
       <c r="G5">
-        <v>-62.3</v>
+        <v>41.6</v>
       </c>
       <c r="H5">
-        <v>-0.97</v>
+        <v>0.23</v>
       </c>
       <c r="I5">
-        <v>-1.4</v>
+        <v>-0.75</v>
       </c>
       <c r="J5">
-        <v>-0.89</v>
+        <v>-0.9</v>
       </c>
       <c r="K5">
-        <v>-0.85</v>
+        <v>-0.78</v>
       </c>
       <c r="L5">
-        <v>-46.96</v>
+        <v>-64.04000000000001</v>
       </c>
       <c r="M5">
-        <v>-64.04000000000001</v>
+        <v>-59.31</v>
       </c>
       <c r="N5">
-        <v>-59.31</v>
+        <v>-36.03</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -758,40 +758,40 @@
         <v>18</v>
       </c>
       <c r="C6">
-        <v>-30.6</v>
+        <v>-27.3</v>
       </c>
       <c r="D6">
-        <v>-53.3</v>
+        <v>-38.7</v>
       </c>
       <c r="E6">
-        <v>-76.5</v>
+        <v>-38.8</v>
       </c>
       <c r="F6">
-        <v>68.59999999999999</v>
+        <v>243.9</v>
       </c>
       <c r="G6">
-        <v>-44</v>
+        <v>72</v>
       </c>
       <c r="H6">
-        <v>-1.46</v>
+        <v>0.73</v>
       </c>
       <c r="I6">
-        <v>-3.85</v>
+        <v>-1.28</v>
       </c>
       <c r="J6">
-        <v>-2.36</v>
+        <v>-1.58</v>
       </c>
       <c r="K6">
-        <v>-1.84</v>
+        <v>-2.08</v>
       </c>
       <c r="L6">
-        <v>-6.29</v>
+        <v>-4.1</v>
       </c>
       <c r="M6">
-        <v>-4.1</v>
+        <v>-15.28</v>
       </c>
       <c r="N6">
-        <v>-15.28</v>
+        <v>10.62</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -802,31 +802,31 @@
         <v>19</v>
       </c>
       <c r="C7">
-        <v>-23.4</v>
+        <v>-17.1</v>
       </c>
       <c r="D7">
-        <v>-33.2</v>
+        <v>-15</v>
       </c>
       <c r="E7">
-        <v>-56.1</v>
+        <v>-14</v>
       </c>
       <c r="F7">
-        <v>101.2</v>
+        <v>283.9</v>
       </c>
       <c r="G7">
-        <v>-26</v>
+        <v>74.3</v>
       </c>
       <c r="H7">
-        <v>0.12</v>
+        <v>1.2</v>
       </c>
       <c r="I7">
-        <v>-0.9399999999999999</v>
+        <v>0.04</v>
       </c>
       <c r="J7">
-        <v>-0.5600000000000001</v>
+        <v>-0.22</v>
       </c>
       <c r="K7">
-        <v>-0.2</v>
+        <v>0.06</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -837,40 +837,40 @@
         <v>20</v>
       </c>
       <c r="C8">
-        <v>-49.2</v>
+        <v>-42</v>
       </c>
       <c r="D8">
-        <v>-26.9</v>
+        <v>-32.9</v>
       </c>
       <c r="E8">
-        <v>-50.3</v>
+        <v>-19.2</v>
       </c>
       <c r="F8">
-        <v>123.8</v>
+        <v>161.1</v>
       </c>
       <c r="G8">
-        <v>-0.1</v>
+        <v>-6.9</v>
       </c>
       <c r="H8">
+        <v>1.01</v>
+      </c>
+      <c r="I8">
         <v>0.78</v>
       </c>
-      <c r="I8">
-        <v>-0.82</v>
-      </c>
       <c r="J8">
-        <v>0.21</v>
+        <v>0.31</v>
       </c>
       <c r="K8">
-        <v>-1.62</v>
+        <v>-0.68</v>
       </c>
       <c r="L8">
-        <v>-5.66</v>
+        <v>-4.55</v>
       </c>
       <c r="M8">
-        <v>-4.55</v>
+        <v>12.38</v>
       </c>
       <c r="N8">
-        <v>12.38</v>
+        <v>19.54</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -881,31 +881,31 @@
         <v>21</v>
       </c>
       <c r="C9">
-        <v>-30.1</v>
+        <v>-26.7</v>
       </c>
       <c r="D9">
-        <v>-39</v>
+        <v>-31.1</v>
       </c>
       <c r="E9">
-        <v>-59.3</v>
+        <v>-28</v>
       </c>
       <c r="F9">
-        <v>89.7</v>
+        <v>221.5</v>
       </c>
       <c r="G9">
-        <v>-43.9</v>
+        <v>38.3</v>
       </c>
       <c r="H9">
-        <v>-0.19</v>
+        <v>0.82</v>
       </c>
       <c r="I9">
-        <v>-1.1</v>
+        <v>-0.46</v>
       </c>
       <c r="J9">
-        <v>-0.59</v>
+        <v>-0.7</v>
       </c>
       <c r="K9">
-        <v>-0.38</v>
+        <v>-0.22</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -916,40 +916,40 @@
         <v>22</v>
       </c>
       <c r="C10">
-        <v>-47.9</v>
+        <v>-40.6</v>
       </c>
       <c r="D10">
-        <v>-31.4</v>
+        <v>-24.4</v>
       </c>
       <c r="E10">
-        <v>-39.7</v>
+        <v>-6</v>
       </c>
       <c r="F10">
-        <v>123.2</v>
+        <v>144.5</v>
       </c>
       <c r="G10">
-        <v>14.6</v>
+        <v>26.8</v>
       </c>
       <c r="H10">
-        <v>1.3</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="I10">
-        <v>-0.62</v>
+        <v>0.51</v>
       </c>
       <c r="J10">
-        <v>-0.22</v>
+        <v>-0.23</v>
       </c>
       <c r="K10">
-        <v>-2.09</v>
+        <v>-1.66</v>
       </c>
       <c r="L10">
-        <v>-22.57</v>
+        <v>-42.3</v>
       </c>
       <c r="M10">
-        <v>-42.3</v>
+        <v>-23.19</v>
       </c>
       <c r="N10">
-        <v>-23.19</v>
+        <v>5.78</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -960,40 +960,40 @@
         <v>23</v>
       </c>
       <c r="C11">
-        <v>-45.4</v>
+        <v>-38.4</v>
       </c>
       <c r="D11">
-        <v>-27.4</v>
+        <v>-26.5</v>
       </c>
       <c r="E11">
-        <v>-37.8</v>
+        <v>-15.5</v>
       </c>
       <c r="F11">
-        <v>146</v>
+        <v>170.1</v>
       </c>
       <c r="G11">
-        <v>5.6</v>
+        <v>2.9</v>
       </c>
       <c r="H11">
-        <v>0.59</v>
+        <v>0.36</v>
       </c>
       <c r="I11">
-        <v>-1.08</v>
+        <v>0.08</v>
       </c>
       <c r="J11">
-        <v>-0.29</v>
+        <v>-0.34</v>
       </c>
       <c r="K11">
-        <v>-1.81</v>
+        <v>-1.28</v>
       </c>
       <c r="L11">
-        <v>-19.6</v>
+        <v>-24.87</v>
       </c>
       <c r="M11">
-        <v>-24.87</v>
+        <v>6.7</v>
       </c>
       <c r="N11">
-        <v>6.7</v>
+        <v>32.85</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -1004,40 +1004,40 @@
         <v>24</v>
       </c>
       <c r="C12">
-        <v>-44.9</v>
+        <v>-37.3</v>
       </c>
       <c r="D12">
-        <v>-27.1</v>
+        <v>-25.5</v>
       </c>
       <c r="E12">
-        <v>-37</v>
+        <v>-13.4</v>
       </c>
       <c r="F12">
-        <v>150</v>
+        <v>184.1</v>
       </c>
       <c r="G12">
-        <v>2.3</v>
+        <v>6.9</v>
       </c>
       <c r="H12">
-        <v>0.61</v>
+        <v>0.36</v>
       </c>
       <c r="I12">
-        <v>-1.09</v>
+        <v>0.1</v>
       </c>
       <c r="J12">
-        <v>-0.22</v>
+        <v>-0.25</v>
       </c>
       <c r="K12">
-        <v>-1.71</v>
+        <v>-1.19</v>
       </c>
       <c r="L12">
-        <v>-19.6</v>
+        <v>-24.87</v>
       </c>
       <c r="M12">
-        <v>-24.87</v>
+        <v>6.7</v>
       </c>
       <c r="N12">
-        <v>6.7</v>
+        <v>32.85</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -1048,31 +1048,31 @@
         <v>25</v>
       </c>
       <c r="C13">
-        <v>-29.7</v>
+        <v>-27</v>
       </c>
       <c r="D13">
-        <v>-39.5</v>
+        <v>-34.7</v>
       </c>
       <c r="E13">
-        <v>-60.4</v>
+        <v>-30.7</v>
       </c>
       <c r="F13">
-        <v>83.8</v>
+        <v>211.4</v>
       </c>
       <c r="G13">
-        <v>-48.4</v>
+        <v>27.5</v>
       </c>
       <c r="H13">
-        <v>-0.54</v>
+        <v>0.4</v>
       </c>
       <c r="I13">
-        <v>-1.29</v>
+        <v>-1.02</v>
       </c>
       <c r="J13">
-        <v>-0.66</v>
+        <v>-1.26</v>
       </c>
       <c r="K13">
-        <v>-0.5600000000000001</v>
+        <v>-0.55</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -1083,40 +1083,40 @@
         <v>26</v>
       </c>
       <c r="C14">
-        <v>-55</v>
+        <v>-46.5</v>
       </c>
       <c r="D14">
-        <v>-34.7</v>
+        <v>-35.8</v>
       </c>
       <c r="E14">
-        <v>-52.8</v>
+        <v>-26.7</v>
       </c>
       <c r="F14">
-        <v>86.8</v>
+        <v>159.4</v>
       </c>
       <c r="G14">
-        <v>-28.6</v>
+        <v>2.1</v>
       </c>
       <c r="H14">
-        <v>1.06</v>
+        <v>0.72</v>
       </c>
       <c r="I14">
-        <v>-0.5</v>
+        <v>0.62</v>
       </c>
       <c r="J14">
-        <v>-0.31</v>
+        <v>-0.1</v>
       </c>
       <c r="K14">
-        <v>-1.59</v>
+        <v>-1.07</v>
       </c>
       <c r="L14">
-        <v>-37.1</v>
+        <v>-44.48</v>
       </c>
       <c r="M14">
-        <v>-44.48</v>
+        <v>-28.17</v>
       </c>
       <c r="N14">
-        <v>-28.17</v>
+        <v>-9.43</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -1127,40 +1127,40 @@
         <v>21</v>
       </c>
       <c r="C15">
-        <v>-31.5</v>
+        <v>-28.8</v>
       </c>
       <c r="D15">
-        <v>-33.7</v>
+        <v>-40.1</v>
       </c>
       <c r="E15">
-        <v>-64.59999999999999</v>
+        <v>-41</v>
       </c>
       <c r="F15">
-        <v>95.40000000000001</v>
+        <v>189.4</v>
       </c>
       <c r="G15">
-        <v>-41.2</v>
+        <v>10.2</v>
       </c>
       <c r="H15">
-        <v>-0.75</v>
+        <v>0.34</v>
       </c>
       <c r="I15">
-        <v>-2.79</v>
+        <v>-1.71</v>
       </c>
       <c r="J15">
-        <v>-0.98</v>
+        <v>-1.82</v>
       </c>
       <c r="K15">
         <v>-1.3</v>
       </c>
       <c r="L15">
-        <v>-26.98</v>
+        <v>-48.38</v>
       </c>
       <c r="M15">
-        <v>-48.38</v>
+        <v>-49.92</v>
       </c>
       <c r="N15">
-        <v>-49.92</v>
+        <v>-12.35</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -1171,40 +1171,40 @@
         <v>27</v>
       </c>
       <c r="C16">
-        <v>-28.2</v>
+        <v>-26.2</v>
       </c>
       <c r="D16">
-        <v>-34.1</v>
+        <v>-40.2</v>
       </c>
       <c r="E16">
-        <v>-70.8</v>
+        <v>-49.4</v>
       </c>
       <c r="F16">
-        <v>76.90000000000001</v>
+        <v>175.8</v>
       </c>
       <c r="G16">
-        <v>-57.2</v>
+        <v>0.6</v>
       </c>
       <c r="H16">
-        <v>-1.01</v>
+        <v>0.22</v>
       </c>
       <c r="I16">
-        <v>-2.86</v>
+        <v>-1.78</v>
       </c>
       <c r="J16">
-        <v>-0.91</v>
+        <v>-1.72</v>
       </c>
       <c r="K16">
-        <v>-1.21</v>
+        <v>-1.17</v>
       </c>
       <c r="L16">
-        <v>-9.210000000000001</v>
+        <v>-29.29</v>
       </c>
       <c r="M16">
-        <v>-29.29</v>
+        <v>-15.41</v>
       </c>
       <c r="N16">
-        <v>-15.41</v>
+        <v>11.43</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1215,31 +1215,31 @@
         <v>28</v>
       </c>
       <c r="C17">
-        <v>-53.6</v>
+        <v>-55.8</v>
       </c>
       <c r="D17">
-        <v>-50</v>
+        <v>-64.40000000000001</v>
       </c>
       <c r="E17">
-        <v>-79.2</v>
+        <v>-70.5</v>
       </c>
       <c r="F17">
-        <v>18</v>
+        <v>89.2</v>
       </c>
       <c r="G17">
-        <v>-90.5</v>
+        <v>-55.5</v>
       </c>
       <c r="H17">
-        <v>-1.23</v>
+        <v>-0.32</v>
       </c>
       <c r="I17">
-        <v>-2.17</v>
+        <v>-1.13</v>
       </c>
       <c r="J17">
-        <v>-0.27</v>
+        <v>-0.83</v>
       </c>
       <c r="K17">
-        <v>-0.95</v>
+        <v>-0.9399999999999999</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1250,40 +1250,40 @@
         <v>29</v>
       </c>
       <c r="C18">
-        <v>-37.9</v>
+        <v>-43.6</v>
       </c>
       <c r="D18">
-        <v>-41.7</v>
+        <v>-44.7</v>
       </c>
       <c r="E18">
-        <v>-68.09999999999999</v>
+        <v>-49.1</v>
       </c>
       <c r="F18">
-        <v>73.7</v>
+        <v>154</v>
       </c>
       <c r="G18">
-        <v>-63.5</v>
+        <v>-25.5</v>
       </c>
       <c r="H18">
-        <v>-0.6899999999999999</v>
+        <v>0.87</v>
       </c>
       <c r="I18">
-        <v>-1.95</v>
+        <v>-0.15</v>
       </c>
       <c r="J18">
-        <v>-0.68</v>
+        <v>-0.54</v>
       </c>
       <c r="K18">
-        <v>-0.9</v>
+        <v>-1.09</v>
       </c>
       <c r="L18">
-        <v>-5.68</v>
+        <v>-9.220000000000001</v>
       </c>
       <c r="M18">
-        <v>-9.220000000000001</v>
+        <v>-10.93</v>
       </c>
       <c r="N18">
-        <v>-10.93</v>
+        <v>-6.44</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1294,31 +1294,31 @@
         <v>30</v>
       </c>
       <c r="C19">
-        <v>-29.7</v>
+        <v>-22.6</v>
       </c>
       <c r="D19">
-        <v>-27.2</v>
+        <v>-14.5</v>
       </c>
       <c r="E19">
-        <v>-52.9</v>
+        <v>-13.2</v>
       </c>
       <c r="F19">
-        <v>96.90000000000001</v>
+        <v>299.8</v>
       </c>
       <c r="G19">
-        <v>-31.2</v>
+        <v>72.7</v>
       </c>
       <c r="H19">
-        <v>-0.77</v>
+        <v>0.59</v>
       </c>
       <c r="I19">
-        <v>-3.19</v>
+        <v>-0.91</v>
       </c>
       <c r="J19">
-        <v>-1.15</v>
+        <v>-1.49</v>
       </c>
       <c r="K19">
-        <v>-1.35</v>
+        <v>-0.92</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1329,31 +1329,31 @@
         <v>31</v>
       </c>
       <c r="C20">
-        <v>-40.4</v>
+        <v>-44.3</v>
       </c>
       <c r="D20">
-        <v>-39.4</v>
+        <v>-47.3</v>
       </c>
       <c r="E20">
-        <v>-75.2</v>
+        <v>-55.9</v>
       </c>
       <c r="F20">
-        <v>77.59999999999999</v>
+        <v>146.1</v>
       </c>
       <c r="G20">
-        <v>-61.7</v>
+        <v>-30.9</v>
       </c>
       <c r="H20">
-        <v>-0.5600000000000001</v>
+        <v>1.2</v>
       </c>
       <c r="I20">
-        <v>-1.57</v>
+        <v>-0.24</v>
       </c>
       <c r="J20">
-        <v>-0.71</v>
+        <v>-0.41</v>
       </c>
       <c r="K20">
-        <v>-0.7</v>
+        <v>-0.8100000000000001</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1364,31 +1364,31 @@
         <v>32</v>
       </c>
       <c r="C21">
-        <v>-28.2</v>
+        <v>-25.9</v>
       </c>
       <c r="D21">
-        <v>-32.3</v>
+        <v>-39.9</v>
       </c>
       <c r="E21">
-        <v>-69</v>
+        <v>-49.2</v>
       </c>
       <c r="F21">
-        <v>80.7</v>
+        <v>166.3</v>
       </c>
       <c r="G21">
-        <v>-52.6</v>
+        <v>-0.3</v>
       </c>
       <c r="H21">
-        <v>-1.19</v>
+        <v>0.15</v>
       </c>
       <c r="I21">
-        <v>-3.47</v>
+        <v>-2.11</v>
       </c>
       <c r="J21">
-        <v>-0.99</v>
+        <v>-1.93</v>
       </c>
       <c r="K21">
-        <v>-1.44</v>
+        <v>-1.4</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1399,31 +1399,31 @@
         <v>33</v>
       </c>
       <c r="C22">
-        <v>-34.3</v>
+        <v>-24.2</v>
       </c>
       <c r="D22">
-        <v>-26.6</v>
+        <v>-14.6</v>
       </c>
       <c r="E22">
-        <v>-65.5</v>
+        <v>-14.3</v>
       </c>
       <c r="F22">
-        <v>82.40000000000001</v>
+        <v>336.3</v>
       </c>
       <c r="G22">
-        <v>-42.3</v>
+        <v>87</v>
       </c>
       <c r="H22">
-        <v>-2.7</v>
+        <v>0.93</v>
       </c>
       <c r="I22">
-        <v>-7.53</v>
+        <v>-0.49</v>
       </c>
       <c r="J22">
-        <v>-1.63</v>
+        <v>-1</v>
       </c>
       <c r="K22">
-        <v>-2.26</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1434,31 +1434,31 @@
         <v>34</v>
       </c>
       <c r="C23">
-        <v>-31.2</v>
+        <v>-26.9</v>
       </c>
       <c r="D23">
-        <v>-45.8</v>
+        <v>-29</v>
       </c>
       <c r="E23">
-        <v>-68.59999999999999</v>
+        <v>-29.3</v>
       </c>
       <c r="F23">
-        <v>49.7</v>
+        <v>249.8</v>
       </c>
       <c r="G23">
-        <v>-69.2</v>
+        <v>67.8</v>
       </c>
       <c r="H23">
-        <v>-2.08</v>
+        <v>-0.77</v>
       </c>
       <c r="I23">
-        <v>-2.03</v>
+        <v>-1.78</v>
       </c>
       <c r="J23">
-        <v>-1.27</v>
+        <v>-1.67</v>
       </c>
       <c r="K23">
-        <v>-1.51</v>
+        <v>-1.61</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1469,31 +1469,31 @@
         <v>35</v>
       </c>
       <c r="C24">
-        <v>-36.2</v>
+        <v>-34.3</v>
       </c>
       <c r="D24">
-        <v>-47.4</v>
+        <v>-37.2</v>
       </c>
       <c r="E24">
-        <v>-72.09999999999999</v>
+        <v>-40.9</v>
       </c>
       <c r="F24">
-        <v>65.8</v>
+        <v>213.7</v>
       </c>
       <c r="G24">
-        <v>-51.8</v>
+        <v>17.9</v>
       </c>
       <c r="H24">
-        <v>-0.68</v>
+        <v>0.73</v>
       </c>
       <c r="I24">
-        <v>-1.92</v>
+        <v>-0.9399999999999999</v>
       </c>
       <c r="J24">
-        <v>-0.85</v>
+        <v>-0.86</v>
       </c>
       <c r="K24">
-        <v>-1.04</v>
+        <v>-0.83</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1504,31 +1504,31 @@
         <v>36</v>
       </c>
       <c r="C25">
-        <v>-47.7</v>
+        <v>-42</v>
       </c>
       <c r="D25">
-        <v>-37</v>
+        <v>-36.9</v>
       </c>
       <c r="E25">
-        <v>-47.8</v>
+        <v>-33.5</v>
       </c>
       <c r="F25">
-        <v>75.40000000000001</v>
+        <v>162.5</v>
       </c>
       <c r="G25">
-        <v>-37.9</v>
+        <v>-5.9</v>
       </c>
       <c r="H25">
-        <v>0.17</v>
+        <v>0.76</v>
       </c>
       <c r="I25">
-        <v>-1.27</v>
+        <v>0.09</v>
       </c>
       <c r="J25">
-        <v>-0.31</v>
+        <v>-0.13</v>
       </c>
       <c r="K25">
-        <v>-2.35</v>
+        <v>-1.41</v>
       </c>
     </row>
     <row r="26" spans="1:14">
@@ -1539,31 +1539,31 @@
         <v>37</v>
       </c>
       <c r="C26">
-        <v>-32.3</v>
+        <v>-40.6</v>
       </c>
       <c r="D26">
-        <v>-41.9</v>
+        <v>-49.8</v>
       </c>
       <c r="E26">
-        <v>-74.59999999999999</v>
+        <v>-55.2</v>
       </c>
       <c r="F26">
-        <v>19.6</v>
+        <v>111.6</v>
       </c>
       <c r="G26">
-        <v>-86.5</v>
+        <v>-34.5</v>
       </c>
       <c r="H26">
-        <v>-1.45</v>
+        <v>0.6</v>
       </c>
       <c r="I26">
-        <v>-1.84</v>
+        <v>-0.47</v>
       </c>
       <c r="J26">
-        <v>-1.17</v>
+        <v>-0.76</v>
       </c>
       <c r="K26">
-        <v>-1.29</v>
+        <v>-2.42</v>
       </c>
     </row>
     <row r="27" spans="1:14">
@@ -1574,31 +1574,31 @@
         <v>38</v>
       </c>
       <c r="C27">
-        <v>-55.4</v>
+        <v>-57</v>
       </c>
       <c r="D27">
-        <v>-48</v>
+        <v>-57.8</v>
       </c>
       <c r="E27">
-        <v>-70.3</v>
+        <v>-61.7</v>
       </c>
       <c r="F27">
-        <v>65.8</v>
+        <v>85.40000000000001</v>
       </c>
       <c r="G27">
-        <v>-61.8</v>
+        <v>-54.1</v>
       </c>
       <c r="H27">
-        <v>-0.88</v>
+        <v>0.6</v>
       </c>
       <c r="I27">
-        <v>-1.81</v>
+        <v>-0.5</v>
       </c>
       <c r="J27">
-        <v>-0.48</v>
+        <v>-0.47</v>
       </c>
       <c r="K27">
-        <v>-0.93</v>
+        <v>-0.89</v>
       </c>
     </row>
     <row r="28" spans="1:14">
@@ -1609,40 +1609,40 @@
         <v>39</v>
       </c>
       <c r="C28">
-        <v>-25</v>
+        <v>-21.1</v>
       </c>
       <c r="D28">
-        <v>-36.5</v>
+        <v>-27.6</v>
       </c>
       <c r="E28">
-        <v>-64.40000000000001</v>
+        <v>-24.2</v>
       </c>
       <c r="F28">
-        <v>79.3</v>
+        <v>252</v>
       </c>
       <c r="G28">
-        <v>-42.4</v>
+        <v>46.2</v>
       </c>
       <c r="H28">
-        <v>-0.76</v>
+        <v>0.54</v>
       </c>
       <c r="I28">
-        <v>-1.73</v>
+        <v>-0.9</v>
       </c>
       <c r="J28">
-        <v>-0.85</v>
+        <v>-0.92</v>
       </c>
       <c r="K28">
-        <v>-0.9399999999999999</v>
+        <v>-0.8</v>
       </c>
       <c r="L28">
-        <v>-46.96</v>
+        <v>-64.04000000000001</v>
       </c>
       <c r="M28">
-        <v>-64.04000000000001</v>
+        <v>-59.31</v>
       </c>
       <c r="N28">
-        <v>-59.31</v>
+        <v>-36.03</v>
       </c>
     </row>
     <row r="29" spans="1:14">
@@ -1653,40 +1653,40 @@
         <v>40</v>
       </c>
       <c r="C29">
-        <v>-51.4</v>
+        <v>-44.9</v>
       </c>
       <c r="D29">
-        <v>-37.8</v>
+        <v>-39</v>
       </c>
       <c r="E29">
-        <v>-59</v>
+        <v>-32.5</v>
       </c>
       <c r="F29">
-        <v>94.8</v>
+        <v>164.2</v>
       </c>
       <c r="G29">
-        <v>-28</v>
+        <v>4</v>
       </c>
       <c r="H29">
-        <v>0.66</v>
+        <v>1.04</v>
       </c>
       <c r="I29">
-        <v>-0.86</v>
+        <v>0.36</v>
       </c>
       <c r="J29">
-        <v>-0.04</v>
+        <v>-0.12</v>
       </c>
       <c r="K29">
-        <v>-0.98</v>
+        <v>-0.6</v>
       </c>
       <c r="L29">
-        <v>-56.55</v>
+        <v>-68.41</v>
       </c>
       <c r="M29">
-        <v>-68.41</v>
+        <v>-57.47</v>
       </c>
       <c r="N29">
-        <v>-57.47</v>
+        <v>22.75</v>
       </c>
     </row>
     <row r="30" spans="1:14">
@@ -1697,40 +1697,40 @@
         <v>41</v>
       </c>
       <c r="C30">
-        <v>-21.3</v>
+        <v>-19.3</v>
       </c>
       <c r="D30">
-        <v>-29.6</v>
+        <v>-33.9</v>
       </c>
       <c r="E30">
-        <v>-70</v>
+        <v>-42.5</v>
       </c>
       <c r="F30">
-        <v>85.59999999999999</v>
+        <v>209.2</v>
       </c>
       <c r="G30">
-        <v>-52.2</v>
+        <v>19.5</v>
       </c>
       <c r="H30">
-        <v>-0.89</v>
+        <v>0.32</v>
       </c>
       <c r="I30">
-        <v>-2.4</v>
+        <v>-1.47</v>
       </c>
       <c r="J30">
-        <v>-0.87</v>
+        <v>-1.49</v>
       </c>
       <c r="K30">
-        <v>-1.06</v>
+        <v>-1.01</v>
       </c>
       <c r="L30">
-        <v>-46.96</v>
+        <v>-64.04000000000001</v>
       </c>
       <c r="M30">
-        <v>-64.04000000000001</v>
+        <v>-59.31</v>
       </c>
       <c r="N30">
-        <v>-59.31</v>
+        <v>-36.03</v>
       </c>
     </row>
     <row r="31" spans="1:14">
@@ -1741,31 +1741,31 @@
         <v>42</v>
       </c>
       <c r="C31">
-        <v>-26.6</v>
+        <v>-24.2</v>
       </c>
       <c r="D31">
-        <v>-35.7</v>
+        <v>-30.7</v>
       </c>
       <c r="E31">
-        <v>-58.7</v>
+        <v>-29.4</v>
       </c>
       <c r="F31">
-        <v>94</v>
+        <v>224.6</v>
       </c>
       <c r="G31">
-        <v>-36.9</v>
+        <v>21.6</v>
       </c>
       <c r="H31">
-        <v>-0.62</v>
+        <v>0.49</v>
       </c>
       <c r="I31">
-        <v>-1.59</v>
+        <v>-1.01</v>
       </c>
       <c r="J31">
-        <v>-0.74</v>
+        <v>-1.14</v>
       </c>
       <c r="K31">
-        <v>-0.75</v>
+        <v>-0.67</v>
       </c>
     </row>
     <row r="32" spans="1:14">
@@ -1776,40 +1776,40 @@
         <v>43</v>
       </c>
       <c r="C32">
-        <v>-24.7</v>
+        <v>-21.1</v>
       </c>
       <c r="D32">
-        <v>-37</v>
+        <v>-28.2</v>
       </c>
       <c r="E32">
-        <v>-64</v>
+        <v>-25.4</v>
       </c>
       <c r="F32">
-        <v>80.40000000000001</v>
+        <v>251.1</v>
       </c>
       <c r="G32">
-        <v>-41.2</v>
+        <v>42.2</v>
       </c>
       <c r="H32">
-        <v>-0.74</v>
+        <v>0.57</v>
       </c>
       <c r="I32">
-        <v>-1.75</v>
+        <v>-0.9</v>
       </c>
       <c r="J32">
-        <v>-0.84</v>
+        <v>-0.92</v>
       </c>
       <c r="K32">
-        <v>-0.9399999999999999</v>
+        <v>-0.79</v>
       </c>
       <c r="L32">
-        <v>-46.96</v>
+        <v>-64.04000000000001</v>
       </c>
       <c r="M32">
-        <v>-64.04000000000001</v>
+        <v>-59.31</v>
       </c>
       <c r="N32">
-        <v>-59.31</v>
+        <v>-36.03</v>
       </c>
     </row>
     <row r="33" spans="1:14">
@@ -1820,31 +1820,31 @@
         <v>44</v>
       </c>
       <c r="C33">
-        <v>-37.1</v>
+        <v>-33.2</v>
       </c>
       <c r="D33">
-        <v>-48.8</v>
+        <v>-42.2</v>
       </c>
       <c r="E33">
-        <v>-73</v>
+        <v>-39.5</v>
       </c>
       <c r="F33">
-        <v>34.8</v>
+        <v>207.2</v>
       </c>
       <c r="G33">
-        <v>-77.8</v>
+        <v>32.2</v>
       </c>
       <c r="H33">
-        <v>-2.28</v>
+        <v>-1.06</v>
       </c>
       <c r="I33">
-        <v>-2.03</v>
+        <v>-1.98</v>
       </c>
       <c r="J33">
-        <v>-1.29</v>
+        <v>-1.81</v>
       </c>
       <c r="K33">
-        <v>-1.63</v>
+        <v>-1.75</v>
       </c>
     </row>
     <row r="34" spans="1:14">
@@ -1855,40 +1855,40 @@
         <v>45</v>
       </c>
       <c r="C34">
-        <v>-54</v>
+        <v>-45.9</v>
       </c>
       <c r="D34">
-        <v>-32.9</v>
+        <v>-33.7</v>
       </c>
       <c r="E34">
-        <v>-50.6</v>
+        <v>-26.1</v>
       </c>
       <c r="F34">
-        <v>91.5</v>
+        <v>152.1</v>
       </c>
       <c r="G34">
-        <v>-22.7</v>
+        <v>3.1</v>
       </c>
       <c r="H34">
-        <v>1.01</v>
+        <v>0.68</v>
       </c>
       <c r="I34">
-        <v>-0.53</v>
+        <v>0.57</v>
       </c>
       <c r="J34">
-        <v>-0.33</v>
+        <v>-0.15</v>
       </c>
       <c r="K34">
-        <v>-1.62</v>
+        <v>-1.09</v>
       </c>
       <c r="L34">
-        <v>-37.1</v>
+        <v>-44.48</v>
       </c>
       <c r="M34">
-        <v>-44.48</v>
+        <v>-28.17</v>
       </c>
       <c r="N34">
-        <v>-28.17</v>
+        <v>-9.43</v>
       </c>
     </row>
     <row r="35" spans="1:14">
@@ -1899,31 +1899,31 @@
         <v>46</v>
       </c>
       <c r="C35">
-        <v>-58.3</v>
+        <v>-59.5</v>
       </c>
       <c r="D35">
-        <v>-49.7</v>
+        <v>-59.7</v>
       </c>
       <c r="E35">
-        <v>-72.59999999999999</v>
+        <v>-64.59999999999999</v>
       </c>
       <c r="F35">
-        <v>57.7</v>
+        <v>86.3</v>
       </c>
       <c r="G35">
-        <v>-67.7</v>
+        <v>-58.5</v>
       </c>
       <c r="H35">
-        <v>-1.16</v>
+        <v>0.17</v>
       </c>
       <c r="I35">
-        <v>-1.88</v>
+        <v>-0.79</v>
       </c>
       <c r="J35">
-        <v>-0.29</v>
+        <v>-0.62</v>
       </c>
       <c r="K35">
-        <v>-0.89</v>
+        <v>-0.85</v>
       </c>
     </row>
     <row r="36" spans="1:14">
@@ -1934,40 +1934,40 @@
         <v>47</v>
       </c>
       <c r="C36">
-        <v>-59.2</v>
+        <v>-52.7</v>
       </c>
       <c r="D36">
-        <v>-39.8</v>
+        <v>-44.7</v>
       </c>
       <c r="E36">
-        <v>-52.7</v>
+        <v>-37.7</v>
       </c>
       <c r="F36">
-        <v>126.7</v>
+        <v>161.8</v>
       </c>
       <c r="G36">
-        <v>-30.4</v>
+        <v>-21.3</v>
       </c>
       <c r="H36">
-        <v>1.19</v>
+        <v>0.84</v>
       </c>
       <c r="I36">
-        <v>-0.35</v>
+        <v>0.79</v>
       </c>
       <c r="J36">
-        <v>-0.27</v>
+        <v>0.03</v>
       </c>
       <c r="K36">
-        <v>-1.47</v>
+        <v>-0.9399999999999999</v>
       </c>
       <c r="L36">
-        <v>-78.22</v>
+        <v>-77.61</v>
       </c>
       <c r="M36">
-        <v>-77.61</v>
+        <v>-66.40000000000001</v>
       </c>
       <c r="N36">
-        <v>-66.40000000000001</v>
+        <v>-25.42</v>
       </c>
     </row>
     <row r="37" spans="1:14">
@@ -1978,40 +1978,40 @@
         <v>48</v>
       </c>
       <c r="C37">
-        <v>-22.9</v>
+        <v>-19.9</v>
       </c>
       <c r="D37">
-        <v>-28.4</v>
+        <v>-29.6</v>
       </c>
       <c r="E37">
-        <v>-62</v>
+        <v>-29.8</v>
       </c>
       <c r="F37">
-        <v>96</v>
+        <v>222.7</v>
       </c>
       <c r="G37">
-        <v>-39.4</v>
+        <v>26.3</v>
       </c>
       <c r="H37">
-        <v>-0.79</v>
+        <v>0.43</v>
       </c>
       <c r="I37">
-        <v>-1.78</v>
+        <v>-1.01</v>
       </c>
       <c r="J37">
-        <v>-0.84</v>
+        <v>-1.09</v>
       </c>
       <c r="K37">
-        <v>-0.9</v>
+        <v>-0.8</v>
       </c>
       <c r="L37">
-        <v>-46.96</v>
+        <v>-64.04000000000001</v>
       </c>
       <c r="M37">
-        <v>-64.04000000000001</v>
+        <v>-59.31</v>
       </c>
       <c r="N37">
-        <v>-59.31</v>
+        <v>-36.03</v>
       </c>
     </row>
     <row r="38" spans="1:14">
@@ -2022,40 +2022,40 @@
         <v>49</v>
       </c>
       <c r="C38">
-        <v>-40.8</v>
+        <v>-34.1</v>
       </c>
       <c r="D38">
-        <v>-25.8</v>
+        <v>-25.2</v>
       </c>
       <c r="E38">
-        <v>-40.1</v>
+        <v>-11</v>
       </c>
       <c r="F38">
-        <v>100.2</v>
+        <v>131.6</v>
       </c>
       <c r="G38">
-        <v>0.2</v>
+        <v>12.2</v>
       </c>
       <c r="H38">
-        <v>1.24</v>
+        <v>0.54</v>
       </c>
       <c r="I38">
-        <v>-0.66</v>
+        <v>0.47</v>
       </c>
       <c r="J38">
-        <v>-0.21</v>
+        <v>-0.23</v>
       </c>
       <c r="K38">
-        <v>-2.07</v>
+        <v>-1.64</v>
       </c>
       <c r="L38">
-        <v>-22.57</v>
+        <v>-42.3</v>
       </c>
       <c r="M38">
-        <v>-42.3</v>
+        <v>-23.19</v>
       </c>
       <c r="N38">
-        <v>-23.19</v>
+        <v>5.78</v>
       </c>
     </row>
     <row r="39" spans="1:14">
@@ -2066,40 +2066,40 @@
         <v>50</v>
       </c>
       <c r="C39">
-        <v>-19.9</v>
+        <v>-17.7</v>
       </c>
       <c r="D39">
-        <v>-27.3</v>
+        <v>-32.4</v>
       </c>
       <c r="E39">
-        <v>-69.09999999999999</v>
+        <v>-42.3</v>
       </c>
       <c r="F39">
-        <v>84.90000000000001</v>
+        <v>207.1</v>
       </c>
       <c r="G39">
-        <v>-51.6</v>
+        <v>21.5</v>
       </c>
       <c r="H39">
-        <v>-0.9399999999999999</v>
+        <v>0.29</v>
       </c>
       <c r="I39">
-        <v>-2.57</v>
+        <v>-1.56</v>
       </c>
       <c r="J39">
-        <v>-0.89</v>
+        <v>-1.56</v>
       </c>
       <c r="K39">
-        <v>-1.13</v>
+        <v>-1.07</v>
       </c>
       <c r="L39">
-        <v>-46.96</v>
+        <v>-64.04000000000001</v>
       </c>
       <c r="M39">
-        <v>-64.04000000000001</v>
+        <v>-59.31</v>
       </c>
       <c r="N39">
-        <v>-59.31</v>
+        <v>-36.03</v>
       </c>
     </row>
     <row r="40" spans="1:14">
@@ -2110,40 +2110,40 @@
         <v>51</v>
       </c>
       <c r="C40">
-        <v>-24.1</v>
+        <v>-21.2</v>
       </c>
       <c r="D40">
-        <v>-30.2</v>
+        <v>-27.5</v>
       </c>
       <c r="E40">
-        <v>-59.2</v>
+        <v>-24.5</v>
       </c>
       <c r="F40">
-        <v>100.3</v>
+        <v>235.4</v>
       </c>
       <c r="G40">
-        <v>-33.5</v>
+        <v>33.7</v>
       </c>
       <c r="H40">
-        <v>-0.74</v>
+        <v>0.49</v>
       </c>
       <c r="I40">
-        <v>-1.72</v>
+        <v>-0.96</v>
       </c>
       <c r="J40">
-        <v>-0.82</v>
+        <v>-1.03</v>
       </c>
       <c r="K40">
-        <v>-0.88</v>
+        <v>-0.77</v>
       </c>
       <c r="L40">
-        <v>-46.96</v>
+        <v>-64.04000000000001</v>
       </c>
       <c r="M40">
-        <v>-64.04000000000001</v>
+        <v>-59.31</v>
       </c>
       <c r="N40">
-        <v>-59.31</v>
+        <v>-36.03</v>
       </c>
     </row>
     <row r="41" spans="1:14">
@@ -2154,40 +2154,40 @@
         <v>52</v>
       </c>
       <c r="C41">
-        <v>-50.5</v>
+        <v>-44.9</v>
       </c>
       <c r="D41">
-        <v>-31.2</v>
+        <v>-34.2</v>
       </c>
       <c r="E41">
-        <v>-45.1</v>
+        <v>-28.3</v>
       </c>
       <c r="F41">
-        <v>128.7</v>
+        <v>139.9</v>
       </c>
       <c r="G41">
-        <v>-6.1</v>
+        <v>-15.1</v>
       </c>
       <c r="H41">
-        <v>0.23</v>
+        <v>0.26</v>
       </c>
       <c r="I41">
-        <v>-1.21</v>
+        <v>-0.18</v>
       </c>
       <c r="J41">
-        <v>-0.6</v>
+        <v>-0.74</v>
       </c>
       <c r="K41">
-        <v>-2.07</v>
+        <v>-1.53</v>
       </c>
       <c r="L41">
-        <v>-37.1</v>
+        <v>-44.48</v>
       </c>
       <c r="M41">
-        <v>-44.48</v>
+        <v>-28.17</v>
       </c>
       <c r="N41">
-        <v>-28.17</v>
+        <v>-9.43</v>
       </c>
     </row>
     <row r="42" spans="1:14">
@@ -2198,40 +2198,40 @@
         <v>53</v>
       </c>
       <c r="C42">
-        <v>-32.1</v>
+        <v>-29.1</v>
       </c>
       <c r="D42">
-        <v>-51.3</v>
+        <v>-34.6</v>
       </c>
       <c r="E42">
-        <v>-72.5</v>
+        <v>-34.5</v>
       </c>
       <c r="F42">
-        <v>83.5</v>
+        <v>243.3</v>
       </c>
       <c r="G42">
-        <v>-42.3</v>
+        <v>70.2</v>
       </c>
       <c r="H42">
-        <v>-1.48</v>
+        <v>0.73</v>
       </c>
       <c r="I42">
-        <v>-3.85</v>
+        <v>-1.29</v>
       </c>
       <c r="J42">
-        <v>-2.36</v>
+        <v>-1.59</v>
       </c>
       <c r="K42">
-        <v>-1.85</v>
+        <v>-2.08</v>
       </c>
       <c r="L42">
-        <v>-6.29</v>
+        <v>-4.1</v>
       </c>
       <c r="M42">
-        <v>-4.1</v>
+        <v>-15.28</v>
       </c>
       <c r="N42">
-        <v>-15.28</v>
+        <v>10.62</v>
       </c>
     </row>
   </sheetData>

--- a/Sistema-Operacional/Saidas/Monitoramento - Mananciais Críticos.xlsx
+++ b/Sistema-Operacional/Saidas/Monitoramento - Mananciais Críticos.xlsx
@@ -19,19 +19,19 @@
     <t>MUNICIPIO</t>
   </si>
   <si>
-    <t>AN_ANUAL_202012</t>
-  </si>
-  <si>
-    <t>AN_SEM_202012</t>
-  </si>
-  <si>
-    <t>AN_TRI_202012</t>
-  </si>
-  <si>
-    <t>AC_202012</t>
-  </si>
-  <si>
-    <t>AN_202012</t>
+    <t>AN_ANUAL_202101</t>
+  </si>
+  <si>
+    <t>AN_SEM_202101</t>
+  </si>
+  <si>
+    <t>AN_TRI_202101</t>
+  </si>
+  <si>
+    <t>AC_20210115</t>
+  </si>
+  <si>
+    <t>AN_20210115</t>
   </si>
   <si>
     <t>SPI1_202012</t>
@@ -46,13 +46,13 @@
     <t>SPI12_202012</t>
   </si>
   <si>
-    <t>AN_COTA_202010</t>
-  </si>
-  <si>
     <t>AN_COTA_202011</t>
   </si>
   <si>
-    <t>AN_COTA_20201231</t>
+    <t>AN_COTA_202012</t>
+  </si>
+  <si>
+    <t>AN_COTA_20210115</t>
   </si>
   <si>
     <t>SIA</t>
@@ -591,19 +591,19 @@
         <v>14</v>
       </c>
       <c r="C2">
-        <v>-28.6</v>
+        <v>-35.7</v>
       </c>
       <c r="D2">
-        <v>-30.8</v>
+        <v>-39.5</v>
       </c>
       <c r="E2">
-        <v>-35.8</v>
+        <v>-52.3</v>
       </c>
       <c r="F2">
-        <v>158.3</v>
+        <v>25.1</v>
       </c>
       <c r="G2">
-        <v>-1.9</v>
+        <v>-88</v>
       </c>
       <c r="H2">
         <v>0.88</v>
@@ -618,13 +618,13 @@
         <v>-1.09</v>
       </c>
       <c r="L2">
-        <v>-9.220000000000001</v>
+        <v>-10.93</v>
       </c>
       <c r="M2">
-        <v>-10.93</v>
+        <v>-6.44</v>
       </c>
       <c r="N2">
-        <v>-6.44</v>
+        <v>-9.92</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -635,19 +635,19 @@
         <v>15</v>
       </c>
       <c r="C3">
-        <v>-29.7</v>
+        <v>-39.3</v>
       </c>
       <c r="D3">
-        <v>-19.1</v>
+        <v>-24</v>
       </c>
       <c r="E3">
-        <v>-11.5</v>
+        <v>-29.4</v>
       </c>
       <c r="F3">
-        <v>148.6</v>
+        <v>34</v>
       </c>
       <c r="G3">
-        <v>27.2</v>
+        <v>-77.8</v>
       </c>
       <c r="H3">
         <v>0.96</v>
@@ -662,13 +662,13 @@
         <v>-1.43</v>
       </c>
       <c r="L3">
-        <v>-51.9</v>
+        <v>-21.06</v>
       </c>
       <c r="M3">
-        <v>-21.06</v>
+        <v>17.25</v>
       </c>
       <c r="N3">
-        <v>17.25</v>
+        <v>-33.33</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -679,19 +679,19 @@
         <v>16</v>
       </c>
       <c r="C4">
-        <v>-43.5</v>
+        <v>-45</v>
       </c>
       <c r="D4">
-        <v>-48.9</v>
+        <v>-50.9</v>
       </c>
       <c r="E4">
-        <v>-54</v>
+        <v>-53.9</v>
       </c>
       <c r="F4">
-        <v>126.5</v>
+        <v>51.7</v>
       </c>
       <c r="G4">
-        <v>-35.8</v>
+        <v>-76</v>
       </c>
       <c r="H4">
         <v>0.76</v>
@@ -714,19 +714,19 @@
         <v>17</v>
       </c>
       <c r="C5">
-        <v>-13.9</v>
+        <v>-18.2</v>
       </c>
       <c r="D5">
-        <v>-25.3</v>
+        <v>-21.3</v>
       </c>
       <c r="E5">
-        <v>-23.4</v>
+        <v>-12.2</v>
       </c>
       <c r="F5">
-        <v>216.4</v>
+        <v>102.9</v>
       </c>
       <c r="G5">
-        <v>41.6</v>
+        <v>-27.5</v>
       </c>
       <c r="H5">
         <v>0.23</v>
@@ -741,13 +741,13 @@
         <v>-0.78</v>
       </c>
       <c r="L5">
-        <v>-64.04000000000001</v>
+        <v>-59.31</v>
       </c>
       <c r="M5">
-        <v>-59.31</v>
+        <v>-36.03</v>
       </c>
       <c r="N5">
-        <v>-36.03</v>
+        <v>-41.75</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -758,19 +758,19 @@
         <v>18</v>
       </c>
       <c r="C6">
-        <v>-27.3</v>
+        <v>-32.1</v>
       </c>
       <c r="D6">
-        <v>-38.7</v>
+        <v>-35.2</v>
       </c>
       <c r="E6">
-        <v>-38.8</v>
+        <v>-6</v>
       </c>
       <c r="F6">
-        <v>243.9</v>
+        <v>78.7</v>
       </c>
       <c r="G6">
-        <v>72</v>
+        <v>-48.2</v>
       </c>
       <c r="H6">
         <v>0.73</v>
@@ -785,13 +785,13 @@
         <v>-2.08</v>
       </c>
       <c r="L6">
-        <v>-4.1</v>
+        <v>-15.28</v>
       </c>
       <c r="M6">
-        <v>-15.28</v>
+        <v>10.62</v>
       </c>
       <c r="N6">
-        <v>10.62</v>
+        <v>2.74</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -802,19 +802,19 @@
         <v>19</v>
       </c>
       <c r="C7">
-        <v>-17.1</v>
+        <v>-19.9</v>
       </c>
       <c r="D7">
-        <v>-15</v>
+        <v>-13.4</v>
       </c>
       <c r="E7">
-        <v>-14</v>
+        <v>7.5</v>
       </c>
       <c r="F7">
-        <v>283.9</v>
+        <v>124.6</v>
       </c>
       <c r="G7">
-        <v>74.3</v>
+        <v>-28.6</v>
       </c>
       <c r="H7">
         <v>1.2</v>
@@ -837,19 +837,19 @@
         <v>20</v>
       </c>
       <c r="C8">
-        <v>-42</v>
+        <v>-43.3</v>
       </c>
       <c r="D8">
-        <v>-32.9</v>
+        <v>-36.3</v>
       </c>
       <c r="E8">
-        <v>-19.2</v>
+        <v>-35.2</v>
       </c>
       <c r="F8">
-        <v>161.1</v>
+        <v>41.8</v>
       </c>
       <c r="G8">
-        <v>-6.9</v>
+        <v>-79.8</v>
       </c>
       <c r="H8">
         <v>1.01</v>
@@ -864,13 +864,13 @@
         <v>-0.68</v>
       </c>
       <c r="L8">
-        <v>-4.55</v>
+        <v>12.38</v>
       </c>
       <c r="M8">
-        <v>12.38</v>
+        <v>19.54</v>
       </c>
       <c r="N8">
-        <v>19.54</v>
+        <v>20.34</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -881,19 +881,19 @@
         <v>21</v>
       </c>
       <c r="C9">
-        <v>-26.7</v>
+        <v>-28.7</v>
       </c>
       <c r="D9">
-        <v>-31.1</v>
+        <v>-26.3</v>
       </c>
       <c r="E9">
-        <v>-28</v>
+        <v>-13.8</v>
       </c>
       <c r="F9">
-        <v>221.5</v>
+        <v>111.1</v>
       </c>
       <c r="G9">
-        <v>38.3</v>
+        <v>-34.6</v>
       </c>
       <c r="H9">
         <v>0.82</v>
@@ -916,19 +916,19 @@
         <v>22</v>
       </c>
       <c r="C10">
-        <v>-40.6</v>
+        <v>-44.1</v>
       </c>
       <c r="D10">
-        <v>-24.4</v>
+        <v>-30.6</v>
       </c>
       <c r="E10">
-        <v>-6</v>
+        <v>-25.6</v>
       </c>
       <c r="F10">
-        <v>144.5</v>
+        <v>33.6</v>
       </c>
       <c r="G10">
-        <v>26.8</v>
+        <v>-81.7</v>
       </c>
       <c r="H10">
         <v>0.5600000000000001</v>
@@ -943,13 +943,13 @@
         <v>-1.66</v>
       </c>
       <c r="L10">
-        <v>-42.3</v>
+        <v>-23.19</v>
       </c>
       <c r="M10">
-        <v>-23.19</v>
+        <v>5.78</v>
       </c>
       <c r="N10">
-        <v>5.78</v>
+        <v>-42.11</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -960,19 +960,19 @@
         <v>23</v>
       </c>
       <c r="C11">
-        <v>-38.4</v>
+        <v>-42.6</v>
       </c>
       <c r="D11">
-        <v>-26.5</v>
+        <v>-36.7</v>
       </c>
       <c r="E11">
-        <v>-15.5</v>
+        <v>-34.7</v>
       </c>
       <c r="F11">
-        <v>170.1</v>
+        <v>36.1</v>
       </c>
       <c r="G11">
-        <v>2.9</v>
+        <v>-84.7</v>
       </c>
       <c r="H11">
         <v>0.36</v>
@@ -987,13 +987,13 @@
         <v>-1.28</v>
       </c>
       <c r="L11">
-        <v>-24.87</v>
+        <v>6.7</v>
       </c>
       <c r="M11">
-        <v>6.7</v>
+        <v>32.85</v>
       </c>
       <c r="N11">
-        <v>32.85</v>
+        <v>-4.25</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -1004,19 +1004,19 @@
         <v>24</v>
       </c>
       <c r="C12">
-        <v>-37.3</v>
+        <v>-41.8</v>
       </c>
       <c r="D12">
-        <v>-25.5</v>
+        <v>-35.4</v>
       </c>
       <c r="E12">
-        <v>-13.4</v>
+        <v>-33.4</v>
       </c>
       <c r="F12">
-        <v>184.1</v>
+        <v>37.7</v>
       </c>
       <c r="G12">
-        <v>6.9</v>
+        <v>-84.3</v>
       </c>
       <c r="H12">
         <v>0.36</v>
@@ -1031,13 +1031,13 @@
         <v>-1.19</v>
       </c>
       <c r="L12">
-        <v>-24.87</v>
+        <v>6.7</v>
       </c>
       <c r="M12">
-        <v>6.7</v>
+        <v>32.85</v>
       </c>
       <c r="N12">
-        <v>32.85</v>
+        <v>-4.25</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -1048,19 +1048,19 @@
         <v>25</v>
       </c>
       <c r="C13">
-        <v>-27</v>
+        <v>-29.8</v>
       </c>
       <c r="D13">
-        <v>-34.7</v>
+        <v>-32.8</v>
       </c>
       <c r="E13">
-        <v>-30.7</v>
+        <v>-23.9</v>
       </c>
       <c r="F13">
-        <v>211.4</v>
+        <v>94.40000000000001</v>
       </c>
       <c r="G13">
-        <v>27.5</v>
+        <v>-48.7</v>
       </c>
       <c r="H13">
         <v>0.4</v>
@@ -1083,19 +1083,19 @@
         <v>26</v>
       </c>
       <c r="C14">
-        <v>-46.5</v>
+        <v>-51.2</v>
       </c>
       <c r="D14">
-        <v>-35.8</v>
+        <v>-43.6</v>
       </c>
       <c r="E14">
-        <v>-26.7</v>
+        <v>-43.1</v>
       </c>
       <c r="F14">
-        <v>159.4</v>
+        <v>24.3</v>
       </c>
       <c r="G14">
-        <v>2.1</v>
+        <v>-87.7</v>
       </c>
       <c r="H14">
         <v>0.72</v>
@@ -1110,13 +1110,13 @@
         <v>-1.07</v>
       </c>
       <c r="L14">
-        <v>-44.48</v>
+        <v>-28.17</v>
       </c>
       <c r="M14">
-        <v>-28.17</v>
+        <v>-9.43</v>
       </c>
       <c r="N14">
-        <v>-9.43</v>
+        <v>-23.79</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -1127,19 +1127,19 @@
         <v>21</v>
       </c>
       <c r="C15">
-        <v>-28.8</v>
+        <v>-33.3</v>
       </c>
       <c r="D15">
-        <v>-40.1</v>
+        <v>-42.8</v>
       </c>
       <c r="E15">
-        <v>-41</v>
+        <v>-30.1</v>
       </c>
       <c r="F15">
-        <v>189.4</v>
+        <v>79.7</v>
       </c>
       <c r="G15">
-        <v>10.2</v>
+        <v>-57.5</v>
       </c>
       <c r="H15">
         <v>0.34</v>
@@ -1154,13 +1154,13 @@
         <v>-1.3</v>
       </c>
       <c r="L15">
-        <v>-48.38</v>
+        <v>-49.92</v>
       </c>
       <c r="M15">
-        <v>-49.92</v>
+        <v>-12.35</v>
       </c>
       <c r="N15">
-        <v>-12.35</v>
+        <v>-12.79</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -1171,19 +1171,19 @@
         <v>27</v>
       </c>
       <c r="C16">
-        <v>-26.2</v>
+        <v>-31.7</v>
       </c>
       <c r="D16">
-        <v>-40.2</v>
+        <v>-47.8</v>
       </c>
       <c r="E16">
-        <v>-49.4</v>
+        <v>-41.5</v>
       </c>
       <c r="F16">
-        <v>175.8</v>
+        <v>75.7</v>
       </c>
       <c r="G16">
-        <v>0.6</v>
+        <v>-63.4</v>
       </c>
       <c r="H16">
         <v>0.22</v>
@@ -1198,13 +1198,13 @@
         <v>-1.17</v>
       </c>
       <c r="L16">
-        <v>-29.29</v>
+        <v>-15.41</v>
       </c>
       <c r="M16">
-        <v>-15.41</v>
+        <v>11.43</v>
       </c>
       <c r="N16">
-        <v>11.43</v>
+        <v>9.029999999999999</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1215,19 +1215,19 @@
         <v>28</v>
       </c>
       <c r="C17">
-        <v>-55.8</v>
+        <v>-61</v>
       </c>
       <c r="D17">
-        <v>-64.40000000000001</v>
+        <v>-69.5</v>
       </c>
       <c r="E17">
-        <v>-70.5</v>
+        <v>-78.90000000000001</v>
       </c>
       <c r="F17">
-        <v>89.2</v>
+        <v>39.7</v>
       </c>
       <c r="G17">
-        <v>-55.5</v>
+        <v>-87</v>
       </c>
       <c r="H17">
         <v>-0.32</v>
@@ -1250,19 +1250,19 @@
         <v>29</v>
       </c>
       <c r="C18">
-        <v>-43.6</v>
+        <v>-48.5</v>
       </c>
       <c r="D18">
-        <v>-44.7</v>
+        <v>-52.4</v>
       </c>
       <c r="E18">
-        <v>-49.1</v>
+        <v>-63.2</v>
       </c>
       <c r="F18">
-        <v>154</v>
+        <v>29.3</v>
       </c>
       <c r="G18">
-        <v>-25.5</v>
+        <v>-89.8</v>
       </c>
       <c r="H18">
         <v>0.87</v>
@@ -1277,13 +1277,13 @@
         <v>-1.09</v>
       </c>
       <c r="L18">
-        <v>-9.220000000000001</v>
+        <v>-10.93</v>
       </c>
       <c r="M18">
-        <v>-10.93</v>
+        <v>-6.44</v>
       </c>
       <c r="N18">
-        <v>-6.44</v>
+        <v>-9.92</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1294,19 +1294,19 @@
         <v>30</v>
       </c>
       <c r="C19">
-        <v>-22.6</v>
+        <v>-22.3</v>
       </c>
       <c r="D19">
-        <v>-14.5</v>
+        <v>-18.1</v>
       </c>
       <c r="E19">
-        <v>-13.2</v>
+        <v>-2.2</v>
       </c>
       <c r="F19">
-        <v>299.8</v>
+        <v>126.9</v>
       </c>
       <c r="G19">
-        <v>72.7</v>
+        <v>-42.6</v>
       </c>
       <c r="H19">
         <v>0.59</v>
@@ -1329,19 +1329,19 @@
         <v>31</v>
       </c>
       <c r="C20">
-        <v>-44.3</v>
+        <v>-47.8</v>
       </c>
       <c r="D20">
-        <v>-47.3</v>
+        <v>-50.6</v>
       </c>
       <c r="E20">
-        <v>-55.9</v>
+        <v>-59</v>
       </c>
       <c r="F20">
-        <v>146.1</v>
+        <v>41.8</v>
       </c>
       <c r="G20">
-        <v>-30.9</v>
+        <v>-82.09999999999999</v>
       </c>
       <c r="H20">
         <v>1.2</v>
@@ -1364,19 +1364,19 @@
         <v>32</v>
       </c>
       <c r="C21">
-        <v>-25.9</v>
+        <v>-31.1</v>
       </c>
       <c r="D21">
-        <v>-39.9</v>
+        <v>-48.4</v>
       </c>
       <c r="E21">
-        <v>-49.2</v>
+        <v>-41.2</v>
       </c>
       <c r="F21">
-        <v>166.3</v>
+        <v>68.8</v>
       </c>
       <c r="G21">
-        <v>-0.3</v>
+        <v>-65.5</v>
       </c>
       <c r="H21">
         <v>0.15</v>
@@ -1399,19 +1399,19 @@
         <v>33</v>
       </c>
       <c r="C22">
-        <v>-24.2</v>
+        <v>-26.9</v>
       </c>
       <c r="D22">
-        <v>-14.6</v>
+        <v>-21.4</v>
       </c>
       <c r="E22">
-        <v>-14.3</v>
+        <v>-8.4</v>
       </c>
       <c r="F22">
-        <v>336.3</v>
+        <v>107.6</v>
       </c>
       <c r="G22">
-        <v>87</v>
+        <v>-57.3</v>
       </c>
       <c r="H22">
         <v>0.93</v>
@@ -1434,19 +1434,19 @@
         <v>34</v>
       </c>
       <c r="C23">
-        <v>-26.9</v>
+        <v>-30.1</v>
       </c>
       <c r="D23">
-        <v>-29</v>
+        <v>-27.8</v>
       </c>
       <c r="E23">
-        <v>-29.3</v>
+        <v>-14.9</v>
       </c>
       <c r="F23">
-        <v>249.8</v>
+        <v>112.5</v>
       </c>
       <c r="G23">
-        <v>67.8</v>
+        <v>-35.3</v>
       </c>
       <c r="H23">
         <v>-0.77</v>
@@ -1469,19 +1469,19 @@
         <v>35</v>
       </c>
       <c r="C24">
-        <v>-34.3</v>
+        <v>-37.2</v>
       </c>
       <c r="D24">
-        <v>-37.2</v>
+        <v>-32.2</v>
       </c>
       <c r="E24">
-        <v>-40.9</v>
+        <v>-19.7</v>
       </c>
       <c r="F24">
-        <v>213.7</v>
+        <v>123.2</v>
       </c>
       <c r="G24">
-        <v>17.9</v>
+        <v>-33</v>
       </c>
       <c r="H24">
         <v>0.73</v>
@@ -1504,19 +1504,19 @@
         <v>36</v>
       </c>
       <c r="C25">
-        <v>-42</v>
+        <v>-47.5</v>
       </c>
       <c r="D25">
-        <v>-36.9</v>
+        <v>-38.2</v>
       </c>
       <c r="E25">
-        <v>-33.5</v>
+        <v>-45.5</v>
       </c>
       <c r="F25">
-        <v>162.5</v>
+        <v>26.8</v>
       </c>
       <c r="G25">
-        <v>-5.9</v>
+        <v>-86</v>
       </c>
       <c r="H25">
         <v>0.76</v>
@@ -1539,19 +1539,19 @@
         <v>37</v>
       </c>
       <c r="C26">
-        <v>-40.6</v>
+        <v>-45.5</v>
       </c>
       <c r="D26">
-        <v>-49.8</v>
+        <v>-50.5</v>
       </c>
       <c r="E26">
-        <v>-55.2</v>
+        <v>-62.6</v>
       </c>
       <c r="F26">
-        <v>111.6</v>
+        <v>54.5</v>
       </c>
       <c r="G26">
-        <v>-34.5</v>
+        <v>-69.90000000000001</v>
       </c>
       <c r="H26">
         <v>0.6</v>
@@ -1574,19 +1574,19 @@
         <v>38</v>
       </c>
       <c r="C27">
-        <v>-57</v>
+        <v>-59.1</v>
       </c>
       <c r="D27">
-        <v>-57.8</v>
+        <v>-62.3</v>
       </c>
       <c r="E27">
-        <v>-61.7</v>
+        <v>-67.3</v>
       </c>
       <c r="F27">
-        <v>85.40000000000001</v>
+        <v>61</v>
       </c>
       <c r="G27">
-        <v>-54.1</v>
+        <v>-79.09999999999999</v>
       </c>
       <c r="H27">
         <v>0.6</v>
@@ -1609,19 +1609,19 @@
         <v>39</v>
       </c>
       <c r="C28">
-        <v>-21.1</v>
+        <v>-24.4</v>
       </c>
       <c r="D28">
-        <v>-27.6</v>
+        <v>-22.9</v>
       </c>
       <c r="E28">
+        <v>-5.2</v>
+      </c>
+      <c r="F28">
+        <v>148.6</v>
+      </c>
+      <c r="G28">
         <v>-24.2</v>
-      </c>
-      <c r="F28">
-        <v>252</v>
-      </c>
-      <c r="G28">
-        <v>46.2</v>
       </c>
       <c r="H28">
         <v>0.54</v>
@@ -1636,13 +1636,13 @@
         <v>-0.8</v>
       </c>
       <c r="L28">
-        <v>-64.04000000000001</v>
+        <v>-59.31</v>
       </c>
       <c r="M28">
-        <v>-59.31</v>
+        <v>-36.03</v>
       </c>
       <c r="N28">
-        <v>-36.03</v>
+        <v>-41.75</v>
       </c>
     </row>
     <row r="29" spans="1:14">
@@ -1653,19 +1653,19 @@
         <v>40</v>
       </c>
       <c r="C29">
-        <v>-44.9</v>
+        <v>-46.8</v>
       </c>
       <c r="D29">
-        <v>-39</v>
+        <v>-45.7</v>
       </c>
       <c r="E29">
-        <v>-32.5</v>
+        <v>-36.2</v>
       </c>
       <c r="F29">
-        <v>164.2</v>
+        <v>47.6</v>
       </c>
       <c r="G29">
-        <v>4</v>
+        <v>-75.09999999999999</v>
       </c>
       <c r="H29">
         <v>1.04</v>
@@ -1680,13 +1680,13 @@
         <v>-0.6</v>
       </c>
       <c r="L29">
-        <v>-68.41</v>
+        <v>-57.47</v>
       </c>
       <c r="M29">
-        <v>-57.47</v>
+        <v>22.75</v>
       </c>
       <c r="N29">
-        <v>22.75</v>
+        <v>-8.6</v>
       </c>
     </row>
     <row r="30" spans="1:14">
@@ -1697,19 +1697,19 @@
         <v>41</v>
       </c>
       <c r="C30">
-        <v>-19.3</v>
+        <v>-25.4</v>
       </c>
       <c r="D30">
-        <v>-33.9</v>
+        <v>-40</v>
       </c>
       <c r="E30">
-        <v>-42.5</v>
+        <v>-29.7</v>
       </c>
       <c r="F30">
-        <v>209.2</v>
+        <v>101.3</v>
       </c>
       <c r="G30">
-        <v>19.5</v>
+        <v>-51.6</v>
       </c>
       <c r="H30">
         <v>0.32</v>
@@ -1724,13 +1724,13 @@
         <v>-1.01</v>
       </c>
       <c r="L30">
-        <v>-64.04000000000001</v>
+        <v>-59.31</v>
       </c>
       <c r="M30">
-        <v>-59.31</v>
+        <v>-36.03</v>
       </c>
       <c r="N30">
-        <v>-36.03</v>
+        <v>-41.75</v>
       </c>
     </row>
     <row r="31" spans="1:14">
@@ -1741,19 +1741,19 @@
         <v>42</v>
       </c>
       <c r="C31">
-        <v>-24.2</v>
+        <v>-26.8</v>
       </c>
       <c r="D31">
-        <v>-30.7</v>
+        <v>-28.1</v>
       </c>
       <c r="E31">
-        <v>-29.4</v>
+        <v>-16.2</v>
       </c>
       <c r="F31">
-        <v>224.6</v>
+        <v>139.4</v>
       </c>
       <c r="G31">
-        <v>21.6</v>
+        <v>-34.6</v>
       </c>
       <c r="H31">
         <v>0.49</v>
@@ -1776,19 +1776,19 @@
         <v>43</v>
       </c>
       <c r="C32">
-        <v>-21.1</v>
+        <v>-24.1</v>
       </c>
       <c r="D32">
-        <v>-28.2</v>
+        <v>-23.1</v>
       </c>
       <c r="E32">
-        <v>-25.4</v>
+        <v>-5.7</v>
       </c>
       <c r="F32">
-        <v>251.1</v>
+        <v>153.3</v>
       </c>
       <c r="G32">
-        <v>42.2</v>
+        <v>-23.6</v>
       </c>
       <c r="H32">
         <v>0.57</v>
@@ -1803,13 +1803,13 @@
         <v>-0.79</v>
       </c>
       <c r="L32">
-        <v>-64.04000000000001</v>
+        <v>-59.31</v>
       </c>
       <c r="M32">
-        <v>-59.31</v>
+        <v>-36.03</v>
       </c>
       <c r="N32">
-        <v>-36.03</v>
+        <v>-41.75</v>
       </c>
     </row>
     <row r="33" spans="1:14">
@@ -1820,19 +1820,19 @@
         <v>44</v>
       </c>
       <c r="C33">
-        <v>-33.2</v>
+        <v>-36.3</v>
       </c>
       <c r="D33">
-        <v>-42.2</v>
+        <v>-37.2</v>
       </c>
       <c r="E33">
-        <v>-39.5</v>
+        <v>-23.6</v>
       </c>
       <c r="F33">
-        <v>207.2</v>
+        <v>122.6</v>
       </c>
       <c r="G33">
-        <v>32.2</v>
+        <v>-25.2</v>
       </c>
       <c r="H33">
         <v>-1.06</v>
@@ -1855,19 +1855,19 @@
         <v>45</v>
       </c>
       <c r="C34">
-        <v>-45.9</v>
+        <v>-50.4</v>
       </c>
       <c r="D34">
-        <v>-33.7</v>
+        <v>-42.5</v>
       </c>
       <c r="E34">
-        <v>-26.1</v>
+        <v>-41.6</v>
       </c>
       <c r="F34">
-        <v>152.1</v>
+        <v>27.9</v>
       </c>
       <c r="G34">
-        <v>3.1</v>
+        <v>-86</v>
       </c>
       <c r="H34">
         <v>0.68</v>
@@ -1882,13 +1882,13 @@
         <v>-1.09</v>
       </c>
       <c r="L34">
-        <v>-44.48</v>
+        <v>-28.17</v>
       </c>
       <c r="M34">
-        <v>-28.17</v>
+        <v>-9.43</v>
       </c>
       <c r="N34">
-        <v>-9.43</v>
+        <v>-23.79</v>
       </c>
     </row>
     <row r="35" spans="1:14">
@@ -1899,19 +1899,19 @@
         <v>46</v>
       </c>
       <c r="C35">
-        <v>-59.5</v>
+        <v>-62.2</v>
       </c>
       <c r="D35">
-        <v>-59.7</v>
+        <v>-66.09999999999999</v>
       </c>
       <c r="E35">
-        <v>-64.59999999999999</v>
+        <v>-72.90000000000001</v>
       </c>
       <c r="F35">
-        <v>86.3</v>
+        <v>47.9</v>
       </c>
       <c r="G35">
-        <v>-58.5</v>
+        <v>-85.09999999999999</v>
       </c>
       <c r="H35">
         <v>0.17</v>
@@ -1934,19 +1934,19 @@
         <v>47</v>
       </c>
       <c r="C36">
-        <v>-52.7</v>
+        <v>-55.2</v>
       </c>
       <c r="D36">
-        <v>-44.7</v>
+        <v>-52.3</v>
       </c>
       <c r="E36">
-        <v>-37.7</v>
+        <v>-49.3</v>
       </c>
       <c r="F36">
-        <v>161.8</v>
+        <v>48.1</v>
       </c>
       <c r="G36">
-        <v>-21.3</v>
+        <v>-82.59999999999999</v>
       </c>
       <c r="H36">
         <v>0.84</v>
@@ -1961,13 +1961,13 @@
         <v>-0.9399999999999999</v>
       </c>
       <c r="L36">
-        <v>-77.61</v>
+        <v>-66.40000000000001</v>
       </c>
       <c r="M36">
-        <v>-66.40000000000001</v>
+        <v>-25.42</v>
       </c>
       <c r="N36">
-        <v>-25.42</v>
+        <v>-67.52</v>
       </c>
     </row>
     <row r="37" spans="1:14">
@@ -1978,19 +1978,19 @@
         <v>48</v>
       </c>
       <c r="C37">
-        <v>-19.9</v>
+        <v>-25.8</v>
       </c>
       <c r="D37">
-        <v>-29.6</v>
+        <v>-32.8</v>
       </c>
       <c r="E37">
-        <v>-29.8</v>
+        <v>-21.3</v>
       </c>
       <c r="F37">
-        <v>222.7</v>
+        <v>108.5</v>
       </c>
       <c r="G37">
-        <v>26.3</v>
+        <v>-47.9</v>
       </c>
       <c r="H37">
         <v>0.43</v>
@@ -2005,13 +2005,13 @@
         <v>-0.8</v>
       </c>
       <c r="L37">
-        <v>-64.04000000000001</v>
+        <v>-59.31</v>
       </c>
       <c r="M37">
-        <v>-59.31</v>
+        <v>-36.03</v>
       </c>
       <c r="N37">
-        <v>-36.03</v>
+        <v>-41.75</v>
       </c>
     </row>
     <row r="38" spans="1:14">
@@ -2022,19 +2022,19 @@
         <v>49</v>
       </c>
       <c r="C38">
-        <v>-34.1</v>
+        <v>-38.5</v>
       </c>
       <c r="D38">
-        <v>-25.2</v>
+        <v>-30.6</v>
       </c>
       <c r="E38">
-        <v>-11</v>
+        <v>-32.8</v>
       </c>
       <c r="F38">
-        <v>131.6</v>
+        <v>48.2</v>
       </c>
       <c r="G38">
-        <v>12.2</v>
+        <v>-75.8</v>
       </c>
       <c r="H38">
         <v>0.54</v>
@@ -2049,13 +2049,13 @@
         <v>-1.64</v>
       </c>
       <c r="L38">
-        <v>-42.3</v>
+        <v>-23.19</v>
       </c>
       <c r="M38">
-        <v>-23.19</v>
+        <v>5.78</v>
       </c>
       <c r="N38">
-        <v>5.78</v>
+        <v>-42.11</v>
       </c>
     </row>
     <row r="39" spans="1:14">
@@ -2066,19 +2066,19 @@
         <v>50</v>
       </c>
       <c r="C39">
-        <v>-17.7</v>
+        <v>-23.5</v>
       </c>
       <c r="D39">
-        <v>-32.4</v>
+        <v>-39.8</v>
       </c>
       <c r="E39">
-        <v>-42.3</v>
+        <v>-29.8</v>
       </c>
       <c r="F39">
-        <v>207.1</v>
+        <v>97.40000000000001</v>
       </c>
       <c r="G39">
-        <v>21.5</v>
+        <v>-53.3</v>
       </c>
       <c r="H39">
         <v>0.29</v>
@@ -2093,13 +2093,13 @@
         <v>-1.07</v>
       </c>
       <c r="L39">
-        <v>-64.04000000000001</v>
+        <v>-59.31</v>
       </c>
       <c r="M39">
-        <v>-59.31</v>
+        <v>-36.03</v>
       </c>
       <c r="N39">
-        <v>-36.03</v>
+        <v>-41.75</v>
       </c>
     </row>
     <row r="40" spans="1:14">
@@ -2110,19 +2110,19 @@
         <v>51</v>
       </c>
       <c r="C40">
-        <v>-21.2</v>
+        <v>-25.1</v>
       </c>
       <c r="D40">
-        <v>-27.5</v>
+        <v>-26.9</v>
       </c>
       <c r="E40">
-        <v>-24.5</v>
+        <v>-12.3</v>
       </c>
       <c r="F40">
-        <v>235.4</v>
+        <v>134.4</v>
       </c>
       <c r="G40">
-        <v>33.7</v>
+        <v>-35.9</v>
       </c>
       <c r="H40">
         <v>0.49</v>
@@ -2137,13 +2137,13 @@
         <v>-0.77</v>
       </c>
       <c r="L40">
-        <v>-64.04000000000001</v>
+        <v>-59.31</v>
       </c>
       <c r="M40">
-        <v>-59.31</v>
+        <v>-36.03</v>
       </c>
       <c r="N40">
-        <v>-36.03</v>
+        <v>-41.75</v>
       </c>
     </row>
     <row r="41" spans="1:14">
@@ -2154,19 +2154,19 @@
         <v>52</v>
       </c>
       <c r="C41">
-        <v>-44.9</v>
+        <v>-48</v>
       </c>
       <c r="D41">
-        <v>-34.2</v>
+        <v>-42.9</v>
       </c>
       <c r="E41">
-        <v>-28.3</v>
+        <v>-42.1</v>
       </c>
       <c r="F41">
-        <v>139.9</v>
+        <v>47.4</v>
       </c>
       <c r="G41">
-        <v>-15.1</v>
+        <v>-80.59999999999999</v>
       </c>
       <c r="H41">
         <v>0.26</v>
@@ -2181,13 +2181,13 @@
         <v>-1.53</v>
       </c>
       <c r="L41">
-        <v>-44.48</v>
+        <v>-28.17</v>
       </c>
       <c r="M41">
-        <v>-28.17</v>
+        <v>-9.43</v>
       </c>
       <c r="N41">
-        <v>-9.43</v>
+        <v>-23.79</v>
       </c>
     </row>
     <row r="42" spans="1:14">
@@ -2198,19 +2198,19 @@
         <v>53</v>
       </c>
       <c r="C42">
-        <v>-29.1</v>
+        <v>-30.2</v>
       </c>
       <c r="D42">
-        <v>-34.6</v>
+        <v>-28.1</v>
       </c>
       <c r="E42">
-        <v>-34.5</v>
+        <v>-0.2</v>
       </c>
       <c r="F42">
-        <v>243.3</v>
+        <v>107.9</v>
       </c>
       <c r="G42">
-        <v>70.2</v>
+        <v>-26.9</v>
       </c>
       <c r="H42">
         <v>0.73</v>
@@ -2225,13 +2225,13 @@
         <v>-2.08</v>
       </c>
       <c r="L42">
-        <v>-4.1</v>
+        <v>-15.28</v>
       </c>
       <c r="M42">
-        <v>-15.28</v>
+        <v>10.62</v>
       </c>
       <c r="N42">
-        <v>10.62</v>
+        <v>2.74</v>
       </c>
     </row>
   </sheetData>

--- a/Sistema-Operacional/Saidas/Monitoramento - Mananciais Críticos.xlsx
+++ b/Sistema-Operacional/Saidas/Monitoramento - Mananciais Críticos.xlsx
@@ -28,22 +28,22 @@
     <t>AN_TRI_202101</t>
   </si>
   <si>
-    <t>AC_20210115</t>
-  </si>
-  <si>
-    <t>AN_20210115</t>
-  </si>
-  <si>
-    <t>SPI1_202012</t>
-  </si>
-  <si>
-    <t>SPI3_202012</t>
-  </si>
-  <si>
-    <t>SPI6_202012</t>
-  </si>
-  <si>
-    <t>SPI12_202012</t>
+    <t>AC_202101</t>
+  </si>
+  <si>
+    <t>AN_202101</t>
+  </si>
+  <si>
+    <t>SPI1_202101</t>
+  </si>
+  <si>
+    <t>SPI3_202101</t>
+  </si>
+  <si>
+    <t>SPI6_202101</t>
+  </si>
+  <si>
+    <t>SPI12_202101</t>
   </si>
   <si>
     <t>AN_COTA_202011</t>
@@ -52,7 +52,7 @@
     <t>AN_COTA_202012</t>
   </si>
   <si>
-    <t>AN_COTA_20210115</t>
+    <t>AN_COTA_20210131</t>
   </si>
   <si>
     <t>SIA</t>
@@ -591,31 +591,31 @@
         <v>14</v>
       </c>
       <c r="C2">
-        <v>-35.7</v>
+        <v>-27.3</v>
       </c>
       <c r="D2">
-        <v>-39.5</v>
+        <v>-24.2</v>
       </c>
       <c r="E2">
-        <v>-52.3</v>
+        <v>-27.1</v>
       </c>
       <c r="F2">
-        <v>25.1</v>
+        <v>158.1</v>
       </c>
       <c r="G2">
-        <v>-88</v>
+        <v>-24.4</v>
       </c>
       <c r="H2">
-        <v>0.88</v>
+        <v>0.18</v>
       </c>
       <c r="I2">
-        <v>-0.13</v>
+        <v>0.21</v>
       </c>
       <c r="J2">
-        <v>-0.53</v>
+        <v>-0.06</v>
       </c>
       <c r="K2">
-        <v>-1.09</v>
+        <v>-0.72</v>
       </c>
       <c r="L2">
         <v>-10.93</v>
@@ -624,7 +624,7 @@
         <v>-6.44</v>
       </c>
       <c r="N2">
-        <v>-9.92</v>
+        <v>-1.3</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -635,31 +635,31 @@
         <v>15</v>
       </c>
       <c r="C3">
-        <v>-39.3</v>
+        <v>-28</v>
       </c>
       <c r="D3">
-        <v>-24</v>
+        <v>-2.6</v>
       </c>
       <c r="E3">
-        <v>-29.4</v>
+        <v>7.5</v>
       </c>
       <c r="F3">
-        <v>34</v>
+        <v>177.3</v>
       </c>
       <c r="G3">
-        <v>-77.8</v>
+        <v>15.7</v>
       </c>
       <c r="H3">
-        <v>0.96</v>
+        <v>1.15</v>
       </c>
       <c r="I3">
-        <v>0.11</v>
+        <v>1.04</v>
       </c>
       <c r="J3">
-        <v>-0.29</v>
+        <v>0.43</v>
       </c>
       <c r="K3">
-        <v>-1.43</v>
+        <v>-0.83</v>
       </c>
       <c r="L3">
         <v>-21.06</v>
@@ -668,7 +668,7 @@
         <v>17.25</v>
       </c>
       <c r="N3">
-        <v>-33.33</v>
+        <v>-14.5</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -679,31 +679,31 @@
         <v>16</v>
       </c>
       <c r="C4">
-        <v>-45</v>
+        <v>-32.9</v>
       </c>
       <c r="D4">
-        <v>-50.9</v>
+        <v>-28.4</v>
       </c>
       <c r="E4">
-        <v>-53.9</v>
+        <v>-17.2</v>
       </c>
       <c r="F4">
-        <v>51.7</v>
+        <v>277.8</v>
       </c>
       <c r="G4">
-        <v>-76</v>
+        <v>28.8</v>
       </c>
       <c r="H4">
-        <v>0.76</v>
+        <v>1.33</v>
       </c>
       <c r="I4">
-        <v>-0.4</v>
+        <v>0.55</v>
       </c>
       <c r="J4">
-        <v>-0.65</v>
+        <v>0.11</v>
       </c>
       <c r="K4">
-        <v>-1.17</v>
+        <v>-0.64</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -714,31 +714,31 @@
         <v>17</v>
       </c>
       <c r="C5">
-        <v>-18.2</v>
+        <v>5.2</v>
       </c>
       <c r="D5">
-        <v>-21.3</v>
+        <v>23.7</v>
       </c>
       <c r="E5">
-        <v>-12.2</v>
+        <v>68.40000000000001</v>
       </c>
       <c r="F5">
-        <v>102.9</v>
+        <v>437.6</v>
       </c>
       <c r="G5">
-        <v>-27.5</v>
+        <v>208.1</v>
       </c>
       <c r="H5">
-        <v>0.23</v>
+        <v>3.5</v>
       </c>
       <c r="I5">
-        <v>-0.75</v>
+        <v>0.97</v>
       </c>
       <c r="J5">
-        <v>-0.9</v>
+        <v>0.02</v>
       </c>
       <c r="K5">
-        <v>-0.78</v>
+        <v>-0.34</v>
       </c>
       <c r="L5">
         <v>-59.31</v>
@@ -747,7 +747,7 @@
         <v>-36.03</v>
       </c>
       <c r="N5">
-        <v>-41.75</v>
+        <v>50.24</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -758,31 +758,31 @@
         <v>18</v>
       </c>
       <c r="C6">
-        <v>-32.1</v>
+        <v>-15</v>
       </c>
       <c r="D6">
-        <v>-35.2</v>
+        <v>-4.6</v>
       </c>
       <c r="E6">
-        <v>-6</v>
+        <v>60.5</v>
       </c>
       <c r="F6">
-        <v>78.7</v>
+        <v>355.7</v>
       </c>
       <c r="G6">
-        <v>-48.2</v>
+        <v>134.2</v>
       </c>
       <c r="H6">
-        <v>0.73</v>
+        <v>2.08</v>
       </c>
       <c r="I6">
-        <v>-1.28</v>
+        <v>0.75</v>
       </c>
       <c r="J6">
-        <v>-1.58</v>
+        <v>-0.4</v>
       </c>
       <c r="K6">
-        <v>-2.08</v>
+        <v>-1.29</v>
       </c>
       <c r="L6">
         <v>-15.28</v>
@@ -791,7 +791,7 @@
         <v>10.62</v>
       </c>
       <c r="N6">
-        <v>2.74</v>
+        <v>13.53</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -802,31 +802,31 @@
         <v>19</v>
       </c>
       <c r="C7">
-        <v>-19.9</v>
+        <v>-3.4</v>
       </c>
       <c r="D7">
-        <v>-13.4</v>
+        <v>17.3</v>
       </c>
       <c r="E7">
-        <v>7.5</v>
+        <v>64.3</v>
       </c>
       <c r="F7">
-        <v>124.6</v>
+        <v>394.1</v>
       </c>
       <c r="G7">
-        <v>-28.6</v>
+        <v>125.7</v>
       </c>
       <c r="H7">
+        <v>3.12</v>
+      </c>
+      <c r="I7">
         <v>1.2</v>
       </c>
-      <c r="I7">
-        <v>0.04</v>
-      </c>
       <c r="J7">
-        <v>-0.22</v>
+        <v>0.17</v>
       </c>
       <c r="K7">
-        <v>0.06</v>
+        <v>-0.68</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -837,31 +837,31 @@
         <v>20</v>
       </c>
       <c r="C8">
-        <v>-43.3</v>
+        <v>-37.5</v>
       </c>
       <c r="D8">
-        <v>-36.3</v>
+        <v>-26</v>
       </c>
       <c r="E8">
-        <v>-35.2</v>
+        <v>-17.3</v>
       </c>
       <c r="F8">
-        <v>41.8</v>
+        <v>132.1</v>
       </c>
       <c r="G8">
-        <v>-79.8</v>
+        <v>-36.2</v>
       </c>
       <c r="H8">
-        <v>1.01</v>
+        <v>0</v>
       </c>
       <c r="I8">
-        <v>0.78</v>
+        <v>0.9</v>
       </c>
       <c r="J8">
-        <v>0.31</v>
+        <v>0.45</v>
       </c>
       <c r="K8">
-        <v>-0.68</v>
+        <v>-0.36</v>
       </c>
       <c r="L8">
         <v>12.38</v>
@@ -870,7 +870,7 @@
         <v>19.54</v>
       </c>
       <c r="N8">
-        <v>20.34</v>
+        <v>27.65</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -881,31 +881,31 @@
         <v>21</v>
       </c>
       <c r="C9">
-        <v>-28.7</v>
+        <v>-18.5</v>
       </c>
       <c r="D9">
-        <v>-26.3</v>
+        <v>-6.9</v>
       </c>
       <c r="E9">
-        <v>-13.8</v>
+        <v>23.1</v>
       </c>
       <c r="F9">
-        <v>111.1</v>
+        <v>291.9</v>
       </c>
       <c r="G9">
-        <v>-34.6</v>
+        <v>71.8</v>
       </c>
       <c r="H9">
-        <v>0.82</v>
+        <v>4</v>
       </c>
       <c r="I9">
-        <v>-0.46</v>
+        <v>1.7</v>
       </c>
       <c r="J9">
-        <v>-0.7</v>
+        <v>0.38</v>
       </c>
       <c r="K9">
-        <v>-0.22</v>
+        <v>-0.08</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -916,31 +916,31 @@
         <v>22</v>
       </c>
       <c r="C10">
-        <v>-44.1</v>
+        <v>-37.8</v>
       </c>
       <c r="D10">
-        <v>-30.6</v>
+        <v>-18.8</v>
       </c>
       <c r="E10">
-        <v>-25.6</v>
+        <v>-3.3</v>
       </c>
       <c r="F10">
-        <v>33.6</v>
+        <v>124</v>
       </c>
       <c r="G10">
-        <v>-81.7</v>
+        <v>-32.5</v>
       </c>
       <c r="H10">
-        <v>0.5600000000000001</v>
+        <v>0.25</v>
       </c>
       <c r="I10">
-        <v>0.51</v>
+        <v>0.84</v>
       </c>
       <c r="J10">
-        <v>-0.23</v>
+        <v>0.15</v>
       </c>
       <c r="K10">
-        <v>-1.66</v>
+        <v>-1.45</v>
       </c>
       <c r="L10">
         <v>-23.19</v>
@@ -949,7 +949,7 @@
         <v>5.78</v>
       </c>
       <c r="N10">
-        <v>-42.11</v>
+        <v>-24.85</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -960,31 +960,31 @@
         <v>23</v>
       </c>
       <c r="C11">
-        <v>-42.6</v>
+        <v>-36.8</v>
       </c>
       <c r="D11">
-        <v>-36.7</v>
+        <v>-26.3</v>
       </c>
       <c r="E11">
-        <v>-34.7</v>
+        <v>-16.6</v>
       </c>
       <c r="F11">
-        <v>36.1</v>
+        <v>133.5</v>
       </c>
       <c r="G11">
-        <v>-84.7</v>
+        <v>-43.3</v>
       </c>
       <c r="H11">
-        <v>0.36</v>
+        <v>-0.18</v>
       </c>
       <c r="I11">
-        <v>0.08</v>
+        <v>0.3</v>
       </c>
       <c r="J11">
-        <v>-0.34</v>
+        <v>-0.18</v>
       </c>
       <c r="K11">
-        <v>-1.28</v>
+        <v>-1.21</v>
       </c>
       <c r="L11">
         <v>6.7</v>
@@ -993,7 +993,7 @@
         <v>32.85</v>
       </c>
       <c r="N11">
-        <v>-4.25</v>
+        <v>8.550000000000001</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -1004,31 +1004,31 @@
         <v>24</v>
       </c>
       <c r="C12">
-        <v>-41.8</v>
+        <v>-36.4</v>
       </c>
       <c r="D12">
-        <v>-35.4</v>
+        <v>-25.7</v>
       </c>
       <c r="E12">
-        <v>-33.4</v>
+        <v>-16.6</v>
       </c>
       <c r="F12">
-        <v>37.7</v>
+        <v>131.6</v>
       </c>
       <c r="G12">
-        <v>-84.3</v>
+        <v>-45.1</v>
       </c>
       <c r="H12">
-        <v>0.36</v>
+        <v>-0.31</v>
       </c>
       <c r="I12">
-        <v>0.1</v>
+        <v>0.25</v>
       </c>
       <c r="J12">
-        <v>-0.25</v>
+        <v>-0.18</v>
       </c>
       <c r="K12">
-        <v>-1.19</v>
+        <v>-1.15</v>
       </c>
       <c r="L12">
         <v>6.7</v>
@@ -1037,7 +1037,7 @@
         <v>32.85</v>
       </c>
       <c r="N12">
-        <v>-4.25</v>
+        <v>8.550000000000001</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -1048,31 +1048,31 @@
         <v>25</v>
       </c>
       <c r="C13">
-        <v>-29.8</v>
+        <v>-22.8</v>
       </c>
       <c r="D13">
-        <v>-32.8</v>
+        <v>-19.4</v>
       </c>
       <c r="E13">
-        <v>-23.9</v>
+        <v>1.3</v>
       </c>
       <c r="F13">
-        <v>94.40000000000001</v>
+        <v>223.6</v>
       </c>
       <c r="G13">
-        <v>-48.7</v>
+        <v>21.5</v>
       </c>
       <c r="H13">
-        <v>0.4</v>
+        <v>4.05</v>
       </c>
       <c r="I13">
-        <v>-1.02</v>
+        <v>1.73</v>
       </c>
       <c r="J13">
-        <v>-1.26</v>
+        <v>0.33</v>
       </c>
       <c r="K13">
-        <v>-0.55</v>
+        <v>-0.03</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -1083,31 +1083,31 @@
         <v>26</v>
       </c>
       <c r="C14">
-        <v>-51.2</v>
+        <v>-45.9</v>
       </c>
       <c r="D14">
-        <v>-43.6</v>
+        <v>-33.3</v>
       </c>
       <c r="E14">
-        <v>-43.1</v>
+        <v>-24.9</v>
       </c>
       <c r="F14">
-        <v>24.3</v>
+        <v>110.8</v>
       </c>
       <c r="G14">
-        <v>-87.7</v>
+        <v>-43.9</v>
       </c>
       <c r="H14">
-        <v>0.72</v>
+        <v>0.06</v>
       </c>
       <c r="I14">
         <v>0.62</v>
       </c>
       <c r="J14">
-        <v>-0.1</v>
+        <v>0.06</v>
       </c>
       <c r="K14">
-        <v>-1.07</v>
+        <v>-1.04</v>
       </c>
       <c r="L14">
         <v>-28.17</v>
@@ -1116,7 +1116,7 @@
         <v>-9.43</v>
       </c>
       <c r="N14">
-        <v>-23.79</v>
+        <v>-6.37</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -1127,31 +1127,31 @@
         <v>21</v>
       </c>
       <c r="C15">
-        <v>-33.3</v>
+        <v>-20.5</v>
       </c>
       <c r="D15">
-        <v>-42.8</v>
+        <v>-19.8</v>
       </c>
       <c r="E15">
-        <v>-30.1</v>
+        <v>13.9</v>
       </c>
       <c r="F15">
-        <v>79.7</v>
+        <v>309.7</v>
       </c>
       <c r="G15">
-        <v>-57.5</v>
+        <v>65.2</v>
       </c>
       <c r="H15">
-        <v>0.34</v>
+        <v>3.01</v>
       </c>
       <c r="I15">
-        <v>-1.71</v>
+        <v>1.01</v>
       </c>
       <c r="J15">
-        <v>-1.82</v>
+        <v>-0.36</v>
       </c>
       <c r="K15">
-        <v>-1.3</v>
+        <v>-0.63</v>
       </c>
       <c r="L15">
         <v>-49.92</v>
@@ -1160,7 +1160,7 @@
         <v>-12.35</v>
       </c>
       <c r="N15">
-        <v>-12.79</v>
+        <v>24.18</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -1171,31 +1171,31 @@
         <v>27</v>
       </c>
       <c r="C16">
-        <v>-31.7</v>
+        <v>-17.2</v>
       </c>
       <c r="D16">
-        <v>-47.8</v>
+        <v>-21.9</v>
       </c>
       <c r="E16">
-        <v>-41.5</v>
+        <v>6.6</v>
       </c>
       <c r="F16">
-        <v>75.7</v>
+        <v>346.2</v>
       </c>
       <c r="G16">
-        <v>-63.4</v>
+        <v>67.2</v>
       </c>
       <c r="H16">
-        <v>0.22</v>
+        <v>3.64</v>
       </c>
       <c r="I16">
-        <v>-1.78</v>
+        <v>1.22</v>
       </c>
       <c r="J16">
-        <v>-1.72</v>
+        <v>-0.25</v>
       </c>
       <c r="K16">
-        <v>-1.17</v>
+        <v>-0.54</v>
       </c>
       <c r="L16">
         <v>-15.41</v>
@@ -1204,7 +1204,7 @@
         <v>11.43</v>
       </c>
       <c r="N16">
-        <v>9.029999999999999</v>
+        <v>33.67</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1215,31 +1215,31 @@
         <v>28</v>
       </c>
       <c r="C17">
-        <v>-61</v>
+        <v>-53.5</v>
       </c>
       <c r="D17">
-        <v>-69.5</v>
+        <v>-56.6</v>
       </c>
       <c r="E17">
-        <v>-78.90000000000001</v>
+        <v>-58.4</v>
       </c>
       <c r="F17">
-        <v>39.7</v>
+        <v>182</v>
       </c>
       <c r="G17">
-        <v>-87</v>
+        <v>-40.3</v>
       </c>
       <c r="H17">
         <v>-0.32</v>
       </c>
       <c r="I17">
-        <v>-1.13</v>
+        <v>-1.4</v>
       </c>
       <c r="J17">
         <v>-0.83</v>
       </c>
       <c r="K17">
-        <v>-0.9399999999999999</v>
+        <v>-0.85</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1250,31 +1250,31 @@
         <v>29</v>
       </c>
       <c r="C18">
-        <v>-48.5</v>
+        <v>-41.1</v>
       </c>
       <c r="D18">
-        <v>-52.4</v>
+        <v>-39.1</v>
       </c>
       <c r="E18">
-        <v>-63.2</v>
+        <v>-41.7</v>
       </c>
       <c r="F18">
-        <v>29.3</v>
+        <v>178.7</v>
       </c>
       <c r="G18">
-        <v>-89.8</v>
+        <v>-38.1</v>
       </c>
       <c r="H18">
-        <v>0.87</v>
+        <v>0.18</v>
       </c>
       <c r="I18">
-        <v>-0.15</v>
+        <v>0.21</v>
       </c>
       <c r="J18">
-        <v>-0.54</v>
+        <v>-0.06</v>
       </c>
       <c r="K18">
-        <v>-1.09</v>
+        <v>-0.72</v>
       </c>
       <c r="L18">
         <v>-10.93</v>
@@ -1283,7 +1283,7 @@
         <v>-6.44</v>
       </c>
       <c r="N18">
-        <v>-9.92</v>
+        <v>-1.3</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1294,31 +1294,31 @@
         <v>30</v>
       </c>
       <c r="C19">
-        <v>-22.3</v>
+        <v>-5.7</v>
       </c>
       <c r="D19">
-        <v>-18.1</v>
+        <v>10.6</v>
       </c>
       <c r="E19">
-        <v>-2.2</v>
+        <v>49.9</v>
       </c>
       <c r="F19">
-        <v>126.9</v>
+        <v>406</v>
       </c>
       <c r="G19">
-        <v>-42.6</v>
+        <v>83.8</v>
       </c>
       <c r="H19">
-        <v>0.59</v>
+        <v>2.66</v>
       </c>
       <c r="I19">
-        <v>-0.91</v>
+        <v>1.24</v>
       </c>
       <c r="J19">
-        <v>-1.49</v>
+        <v>-0.37</v>
       </c>
       <c r="K19">
-        <v>-0.92</v>
+        <v>-0.6</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1329,31 +1329,31 @@
         <v>31</v>
       </c>
       <c r="C20">
-        <v>-47.8</v>
+        <v>-36.4</v>
       </c>
       <c r="D20">
-        <v>-50.6</v>
+        <v>-29.6</v>
       </c>
       <c r="E20">
-        <v>-59</v>
+        <v>-24.4</v>
       </c>
       <c r="F20">
-        <v>41.8</v>
+        <v>265.9</v>
       </c>
       <c r="G20">
-        <v>-82.09999999999999</v>
+        <v>13.6</v>
       </c>
       <c r="H20">
-        <v>1.2</v>
+        <v>3.62</v>
       </c>
       <c r="I20">
-        <v>-0.24</v>
+        <v>1.48</v>
       </c>
       <c r="J20">
-        <v>-0.41</v>
+        <v>0.73</v>
       </c>
       <c r="K20">
-        <v>-0.8100000000000001</v>
+        <v>-0.1</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1364,31 +1364,31 @@
         <v>32</v>
       </c>
       <c r="C21">
-        <v>-31.1</v>
+        <v>-16.6</v>
       </c>
       <c r="D21">
-        <v>-48.4</v>
+        <v>-22.6</v>
       </c>
       <c r="E21">
-        <v>-41.2</v>
+        <v>7.8</v>
       </c>
       <c r="F21">
-        <v>68.8</v>
+        <v>331.6</v>
       </c>
       <c r="G21">
-        <v>-65.5</v>
+        <v>66.09999999999999</v>
       </c>
       <c r="H21">
-        <v>0.15</v>
+        <v>3.53</v>
       </c>
       <c r="I21">
-        <v>-2.11</v>
+        <v>1.06</v>
       </c>
       <c r="J21">
-        <v>-1.93</v>
+        <v>-0.46</v>
       </c>
       <c r="K21">
-        <v>-1.4</v>
+        <v>-0.72</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1399,31 +1399,31 @@
         <v>33</v>
       </c>
       <c r="C22">
-        <v>-26.9</v>
+        <v>-10.3</v>
       </c>
       <c r="D22">
-        <v>-21.4</v>
+        <v>8.4</v>
       </c>
       <c r="E22">
-        <v>-8.4</v>
+        <v>45.6</v>
       </c>
       <c r="F22">
-        <v>107.6</v>
+        <v>418.1</v>
       </c>
       <c r="G22">
-        <v>-57.3</v>
+        <v>66</v>
       </c>
       <c r="H22">
-        <v>0.93</v>
+        <v>2.02</v>
       </c>
       <c r="I22">
-        <v>-0.49</v>
+        <v>1.13</v>
       </c>
       <c r="J22">
-        <v>-1</v>
+        <v>-0.09</v>
       </c>
       <c r="K22">
-        <v>-1</v>
+        <v>-0.66</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1434,31 +1434,31 @@
         <v>34</v>
       </c>
       <c r="C23">
-        <v>-30.1</v>
+        <v>-15.2</v>
       </c>
       <c r="D23">
-        <v>-27.8</v>
+        <v>0</v>
       </c>
       <c r="E23">
-        <v>-14.9</v>
+        <v>36.8</v>
       </c>
       <c r="F23">
-        <v>112.5</v>
+        <v>362.8</v>
       </c>
       <c r="G23">
-        <v>-35.3</v>
+        <v>108.7</v>
       </c>
       <c r="H23">
-        <v>-0.77</v>
+        <v>4.15</v>
       </c>
       <c r="I23">
-        <v>-1.78</v>
+        <v>-0.22</v>
       </c>
       <c r="J23">
-        <v>-1.67</v>
+        <v>-0.85</v>
       </c>
       <c r="K23">
-        <v>-1.61</v>
+        <v>-1.23</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1469,31 +1469,31 @@
         <v>35</v>
       </c>
       <c r="C24">
-        <v>-37.2</v>
+        <v>-22.9</v>
       </c>
       <c r="D24">
-        <v>-32.2</v>
+        <v>-4.7</v>
       </c>
       <c r="E24">
-        <v>-19.7</v>
+        <v>31.1</v>
       </c>
       <c r="F24">
-        <v>123.2</v>
+        <v>378.4</v>
       </c>
       <c r="G24">
-        <v>-33</v>
+        <v>105.6</v>
       </c>
       <c r="H24">
+        <v>3.8</v>
+      </c>
+      <c r="I24">
+        <v>1.6</v>
+      </c>
+      <c r="J24">
         <v>0.73</v>
       </c>
-      <c r="I24">
-        <v>-0.9399999999999999</v>
-      </c>
-      <c r="J24">
-        <v>-0.86</v>
-      </c>
       <c r="K24">
-        <v>-0.83</v>
+        <v>-0.25</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1504,31 +1504,31 @@
         <v>36</v>
       </c>
       <c r="C25">
-        <v>-47.5</v>
+        <v>-37.7</v>
       </c>
       <c r="D25">
-        <v>-38.2</v>
+        <v>-19.6</v>
       </c>
       <c r="E25">
-        <v>-45.5</v>
+        <v>-11.4</v>
       </c>
       <c r="F25">
-        <v>26.8</v>
+        <v>192</v>
       </c>
       <c r="G25">
-        <v>-86</v>
+        <v>0.5</v>
       </c>
       <c r="H25">
-        <v>0.76</v>
+        <v>1.83</v>
       </c>
       <c r="I25">
-        <v>0.09</v>
+        <v>1.17</v>
       </c>
       <c r="J25">
-        <v>-0.13</v>
+        <v>0.72</v>
       </c>
       <c r="K25">
-        <v>-1.41</v>
+        <v>-0.73</v>
       </c>
     </row>
     <row r="26" spans="1:14">
@@ -1539,31 +1539,31 @@
         <v>37</v>
       </c>
       <c r="C26">
-        <v>-45.5</v>
+        <v>-33.2</v>
       </c>
       <c r="D26">
-        <v>-50.5</v>
+        <v>-28.9</v>
       </c>
       <c r="E26">
-        <v>-62.6</v>
+        <v>-26.6</v>
       </c>
       <c r="F26">
-        <v>54.5</v>
+        <v>233.4</v>
       </c>
       <c r="G26">
-        <v>-69.90000000000001</v>
+        <v>28.8</v>
       </c>
       <c r="H26">
-        <v>0.6</v>
+        <v>1.38</v>
       </c>
       <c r="I26">
-        <v>-0.47</v>
+        <v>0.48</v>
       </c>
       <c r="J26">
-        <v>-0.76</v>
+        <v>0.17</v>
       </c>
       <c r="K26">
-        <v>-2.42</v>
+        <v>-0.52</v>
       </c>
     </row>
     <row r="27" spans="1:14">
@@ -1574,31 +1574,31 @@
         <v>38</v>
       </c>
       <c r="C27">
-        <v>-59.1</v>
+        <v>-52.7</v>
       </c>
       <c r="D27">
-        <v>-62.3</v>
+        <v>-51.2</v>
       </c>
       <c r="E27">
-        <v>-67.3</v>
+        <v>-49.4</v>
       </c>
       <c r="F27">
-        <v>61</v>
+        <v>177.3</v>
       </c>
       <c r="G27">
-        <v>-79.09999999999999</v>
+        <v>-39.2</v>
       </c>
       <c r="H27">
-        <v>0.6</v>
+        <v>-0.44</v>
       </c>
       <c r="I27">
-        <v>-0.5</v>
+        <v>-0.36</v>
       </c>
       <c r="J27">
-        <v>-0.47</v>
+        <v>-0.36</v>
       </c>
       <c r="K27">
-        <v>-0.89</v>
+        <v>-0.82</v>
       </c>
     </row>
     <row r="28" spans="1:14">
@@ -1609,31 +1609,31 @@
         <v>39</v>
       </c>
       <c r="C28">
-        <v>-24.4</v>
+        <v>-4.3</v>
       </c>
       <c r="D28">
-        <v>-22.9</v>
+        <v>15.8</v>
       </c>
       <c r="E28">
-        <v>-5.2</v>
+        <v>64</v>
       </c>
       <c r="F28">
-        <v>148.6</v>
+        <v>498.5</v>
       </c>
       <c r="G28">
-        <v>-24.2</v>
+        <v>154.2</v>
       </c>
       <c r="H28">
-        <v>0.54</v>
+        <v>3.71</v>
       </c>
       <c r="I28">
-        <v>-0.9</v>
+        <v>1.39</v>
       </c>
       <c r="J28">
-        <v>-0.92</v>
+        <v>0.43</v>
       </c>
       <c r="K28">
-        <v>-0.8</v>
+        <v>-0.28</v>
       </c>
       <c r="L28">
         <v>-59.31</v>
@@ -1642,7 +1642,7 @@
         <v>-36.03</v>
       </c>
       <c r="N28">
-        <v>-41.75</v>
+        <v>50.24</v>
       </c>
     </row>
     <row r="29" spans="1:14">
@@ -1653,31 +1653,31 @@
         <v>40</v>
       </c>
       <c r="C29">
-        <v>-46.8</v>
+        <v>-38.8</v>
       </c>
       <c r="D29">
-        <v>-45.7</v>
+        <v>-31.2</v>
       </c>
       <c r="E29">
-        <v>-36.2</v>
+        <v>-9</v>
       </c>
       <c r="F29">
-        <v>47.6</v>
+        <v>178.5</v>
       </c>
       <c r="G29">
-        <v>-75.09999999999999</v>
+        <v>-6.6</v>
       </c>
       <c r="H29">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="I29">
-        <v>0.36</v>
+        <v>1.28</v>
       </c>
       <c r="J29">
-        <v>-0.12</v>
+        <v>0.41</v>
       </c>
       <c r="K29">
-        <v>-0.6</v>
+        <v>-0.23</v>
       </c>
       <c r="L29">
         <v>-57.47</v>
@@ -1686,7 +1686,7 @@
         <v>22.75</v>
       </c>
       <c r="N29">
-        <v>-8.6</v>
+        <v>79.95999999999999</v>
       </c>
     </row>
     <row r="30" spans="1:14">
@@ -1697,31 +1697,31 @@
         <v>41</v>
       </c>
       <c r="C30">
-        <v>-25.4</v>
+        <v>-8.4</v>
       </c>
       <c r="D30">
-        <v>-40</v>
+        <v>-10.1</v>
       </c>
       <c r="E30">
-        <v>-29.7</v>
+        <v>25.1</v>
       </c>
       <c r="F30">
-        <v>101.3</v>
+        <v>410.2</v>
       </c>
       <c r="G30">
-        <v>-51.6</v>
+        <v>96</v>
       </c>
       <c r="H30">
-        <v>0.32</v>
+        <v>3.66</v>
       </c>
       <c r="I30">
-        <v>-1.47</v>
+        <v>1.29</v>
       </c>
       <c r="J30">
-        <v>-1.49</v>
+        <v>-0.07000000000000001</v>
       </c>
       <c r="K30">
-        <v>-1.01</v>
+        <v>-0.44</v>
       </c>
       <c r="L30">
         <v>-59.31</v>
@@ -1730,7 +1730,7 @@
         <v>-36.03</v>
       </c>
       <c r="N30">
-        <v>-41.75</v>
+        <v>50.24</v>
       </c>
     </row>
     <row r="31" spans="1:14">
@@ -1741,31 +1741,31 @@
         <v>42</v>
       </c>
       <c r="C31">
-        <v>-26.8</v>
+        <v>-10.7</v>
       </c>
       <c r="D31">
-        <v>-28.1</v>
+        <v>2.4</v>
       </c>
       <c r="E31">
-        <v>-16.2</v>
+        <v>38.3</v>
       </c>
       <c r="F31">
-        <v>139.4</v>
+        <v>437.4</v>
       </c>
       <c r="G31">
-        <v>-34.6</v>
+        <v>105.3</v>
       </c>
       <c r="H31">
-        <v>0.49</v>
+        <v>3.89</v>
       </c>
       <c r="I31">
-        <v>-1.01</v>
+        <v>1.58</v>
       </c>
       <c r="J31">
-        <v>-1.14</v>
+        <v>0.35</v>
       </c>
       <c r="K31">
-        <v>-0.67</v>
+        <v>-0.17</v>
       </c>
     </row>
     <row r="32" spans="1:14">
@@ -1776,31 +1776,31 @@
         <v>43</v>
       </c>
       <c r="C32">
-        <v>-24.1</v>
+        <v>-4.4</v>
       </c>
       <c r="D32">
-        <v>-23.1</v>
+        <v>15</v>
       </c>
       <c r="E32">
-        <v>-5.7</v>
+        <v>61.8</v>
       </c>
       <c r="F32">
-        <v>153.3</v>
+        <v>500.2</v>
       </c>
       <c r="G32">
-        <v>-23.6</v>
+        <v>149.4</v>
       </c>
       <c r="H32">
-        <v>0.57</v>
+        <v>3.73</v>
       </c>
       <c r="I32">
-        <v>-0.9</v>
+        <v>1.42</v>
       </c>
       <c r="J32">
-        <v>-0.92</v>
+        <v>0.47</v>
       </c>
       <c r="K32">
-        <v>-0.79</v>
+        <v>-0.27</v>
       </c>
       <c r="L32">
         <v>-59.31</v>
@@ -1809,7 +1809,7 @@
         <v>-36.03</v>
       </c>
       <c r="N32">
-        <v>-41.75</v>
+        <v>50.24</v>
       </c>
     </row>
     <row r="33" spans="1:14">
@@ -1820,31 +1820,31 @@
         <v>44</v>
       </c>
       <c r="C33">
-        <v>-36.3</v>
+        <v>-21.2</v>
       </c>
       <c r="D33">
-        <v>-37.2</v>
+        <v>-9</v>
       </c>
       <c r="E33">
-        <v>-23.6</v>
+        <v>28.8</v>
       </c>
       <c r="F33">
-        <v>122.6</v>
+        <v>372.9</v>
       </c>
       <c r="G33">
-        <v>-25.2</v>
+        <v>127.6</v>
       </c>
       <c r="H33">
-        <v>-1.06</v>
+        <v>4.34</v>
       </c>
       <c r="I33">
-        <v>-1.98</v>
+        <v>-0.49</v>
       </c>
       <c r="J33">
-        <v>-1.81</v>
+        <v>-1.04</v>
       </c>
       <c r="K33">
-        <v>-1.75</v>
+        <v>-1.38</v>
       </c>
     </row>
     <row r="34" spans="1:14">
@@ -1855,31 +1855,31 @@
         <v>45</v>
       </c>
       <c r="C34">
-        <v>-50.4</v>
+        <v>-44.8</v>
       </c>
       <c r="D34">
-        <v>-42.5</v>
+        <v>-31.5</v>
       </c>
       <c r="E34">
-        <v>-41.6</v>
+        <v>-22.4</v>
       </c>
       <c r="F34">
-        <v>27.9</v>
+        <v>117.1</v>
       </c>
       <c r="G34">
-        <v>-86</v>
+        <v>-41.1</v>
       </c>
       <c r="H34">
-        <v>0.68</v>
+        <v>0.06</v>
       </c>
       <c r="I34">
-        <v>0.57</v>
+        <v>0.59</v>
       </c>
       <c r="J34">
-        <v>-0.15</v>
+        <v>0.03</v>
       </c>
       <c r="K34">
-        <v>-1.09</v>
+        <v>-1.07</v>
       </c>
       <c r="L34">
         <v>-28.17</v>
@@ -1888,7 +1888,7 @@
         <v>-9.43</v>
       </c>
       <c r="N34">
-        <v>-23.79</v>
+        <v>-6.37</v>
       </c>
     </row>
     <row r="35" spans="1:14">
@@ -1899,31 +1899,31 @@
         <v>46</v>
       </c>
       <c r="C35">
-        <v>-62.2</v>
+        <v>-56.4</v>
       </c>
       <c r="D35">
-        <v>-66.09999999999999</v>
+        <v>-56.1</v>
       </c>
       <c r="E35">
-        <v>-72.90000000000001</v>
+        <v>-57</v>
       </c>
       <c r="F35">
-        <v>47.9</v>
+        <v>160.8</v>
       </c>
       <c r="G35">
-        <v>-85.09999999999999</v>
+        <v>-50</v>
       </c>
       <c r="H35">
-        <v>0.17</v>
+        <v>-0.71</v>
       </c>
       <c r="I35">
-        <v>-0.79</v>
+        <v>-0.9</v>
       </c>
       <c r="J35">
-        <v>-0.62</v>
+        <v>-0.59</v>
       </c>
       <c r="K35">
-        <v>-0.85</v>
+        <v>-0.8100000000000001</v>
       </c>
     </row>
     <row r="36" spans="1:14">
@@ -1934,31 +1934,31 @@
         <v>47</v>
       </c>
       <c r="C36">
-        <v>-55.2</v>
+        <v>-50.2</v>
       </c>
       <c r="D36">
-        <v>-52.3</v>
+        <v>-43.4</v>
       </c>
       <c r="E36">
-        <v>-49.3</v>
+        <v>-34</v>
       </c>
       <c r="F36">
-        <v>48.1</v>
+        <v>149.8</v>
       </c>
       <c r="G36">
-        <v>-82.59999999999999</v>
+        <v>-45.8</v>
       </c>
       <c r="H36">
-        <v>0.84</v>
+        <v>0.02</v>
       </c>
       <c r="I36">
-        <v>0.79</v>
+        <v>0.68</v>
       </c>
       <c r="J36">
-        <v>0.03</v>
+        <v>0.13</v>
       </c>
       <c r="K36">
-        <v>-0.9399999999999999</v>
+        <v>-0.95</v>
       </c>
       <c r="L36">
         <v>-66.40000000000001</v>
@@ -1967,7 +1967,7 @@
         <v>-25.42</v>
       </c>
       <c r="N36">
-        <v>-67.52</v>
+        <v>-47.79</v>
       </c>
     </row>
     <row r="37" spans="1:14">
@@ -1978,31 +1978,31 @@
         <v>48</v>
       </c>
       <c r="C37">
-        <v>-25.8</v>
+        <v>-7.4</v>
       </c>
       <c r="D37">
-        <v>-32.8</v>
+        <v>1.4</v>
       </c>
       <c r="E37">
-        <v>-21.3</v>
+        <v>39.5</v>
       </c>
       <c r="F37">
-        <v>108.5</v>
+        <v>438.4</v>
       </c>
       <c r="G37">
-        <v>-47.9</v>
+        <v>110.6</v>
       </c>
       <c r="H37">
-        <v>0.43</v>
+        <v>3.69</v>
       </c>
       <c r="I37">
-        <v>-1.01</v>
+        <v>1.32</v>
       </c>
       <c r="J37">
-        <v>-1.09</v>
+        <v>0.21</v>
       </c>
       <c r="K37">
-        <v>-0.8</v>
+        <v>-0.32</v>
       </c>
       <c r="L37">
         <v>-59.31</v>
@@ -2011,7 +2011,7 @@
         <v>-36.03</v>
       </c>
       <c r="N37">
-        <v>-41.75</v>
+        <v>50.24</v>
       </c>
     </row>
     <row r="38" spans="1:14">
@@ -2022,31 +2022,31 @@
         <v>49</v>
       </c>
       <c r="C38">
-        <v>-38.5</v>
+        <v>-32</v>
       </c>
       <c r="D38">
-        <v>-30.6</v>
+        <v>-18.3</v>
       </c>
       <c r="E38">
-        <v>-32.8</v>
+        <v>-10.2</v>
       </c>
       <c r="F38">
-        <v>48.2</v>
+        <v>142.2</v>
       </c>
       <c r="G38">
-        <v>-75.8</v>
+        <v>-28.6</v>
       </c>
       <c r="H38">
-        <v>0.54</v>
+        <v>0.19</v>
       </c>
       <c r="I38">
-        <v>0.47</v>
+        <v>0.78</v>
       </c>
       <c r="J38">
-        <v>-0.23</v>
+        <v>0.12</v>
       </c>
       <c r="K38">
-        <v>-1.64</v>
+        <v>-1.44</v>
       </c>
       <c r="L38">
         <v>-23.19</v>
@@ -2055,7 +2055,7 @@
         <v>5.78</v>
       </c>
       <c r="N38">
-        <v>-42.11</v>
+        <v>-24.85</v>
       </c>
     </row>
     <row r="39" spans="1:14">
@@ -2066,31 +2066,31 @@
         <v>50</v>
       </c>
       <c r="C39">
-        <v>-23.5</v>
+        <v>-6.7</v>
       </c>
       <c r="D39">
-        <v>-39.8</v>
+        <v>-10.4</v>
       </c>
       <c r="E39">
-        <v>-29.8</v>
+        <v>24.7</v>
       </c>
       <c r="F39">
-        <v>97.40000000000001</v>
+        <v>399.6</v>
       </c>
       <c r="G39">
-        <v>-53.3</v>
+        <v>91.5</v>
       </c>
       <c r="H39">
-        <v>0.29</v>
+        <v>3.62</v>
       </c>
       <c r="I39">
-        <v>-1.56</v>
+        <v>1.24</v>
       </c>
       <c r="J39">
-        <v>-1.56</v>
+        <v>-0.15</v>
       </c>
       <c r="K39">
-        <v>-1.07</v>
+        <v>-0.49</v>
       </c>
       <c r="L39">
         <v>-59.31</v>
@@ -2099,7 +2099,7 @@
         <v>-36.03</v>
       </c>
       <c r="N39">
-        <v>-41.75</v>
+        <v>50.24</v>
       </c>
     </row>
     <row r="40" spans="1:14">
@@ -2110,31 +2110,31 @@
         <v>51</v>
       </c>
       <c r="C40">
-        <v>-25.1</v>
+        <v>-6.2</v>
       </c>
       <c r="D40">
-        <v>-26.9</v>
+        <v>9</v>
       </c>
       <c r="E40">
-        <v>-12.3</v>
+        <v>51.3</v>
       </c>
       <c r="F40">
-        <v>134.4</v>
+        <v>475.7</v>
       </c>
       <c r="G40">
-        <v>-35.9</v>
+        <v>127</v>
       </c>
       <c r="H40">
-        <v>0.49</v>
+        <v>3.74</v>
       </c>
       <c r="I40">
-        <v>-0.96</v>
+        <v>1.39</v>
       </c>
       <c r="J40">
-        <v>-1.03</v>
+        <v>0.31</v>
       </c>
       <c r="K40">
-        <v>-0.77</v>
+        <v>-0.28</v>
       </c>
       <c r="L40">
         <v>-59.31</v>
@@ -2143,7 +2143,7 @@
         <v>-36.03</v>
       </c>
       <c r="N40">
-        <v>-41.75</v>
+        <v>50.24</v>
       </c>
     </row>
     <row r="41" spans="1:14">
@@ -2154,31 +2154,31 @@
         <v>52</v>
       </c>
       <c r="C41">
-        <v>-48</v>
+        <v>-41.9</v>
       </c>
       <c r="D41">
-        <v>-42.9</v>
+        <v>-31.5</v>
       </c>
       <c r="E41">
-        <v>-42.1</v>
+        <v>-22.7</v>
       </c>
       <c r="F41">
-        <v>47.4</v>
+        <v>153.5</v>
       </c>
       <c r="G41">
-        <v>-80.59999999999999</v>
+        <v>-37.1</v>
       </c>
       <c r="H41">
-        <v>0.26</v>
+        <v>0.21</v>
       </c>
       <c r="I41">
-        <v>-0.18</v>
+        <v>0.29</v>
       </c>
       <c r="J41">
-        <v>-0.74</v>
+        <v>-0.3</v>
       </c>
       <c r="K41">
-        <v>-1.53</v>
+        <v>-1.35</v>
       </c>
       <c r="L41">
         <v>-28.17</v>
@@ -2187,7 +2187,7 @@
         <v>-9.43</v>
       </c>
       <c r="N41">
-        <v>-23.79</v>
+        <v>-6.37</v>
       </c>
     </row>
     <row r="42" spans="1:14">
@@ -2198,31 +2198,31 @@
         <v>53</v>
       </c>
       <c r="C42">
-        <v>-30.2</v>
+        <v>-15.4</v>
       </c>
       <c r="D42">
-        <v>-28.1</v>
+        <v>-0.7</v>
       </c>
       <c r="E42">
-        <v>-0.2</v>
+        <v>56.8</v>
       </c>
       <c r="F42">
-        <v>107.9</v>
+        <v>355.7</v>
       </c>
       <c r="G42">
-        <v>-26.9</v>
+        <v>140.9</v>
       </c>
       <c r="H42">
-        <v>0.73</v>
+        <v>2.08</v>
       </c>
       <c r="I42">
+        <v>0.74</v>
+      </c>
+      <c r="J42">
+        <v>-0.41</v>
+      </c>
+      <c r="K42">
         <v>-1.29</v>
-      </c>
-      <c r="J42">
-        <v>-1.59</v>
-      </c>
-      <c r="K42">
-        <v>-2.08</v>
       </c>
       <c r="L42">
         <v>-15.28</v>
@@ -2231,7 +2231,7 @@
         <v>10.62</v>
       </c>
       <c r="N42">
-        <v>2.74</v>
+        <v>13.53</v>
       </c>
     </row>
   </sheetData>

--- a/Sistema-Operacional/Saidas/Monitoramento - Mananciais Críticos.xlsx
+++ b/Sistema-Operacional/Saidas/Monitoramento - Mananciais Críticos.xlsx
@@ -19,19 +19,19 @@
     <t>MUNICIPIO</t>
   </si>
   <si>
-    <t>AN_ANUAL_202101</t>
-  </si>
-  <si>
-    <t>AN_SEM_202101</t>
-  </si>
-  <si>
-    <t>AN_TRI_202101</t>
-  </si>
-  <si>
-    <t>AC_202101</t>
-  </si>
-  <si>
-    <t>AN_202101</t>
+    <t>AN_ANUAL_202102</t>
+  </si>
+  <si>
+    <t>AN_SEM_202102</t>
+  </si>
+  <si>
+    <t>AN_TRI_202102</t>
+  </si>
+  <si>
+    <t>AC_20210215</t>
+  </si>
+  <si>
+    <t>AN_20210215</t>
   </si>
   <si>
     <t>SPI1_202101</t>
@@ -46,13 +46,13 @@
     <t>SPI12_202101</t>
   </si>
   <si>
-    <t>AN_COTA_202011</t>
-  </si>
-  <si>
     <t>AN_COTA_202012</t>
   </si>
   <si>
-    <t>AN_COTA_20210131</t>
+    <t>AN_COTA_202101</t>
+  </si>
+  <si>
+    <t>AN_COTA_20210215</t>
   </si>
   <si>
     <t>SIA</t>
@@ -591,19 +591,19 @@
         <v>14</v>
       </c>
       <c r="C2">
-        <v>-27.3</v>
+        <v>-28.1</v>
       </c>
       <c r="D2">
-        <v>-24.2</v>
+        <v>-38.3</v>
       </c>
       <c r="E2">
-        <v>-27.1</v>
+        <v>-19.8</v>
       </c>
       <c r="F2">
-        <v>158.1</v>
+        <v>58.5</v>
       </c>
       <c r="G2">
-        <v>-24.4</v>
+        <v>-68.5</v>
       </c>
       <c r="H2">
         <v>0.18</v>
@@ -618,13 +618,13 @@
         <v>-0.72</v>
       </c>
       <c r="L2">
-        <v>-10.93</v>
+        <v>-6.42</v>
       </c>
       <c r="M2">
-        <v>-6.44</v>
+        <v>-1.04</v>
       </c>
       <c r="N2">
-        <v>-1.3</v>
+        <v>-2.53</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -635,19 +635,19 @@
         <v>15</v>
       </c>
       <c r="C3">
-        <v>-28</v>
+        <v>-24.2</v>
       </c>
       <c r="D3">
-        <v>-2.6</v>
+        <v>-19.4</v>
       </c>
       <c r="E3">
-        <v>7.5</v>
+        <v>0.5</v>
       </c>
       <c r="F3">
-        <v>177.3</v>
+        <v>34.7</v>
       </c>
       <c r="G3">
-        <v>15.7</v>
+        <v>-75.09999999999999</v>
       </c>
       <c r="H3">
         <v>1.15</v>
@@ -662,13 +662,13 @@
         <v>-0.83</v>
       </c>
       <c r="L3">
-        <v>-21.06</v>
+        <v>17.14</v>
       </c>
       <c r="M3">
-        <v>17.25</v>
+        <v>-14.36</v>
       </c>
       <c r="N3">
-        <v>-14.5</v>
+        <v>-23.18</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -679,19 +679,19 @@
         <v>16</v>
       </c>
       <c r="C4">
-        <v>-32.9</v>
+        <v>-34.4</v>
       </c>
       <c r="D4">
-        <v>-28.4</v>
+        <v>-40.1</v>
       </c>
       <c r="E4">
-        <v>-17.2</v>
+        <v>-14.8</v>
       </c>
       <c r="F4">
-        <v>277.8</v>
+        <v>49.3</v>
       </c>
       <c r="G4">
-        <v>28.8</v>
+        <v>-75</v>
       </c>
       <c r="H4">
         <v>1.33</v>
@@ -714,19 +714,19 @@
         <v>17</v>
       </c>
       <c r="C5">
-        <v>5.2</v>
+        <v>5.1</v>
       </c>
       <c r="D5">
-        <v>23.7</v>
+        <v>7.6</v>
       </c>
       <c r="E5">
-        <v>68.40000000000001</v>
+        <v>72.7</v>
       </c>
       <c r="F5">
-        <v>437.6</v>
+        <v>31.2</v>
       </c>
       <c r="G5">
-        <v>208.1</v>
+        <v>-77.3</v>
       </c>
       <c r="H5">
         <v>3.5</v>
@@ -741,13 +741,13 @@
         <v>-0.34</v>
       </c>
       <c r="L5">
-        <v>-59.31</v>
+        <v>-36.17</v>
       </c>
       <c r="M5">
-        <v>-36.03</v>
+        <v>52.5</v>
       </c>
       <c r="N5">
-        <v>50.24</v>
+        <v>60.22</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -758,19 +758,19 @@
         <v>18</v>
       </c>
       <c r="C6">
-        <v>-15</v>
+        <v>-19.3</v>
       </c>
       <c r="D6">
-        <v>-4.6</v>
+        <v>-16.2</v>
       </c>
       <c r="E6">
-        <v>60.5</v>
+        <v>56.9</v>
       </c>
       <c r="F6">
-        <v>355.7</v>
+        <v>17.1</v>
       </c>
       <c r="G6">
-        <v>134.2</v>
+        <v>-87.5</v>
       </c>
       <c r="H6">
         <v>2.08</v>
@@ -785,13 +785,13 @@
         <v>-1.29</v>
       </c>
       <c r="L6">
-        <v>-15.28</v>
+        <v>10.65</v>
       </c>
       <c r="M6">
-        <v>10.62</v>
+        <v>13.68</v>
       </c>
       <c r="N6">
-        <v>13.53</v>
+        <v>25.08</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -802,19 +802,19 @@
         <v>19</v>
       </c>
       <c r="C7">
-        <v>-3.4</v>
+        <v>-2.8</v>
       </c>
       <c r="D7">
-        <v>17.3</v>
+        <v>8.9</v>
       </c>
       <c r="E7">
-        <v>64.3</v>
+        <v>68.5</v>
       </c>
       <c r="F7">
-        <v>394.1</v>
+        <v>46.1</v>
       </c>
       <c r="G7">
-        <v>125.7</v>
+        <v>-68.09999999999999</v>
       </c>
       <c r="H7">
         <v>3.12</v>
@@ -837,19 +837,19 @@
         <v>20</v>
       </c>
       <c r="C8">
-        <v>-37.5</v>
+        <v>-35.5</v>
       </c>
       <c r="D8">
-        <v>-26</v>
+        <v>-34.3</v>
       </c>
       <c r="E8">
-        <v>-17.3</v>
+        <v>-21.5</v>
       </c>
       <c r="F8">
-        <v>132.1</v>
+        <v>67.09999999999999</v>
       </c>
       <c r="G8">
-        <v>-36.2</v>
+        <v>-50.9</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -864,13 +864,13 @@
         <v>-0.36</v>
       </c>
       <c r="L8">
-        <v>12.38</v>
+        <v>19.64</v>
       </c>
       <c r="M8">
-        <v>19.54</v>
+        <v>27.99</v>
       </c>
       <c r="N8">
-        <v>27.65</v>
+        <v>32.94</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -881,19 +881,19 @@
         <v>21</v>
       </c>
       <c r="C9">
-        <v>-18.5</v>
+        <v>-21.3</v>
       </c>
       <c r="D9">
-        <v>-6.9</v>
+        <v>-20.9</v>
       </c>
       <c r="E9">
-        <v>23.1</v>
+        <v>20.3</v>
       </c>
       <c r="F9">
-        <v>291.9</v>
+        <v>13.8</v>
       </c>
       <c r="G9">
-        <v>71.8</v>
+        <v>-90.59999999999999</v>
       </c>
       <c r="H9">
         <v>4</v>
@@ -916,19 +916,19 @@
         <v>22</v>
       </c>
       <c r="C10">
-        <v>-37.8</v>
+        <v>-38.4</v>
       </c>
       <c r="D10">
-        <v>-18.8</v>
+        <v>-29.8</v>
       </c>
       <c r="E10">
-        <v>-3.3</v>
+        <v>-21.3</v>
       </c>
       <c r="F10">
-        <v>124</v>
+        <v>48.2</v>
       </c>
       <c r="G10">
-        <v>-32.5</v>
+        <v>-68.3</v>
       </c>
       <c r="H10">
         <v>0.25</v>
@@ -943,13 +943,13 @@
         <v>-1.45</v>
       </c>
       <c r="L10">
-        <v>-23.19</v>
+        <v>5.78</v>
       </c>
       <c r="M10">
-        <v>5.78</v>
+        <v>-24.85</v>
       </c>
       <c r="N10">
-        <v>-24.85</v>
+        <v>-33.05</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -960,19 +960,19 @@
         <v>23</v>
       </c>
       <c r="C11">
-        <v>-36.8</v>
+        <v>-38</v>
       </c>
       <c r="D11">
-        <v>-26.3</v>
+        <v>-33.9</v>
       </c>
       <c r="E11">
-        <v>-16.6</v>
+        <v>-30.9</v>
       </c>
       <c r="F11">
-        <v>133.5</v>
+        <v>60.7</v>
       </c>
       <c r="G11">
-        <v>-43.3</v>
+        <v>-67.2</v>
       </c>
       <c r="H11">
         <v>-0.18</v>
@@ -987,13 +987,13 @@
         <v>-1.21</v>
       </c>
       <c r="L11">
-        <v>6.7</v>
+        <v>32.78</v>
       </c>
       <c r="M11">
-        <v>32.85</v>
+        <v>8.58</v>
       </c>
       <c r="N11">
-        <v>8.550000000000001</v>
+        <v>2.61</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -1004,19 +1004,19 @@
         <v>24</v>
       </c>
       <c r="C12">
-        <v>-36.4</v>
+        <v>-38.2</v>
       </c>
       <c r="D12">
-        <v>-25.7</v>
+        <v>-33.7</v>
       </c>
       <c r="E12">
-        <v>-16.6</v>
+        <v>-31.1</v>
       </c>
       <c r="F12">
-        <v>131.6</v>
+        <v>59.1</v>
       </c>
       <c r="G12">
-        <v>-45.1</v>
+        <v>-69.09999999999999</v>
       </c>
       <c r="H12">
         <v>-0.31</v>
@@ -1031,13 +1031,13 @@
         <v>-1.15</v>
       </c>
       <c r="L12">
-        <v>6.7</v>
+        <v>32.78</v>
       </c>
       <c r="M12">
-        <v>32.85</v>
+        <v>8.58</v>
       </c>
       <c r="N12">
-        <v>8.550000000000001</v>
+        <v>2.61</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -1048,19 +1048,19 @@
         <v>25</v>
       </c>
       <c r="C13">
-        <v>-22.8</v>
+        <v>-27.6</v>
       </c>
       <c r="D13">
-        <v>-19.4</v>
+        <v>-32.1</v>
       </c>
       <c r="E13">
-        <v>1.3</v>
+        <v>-2.3</v>
       </c>
       <c r="F13">
-        <v>223.6</v>
+        <v>9.1</v>
       </c>
       <c r="G13">
-        <v>21.5</v>
+        <v>-93.5</v>
       </c>
       <c r="H13">
         <v>4.05</v>
@@ -1083,19 +1083,19 @@
         <v>26</v>
       </c>
       <c r="C14">
-        <v>-45.9</v>
+        <v>-45.3</v>
       </c>
       <c r="D14">
-        <v>-33.3</v>
+        <v>-41</v>
       </c>
       <c r="E14">
-        <v>-24.9</v>
+        <v>-31.9</v>
       </c>
       <c r="F14">
-        <v>110.8</v>
+        <v>55.2</v>
       </c>
       <c r="G14">
-        <v>-43.9</v>
+        <v>-70</v>
       </c>
       <c r="H14">
         <v>0.06</v>
@@ -1110,13 +1110,13 @@
         <v>-1.04</v>
       </c>
       <c r="L14">
-        <v>-28.17</v>
+        <v>-9.43</v>
       </c>
       <c r="M14">
-        <v>-9.43</v>
+        <v>-6.37</v>
       </c>
       <c r="N14">
-        <v>-6.37</v>
+        <v>0.52</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -1127,19 +1127,19 @@
         <v>21</v>
       </c>
       <c r="C15">
-        <v>-20.5</v>
+        <v>-22.9</v>
       </c>
       <c r="D15">
-        <v>-19.8</v>
+        <v>-27.3</v>
       </c>
       <c r="E15">
-        <v>13.9</v>
+        <v>11.6</v>
       </c>
       <c r="F15">
-        <v>309.7</v>
+        <v>27.4</v>
       </c>
       <c r="G15">
-        <v>65.2</v>
+        <v>-82.59999999999999</v>
       </c>
       <c r="H15">
         <v>3.01</v>
@@ -1154,13 +1154,13 @@
         <v>-0.63</v>
       </c>
       <c r="L15">
-        <v>-49.92</v>
+        <v>-12.26</v>
       </c>
       <c r="M15">
-        <v>-12.35</v>
+        <v>24.96</v>
       </c>
       <c r="N15">
-        <v>24.18</v>
+        <v>75.22</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -1171,19 +1171,19 @@
         <v>27</v>
       </c>
       <c r="C16">
-        <v>-17.2</v>
+        <v>-20</v>
       </c>
       <c r="D16">
-        <v>-21.9</v>
+        <v>-31.4</v>
       </c>
       <c r="E16">
-        <v>6.6</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="F16">
-        <v>346.2</v>
+        <v>28.1</v>
       </c>
       <c r="G16">
-        <v>67.2</v>
+        <v>-81.8</v>
       </c>
       <c r="H16">
         <v>3.64</v>
@@ -1198,12 +1198,9 @@
         <v>-0.54</v>
       </c>
       <c r="L16">
-        <v>-15.41</v>
+        <v>11.43</v>
       </c>
       <c r="M16">
-        <v>11.43</v>
-      </c>
-      <c r="N16">
         <v>33.67</v>
       </c>
     </row>
@@ -1215,19 +1212,19 @@
         <v>28</v>
       </c>
       <c r="C17">
-        <v>-53.5</v>
+        <v>-51.5</v>
       </c>
       <c r="D17">
-        <v>-56.6</v>
+        <v>-59.1</v>
       </c>
       <c r="E17">
-        <v>-58.4</v>
+        <v>-44.5</v>
       </c>
       <c r="F17">
-        <v>182</v>
+        <v>45</v>
       </c>
       <c r="G17">
-        <v>-40.3</v>
+        <v>-77</v>
       </c>
       <c r="H17">
         <v>-0.32</v>
@@ -1250,19 +1247,19 @@
         <v>29</v>
       </c>
       <c r="C18">
-        <v>-41.1</v>
+        <v>-42.2</v>
       </c>
       <c r="D18">
-        <v>-39.1</v>
+        <v>-51.6</v>
       </c>
       <c r="E18">
-        <v>-41.7</v>
+        <v>-39.4</v>
       </c>
       <c r="F18">
-        <v>178.7</v>
+        <v>43.7</v>
       </c>
       <c r="G18">
-        <v>-38.1</v>
+        <v>-81.5</v>
       </c>
       <c r="H18">
         <v>0.18</v>
@@ -1277,13 +1274,13 @@
         <v>-0.72</v>
       </c>
       <c r="L18">
-        <v>-10.93</v>
+        <v>-6.42</v>
       </c>
       <c r="M18">
-        <v>-6.44</v>
+        <v>-1.04</v>
       </c>
       <c r="N18">
-        <v>-1.3</v>
+        <v>-2.53</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1297,16 +1294,16 @@
         <v>-5.7</v>
       </c>
       <c r="D19">
-        <v>10.6</v>
+        <v>-2.5</v>
       </c>
       <c r="E19">
-        <v>49.9</v>
+        <v>40.5</v>
       </c>
       <c r="F19">
-        <v>406</v>
+        <v>18.5</v>
       </c>
       <c r="G19">
-        <v>83.8</v>
+        <v>-88.90000000000001</v>
       </c>
       <c r="H19">
         <v>2.66</v>
@@ -1329,19 +1326,19 @@
         <v>31</v>
       </c>
       <c r="C20">
-        <v>-36.4</v>
+        <v>-36</v>
       </c>
       <c r="D20">
-        <v>-29.6</v>
+        <v>-43.8</v>
       </c>
       <c r="E20">
-        <v>-24.4</v>
+        <v>-17.4</v>
       </c>
       <c r="F20">
-        <v>265.9</v>
+        <v>45.2</v>
       </c>
       <c r="G20">
-        <v>13.6</v>
+        <v>-77</v>
       </c>
       <c r="H20">
         <v>3.62</v>
@@ -1364,19 +1361,19 @@
         <v>32</v>
       </c>
       <c r="C21">
-        <v>-16.6</v>
+        <v>-19</v>
       </c>
       <c r="D21">
-        <v>-22.6</v>
+        <v>-31.1</v>
       </c>
       <c r="E21">
-        <v>7.8</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="F21">
-        <v>331.6</v>
+        <v>22</v>
       </c>
       <c r="G21">
-        <v>66.09999999999999</v>
+        <v>-85.3</v>
       </c>
       <c r="H21">
         <v>3.53</v>
@@ -1389,6 +1386,15 @@
       </c>
       <c r="K21">
         <v>-0.72</v>
+      </c>
+      <c r="L21">
+        <v>-5018.9</v>
+      </c>
+      <c r="M21">
+        <v>-5217.74</v>
+      </c>
+      <c r="N21">
+        <v>-5115.58</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1399,19 +1405,19 @@
         <v>33</v>
       </c>
       <c r="C22">
-        <v>-10.3</v>
+        <v>-6.7</v>
       </c>
       <c r="D22">
-        <v>8.4</v>
+        <v>-5</v>
       </c>
       <c r="E22">
-        <v>45.6</v>
+        <v>44.4</v>
       </c>
       <c r="F22">
-        <v>418.1</v>
+        <v>72.7</v>
       </c>
       <c r="G22">
-        <v>66</v>
+        <v>-62.1</v>
       </c>
       <c r="H22">
         <v>2.02</v>
@@ -1434,19 +1440,19 @@
         <v>34</v>
       </c>
       <c r="C23">
-        <v>-15.2</v>
+        <v>-14.1</v>
       </c>
       <c r="D23">
-        <v>0</v>
+        <v>-7.2</v>
       </c>
       <c r="E23">
-        <v>36.8</v>
+        <v>56.1</v>
       </c>
       <c r="F23">
-        <v>362.8</v>
+        <v>58.7</v>
       </c>
       <c r="G23">
-        <v>108.7</v>
+        <v>-59</v>
       </c>
       <c r="H23">
         <v>4.15</v>
@@ -1469,19 +1475,19 @@
         <v>35</v>
       </c>
       <c r="C24">
-        <v>-22.9</v>
+        <v>-24.1</v>
       </c>
       <c r="D24">
-        <v>-4.7</v>
+        <v>-22.3</v>
       </c>
       <c r="E24">
-        <v>31.1</v>
+        <v>22.7</v>
       </c>
       <c r="F24">
-        <v>378.4</v>
+        <v>19.8</v>
       </c>
       <c r="G24">
-        <v>105.6</v>
+        <v>-88.59999999999999</v>
       </c>
       <c r="H24">
         <v>3.8</v>
@@ -1504,19 +1510,19 @@
         <v>36</v>
       </c>
       <c r="C25">
-        <v>-37.7</v>
+        <v>-36.3</v>
       </c>
       <c r="D25">
-        <v>-19.6</v>
+        <v>-27.9</v>
       </c>
       <c r="E25">
-        <v>-11.4</v>
+        <v>-11.5</v>
       </c>
       <c r="F25">
-        <v>192</v>
+        <v>51.7</v>
       </c>
       <c r="G25">
-        <v>0.5</v>
+        <v>-69.3</v>
       </c>
       <c r="H25">
         <v>1.83</v>
@@ -1539,19 +1545,19 @@
         <v>37</v>
       </c>
       <c r="C26">
-        <v>-33.2</v>
+        <v>-34.2</v>
       </c>
       <c r="D26">
-        <v>-28.9</v>
+        <v>-41.2</v>
       </c>
       <c r="E26">
-        <v>-26.6</v>
+        <v>-14.9</v>
       </c>
       <c r="F26">
-        <v>233.4</v>
+        <v>23.9</v>
       </c>
       <c r="G26">
-        <v>28.8</v>
+        <v>-86.2</v>
       </c>
       <c r="H26">
         <v>1.38</v>
@@ -1574,19 +1580,19 @@
         <v>38</v>
       </c>
       <c r="C27">
-        <v>-52.7</v>
+        <v>-52.6</v>
       </c>
       <c r="D27">
-        <v>-51.2</v>
+        <v>-56.4</v>
       </c>
       <c r="E27">
-        <v>-49.4</v>
+        <v>-46.3</v>
       </c>
       <c r="F27">
-        <v>177.3</v>
+        <v>38.9</v>
       </c>
       <c r="G27">
-        <v>-39.2</v>
+        <v>-79.5</v>
       </c>
       <c r="H27">
         <v>-0.44</v>
@@ -1609,19 +1615,19 @@
         <v>39</v>
       </c>
       <c r="C28">
-        <v>-4.3</v>
+        <v>-4.9</v>
       </c>
       <c r="D28">
-        <v>15.8</v>
+        <v>0.5</v>
       </c>
       <c r="E28">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="F28">
-        <v>498.5</v>
+        <v>27.3</v>
       </c>
       <c r="G28">
-        <v>154.2</v>
+        <v>-84.40000000000001</v>
       </c>
       <c r="H28">
         <v>3.71</v>
@@ -1636,13 +1642,13 @@
         <v>-0.28</v>
       </c>
       <c r="L28">
-        <v>-59.31</v>
+        <v>-36.17</v>
       </c>
       <c r="M28">
-        <v>-36.03</v>
+        <v>52.5</v>
       </c>
       <c r="N28">
-        <v>50.24</v>
+        <v>60.22</v>
       </c>
     </row>
     <row r="29" spans="1:14">
@@ -1653,19 +1659,19 @@
         <v>40</v>
       </c>
       <c r="C29">
-        <v>-38.8</v>
+        <v>-38.9</v>
       </c>
       <c r="D29">
-        <v>-31.2</v>
+        <v>-33</v>
       </c>
       <c r="E29">
-        <v>-9</v>
+        <v>-10.3</v>
       </c>
       <c r="F29">
-        <v>178.5</v>
+        <v>56</v>
       </c>
       <c r="G29">
-        <v>-6.6</v>
+        <v>-67</v>
       </c>
       <c r="H29">
         <v>1.05</v>
@@ -1680,13 +1686,13 @@
         <v>-0.23</v>
       </c>
       <c r="L29">
-        <v>-57.47</v>
+        <v>22.75</v>
       </c>
       <c r="M29">
-        <v>22.75</v>
+        <v>79.95999999999999</v>
       </c>
       <c r="N29">
-        <v>79.95999999999999</v>
+        <v>29.13</v>
       </c>
     </row>
     <row r="30" spans="1:14">
@@ -1697,19 +1703,19 @@
         <v>41</v>
       </c>
       <c r="C30">
-        <v>-8.4</v>
+        <v>-9.300000000000001</v>
       </c>
       <c r="D30">
-        <v>-10.1</v>
+        <v>-20</v>
       </c>
       <c r="E30">
-        <v>25.1</v>
+        <v>30.4</v>
       </c>
       <c r="F30">
-        <v>410.2</v>
+        <v>43</v>
       </c>
       <c r="G30">
-        <v>96</v>
+        <v>-72.90000000000001</v>
       </c>
       <c r="H30">
         <v>3.66</v>
@@ -1724,13 +1730,13 @@
         <v>-0.44</v>
       </c>
       <c r="L30">
-        <v>-59.31</v>
+        <v>-36.17</v>
       </c>
       <c r="M30">
-        <v>-36.03</v>
+        <v>52.5</v>
       </c>
       <c r="N30">
-        <v>50.24</v>
+        <v>60.22</v>
       </c>
     </row>
     <row r="31" spans="1:14">
@@ -1741,19 +1747,19 @@
         <v>42</v>
       </c>
       <c r="C31">
-        <v>-10.7</v>
+        <v>-13.4</v>
       </c>
       <c r="D31">
-        <v>2.4</v>
+        <v>-12.4</v>
       </c>
       <c r="E31">
-        <v>38.3</v>
+        <v>27.5</v>
       </c>
       <c r="F31">
-        <v>437.4</v>
+        <v>19.1</v>
       </c>
       <c r="G31">
-        <v>105.3</v>
+        <v>-89.09999999999999</v>
       </c>
       <c r="H31">
         <v>3.89</v>
@@ -1776,19 +1782,19 @@
         <v>43</v>
       </c>
       <c r="C32">
-        <v>-4.4</v>
+        <v>-5</v>
       </c>
       <c r="D32">
-        <v>15</v>
+        <v>-0.2</v>
       </c>
       <c r="E32">
-        <v>61.8</v>
+        <v>52.8</v>
       </c>
       <c r="F32">
-        <v>500.2</v>
+        <v>26.3</v>
       </c>
       <c r="G32">
-        <v>149.4</v>
+        <v>-84.8</v>
       </c>
       <c r="H32">
         <v>3.73</v>
@@ -1803,13 +1809,13 @@
         <v>-0.27</v>
       </c>
       <c r="L32">
-        <v>-59.31</v>
+        <v>-36.17</v>
       </c>
       <c r="M32">
-        <v>-36.03</v>
+        <v>52.5</v>
       </c>
       <c r="N32">
-        <v>50.24</v>
+        <v>60.22</v>
       </c>
     </row>
     <row r="33" spans="1:14">
@@ -1820,19 +1826,19 @@
         <v>44</v>
       </c>
       <c r="C33">
-        <v>-21.2</v>
+        <v>-20.5</v>
       </c>
       <c r="D33">
-        <v>-9</v>
+        <v>-15.2</v>
       </c>
       <c r="E33">
-        <v>28.8</v>
+        <v>43.8</v>
       </c>
       <c r="F33">
-        <v>372.9</v>
+        <v>33.2</v>
       </c>
       <c r="G33">
-        <v>127.6</v>
+        <v>-77.8</v>
       </c>
       <c r="H33">
         <v>4.34</v>
@@ -1855,19 +1861,19 @@
         <v>45</v>
       </c>
       <c r="C34">
-        <v>-44.8</v>
+        <v>-43.4</v>
       </c>
       <c r="D34">
-        <v>-31.5</v>
+        <v>-38.5</v>
       </c>
       <c r="E34">
-        <v>-22.4</v>
+        <v>-29.6</v>
       </c>
       <c r="F34">
-        <v>117.1</v>
+        <v>67.3</v>
       </c>
       <c r="G34">
-        <v>-41.1</v>
+        <v>-65</v>
       </c>
       <c r="H34">
         <v>0.06</v>
@@ -1882,13 +1888,13 @@
         <v>-1.07</v>
       </c>
       <c r="L34">
-        <v>-28.17</v>
+        <v>-9.43</v>
       </c>
       <c r="M34">
-        <v>-9.43</v>
+        <v>-6.37</v>
       </c>
       <c r="N34">
-        <v>-6.37</v>
+        <v>0.52</v>
       </c>
     </row>
     <row r="35" spans="1:14">
@@ -1899,19 +1905,19 @@
         <v>46</v>
       </c>
       <c r="C35">
-        <v>-56.4</v>
+        <v>-56</v>
       </c>
       <c r="D35">
-        <v>-56.1</v>
+        <v>-61</v>
       </c>
       <c r="E35">
-        <v>-57</v>
+        <v>-53.1</v>
       </c>
       <c r="F35">
-        <v>160.8</v>
+        <v>37.5</v>
       </c>
       <c r="G35">
-        <v>-50</v>
+        <v>-81.09999999999999</v>
       </c>
       <c r="H35">
         <v>-0.71</v>
@@ -1934,19 +1940,19 @@
         <v>47</v>
       </c>
       <c r="C36">
-        <v>-50.2</v>
+        <v>-49.7</v>
       </c>
       <c r="D36">
-        <v>-43.4</v>
+        <v>-45.5</v>
       </c>
       <c r="E36">
-        <v>-34</v>
+        <v>-40</v>
       </c>
       <c r="F36">
-        <v>149.8</v>
+        <v>60.6</v>
       </c>
       <c r="G36">
-        <v>-45.8</v>
+        <v>-75.09999999999999</v>
       </c>
       <c r="H36">
         <v>0.02</v>
@@ -1961,13 +1967,13 @@
         <v>-0.95</v>
       </c>
       <c r="L36">
-        <v>-66.40000000000001</v>
+        <v>-25.41</v>
       </c>
       <c r="M36">
-        <v>-25.42</v>
+        <v>-47.75</v>
       </c>
       <c r="N36">
-        <v>-47.79</v>
+        <v>-57.18</v>
       </c>
     </row>
     <row r="37" spans="1:14">
@@ -1978,19 +1984,19 @@
         <v>48</v>
       </c>
       <c r="C37">
-        <v>-7.4</v>
+        <v>-8.800000000000001</v>
       </c>
       <c r="D37">
-        <v>1.4</v>
+        <v>-11.5</v>
       </c>
       <c r="E37">
-        <v>39.5</v>
+        <v>32.3</v>
       </c>
       <c r="F37">
-        <v>438.4</v>
+        <v>30.7</v>
       </c>
       <c r="G37">
-        <v>110.6</v>
+        <v>-82.7</v>
       </c>
       <c r="H37">
         <v>3.69</v>
@@ -2005,13 +2011,13 @@
         <v>-0.32</v>
       </c>
       <c r="L37">
-        <v>-59.31</v>
+        <v>-36.17</v>
       </c>
       <c r="M37">
-        <v>-36.03</v>
+        <v>52.5</v>
       </c>
       <c r="N37">
-        <v>50.24</v>
+        <v>60.22</v>
       </c>
     </row>
     <row r="38" spans="1:14">
@@ -2022,19 +2028,19 @@
         <v>49</v>
       </c>
       <c r="C38">
-        <v>-32</v>
+        <v>-34.5</v>
       </c>
       <c r="D38">
-        <v>-18.3</v>
+        <v>-27.7</v>
       </c>
       <c r="E38">
-        <v>-10.2</v>
+        <v>-17.6</v>
       </c>
       <c r="F38">
-        <v>142.2</v>
+        <v>60.4</v>
       </c>
       <c r="G38">
-        <v>-28.6</v>
+        <v>-55.2</v>
       </c>
       <c r="H38">
         <v>0.19</v>
@@ -2049,13 +2055,13 @@
         <v>-1.44</v>
       </c>
       <c r="L38">
-        <v>-23.19</v>
+        <v>5.78</v>
       </c>
       <c r="M38">
-        <v>5.78</v>
+        <v>-24.85</v>
       </c>
       <c r="N38">
-        <v>-24.85</v>
+        <v>-33.05</v>
       </c>
     </row>
     <row r="39" spans="1:14">
@@ -2066,19 +2072,19 @@
         <v>50</v>
       </c>
       <c r="C39">
-        <v>-6.7</v>
+        <v>-6.6</v>
       </c>
       <c r="D39">
-        <v>-10.4</v>
+        <v>-18.2</v>
       </c>
       <c r="E39">
-        <v>24.7</v>
+        <v>33.6</v>
       </c>
       <c r="F39">
-        <v>399.6</v>
+        <v>51.4</v>
       </c>
       <c r="G39">
-        <v>91.5</v>
+        <v>-66.40000000000001</v>
       </c>
       <c r="H39">
         <v>3.62</v>
@@ -2093,13 +2099,13 @@
         <v>-0.49</v>
       </c>
       <c r="L39">
-        <v>-59.31</v>
+        <v>-36.17</v>
       </c>
       <c r="M39">
-        <v>-36.03</v>
+        <v>52.5</v>
       </c>
       <c r="N39">
-        <v>50.24</v>
+        <v>60.22</v>
       </c>
     </row>
     <row r="40" spans="1:14">
@@ -2110,19 +2116,19 @@
         <v>51</v>
       </c>
       <c r="C40">
-        <v>-6.2</v>
+        <v>-7.5</v>
       </c>
       <c r="D40">
-        <v>9</v>
+        <v>-4.9</v>
       </c>
       <c r="E40">
-        <v>51.3</v>
+        <v>41.2</v>
       </c>
       <c r="F40">
-        <v>475.7</v>
+        <v>26.7</v>
       </c>
       <c r="G40">
-        <v>127</v>
+        <v>-85</v>
       </c>
       <c r="H40">
         <v>3.74</v>
@@ -2137,13 +2143,13 @@
         <v>-0.28</v>
       </c>
       <c r="L40">
-        <v>-59.31</v>
+        <v>-36.17</v>
       </c>
       <c r="M40">
-        <v>-36.03</v>
+        <v>52.5</v>
       </c>
       <c r="N40">
-        <v>50.24</v>
+        <v>60.22</v>
       </c>
     </row>
     <row r="41" spans="1:14">
@@ -2154,19 +2160,19 @@
         <v>52</v>
       </c>
       <c r="C41">
-        <v>-41.9</v>
+        <v>-40.6</v>
       </c>
       <c r="D41">
-        <v>-31.5</v>
+        <v>-37.2</v>
       </c>
       <c r="E41">
-        <v>-22.7</v>
+        <v>-31.6</v>
       </c>
       <c r="F41">
-        <v>153.5</v>
+        <v>82.8</v>
       </c>
       <c r="G41">
-        <v>-37.1</v>
+        <v>-61.5</v>
       </c>
       <c r="H41">
         <v>0.21</v>
@@ -2181,13 +2187,13 @@
         <v>-1.35</v>
       </c>
       <c r="L41">
-        <v>-28.17</v>
+        <v>-9.43</v>
       </c>
       <c r="M41">
-        <v>-9.43</v>
+        <v>-6.37</v>
       </c>
       <c r="N41">
-        <v>-6.37</v>
+        <v>0.52</v>
       </c>
     </row>
     <row r="42" spans="1:14">
@@ -2198,19 +2204,19 @@
         <v>53</v>
       </c>
       <c r="C42">
-        <v>-15.4</v>
+        <v>-20.3</v>
       </c>
       <c r="D42">
-        <v>-0.7</v>
+        <v>-13.9</v>
       </c>
       <c r="E42">
-        <v>56.8</v>
+        <v>56.4</v>
       </c>
       <c r="F42">
-        <v>355.7</v>
+        <v>20.9</v>
       </c>
       <c r="G42">
-        <v>140.9</v>
+        <v>-85</v>
       </c>
       <c r="H42">
         <v>2.08</v>
@@ -2225,13 +2231,13 @@
         <v>-1.29</v>
       </c>
       <c r="L42">
-        <v>-15.28</v>
+        <v>10.65</v>
       </c>
       <c r="M42">
-        <v>10.62</v>
+        <v>13.68</v>
       </c>
       <c r="N42">
-        <v>13.53</v>
+        <v>25.08</v>
       </c>
     </row>
   </sheetData>

--- a/Sistema-Operacional/Saidas/Monitoramento - Mananciais Críticos.xlsx
+++ b/Sistema-Operacional/Saidas/Monitoramento - Mananciais Críticos.xlsx
@@ -19,40 +19,40 @@
     <t>MUNICIPIO</t>
   </si>
   <si>
-    <t>AN_ANUAL_202102</t>
-  </si>
-  <si>
-    <t>AN_SEM_202102</t>
-  </si>
-  <si>
-    <t>AN_TRI_202102</t>
-  </si>
-  <si>
-    <t>AC_20210215</t>
-  </si>
-  <si>
-    <t>AN_20210215</t>
-  </si>
-  <si>
-    <t>SPI1_202101</t>
-  </si>
-  <si>
-    <t>SPI3_202101</t>
-  </si>
-  <si>
-    <t>SPI6_202101</t>
-  </si>
-  <si>
-    <t>SPI12_202101</t>
-  </si>
-  <si>
-    <t>AN_COTA_202012</t>
-  </si>
-  <si>
-    <t>AN_COTA_202101</t>
-  </si>
-  <si>
-    <t>AN_COTA_20210215</t>
+    <t>AN_ANUAL_202105</t>
+  </si>
+  <si>
+    <t>AN_SEM_202105</t>
+  </si>
+  <si>
+    <t>AN_TRI_202105</t>
+  </si>
+  <si>
+    <t>AC_202105</t>
+  </si>
+  <si>
+    <t>AN_202105</t>
+  </si>
+  <si>
+    <t>SPI1_202105</t>
+  </si>
+  <si>
+    <t>SPI3_202105</t>
+  </si>
+  <si>
+    <t>SPI6_202105</t>
+  </si>
+  <si>
+    <t>SPI12_202105</t>
+  </si>
+  <si>
+    <t>AN_COTA_202103</t>
+  </si>
+  <si>
+    <t>AN_COTA_202104</t>
+  </si>
+  <si>
+    <t>AN_COTA_20210531</t>
   </si>
   <si>
     <t>SIA</t>
@@ -591,40 +591,40 @@
         <v>14</v>
       </c>
       <c r="C2">
-        <v>-28.1</v>
+        <v>-22.4</v>
       </c>
       <c r="D2">
-        <v>-38.3</v>
+        <v>-17.4</v>
       </c>
       <c r="E2">
-        <v>-19.8</v>
+        <v>-19.2</v>
       </c>
       <c r="F2">
-        <v>58.5</v>
+        <v>115.1</v>
       </c>
       <c r="G2">
-        <v>-68.5</v>
+        <v>-5.1</v>
       </c>
       <c r="H2">
-        <v>0.18</v>
+        <v>0.09</v>
       </c>
       <c r="I2">
-        <v>0.21</v>
+        <v>-0.37</v>
       </c>
       <c r="J2">
-        <v>-0.06</v>
+        <v>-0.36</v>
       </c>
       <c r="K2">
-        <v>-0.72</v>
+        <v>-0.63</v>
       </c>
       <c r="L2">
-        <v>-6.42</v>
+        <v>-1.85</v>
       </c>
       <c r="M2">
-        <v>-1.04</v>
+        <v>-3.18</v>
       </c>
       <c r="N2">
-        <v>-2.53</v>
+        <v>-7.16</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -635,40 +635,40 @@
         <v>15</v>
       </c>
       <c r="C3">
-        <v>-24.2</v>
+        <v>-9.1</v>
       </c>
       <c r="D3">
-        <v>-19.4</v>
+        <v>-0.4</v>
       </c>
       <c r="E3">
-        <v>0.5</v>
+        <v>-17.5</v>
       </c>
       <c r="F3">
-        <v>34.7</v>
+        <v>92.3</v>
       </c>
       <c r="G3">
-        <v>-75.09999999999999</v>
+        <v>17.3</v>
       </c>
       <c r="H3">
-        <v>1.15</v>
+        <v>-0.05</v>
       </c>
       <c r="I3">
-        <v>1.04</v>
+        <v>-0.8</v>
       </c>
       <c r="J3">
-        <v>0.43</v>
+        <v>-0.19</v>
       </c>
       <c r="K3">
-        <v>-0.83</v>
+        <v>-0.38</v>
       </c>
       <c r="L3">
-        <v>17.14</v>
+        <v>18.97</v>
       </c>
       <c r="M3">
-        <v>-14.36</v>
+        <v>-31.61</v>
       </c>
       <c r="N3">
-        <v>-23.18</v>
+        <v>-12.35</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -679,31 +679,31 @@
         <v>16</v>
       </c>
       <c r="C4">
-        <v>-34.4</v>
+        <v>-30.1</v>
       </c>
       <c r="D4">
-        <v>-40.1</v>
+        <v>-23.7</v>
       </c>
       <c r="E4">
-        <v>-14.8</v>
+        <v>-43.3</v>
       </c>
       <c r="F4">
-        <v>49.3</v>
+        <v>107</v>
       </c>
       <c r="G4">
-        <v>-75</v>
+        <v>-19</v>
       </c>
       <c r="H4">
-        <v>1.33</v>
+        <v>-0.22</v>
       </c>
       <c r="I4">
-        <v>0.55</v>
+        <v>-0.51</v>
       </c>
       <c r="J4">
-        <v>0.11</v>
+        <v>-0.09</v>
       </c>
       <c r="K4">
-        <v>-0.64</v>
+        <v>-0.47</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -714,40 +714,40 @@
         <v>17</v>
       </c>
       <c r="C5">
-        <v>5.1</v>
+        <v>-7.1</v>
       </c>
       <c r="D5">
-        <v>7.6</v>
+        <v>12.9</v>
       </c>
       <c r="E5">
-        <v>72.7</v>
+        <v>-62.1</v>
       </c>
       <c r="F5">
-        <v>31.2</v>
+        <v>33.8</v>
       </c>
       <c r="G5">
-        <v>-77.3</v>
+        <v>-74.2</v>
       </c>
       <c r="H5">
-        <v>3.5</v>
+        <v>-1.28</v>
       </c>
       <c r="I5">
-        <v>0.97</v>
+        <v>-3.47</v>
       </c>
       <c r="J5">
-        <v>0.02</v>
+        <v>-0.91</v>
       </c>
       <c r="K5">
-        <v>-0.34</v>
+        <v>-1.1</v>
       </c>
       <c r="L5">
-        <v>-36.17</v>
+        <v>-37.18</v>
       </c>
       <c r="M5">
-        <v>52.5</v>
+        <v>-47.57</v>
       </c>
       <c r="N5">
-        <v>60.22</v>
+        <v>-63</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -758,40 +758,40 @@
         <v>18</v>
       </c>
       <c r="C6">
-        <v>-19.3</v>
+        <v>-25.6</v>
       </c>
       <c r="D6">
-        <v>-16.2</v>
+        <v>3</v>
       </c>
       <c r="E6">
-        <v>56.9</v>
+        <v>-63.7</v>
       </c>
       <c r="F6">
-        <v>17.1</v>
+        <v>24.3</v>
       </c>
       <c r="G6">
-        <v>-87.5</v>
+        <v>-80.8</v>
       </c>
       <c r="H6">
-        <v>2.08</v>
+        <v>-1.58</v>
       </c>
       <c r="I6">
-        <v>0.75</v>
+        <v>-2.35</v>
       </c>
       <c r="J6">
-        <v>-0.4</v>
+        <v>-0.93</v>
       </c>
       <c r="K6">
-        <v>-1.29</v>
+        <v>-1.86</v>
       </c>
       <c r="L6">
-        <v>10.65</v>
+        <v>9.01</v>
       </c>
       <c r="M6">
-        <v>13.68</v>
+        <v>-3.55</v>
       </c>
       <c r="N6">
-        <v>25.08</v>
+        <v>-11.81</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -802,31 +802,31 @@
         <v>19</v>
       </c>
       <c r="C7">
-        <v>-2.8</v>
+        <v>-4.8</v>
       </c>
       <c r="D7">
-        <v>8.9</v>
+        <v>18.2</v>
       </c>
       <c r="E7">
-        <v>68.5</v>
+        <v>-45.7</v>
       </c>
       <c r="F7">
-        <v>46.1</v>
+        <v>35.8</v>
       </c>
       <c r="G7">
-        <v>-68.09999999999999</v>
+        <v>-75.2</v>
       </c>
       <c r="H7">
-        <v>3.12</v>
+        <v>-1.29</v>
       </c>
       <c r="I7">
-        <v>1.2</v>
+        <v>-1.69</v>
       </c>
       <c r="J7">
-        <v>0.17</v>
+        <v>-0.73</v>
       </c>
       <c r="K7">
-        <v>-0.68</v>
+        <v>-1.33</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -837,40 +837,40 @@
         <v>20</v>
       </c>
       <c r="C8">
-        <v>-35.5</v>
+        <v>-23.3</v>
       </c>
       <c r="D8">
-        <v>-34.3</v>
+        <v>-20.1</v>
       </c>
       <c r="E8">
-        <v>-21.5</v>
+        <v>-31.5</v>
       </c>
       <c r="F8">
-        <v>67.09999999999999</v>
+        <v>80</v>
       </c>
       <c r="G8">
-        <v>-50.9</v>
+        <v>-23.8</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>0.22</v>
       </c>
       <c r="I8">
-        <v>0.9</v>
+        <v>-0.4</v>
       </c>
       <c r="J8">
-        <v>0.45</v>
+        <v>0.21</v>
       </c>
       <c r="K8">
-        <v>-0.36</v>
+        <v>0.01</v>
       </c>
       <c r="L8">
-        <v>19.64</v>
+        <v>10.54</v>
       </c>
       <c r="M8">
-        <v>27.99</v>
+        <v>-3.26</v>
       </c>
       <c r="N8">
-        <v>32.94</v>
+        <v>-2.48</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -881,31 +881,31 @@
         <v>21</v>
       </c>
       <c r="C9">
-        <v>-21.3</v>
+        <v>-30.5</v>
       </c>
       <c r="D9">
-        <v>-20.9</v>
+        <v>-22.2</v>
       </c>
       <c r="E9">
-        <v>20.3</v>
+        <v>-73.40000000000001</v>
       </c>
       <c r="F9">
-        <v>13.8</v>
+        <v>24.4</v>
       </c>
       <c r="G9">
-        <v>-90.59999999999999</v>
+        <v>-84</v>
       </c>
       <c r="H9">
-        <v>4</v>
+        <v>-1.27</v>
       </c>
       <c r="I9">
-        <v>1.7</v>
+        <v>-2.11</v>
       </c>
       <c r="J9">
-        <v>0.38</v>
+        <v>-0.5600000000000001</v>
       </c>
       <c r="K9">
-        <v>-0.08</v>
+        <v>-0.98</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -916,40 +916,40 @@
         <v>22</v>
       </c>
       <c r="C10">
-        <v>-38.4</v>
+        <v>-24.1</v>
       </c>
       <c r="D10">
-        <v>-29.8</v>
+        <v>-17.6</v>
       </c>
       <c r="E10">
-        <v>-21.3</v>
+        <v>-28.9</v>
       </c>
       <c r="F10">
-        <v>48.2</v>
+        <v>100.1</v>
       </c>
       <c r="G10">
-        <v>-68.3</v>
+        <v>15.5</v>
       </c>
       <c r="H10">
-        <v>0.25</v>
+        <v>0.58</v>
       </c>
       <c r="I10">
-        <v>0.84</v>
+        <v>-0.52</v>
       </c>
       <c r="J10">
-        <v>0.15</v>
+        <v>-0.46</v>
       </c>
       <c r="K10">
-        <v>-1.45</v>
+        <v>-0.5</v>
       </c>
       <c r="L10">
-        <v>5.78</v>
+        <v>-18.36</v>
       </c>
       <c r="M10">
-        <v>-24.85</v>
+        <v>-21.81</v>
       </c>
       <c r="N10">
-        <v>-33.05</v>
+        <v>9.380000000000001</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -960,40 +960,40 @@
         <v>23</v>
       </c>
       <c r="C11">
-        <v>-38</v>
+        <v>-18.5</v>
       </c>
       <c r="D11">
-        <v>-33.9</v>
+        <v>-11.2</v>
       </c>
       <c r="E11">
-        <v>-30.9</v>
+        <v>-8.800000000000001</v>
       </c>
       <c r="F11">
-        <v>60.7</v>
+        <v>104.6</v>
       </c>
       <c r="G11">
-        <v>-67.2</v>
+        <v>1.3</v>
       </c>
       <c r="H11">
-        <v>-0.18</v>
+        <v>0.34</v>
       </c>
       <c r="I11">
-        <v>0.3</v>
+        <v>-0.17</v>
       </c>
       <c r="J11">
-        <v>-0.18</v>
+        <v>-0.12</v>
       </c>
       <c r="K11">
-        <v>-1.21</v>
+        <v>-0.23</v>
       </c>
       <c r="L11">
-        <v>32.78</v>
+        <v>37.37</v>
       </c>
       <c r="M11">
-        <v>8.58</v>
+        <v>-4.65</v>
       </c>
       <c r="N11">
-        <v>2.61</v>
+        <v>-6.15</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -1004,40 +1004,40 @@
         <v>24</v>
       </c>
       <c r="C12">
-        <v>-38.2</v>
+        <v>-18.8</v>
       </c>
       <c r="D12">
-        <v>-33.7</v>
+        <v>-12</v>
       </c>
       <c r="E12">
-        <v>-31.1</v>
+        <v>-10.5</v>
       </c>
       <c r="F12">
-        <v>59.1</v>
+        <v>108.2</v>
       </c>
       <c r="G12">
-        <v>-69.09999999999999</v>
+        <v>-0.8</v>
       </c>
       <c r="H12">
-        <v>-0.31</v>
+        <v>0.39</v>
       </c>
       <c r="I12">
-        <v>0.25</v>
+        <v>-0.08</v>
       </c>
       <c r="J12">
-        <v>-0.18</v>
+        <v>-0.15</v>
       </c>
       <c r="K12">
-        <v>-1.15</v>
+        <v>-0.2</v>
       </c>
       <c r="L12">
-        <v>32.78</v>
+        <v>37.37</v>
       </c>
       <c r="M12">
-        <v>8.58</v>
+        <v>-4.65</v>
       </c>
       <c r="N12">
-        <v>2.61</v>
+        <v>-6.15</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -1048,31 +1048,31 @@
         <v>25</v>
       </c>
       <c r="C13">
-        <v>-27.6</v>
+        <v>-38.9</v>
       </c>
       <c r="D13">
-        <v>-32.1</v>
+        <v>-38.4</v>
       </c>
       <c r="E13">
-        <v>-2.3</v>
+        <v>-79.5</v>
       </c>
       <c r="F13">
-        <v>9.1</v>
+        <v>19.1</v>
       </c>
       <c r="G13">
-        <v>-93.5</v>
+        <v>-88.7</v>
       </c>
       <c r="H13">
-        <v>4.05</v>
+        <v>-1.26</v>
       </c>
       <c r="I13">
-        <v>1.73</v>
+        <v>-2.55</v>
       </c>
       <c r="J13">
-        <v>0.33</v>
+        <v>-0.57</v>
       </c>
       <c r="K13">
-        <v>-0.03</v>
+        <v>-0.98</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -1083,40 +1083,40 @@
         <v>26</v>
       </c>
       <c r="C14">
-        <v>-45.3</v>
+        <v>-27</v>
       </c>
       <c r="D14">
-        <v>-41</v>
+        <v>-21</v>
       </c>
       <c r="E14">
-        <v>-31.9</v>
+        <v>-23.2</v>
       </c>
       <c r="F14">
-        <v>55.2</v>
+        <v>91.5</v>
       </c>
       <c r="G14">
-        <v>-70</v>
+        <v>-19.1</v>
       </c>
       <c r="H14">
-        <v>0.06</v>
+        <v>0.24</v>
       </c>
       <c r="I14">
-        <v>0.62</v>
+        <v>-0.13</v>
       </c>
       <c r="J14">
-        <v>0.06</v>
+        <v>0.29</v>
       </c>
       <c r="K14">
-        <v>-1.04</v>
+        <v>-0.03</v>
       </c>
       <c r="L14">
-        <v>-9.43</v>
+        <v>20.35</v>
       </c>
       <c r="M14">
-        <v>-6.37</v>
+        <v>-20.59</v>
       </c>
       <c r="N14">
-        <v>0.52</v>
+        <v>-18.42</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -1127,40 +1127,31 @@
         <v>21</v>
       </c>
       <c r="C15">
-        <v>-22.9</v>
+        <v>-23.6</v>
       </c>
       <c r="D15">
-        <v>-27.3</v>
+        <v>-14.9</v>
       </c>
       <c r="E15">
-        <v>11.6</v>
+        <v>-51.3</v>
       </c>
       <c r="F15">
-        <v>27.4</v>
+        <v>71.59999999999999</v>
       </c>
       <c r="G15">
-        <v>-82.59999999999999</v>
+        <v>-51.6</v>
       </c>
       <c r="H15">
-        <v>3.01</v>
+        <v>-1.03</v>
       </c>
       <c r="I15">
-        <v>1.01</v>
+        <v>-2.06</v>
       </c>
       <c r="J15">
-        <v>-0.36</v>
+        <v>-0.73</v>
       </c>
       <c r="K15">
-        <v>-0.63</v>
-      </c>
-      <c r="L15">
-        <v>-12.26</v>
-      </c>
-      <c r="M15">
-        <v>24.96</v>
-      </c>
-      <c r="N15">
-        <v>75.22</v>
+        <v>-1.06</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -1171,37 +1162,40 @@
         <v>27</v>
       </c>
       <c r="C16">
-        <v>-20</v>
+        <v>-24.7</v>
       </c>
       <c r="D16">
-        <v>-31.4</v>
+        <v>-16.9</v>
       </c>
       <c r="E16">
-        <v>9.300000000000001</v>
+        <v>-51.6</v>
       </c>
       <c r="F16">
-        <v>28.1</v>
+        <v>70.90000000000001</v>
       </c>
       <c r="G16">
-        <v>-81.8</v>
+        <v>-60.1</v>
       </c>
       <c r="H16">
-        <v>3.64</v>
+        <v>-1.25</v>
       </c>
       <c r="I16">
-        <v>1.22</v>
+        <v>-2.56</v>
       </c>
       <c r="J16">
-        <v>-0.25</v>
+        <v>-0.61</v>
       </c>
       <c r="K16">
-        <v>-0.54</v>
+        <v>-1.01</v>
       </c>
       <c r="L16">
-        <v>11.43</v>
+        <v>-15.97</v>
       </c>
       <c r="M16">
-        <v>33.67</v>
+        <v>-13.16</v>
+      </c>
+      <c r="N16">
+        <v>-28.32</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1212,31 +1206,31 @@
         <v>28</v>
       </c>
       <c r="C17">
-        <v>-51.5</v>
+        <v>-45.8</v>
       </c>
       <c r="D17">
-        <v>-59.1</v>
+        <v>-42.6</v>
       </c>
       <c r="E17">
-        <v>-44.5</v>
+        <v>-47.8</v>
       </c>
       <c r="F17">
-        <v>45</v>
+        <v>65.09999999999999</v>
       </c>
       <c r="G17">
-        <v>-77</v>
+        <v>-53.1</v>
       </c>
       <c r="H17">
-        <v>-0.32</v>
+        <v>-0.26</v>
       </c>
       <c r="I17">
-        <v>-1.4</v>
+        <v>-0.61</v>
       </c>
       <c r="J17">
-        <v>-0.83</v>
+        <v>-1.3</v>
       </c>
       <c r="K17">
-        <v>-0.85</v>
+        <v>-0.92</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1247,40 +1241,40 @@
         <v>29</v>
       </c>
       <c r="C18">
-        <v>-42.2</v>
+        <v>-37.6</v>
       </c>
       <c r="D18">
-        <v>-51.6</v>
+        <v>-34.7</v>
       </c>
       <c r="E18">
-        <v>-39.4</v>
+        <v>-32</v>
       </c>
       <c r="F18">
-        <v>43.7</v>
+        <v>117.6</v>
       </c>
       <c r="G18">
-        <v>-81.5</v>
+        <v>-22.5</v>
       </c>
       <c r="H18">
-        <v>0.18</v>
+        <v>0.09</v>
       </c>
       <c r="I18">
-        <v>0.21</v>
+        <v>-0.37</v>
       </c>
       <c r="J18">
-        <v>-0.06</v>
+        <v>-0.36</v>
       </c>
       <c r="K18">
-        <v>-0.72</v>
+        <v>-0.63</v>
       </c>
       <c r="L18">
-        <v>-6.42</v>
+        <v>-1.85</v>
       </c>
       <c r="M18">
-        <v>-1.04</v>
+        <v>-3.18</v>
       </c>
       <c r="N18">
-        <v>-2.53</v>
+        <v>-7.16</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1291,31 +1285,31 @@
         <v>30</v>
       </c>
       <c r="C19">
-        <v>-5.7</v>
+        <v>-8.800000000000001</v>
       </c>
       <c r="D19">
-        <v>-2.5</v>
+        <v>5.4</v>
       </c>
       <c r="E19">
-        <v>40.5</v>
+        <v>-50.5</v>
       </c>
       <c r="F19">
-        <v>18.5</v>
+        <v>48.5</v>
       </c>
       <c r="G19">
-        <v>-88.90000000000001</v>
+        <v>-62</v>
       </c>
       <c r="H19">
-        <v>2.66</v>
+        <v>-1.33</v>
       </c>
       <c r="I19">
-        <v>1.24</v>
+        <v>-2.14</v>
       </c>
       <c r="J19">
-        <v>-0.37</v>
+        <v>-0.78</v>
       </c>
       <c r="K19">
-        <v>-0.6</v>
+        <v>-1.27</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1326,31 +1320,31 @@
         <v>31</v>
       </c>
       <c r="C20">
-        <v>-36</v>
+        <v>-33.3</v>
       </c>
       <c r="D20">
-        <v>-43.8</v>
+        <v>-28.6</v>
       </c>
       <c r="E20">
-        <v>-17.4</v>
+        <v>-47.7</v>
       </c>
       <c r="F20">
-        <v>45.2</v>
+        <v>95.59999999999999</v>
       </c>
       <c r="G20">
-        <v>-77</v>
+        <v>-38.4</v>
       </c>
       <c r="H20">
-        <v>3.62</v>
+        <v>-1.16</v>
       </c>
       <c r="I20">
-        <v>1.48</v>
+        <v>-1.07</v>
       </c>
       <c r="J20">
-        <v>0.73</v>
+        <v>0.48</v>
       </c>
       <c r="K20">
-        <v>-0.1</v>
+        <v>-0.05</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1361,40 +1355,40 @@
         <v>32</v>
       </c>
       <c r="C21">
-        <v>-19</v>
+        <v>-24.6</v>
       </c>
       <c r="D21">
-        <v>-31.1</v>
+        <v>-18.2</v>
       </c>
       <c r="E21">
-        <v>8.699999999999999</v>
+        <v>-50.7</v>
       </c>
       <c r="F21">
-        <v>22</v>
+        <v>73.8</v>
       </c>
       <c r="G21">
-        <v>-85.3</v>
+        <v>-57.4</v>
       </c>
       <c r="H21">
-        <v>3.53</v>
+        <v>-1.23</v>
       </c>
       <c r="I21">
-        <v>1.06</v>
+        <v>-2.49</v>
       </c>
       <c r="J21">
-        <v>-0.46</v>
+        <v>-0.61</v>
       </c>
       <c r="K21">
-        <v>-0.72</v>
+        <v>-1.01</v>
       </c>
       <c r="L21">
-        <v>-5018.9</v>
+        <v>752.4400000000001</v>
       </c>
       <c r="M21">
-        <v>-5217.74</v>
+        <v>706.3099999999999</v>
       </c>
       <c r="N21">
-        <v>-5115.58</v>
+        <v>-8.699999999999999</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1405,31 +1399,31 @@
         <v>33</v>
       </c>
       <c r="C22">
-        <v>-6.7</v>
+        <v>-3.9</v>
       </c>
       <c r="D22">
-        <v>-5</v>
+        <v>12.8</v>
       </c>
       <c r="E22">
-        <v>44.4</v>
+        <v>-35.3</v>
       </c>
       <c r="F22">
-        <v>72.7</v>
+        <v>58.4</v>
       </c>
       <c r="G22">
-        <v>-62.1</v>
+        <v>-64.59999999999999</v>
       </c>
       <c r="H22">
-        <v>2.02</v>
+        <v>-1.15</v>
       </c>
       <c r="I22">
-        <v>1.13</v>
+        <v>-1.82</v>
       </c>
       <c r="J22">
-        <v>-0.09</v>
+        <v>-0.7</v>
       </c>
       <c r="K22">
-        <v>-0.66</v>
+        <v>-1.03</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1440,31 +1434,31 @@
         <v>34</v>
       </c>
       <c r="C23">
-        <v>-14.1</v>
+        <v>-21.7</v>
       </c>
       <c r="D23">
-        <v>-7.2</v>
+        <v>-0.8</v>
       </c>
       <c r="E23">
-        <v>56.1</v>
+        <v>-64.09999999999999</v>
       </c>
       <c r="F23">
-        <v>58.7</v>
+        <v>30.7</v>
       </c>
       <c r="G23">
-        <v>-59</v>
+        <v>-80.7</v>
       </c>
       <c r="H23">
-        <v>4.15</v>
+        <v>-1.37</v>
       </c>
       <c r="I23">
-        <v>-0.22</v>
+        <v>-2.77</v>
       </c>
       <c r="J23">
-        <v>-0.85</v>
+        <v>-2.11</v>
       </c>
       <c r="K23">
-        <v>-1.23</v>
+        <v>-1.9</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1475,31 +1469,31 @@
         <v>35</v>
       </c>
       <c r="C24">
-        <v>-24.1</v>
+        <v>-31.3</v>
       </c>
       <c r="D24">
-        <v>-22.3</v>
+        <v>-18.3</v>
       </c>
       <c r="E24">
-        <v>22.7</v>
+        <v>-71.90000000000001</v>
       </c>
       <c r="F24">
-        <v>19.8</v>
+        <v>24.4</v>
       </c>
       <c r="G24">
-        <v>-88.59999999999999</v>
+        <v>-84.90000000000001</v>
       </c>
       <c r="H24">
-        <v>3.8</v>
+        <v>-1.26</v>
       </c>
       <c r="I24">
-        <v>1.6</v>
+        <v>-2.7</v>
       </c>
       <c r="J24">
-        <v>0.73</v>
+        <v>-0.47</v>
       </c>
       <c r="K24">
-        <v>-0.25</v>
+        <v>-0.96</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1510,31 +1504,31 @@
         <v>36</v>
       </c>
       <c r="C25">
-        <v>-36.3</v>
+        <v>-22.9</v>
       </c>
       <c r="D25">
-        <v>-27.9</v>
+        <v>-9.9</v>
       </c>
       <c r="E25">
-        <v>-11.5</v>
+        <v>-27</v>
       </c>
       <c r="F25">
-        <v>51.7</v>
+        <v>71.90000000000001</v>
       </c>
       <c r="G25">
-        <v>-69.3</v>
+        <v>-36.6</v>
       </c>
       <c r="H25">
-        <v>1.83</v>
+        <v>-0.13</v>
       </c>
       <c r="I25">
-        <v>1.17</v>
+        <v>-1.11</v>
       </c>
       <c r="J25">
-        <v>0.72</v>
+        <v>-0.2</v>
       </c>
       <c r="K25">
-        <v>-0.73</v>
+        <v>-0.41</v>
       </c>
     </row>
     <row r="26" spans="1:14">
@@ -1545,31 +1539,31 @@
         <v>37</v>
       </c>
       <c r="C26">
-        <v>-34.2</v>
+        <v>-29.3</v>
       </c>
       <c r="D26">
-        <v>-41.2</v>
+        <v>-20.1</v>
       </c>
       <c r="E26">
-        <v>-14.9</v>
+        <v>-33.8</v>
       </c>
       <c r="F26">
-        <v>23.9</v>
+        <v>77.59999999999999</v>
       </c>
       <c r="G26">
-        <v>-86.2</v>
+        <v>-27.5</v>
       </c>
       <c r="H26">
-        <v>1.38</v>
+        <v>-0.02</v>
       </c>
       <c r="I26">
-        <v>0.48</v>
+        <v>-0.99</v>
       </c>
       <c r="J26">
-        <v>0.17</v>
+        <v>-0.48</v>
       </c>
       <c r="K26">
-        <v>-0.52</v>
+        <v>-0.87</v>
       </c>
     </row>
     <row r="27" spans="1:14">
@@ -1580,31 +1574,31 @@
         <v>38</v>
       </c>
       <c r="C27">
-        <v>-52.6</v>
+        <v>-46.1</v>
       </c>
       <c r="D27">
-        <v>-56.4</v>
+        <v>-44.8</v>
       </c>
       <c r="E27">
-        <v>-46.3</v>
+        <v>-48.9</v>
       </c>
       <c r="F27">
-        <v>38.9</v>
+        <v>74.90000000000001</v>
       </c>
       <c r="G27">
-        <v>-79.5</v>
+        <v>-44.9</v>
       </c>
       <c r="H27">
-        <v>-0.44</v>
+        <v>-0.13</v>
       </c>
       <c r="I27">
-        <v>-0.36</v>
+        <v>-0.26</v>
       </c>
       <c r="J27">
-        <v>-0.36</v>
+        <v>-0.61</v>
       </c>
       <c r="K27">
-        <v>-0.82</v>
+        <v>-0.67</v>
       </c>
     </row>
     <row r="28" spans="1:14">
@@ -1615,40 +1609,40 @@
         <v>39</v>
       </c>
       <c r="C28">
-        <v>-4.9</v>
+        <v>-9.199999999999999</v>
       </c>
       <c r="D28">
-        <v>0.5</v>
+        <v>11</v>
       </c>
       <c r="E28">
-        <v>55</v>
+        <v>-46.1</v>
       </c>
       <c r="F28">
-        <v>27.3</v>
+        <v>47.3</v>
       </c>
       <c r="G28">
-        <v>-84.40000000000001</v>
+        <v>-71.7</v>
       </c>
       <c r="H28">
-        <v>3.71</v>
+        <v>-1.27</v>
       </c>
       <c r="I28">
-        <v>1.39</v>
+        <v>-2.9</v>
       </c>
       <c r="J28">
-        <v>0.43</v>
+        <v>-0.63</v>
       </c>
       <c r="K28">
-        <v>-0.28</v>
+        <v>-1.02</v>
       </c>
       <c r="L28">
-        <v>-36.17</v>
+        <v>-37.18</v>
       </c>
       <c r="M28">
-        <v>52.5</v>
+        <v>-47.57</v>
       </c>
       <c r="N28">
-        <v>60.22</v>
+        <v>-63</v>
       </c>
     </row>
     <row r="29" spans="1:14">
@@ -1659,40 +1653,40 @@
         <v>40</v>
       </c>
       <c r="C29">
-        <v>-38.9</v>
+        <v>-21.7</v>
       </c>
       <c r="D29">
-        <v>-33</v>
+        <v>-7.7</v>
       </c>
       <c r="E29">
-        <v>-10.3</v>
+        <v>-18.9</v>
       </c>
       <c r="F29">
-        <v>56</v>
+        <v>97.59999999999999</v>
       </c>
       <c r="G29">
-        <v>-67</v>
+        <v>-11.1</v>
       </c>
       <c r="H29">
-        <v>1.05</v>
+        <v>0.4</v>
       </c>
       <c r="I29">
-        <v>1.28</v>
+        <v>0.01</v>
       </c>
       <c r="J29">
-        <v>0.41</v>
+        <v>0.32</v>
       </c>
       <c r="K29">
-        <v>-0.23</v>
+        <v>0.19</v>
       </c>
       <c r="L29">
-        <v>22.75</v>
+        <v>84.34</v>
       </c>
       <c r="M29">
-        <v>79.95999999999999</v>
+        <v>-12.83</v>
       </c>
       <c r="N29">
-        <v>29.13</v>
+        <v>-24.54</v>
       </c>
     </row>
     <row r="30" spans="1:14">
@@ -1703,40 +1697,40 @@
         <v>41</v>
       </c>
       <c r="C30">
-        <v>-9.300000000000001</v>
+        <v>-11.3</v>
       </c>
       <c r="D30">
-        <v>-20</v>
+        <v>3.6</v>
       </c>
       <c r="E30">
-        <v>30.4</v>
+        <v>-37.4</v>
       </c>
       <c r="F30">
-        <v>43</v>
+        <v>74.59999999999999</v>
       </c>
       <c r="G30">
-        <v>-72.90000000000001</v>
+        <v>-55.4</v>
       </c>
       <c r="H30">
-        <v>3.66</v>
+        <v>-1.25</v>
       </c>
       <c r="I30">
-        <v>1.29</v>
+        <v>-2.62</v>
       </c>
       <c r="J30">
-        <v>-0.07000000000000001</v>
+        <v>-0.64</v>
       </c>
       <c r="K30">
-        <v>-0.44</v>
+        <v>-1.03</v>
       </c>
       <c r="L30">
-        <v>-36.17</v>
+        <v>-37.18</v>
       </c>
       <c r="M30">
-        <v>52.5</v>
+        <v>-47.57</v>
       </c>
       <c r="N30">
-        <v>60.22</v>
+        <v>-63</v>
       </c>
     </row>
     <row r="31" spans="1:14">
@@ -1747,31 +1741,31 @@
         <v>42</v>
       </c>
       <c r="C31">
-        <v>-13.4</v>
+        <v>-18.8</v>
       </c>
       <c r="D31">
-        <v>-12.4</v>
+        <v>-6.1</v>
       </c>
       <c r="E31">
-        <v>27.5</v>
+        <v>-50.7</v>
       </c>
       <c r="F31">
-        <v>19.1</v>
+        <v>51.4</v>
       </c>
       <c r="G31">
-        <v>-89.09999999999999</v>
+        <v>-70.2</v>
       </c>
       <c r="H31">
-        <v>3.89</v>
+        <v>-1.26</v>
       </c>
       <c r="I31">
-        <v>1.58</v>
+        <v>-2.61</v>
       </c>
       <c r="J31">
-        <v>0.35</v>
+        <v>-0.57</v>
       </c>
       <c r="K31">
-        <v>-0.17</v>
+        <v>-0.99</v>
       </c>
     </row>
     <row r="32" spans="1:14">
@@ -1782,40 +1776,40 @@
         <v>43</v>
       </c>
       <c r="C32">
-        <v>-5</v>
+        <v>-9.9</v>
       </c>
       <c r="D32">
-        <v>-0.2</v>
+        <v>10</v>
       </c>
       <c r="E32">
-        <v>52.8</v>
+        <v>-46.1</v>
       </c>
       <c r="F32">
-        <v>26.3</v>
+        <v>47.2</v>
       </c>
       <c r="G32">
-        <v>-84.8</v>
+        <v>-71.7</v>
       </c>
       <c r="H32">
-        <v>3.73</v>
+        <v>-1.27</v>
       </c>
       <c r="I32">
-        <v>1.42</v>
+        <v>-2.85</v>
       </c>
       <c r="J32">
-        <v>0.47</v>
+        <v>-0.61</v>
       </c>
       <c r="K32">
-        <v>-0.27</v>
+        <v>-1.01</v>
       </c>
       <c r="L32">
-        <v>-36.17</v>
+        <v>-37.18</v>
       </c>
       <c r="M32">
-        <v>52.5</v>
+        <v>-47.57</v>
       </c>
       <c r="N32">
-        <v>60.22</v>
+        <v>-63</v>
       </c>
     </row>
     <row r="33" spans="1:14">
@@ -1826,31 +1820,31 @@
         <v>44</v>
       </c>
       <c r="C33">
-        <v>-20.5</v>
+        <v>-26.5</v>
       </c>
       <c r="D33">
-        <v>-15.2</v>
+        <v>-7.3</v>
       </c>
       <c r="E33">
-        <v>43.8</v>
+        <v>-65.3</v>
       </c>
       <c r="F33">
-        <v>33.2</v>
+        <v>26.7</v>
       </c>
       <c r="G33">
-        <v>-77.8</v>
+        <v>-82.5</v>
       </c>
       <c r="H33">
-        <v>4.34</v>
+        <v>-1.36</v>
       </c>
       <c r="I33">
-        <v>-0.49</v>
+        <v>-2.7</v>
       </c>
       <c r="J33">
-        <v>-1.04</v>
+        <v>-2.41</v>
       </c>
       <c r="K33">
-        <v>-1.38</v>
+        <v>-2.04</v>
       </c>
     </row>
     <row r="34" spans="1:14">
@@ -1861,40 +1855,40 @@
         <v>45</v>
       </c>
       <c r="C34">
-        <v>-43.4</v>
+        <v>-25.4</v>
       </c>
       <c r="D34">
-        <v>-38.5</v>
+        <v>-19.7</v>
       </c>
       <c r="E34">
-        <v>-29.6</v>
+        <v>-26.7</v>
       </c>
       <c r="F34">
-        <v>67.3</v>
+        <v>90.09999999999999</v>
       </c>
       <c r="G34">
-        <v>-65</v>
+        <v>-18.2</v>
       </c>
       <c r="H34">
-        <v>0.06</v>
+        <v>0.21</v>
       </c>
       <c r="I34">
-        <v>0.59</v>
+        <v>-0.14</v>
       </c>
       <c r="J34">
-        <v>0.03</v>
+        <v>0.31</v>
       </c>
       <c r="K34">
-        <v>-1.07</v>
+        <v>-0.05</v>
       </c>
       <c r="L34">
-        <v>-9.43</v>
+        <v>20.35</v>
       </c>
       <c r="M34">
-        <v>-6.37</v>
+        <v>-20.59</v>
       </c>
       <c r="N34">
-        <v>0.52</v>
+        <v>-18.42</v>
       </c>
     </row>
     <row r="35" spans="1:14">
@@ -1905,31 +1899,31 @@
         <v>46</v>
       </c>
       <c r="C35">
-        <v>-56</v>
+        <v>-50.7</v>
       </c>
       <c r="D35">
-        <v>-61</v>
+        <v>-51.4</v>
       </c>
       <c r="E35">
-        <v>-53.1</v>
+        <v>-55</v>
       </c>
       <c r="F35">
-        <v>37.5</v>
+        <v>70.7</v>
       </c>
       <c r="G35">
-        <v>-81.09999999999999</v>
+        <v>-49.7</v>
       </c>
       <c r="H35">
-        <v>-0.71</v>
+        <v>-0.3</v>
       </c>
       <c r="I35">
-        <v>-0.9</v>
+        <v>-0.28</v>
       </c>
       <c r="J35">
-        <v>-0.59</v>
+        <v>-0.96</v>
       </c>
       <c r="K35">
-        <v>-0.8100000000000001</v>
+        <v>-0.79</v>
       </c>
     </row>
     <row r="36" spans="1:14">
@@ -1940,40 +1934,40 @@
         <v>47</v>
       </c>
       <c r="C36">
-        <v>-49.7</v>
+        <v>-31.8</v>
       </c>
       <c r="D36">
-        <v>-45.5</v>
+        <v>-25.8</v>
       </c>
       <c r="E36">
-        <v>-40</v>
+        <v>-25.9</v>
       </c>
       <c r="F36">
-        <v>60.6</v>
+        <v>95.90000000000001</v>
       </c>
       <c r="G36">
-        <v>-75.09999999999999</v>
+        <v>-33.9</v>
       </c>
       <c r="H36">
-        <v>0.02</v>
+        <v>0.26</v>
       </c>
       <c r="I36">
-        <v>0.68</v>
+        <v>-0.02</v>
       </c>
       <c r="J36">
-        <v>0.13</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="K36">
-        <v>-0.95</v>
+        <v>0.33</v>
       </c>
       <c r="L36">
-        <v>-25.41</v>
+        <v>15.44</v>
       </c>
       <c r="M36">
-        <v>-47.75</v>
+        <v>-58.57</v>
       </c>
       <c r="N36">
-        <v>-57.18</v>
+        <v>-61.97</v>
       </c>
     </row>
     <row r="37" spans="1:14">
@@ -1984,40 +1978,40 @@
         <v>48</v>
       </c>
       <c r="C37">
-        <v>-8.800000000000001</v>
+        <v>-9.1</v>
       </c>
       <c r="D37">
-        <v>-11.5</v>
+        <v>5.3</v>
       </c>
       <c r="E37">
-        <v>32.3</v>
+        <v>-34</v>
       </c>
       <c r="F37">
-        <v>30.7</v>
+        <v>62.6</v>
       </c>
       <c r="G37">
-        <v>-82.7</v>
+        <v>-64</v>
       </c>
       <c r="H37">
-        <v>3.69</v>
+        <v>-1.27</v>
       </c>
       <c r="I37">
-        <v>1.32</v>
+        <v>-2.84</v>
       </c>
       <c r="J37">
-        <v>0.21</v>
+        <v>-0.6899999999999999</v>
       </c>
       <c r="K37">
-        <v>-0.32</v>
+        <v>-1.04</v>
       </c>
       <c r="L37">
-        <v>-36.17</v>
+        <v>-37.18</v>
       </c>
       <c r="M37">
-        <v>52.5</v>
+        <v>-47.57</v>
       </c>
       <c r="N37">
-        <v>60.22</v>
+        <v>-63</v>
       </c>
     </row>
     <row r="38" spans="1:14">
@@ -2028,40 +2022,40 @@
         <v>49</v>
       </c>
       <c r="C38">
-        <v>-34.5</v>
+        <v>-20.6</v>
       </c>
       <c r="D38">
-        <v>-27.7</v>
+        <v>-16</v>
       </c>
       <c r="E38">
-        <v>-17.6</v>
+        <v>-33.5</v>
       </c>
       <c r="F38">
-        <v>60.4</v>
+        <v>91.2</v>
       </c>
       <c r="G38">
-        <v>-55.2</v>
+        <v>-1.8</v>
       </c>
       <c r="H38">
-        <v>0.19</v>
+        <v>0.57</v>
       </c>
       <c r="I38">
-        <v>0.78</v>
+        <v>-0.49</v>
       </c>
       <c r="J38">
-        <v>0.12</v>
+        <v>-0.44</v>
       </c>
       <c r="K38">
-        <v>-1.44</v>
+        <v>-0.47</v>
       </c>
       <c r="L38">
-        <v>5.78</v>
+        <v>-18.36</v>
       </c>
       <c r="M38">
-        <v>-24.85</v>
+        <v>-21.81</v>
       </c>
       <c r="N38">
-        <v>-33.05</v>
+        <v>9.380000000000001</v>
       </c>
     </row>
     <row r="39" spans="1:14">
@@ -2072,40 +2066,40 @@
         <v>50</v>
       </c>
       <c r="C39">
-        <v>-6.6</v>
+        <v>-8.300000000000001</v>
       </c>
       <c r="D39">
-        <v>-18.2</v>
+        <v>7.4</v>
       </c>
       <c r="E39">
-        <v>33.6</v>
+        <v>-32.4</v>
       </c>
       <c r="F39">
-        <v>51.4</v>
+        <v>77.09999999999999</v>
       </c>
       <c r="G39">
-        <v>-66.40000000000001</v>
+        <v>-53.4</v>
       </c>
       <c r="H39">
-        <v>3.62</v>
+        <v>-1.25</v>
       </c>
       <c r="I39">
-        <v>1.24</v>
+        <v>-2.59</v>
       </c>
       <c r="J39">
-        <v>-0.15</v>
+        <v>-0.65</v>
       </c>
       <c r="K39">
-        <v>-0.49</v>
+        <v>-1.03</v>
       </c>
       <c r="L39">
-        <v>-36.17</v>
+        <v>-37.18</v>
       </c>
       <c r="M39">
-        <v>52.5</v>
+        <v>-47.57</v>
       </c>
       <c r="N39">
-        <v>60.22</v>
+        <v>-63</v>
       </c>
     </row>
     <row r="40" spans="1:14">
@@ -2116,40 +2110,40 @@
         <v>51</v>
       </c>
       <c r="C40">
-        <v>-7.5</v>
+        <v>-8.6</v>
       </c>
       <c r="D40">
-        <v>-4.9</v>
+        <v>7.3</v>
       </c>
       <c r="E40">
-        <v>41.2</v>
+        <v>-38.8</v>
       </c>
       <c r="F40">
-        <v>26.7</v>
+        <v>59.8</v>
       </c>
       <c r="G40">
-        <v>-85</v>
+        <v>-64.8</v>
       </c>
       <c r="H40">
-        <v>3.74</v>
+        <v>-1.27</v>
       </c>
       <c r="I40">
-        <v>1.39</v>
+        <v>-2.81</v>
       </c>
       <c r="J40">
-        <v>0.31</v>
+        <v>-0.65</v>
       </c>
       <c r="K40">
-        <v>-0.28</v>
+        <v>-1.02</v>
       </c>
       <c r="L40">
-        <v>-36.17</v>
+        <v>-37.18</v>
       </c>
       <c r="M40">
-        <v>52.5</v>
+        <v>-47.57</v>
       </c>
       <c r="N40">
-        <v>60.22</v>
+        <v>-63</v>
       </c>
     </row>
     <row r="41" spans="1:14">
@@ -2160,40 +2154,40 @@
         <v>52</v>
       </c>
       <c r="C41">
-        <v>-40.6</v>
+        <v>-21.7</v>
       </c>
       <c r="D41">
-        <v>-37.2</v>
+        <v>-14.5</v>
       </c>
       <c r="E41">
-        <v>-31.6</v>
+        <v>-18.7</v>
       </c>
       <c r="F41">
-        <v>82.8</v>
+        <v>92.90000000000001</v>
       </c>
       <c r="G41">
-        <v>-61.5</v>
+        <v>-14.7</v>
       </c>
       <c r="H41">
-        <v>0.21</v>
+        <v>0.03</v>
       </c>
       <c r="I41">
-        <v>0.29</v>
+        <v>-0.42</v>
       </c>
       <c r="J41">
-        <v>-0.3</v>
+        <v>0.15</v>
       </c>
       <c r="K41">
-        <v>-1.35</v>
+        <v>-0.23</v>
       </c>
       <c r="L41">
-        <v>-9.43</v>
+        <v>20.35</v>
       </c>
       <c r="M41">
-        <v>-6.37</v>
+        <v>-20.59</v>
       </c>
       <c r="N41">
-        <v>0.52</v>
+        <v>-18.42</v>
       </c>
     </row>
     <row r="42" spans="1:14">
@@ -2204,40 +2198,40 @@
         <v>53</v>
       </c>
       <c r="C42">
-        <v>-20.3</v>
+        <v>-26.2</v>
       </c>
       <c r="D42">
-        <v>-13.9</v>
+        <v>-1.4</v>
       </c>
       <c r="E42">
-        <v>56.4</v>
+        <v>-64.90000000000001</v>
       </c>
       <c r="F42">
-        <v>20.9</v>
+        <v>26.9</v>
       </c>
       <c r="G42">
-        <v>-85</v>
+        <v>-81.2</v>
       </c>
       <c r="H42">
-        <v>2.08</v>
+        <v>-1.58</v>
       </c>
       <c r="I42">
-        <v>0.74</v>
+        <v>-2.36</v>
       </c>
       <c r="J42">
-        <v>-0.41</v>
+        <v>-0.9399999999999999</v>
       </c>
       <c r="K42">
-        <v>-1.29</v>
+        <v>-1.87</v>
       </c>
       <c r="L42">
-        <v>10.65</v>
+        <v>9.01</v>
       </c>
       <c r="M42">
-        <v>13.68</v>
+        <v>-3.55</v>
       </c>
       <c r="N42">
-        <v>25.08</v>
+        <v>-11.81</v>
       </c>
     </row>
   </sheetData>

--- a/Sistema-Operacional/Saidas/Monitoramento - Mananciais Críticos.xlsx
+++ b/Sistema-Operacional/Saidas/Monitoramento - Mananciais Críticos.xlsx
@@ -19,40 +19,40 @@
     <t>MUNICIPIO</t>
   </si>
   <si>
-    <t>AN_ANUAL_202105</t>
-  </si>
-  <si>
-    <t>AN_SEM_202105</t>
-  </si>
-  <si>
-    <t>AN_TRI_202105</t>
-  </si>
-  <si>
-    <t>AC_202105</t>
-  </si>
-  <si>
-    <t>AN_202105</t>
-  </si>
-  <si>
-    <t>SPI1_202105</t>
-  </si>
-  <si>
-    <t>SPI3_202105</t>
-  </si>
-  <si>
-    <t>SPI6_202105</t>
-  </si>
-  <si>
-    <t>SPI12_202105</t>
-  </si>
-  <si>
-    <t>AN_COTA_202103</t>
+    <t>AN_ANUAL_202106</t>
+  </si>
+  <si>
+    <t>AN_SEM_202106</t>
+  </si>
+  <si>
+    <t>AN_TRI_202106</t>
+  </si>
+  <si>
+    <t>AC_202106</t>
+  </si>
+  <si>
+    <t>AN_202106</t>
+  </si>
+  <si>
+    <t>SPI1_202106</t>
+  </si>
+  <si>
+    <t>SPI3_202106</t>
+  </si>
+  <si>
+    <t>SPI6_202106</t>
+  </si>
+  <si>
+    <t>SPI12_202106</t>
   </si>
   <si>
     <t>AN_COTA_202104</t>
   </si>
   <si>
-    <t>AN_COTA_20210531</t>
+    <t>AN_COTA_202105</t>
+  </si>
+  <si>
+    <t>AN_COTA_20210630</t>
   </si>
   <si>
     <t>SIA</t>
@@ -591,40 +591,40 @@
         <v>14</v>
       </c>
       <c r="C2">
-        <v>-22.4</v>
+        <v>-26.7</v>
       </c>
       <c r="D2">
-        <v>-17.4</v>
+        <v>-23</v>
       </c>
       <c r="E2">
-        <v>-19.2</v>
+        <v>-43.8</v>
       </c>
       <c r="F2">
-        <v>115.1</v>
+        <v>49.4</v>
       </c>
       <c r="G2">
-        <v>-5.1</v>
+        <v>-42.8</v>
       </c>
       <c r="H2">
-        <v>0.09</v>
+        <v>-0.02</v>
       </c>
       <c r="I2">
-        <v>-0.37</v>
+        <v>-0.88</v>
       </c>
       <c r="J2">
-        <v>-0.36</v>
+        <v>-1</v>
       </c>
       <c r="K2">
-        <v>-0.63</v>
+        <v>-0.95</v>
       </c>
       <c r="L2">
-        <v>-1.85</v>
+        <v>-3.18</v>
       </c>
       <c r="M2">
-        <v>-3.18</v>
+        <v>-7.16</v>
       </c>
       <c r="N2">
-        <v>-7.16</v>
+        <v>-5.08</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -635,40 +635,40 @@
         <v>15</v>
       </c>
       <c r="C3">
-        <v>-9.1</v>
+        <v>-10.8</v>
       </c>
       <c r="D3">
-        <v>-0.4</v>
+        <v>-2.8</v>
       </c>
       <c r="E3">
-        <v>-17.5</v>
+        <v>-12.8</v>
       </c>
       <c r="F3">
-        <v>92.3</v>
+        <v>110.1</v>
       </c>
       <c r="G3">
-        <v>17.3</v>
+        <v>17.4</v>
       </c>
       <c r="H3">
-        <v>-0.05</v>
+        <v>0.06</v>
       </c>
       <c r="I3">
-        <v>-0.8</v>
+        <v>-0.87</v>
       </c>
       <c r="J3">
-        <v>-0.19</v>
+        <v>-0.62</v>
       </c>
       <c r="K3">
-        <v>-0.38</v>
+        <v>-0.5600000000000001</v>
       </c>
       <c r="L3">
-        <v>18.97</v>
+        <v>-31.61</v>
       </c>
       <c r="M3">
-        <v>-31.61</v>
+        <v>-12.35</v>
       </c>
       <c r="N3">
-        <v>-12.35</v>
+        <v>-13.21</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -679,31 +679,31 @@
         <v>16</v>
       </c>
       <c r="C4">
-        <v>-30.1</v>
+        <v>-36.3</v>
       </c>
       <c r="D4">
-        <v>-23.7</v>
+        <v>-24.6</v>
       </c>
       <c r="E4">
-        <v>-43.3</v>
+        <v>-54.5</v>
       </c>
       <c r="F4">
-        <v>107</v>
+        <v>66.3</v>
       </c>
       <c r="G4">
-        <v>-19</v>
+        <v>-48.8</v>
       </c>
       <c r="H4">
-        <v>-0.22</v>
+        <v>-0.06</v>
       </c>
       <c r="I4">
-        <v>-0.51</v>
+        <v>-1.03</v>
       </c>
       <c r="J4">
-        <v>-0.09</v>
+        <v>-0.64</v>
       </c>
       <c r="K4">
-        <v>-0.47</v>
+        <v>-0.77</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -714,40 +714,40 @@
         <v>17</v>
       </c>
       <c r="C5">
-        <v>-7.1</v>
+        <v>-8.4</v>
       </c>
       <c r="D5">
-        <v>12.9</v>
+        <v>7.2</v>
       </c>
       <c r="E5">
-        <v>-62.1</v>
+        <v>-53.7</v>
       </c>
       <c r="F5">
-        <v>33.8</v>
+        <v>116.9</v>
       </c>
       <c r="G5">
-        <v>-74.2</v>
+        <v>14.1</v>
       </c>
       <c r="H5">
-        <v>-1.28</v>
+        <v>0.18</v>
       </c>
       <c r="I5">
-        <v>-3.47</v>
+        <v>-1.73</v>
       </c>
       <c r="J5">
-        <v>-0.91</v>
+        <v>-0.6</v>
       </c>
       <c r="K5">
-        <v>-1.1</v>
+        <v>-1.13</v>
       </c>
       <c r="L5">
-        <v>-37.18</v>
+        <v>-47.57</v>
       </c>
       <c r="M5">
-        <v>-47.57</v>
+        <v>-63</v>
       </c>
       <c r="N5">
-        <v>-63</v>
+        <v>-50.29</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -758,40 +758,40 @@
         <v>18</v>
       </c>
       <c r="C6">
-        <v>-25.6</v>
+        <v>-26.1</v>
       </c>
       <c r="D6">
-        <v>3</v>
+        <v>-12.3</v>
       </c>
       <c r="E6">
-        <v>-63.7</v>
+        <v>-66.3</v>
       </c>
       <c r="F6">
-        <v>24.3</v>
+        <v>95.90000000000001</v>
       </c>
       <c r="G6">
-        <v>-80.8</v>
+        <v>-14.6</v>
       </c>
       <c r="H6">
-        <v>-1.58</v>
+        <v>-0.04</v>
       </c>
       <c r="I6">
-        <v>-2.35</v>
+        <v>-1.83</v>
       </c>
       <c r="J6">
-        <v>-0.93</v>
+        <v>-1.61</v>
       </c>
       <c r="K6">
-        <v>-1.86</v>
+        <v>-1.88</v>
       </c>
       <c r="L6">
-        <v>9.01</v>
+        <v>-3.55</v>
       </c>
       <c r="M6">
-        <v>-3.55</v>
+        <v>-11.81</v>
       </c>
       <c r="N6">
-        <v>-11.81</v>
+        <v>-19.37</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -802,31 +802,31 @@
         <v>19</v>
       </c>
       <c r="C7">
-        <v>-4.8</v>
+        <v>-5.6</v>
       </c>
       <c r="D7">
-        <v>18.2</v>
+        <v>2.9</v>
       </c>
       <c r="E7">
-        <v>-45.7</v>
+        <v>-65</v>
       </c>
       <c r="F7">
-        <v>35.8</v>
+        <v>102.5</v>
       </c>
       <c r="G7">
-        <v>-75.2</v>
+        <v>-14.8</v>
       </c>
       <c r="H7">
-        <v>-1.29</v>
+        <v>0.02</v>
       </c>
       <c r="I7">
-        <v>-1.69</v>
+        <v>-1.75</v>
       </c>
       <c r="J7">
-        <v>-0.73</v>
+        <v>-0.93</v>
       </c>
       <c r="K7">
-        <v>-1.33</v>
+        <v>-1.37</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -837,40 +837,40 @@
         <v>20</v>
       </c>
       <c r="C8">
-        <v>-23.3</v>
+        <v>-28.5</v>
       </c>
       <c r="D8">
-        <v>-20.1</v>
+        <v>-23.8</v>
       </c>
       <c r="E8">
-        <v>-31.5</v>
+        <v>-36.2</v>
       </c>
       <c r="F8">
-        <v>80</v>
+        <v>70.90000000000001</v>
       </c>
       <c r="G8">
-        <v>-23.8</v>
+        <v>-25.7</v>
       </c>
       <c r="H8">
-        <v>0.22</v>
+        <v>0.15</v>
       </c>
       <c r="I8">
-        <v>-0.4</v>
+        <v>-0.58</v>
       </c>
       <c r="J8">
-        <v>0.21</v>
+        <v>-0.12</v>
       </c>
       <c r="K8">
-        <v>0.01</v>
+        <v>-0.37</v>
       </c>
       <c r="L8">
-        <v>10.54</v>
+        <v>-3.26</v>
       </c>
       <c r="M8">
-        <v>-3.26</v>
+        <v>-2.48</v>
       </c>
       <c r="N8">
-        <v>-2.48</v>
+        <v>-0.26</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -881,31 +881,31 @@
         <v>21</v>
       </c>
       <c r="C9">
-        <v>-30.5</v>
+        <v>-34.1</v>
       </c>
       <c r="D9">
-        <v>-22.2</v>
+        <v>-37</v>
       </c>
       <c r="E9">
-        <v>-73.40000000000001</v>
+        <v>-72.90000000000001</v>
       </c>
       <c r="F9">
-        <v>24.4</v>
+        <v>93.8</v>
       </c>
       <c r="G9">
-        <v>-84</v>
+        <v>-44.1</v>
       </c>
       <c r="H9">
-        <v>-1.27</v>
+        <v>0.29</v>
       </c>
       <c r="I9">
-        <v>-2.11</v>
+        <v>-1.58</v>
       </c>
       <c r="J9">
-        <v>-0.5600000000000001</v>
+        <v>-0.37</v>
       </c>
       <c r="K9">
-        <v>-0.98</v>
+        <v>-1.13</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -916,40 +916,40 @@
         <v>22</v>
       </c>
       <c r="C10">
+        <v>-24.2</v>
+      </c>
+      <c r="D10">
         <v>-24.1</v>
       </c>
-      <c r="D10">
-        <v>-17.6</v>
-      </c>
       <c r="E10">
-        <v>-28.9</v>
+        <v>-28.4</v>
       </c>
       <c r="F10">
-        <v>100.1</v>
+        <v>93</v>
       </c>
       <c r="G10">
-        <v>15.5</v>
+        <v>-16.5</v>
       </c>
       <c r="H10">
-        <v>0.58</v>
+        <v>0.06</v>
       </c>
       <c r="I10">
-        <v>-0.52</v>
+        <v>-0.54</v>
       </c>
       <c r="J10">
-        <v>-0.46</v>
+        <v>-0.95</v>
       </c>
       <c r="K10">
-        <v>-0.5</v>
+        <v>-0.72</v>
       </c>
       <c r="L10">
-        <v>-18.36</v>
+        <v>-21.81</v>
       </c>
       <c r="M10">
-        <v>-21.81</v>
+        <v>9.380000000000001</v>
       </c>
       <c r="N10">
-        <v>9.380000000000001</v>
+        <v>-24.85</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -960,40 +960,40 @@
         <v>23</v>
       </c>
       <c r="C11">
-        <v>-18.5</v>
+        <v>-19.3</v>
       </c>
       <c r="D11">
-        <v>-11.2</v>
+        <v>-12.6</v>
       </c>
       <c r="E11">
-        <v>-8.800000000000001</v>
+        <v>-18.1</v>
       </c>
       <c r="F11">
-        <v>104.6</v>
+        <v>112.5</v>
       </c>
       <c r="G11">
-        <v>1.3</v>
+        <v>-1.9</v>
       </c>
       <c r="H11">
-        <v>0.34</v>
+        <v>0.17</v>
       </c>
       <c r="I11">
-        <v>-0.17</v>
+        <v>-0.36</v>
       </c>
       <c r="J11">
-        <v>-0.12</v>
+        <v>-0.4</v>
       </c>
       <c r="K11">
-        <v>-0.23</v>
+        <v>-0.41</v>
       </c>
       <c r="L11">
-        <v>37.37</v>
+        <v>-4.65</v>
       </c>
       <c r="M11">
-        <v>-4.65</v>
+        <v>-6.15</v>
       </c>
       <c r="N11">
-        <v>-6.15</v>
+        <v>-25.26</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -1004,40 +1004,40 @@
         <v>24</v>
       </c>
       <c r="C12">
-        <v>-18.8</v>
+        <v>-19.7</v>
       </c>
       <c r="D12">
-        <v>-12</v>
+        <v>-14.2</v>
       </c>
       <c r="E12">
-        <v>-10.5</v>
+        <v>-17.3</v>
       </c>
       <c r="F12">
-        <v>108.2</v>
+        <v>114.8</v>
       </c>
       <c r="G12">
-        <v>-0.8</v>
+        <v>-0.4</v>
       </c>
       <c r="H12">
-        <v>0.39</v>
+        <v>0.15</v>
       </c>
       <c r="I12">
-        <v>-0.08</v>
+        <v>-0.34</v>
       </c>
       <c r="J12">
-        <v>-0.15</v>
+        <v>-0.41</v>
       </c>
       <c r="K12">
-        <v>-0.2</v>
+        <v>-0.38</v>
       </c>
       <c r="L12">
-        <v>37.37</v>
+        <v>-4.65</v>
       </c>
       <c r="M12">
-        <v>-4.65</v>
+        <v>-6.15</v>
       </c>
       <c r="N12">
-        <v>-6.15</v>
+        <v>-25.26</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -1048,31 +1048,31 @@
         <v>25</v>
       </c>
       <c r="C13">
-        <v>-38.9</v>
+        <v>-44.5</v>
       </c>
       <c r="D13">
-        <v>-38.4</v>
+        <v>-53.6</v>
       </c>
       <c r="E13">
-        <v>-79.5</v>
+        <v>-81</v>
       </c>
       <c r="F13">
-        <v>19.1</v>
+        <v>70.40000000000001</v>
       </c>
       <c r="G13">
-        <v>-88.7</v>
+        <v>-59.4</v>
       </c>
       <c r="H13">
-        <v>-1.26</v>
+        <v>0.58</v>
       </c>
       <c r="I13">
-        <v>-2.55</v>
+        <v>-1.41</v>
       </c>
       <c r="J13">
-        <v>-0.57</v>
+        <v>-0.36</v>
       </c>
       <c r="K13">
-        <v>-0.98</v>
+        <v>-1.16</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -1083,40 +1083,40 @@
         <v>26</v>
       </c>
       <c r="C14">
-        <v>-27</v>
+        <v>-29.7</v>
       </c>
       <c r="D14">
-        <v>-21</v>
+        <v>-24.5</v>
       </c>
       <c r="E14">
-        <v>-23.2</v>
+        <v>-39</v>
       </c>
       <c r="F14">
-        <v>91.5</v>
+        <v>98.90000000000001</v>
       </c>
       <c r="G14">
-        <v>-19.1</v>
+        <v>-16.5</v>
       </c>
       <c r="H14">
-        <v>0.24</v>
+        <v>0.28</v>
       </c>
       <c r="I14">
-        <v>-0.13</v>
+        <v>-0.37</v>
       </c>
       <c r="J14">
-        <v>0.29</v>
+        <v>-0.03</v>
       </c>
       <c r="K14">
-        <v>-0.03</v>
+        <v>-0.21</v>
       </c>
       <c r="L14">
-        <v>20.35</v>
+        <v>-20.59</v>
       </c>
       <c r="M14">
-        <v>-20.59</v>
+        <v>-18.42</v>
       </c>
       <c r="N14">
-        <v>-18.42</v>
+        <v>-26.28</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -1127,31 +1127,31 @@
         <v>21</v>
       </c>
       <c r="C15">
-        <v>-23.6</v>
+        <v>-27.1</v>
       </c>
       <c r="D15">
-        <v>-14.9</v>
+        <v>-14.1</v>
       </c>
       <c r="E15">
-        <v>-51.3</v>
+        <v>-45.4</v>
       </c>
       <c r="F15">
-        <v>71.59999999999999</v>
+        <v>143</v>
       </c>
       <c r="G15">
-        <v>-51.6</v>
+        <v>32.3</v>
       </c>
       <c r="H15">
-        <v>-1.03</v>
+        <v>0.48</v>
       </c>
       <c r="I15">
-        <v>-2.06</v>
+        <v>-1.28</v>
       </c>
       <c r="J15">
-        <v>-0.73</v>
+        <v>-0.8</v>
       </c>
       <c r="K15">
-        <v>-1.06</v>
+        <v>-1.44</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -1162,40 +1162,40 @@
         <v>27</v>
       </c>
       <c r="C16">
-        <v>-24.7</v>
+        <v>-27.5</v>
       </c>
       <c r="D16">
-        <v>-16.9</v>
+        <v>-15.6</v>
       </c>
       <c r="E16">
-        <v>-51.6</v>
+        <v>-54.5</v>
       </c>
       <c r="F16">
-        <v>70.90000000000001</v>
+        <v>136.9</v>
       </c>
       <c r="G16">
-        <v>-60.1</v>
+        <v>21.2</v>
       </c>
       <c r="H16">
-        <v>-1.25</v>
+        <v>0.52</v>
       </c>
       <c r="I16">
-        <v>-2.56</v>
+        <v>-1.43</v>
       </c>
       <c r="J16">
-        <v>-0.61</v>
+        <v>-0.43</v>
       </c>
       <c r="K16">
-        <v>-1.01</v>
+        <v>-1.18</v>
       </c>
       <c r="L16">
-        <v>-15.97</v>
+        <v>-13.16</v>
       </c>
       <c r="M16">
-        <v>-13.16</v>
+        <v>-28.32</v>
       </c>
       <c r="N16">
-        <v>-28.32</v>
+        <v>-26.34</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1206,31 +1206,31 @@
         <v>28</v>
       </c>
       <c r="C17">
-        <v>-45.8</v>
+        <v>-52.5</v>
       </c>
       <c r="D17">
-        <v>-42.6</v>
+        <v>-41.5</v>
       </c>
       <c r="E17">
-        <v>-47.8</v>
+        <v>-62.2</v>
       </c>
       <c r="F17">
-        <v>65.09999999999999</v>
+        <v>43.3</v>
       </c>
       <c r="G17">
-        <v>-53.1</v>
+        <v>-57.9</v>
       </c>
       <c r="H17">
-        <v>-0.26</v>
+        <v>-0.17</v>
       </c>
       <c r="I17">
-        <v>-0.61</v>
+        <v>-1</v>
       </c>
       <c r="J17">
-        <v>-1.3</v>
+        <v>-1.02</v>
       </c>
       <c r="K17">
-        <v>-0.92</v>
+        <v>-1.41</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1241,40 +1241,40 @@
         <v>29</v>
       </c>
       <c r="C18">
-        <v>-37.6</v>
+        <v>-41.3</v>
       </c>
       <c r="D18">
-        <v>-34.7</v>
+        <v>-38.3</v>
       </c>
       <c r="E18">
-        <v>-32</v>
+        <v>-54.7</v>
       </c>
       <c r="F18">
-        <v>117.6</v>
+        <v>52.2</v>
       </c>
       <c r="G18">
-        <v>-22.5</v>
+        <v>-52.5</v>
       </c>
       <c r="H18">
-        <v>0.09</v>
+        <v>-0.02</v>
       </c>
       <c r="I18">
-        <v>-0.37</v>
+        <v>-0.87</v>
       </c>
       <c r="J18">
-        <v>-0.36</v>
+        <v>-1</v>
       </c>
       <c r="K18">
-        <v>-0.63</v>
+        <v>-0.95</v>
       </c>
       <c r="L18">
-        <v>-1.85</v>
+        <v>-3.18</v>
       </c>
       <c r="M18">
-        <v>-3.18</v>
+        <v>-7.16</v>
       </c>
       <c r="N18">
-        <v>-7.16</v>
+        <v>-5.08</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1285,31 +1285,31 @@
         <v>30</v>
       </c>
       <c r="C19">
-        <v>-8.800000000000001</v>
+        <v>-9.1</v>
       </c>
       <c r="D19">
-        <v>5.4</v>
+        <v>-4</v>
       </c>
       <c r="E19">
-        <v>-50.5</v>
+        <v>-48.9</v>
       </c>
       <c r="F19">
-        <v>48.5</v>
+        <v>125.7</v>
       </c>
       <c r="G19">
-        <v>-62</v>
+        <v>48.1</v>
       </c>
       <c r="H19">
-        <v>-1.33</v>
+        <v>0.33</v>
       </c>
       <c r="I19">
-        <v>-2.14</v>
+        <v>-1.39</v>
       </c>
       <c r="J19">
-        <v>-0.78</v>
+        <v>-0.86</v>
       </c>
       <c r="K19">
-        <v>-1.27</v>
+        <v>-1.54</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1320,31 +1320,31 @@
         <v>31</v>
       </c>
       <c r="C20">
-        <v>-33.3</v>
+        <v>-38.7</v>
       </c>
       <c r="D20">
-        <v>-28.6</v>
+        <v>-30.8</v>
       </c>
       <c r="E20">
-        <v>-47.7</v>
+        <v>-60.4</v>
       </c>
       <c r="F20">
-        <v>95.59999999999999</v>
+        <v>66.7</v>
       </c>
       <c r="G20">
-        <v>-38.4</v>
+        <v>-49.2</v>
       </c>
       <c r="H20">
-        <v>-1.16</v>
+        <v>-0.05</v>
       </c>
       <c r="I20">
-        <v>-1.07</v>
+        <v>-1.47</v>
       </c>
       <c r="J20">
-        <v>0.48</v>
+        <v>-0.06</v>
       </c>
       <c r="K20">
-        <v>-0.05</v>
+        <v>-0.33</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1355,40 +1355,40 @@
         <v>32</v>
       </c>
       <c r="C21">
-        <v>-24.6</v>
+        <v>-27.9</v>
       </c>
       <c r="D21">
-        <v>-18.2</v>
+        <v>-16.5</v>
       </c>
       <c r="E21">
-        <v>-50.7</v>
+        <v>-53.4</v>
       </c>
       <c r="F21">
-        <v>73.8</v>
+        <v>132.6</v>
       </c>
       <c r="G21">
-        <v>-57.4</v>
+        <v>24.8</v>
       </c>
       <c r="H21">
-        <v>-1.23</v>
+        <v>0.53</v>
       </c>
       <c r="I21">
-        <v>-2.49</v>
+        <v>-1.41</v>
       </c>
       <c r="J21">
-        <v>-0.61</v>
+        <v>-0.45</v>
       </c>
       <c r="K21">
-        <v>-1.01</v>
+        <v>-1.2</v>
       </c>
       <c r="L21">
-        <v>752.4400000000001</v>
+        <v>706.3099999999999</v>
       </c>
       <c r="M21">
-        <v>706.3099999999999</v>
+        <v>-8.699999999999999</v>
       </c>
       <c r="N21">
-        <v>-8.699999999999999</v>
+        <v>-13.28</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1399,31 +1399,31 @@
         <v>33</v>
       </c>
       <c r="C22">
-        <v>-3.9</v>
+        <v>-8.6</v>
       </c>
       <c r="D22">
-        <v>12.8</v>
+        <v>-3.6</v>
       </c>
       <c r="E22">
-        <v>-35.3</v>
+        <v>-62.4</v>
       </c>
       <c r="F22">
-        <v>58.4</v>
+        <v>100.6</v>
       </c>
       <c r="G22">
-        <v>-64.59999999999999</v>
+        <v>-15.5</v>
       </c>
       <c r="H22">
-        <v>-1.15</v>
+        <v>0.16</v>
       </c>
       <c r="I22">
-        <v>-1.82</v>
+        <v>-1.47</v>
       </c>
       <c r="J22">
-        <v>-0.7</v>
+        <v>-1.06</v>
       </c>
       <c r="K22">
-        <v>-1.03</v>
+        <v>-1.41</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1434,31 +1434,31 @@
         <v>34</v>
       </c>
       <c r="C23">
-        <v>-21.7</v>
+        <v>-20.7</v>
       </c>
       <c r="D23">
-        <v>-0.8</v>
+        <v>-13.1</v>
       </c>
       <c r="E23">
-        <v>-64.09999999999999</v>
+        <v>-62.1</v>
       </c>
       <c r="F23">
-        <v>30.7</v>
+        <v>117.1</v>
       </c>
       <c r="G23">
-        <v>-80.7</v>
+        <v>-5</v>
       </c>
       <c r="H23">
-        <v>-1.37</v>
+        <v>0.31</v>
       </c>
       <c r="I23">
-        <v>-2.77</v>
+        <v>-1.59</v>
       </c>
       <c r="J23">
-        <v>-2.11</v>
+        <v>-1.25</v>
       </c>
       <c r="K23">
-        <v>-1.9</v>
+        <v>-1.94</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1469,31 +1469,31 @@
         <v>35</v>
       </c>
       <c r="C24">
-        <v>-31.3</v>
+        <v>-29.7</v>
       </c>
       <c r="D24">
-        <v>-18.3</v>
+        <v>-22.9</v>
       </c>
       <c r="E24">
-        <v>-71.90000000000001</v>
+        <v>-62.2</v>
       </c>
       <c r="F24">
-        <v>24.4</v>
+        <v>130.4</v>
       </c>
       <c r="G24">
-        <v>-84.90000000000001</v>
+        <v>-1.8</v>
       </c>
       <c r="H24">
-        <v>-1.26</v>
+        <v>0.29</v>
       </c>
       <c r="I24">
-        <v>-2.7</v>
+        <v>-1.53</v>
       </c>
       <c r="J24">
-        <v>-0.47</v>
+        <v>-0.38</v>
       </c>
       <c r="K24">
-        <v>-0.96</v>
+        <v>-0.95</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1504,31 +1504,31 @@
         <v>36</v>
       </c>
       <c r="C25">
-        <v>-22.9</v>
+        <v>-26.1</v>
       </c>
       <c r="D25">
-        <v>-9.9</v>
+        <v>-15.4</v>
       </c>
       <c r="E25">
-        <v>-27</v>
+        <v>-52.2</v>
       </c>
       <c r="F25">
-        <v>71.90000000000001</v>
+        <v>93.09999999999999</v>
       </c>
       <c r="G25">
-        <v>-36.6</v>
+        <v>-37.3</v>
       </c>
       <c r="H25">
-        <v>-0.13</v>
+        <v>0.03</v>
       </c>
       <c r="I25">
-        <v>-1.11</v>
+        <v>-0.97</v>
       </c>
       <c r="J25">
-        <v>-0.2</v>
+        <v>-0.64</v>
       </c>
       <c r="K25">
-        <v>-0.41</v>
+        <v>-0.58</v>
       </c>
     </row>
     <row r="26" spans="1:14">
@@ -1539,31 +1539,31 @@
         <v>37</v>
       </c>
       <c r="C26">
-        <v>-29.3</v>
+        <v>-33.1</v>
       </c>
       <c r="D26">
-        <v>-20.1</v>
+        <v>-16.9</v>
       </c>
       <c r="E26">
-        <v>-33.8</v>
+        <v>-45.2</v>
       </c>
       <c r="F26">
-        <v>77.59999999999999</v>
+        <v>53.8</v>
       </c>
       <c r="G26">
-        <v>-27.5</v>
+        <v>-21.4</v>
       </c>
       <c r="H26">
-        <v>-0.02</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="I26">
-        <v>-0.99</v>
+        <v>-0.78</v>
       </c>
       <c r="J26">
-        <v>-0.48</v>
+        <v>-1.32</v>
       </c>
       <c r="K26">
-        <v>-0.87</v>
+        <v>-1.35</v>
       </c>
     </row>
     <row r="27" spans="1:14">
@@ -1574,31 +1574,31 @@
         <v>38</v>
       </c>
       <c r="C27">
-        <v>-46.1</v>
+        <v>-50.4</v>
       </c>
       <c r="D27">
-        <v>-44.8</v>
+        <v>-43.6</v>
       </c>
       <c r="E27">
-        <v>-48.9</v>
+        <v>-55.9</v>
       </c>
       <c r="F27">
-        <v>74.90000000000001</v>
+        <v>44.1</v>
       </c>
       <c r="G27">
-        <v>-44.9</v>
+        <v>-51.4</v>
       </c>
       <c r="H27">
-        <v>-0.13</v>
+        <v>-0.09</v>
       </c>
       <c r="I27">
-        <v>-0.26</v>
+        <v>-0.75</v>
       </c>
       <c r="J27">
-        <v>-0.61</v>
+        <v>-0.8</v>
       </c>
       <c r="K27">
-        <v>-0.67</v>
+        <v>-0.97</v>
       </c>
     </row>
     <row r="28" spans="1:14">
@@ -1609,40 +1609,40 @@
         <v>39</v>
       </c>
       <c r="C28">
-        <v>-9.199999999999999</v>
+        <v>-9.800000000000001</v>
       </c>
       <c r="D28">
-        <v>11</v>
+        <v>5.3</v>
       </c>
       <c r="E28">
-        <v>-46.1</v>
+        <v>-55</v>
       </c>
       <c r="F28">
-        <v>47.3</v>
+        <v>134.2</v>
       </c>
       <c r="G28">
-        <v>-71.7</v>
+        <v>16.5</v>
       </c>
       <c r="H28">
-        <v>-1.27</v>
+        <v>0.28</v>
       </c>
       <c r="I28">
-        <v>-2.9</v>
+        <v>-1.59</v>
       </c>
       <c r="J28">
-        <v>-0.63</v>
+        <v>-0.46</v>
       </c>
       <c r="K28">
-        <v>-1.02</v>
+        <v>-1.04</v>
       </c>
       <c r="L28">
-        <v>-37.18</v>
+        <v>-47.57</v>
       </c>
       <c r="M28">
-        <v>-47.57</v>
+        <v>-63</v>
       </c>
       <c r="N28">
-        <v>-63</v>
+        <v>-50.29</v>
       </c>
     </row>
     <row r="29" spans="1:14">
@@ -1653,40 +1653,40 @@
         <v>40</v>
       </c>
       <c r="C29">
-        <v>-21.7</v>
+        <v>-23.7</v>
       </c>
       <c r="D29">
-        <v>-7.7</v>
+        <v>-8.800000000000001</v>
       </c>
       <c r="E29">
-        <v>-18.9</v>
+        <v>-30.3</v>
       </c>
       <c r="F29">
-        <v>97.59999999999999</v>
+        <v>109.7</v>
       </c>
       <c r="G29">
-        <v>-11.1</v>
+        <v>1.5</v>
       </c>
       <c r="H29">
-        <v>0.4</v>
+        <v>0.43</v>
       </c>
       <c r="I29">
-        <v>0.01</v>
+        <v>-0.4</v>
       </c>
       <c r="J29">
-        <v>0.32</v>
+        <v>0.1</v>
       </c>
       <c r="K29">
-        <v>0.19</v>
+        <v>-0.06</v>
       </c>
       <c r="L29">
-        <v>84.34</v>
+        <v>-12.83</v>
       </c>
       <c r="M29">
-        <v>-12.83</v>
+        <v>-24.54</v>
       </c>
       <c r="N29">
-        <v>-24.54</v>
+        <v>-30.03</v>
       </c>
     </row>
     <row r="30" spans="1:14">
@@ -1697,40 +1697,40 @@
         <v>41</v>
       </c>
       <c r="C30">
-        <v>-11.3</v>
+        <v>-13.3</v>
       </c>
       <c r="D30">
-        <v>3.6</v>
+        <v>6.5</v>
       </c>
       <c r="E30">
-        <v>-37.4</v>
+        <v>-44.3</v>
       </c>
       <c r="F30">
-        <v>74.59999999999999</v>
+        <v>158.9</v>
       </c>
       <c r="G30">
-        <v>-55.4</v>
+        <v>57.7</v>
       </c>
       <c r="H30">
-        <v>-1.25</v>
+        <v>0.44</v>
       </c>
       <c r="I30">
-        <v>-2.62</v>
+        <v>-1.48</v>
       </c>
       <c r="J30">
-        <v>-0.64</v>
+        <v>-0.46</v>
       </c>
       <c r="K30">
-        <v>-1.03</v>
+        <v>-1.17</v>
       </c>
       <c r="L30">
-        <v>-37.18</v>
+        <v>-47.57</v>
       </c>
       <c r="M30">
-        <v>-47.57</v>
+        <v>-63</v>
       </c>
       <c r="N30">
-        <v>-63</v>
+        <v>-50.29</v>
       </c>
     </row>
     <row r="31" spans="1:14">
@@ -1741,31 +1741,31 @@
         <v>42</v>
       </c>
       <c r="C31">
-        <v>-18.8</v>
+        <v>-19.8</v>
       </c>
       <c r="D31">
-        <v>-6.1</v>
+        <v>-10.6</v>
       </c>
       <c r="E31">
-        <v>-50.7</v>
+        <v>-59.4</v>
       </c>
       <c r="F31">
-        <v>51.4</v>
+        <v>130.9</v>
       </c>
       <c r="G31">
-        <v>-70.2</v>
+        <v>-1.6</v>
       </c>
       <c r="H31">
-        <v>-1.26</v>
+        <v>0.45</v>
       </c>
       <c r="I31">
-        <v>-2.61</v>
+        <v>-1.48</v>
       </c>
       <c r="J31">
-        <v>-0.57</v>
+        <v>-0.39</v>
       </c>
       <c r="K31">
-        <v>-0.99</v>
+        <v>-1.11</v>
       </c>
     </row>
     <row r="32" spans="1:14">
@@ -1776,40 +1776,40 @@
         <v>43</v>
       </c>
       <c r="C32">
-        <v>-9.9</v>
+        <v>-10.4</v>
       </c>
       <c r="D32">
-        <v>10</v>
+        <v>4.6</v>
       </c>
       <c r="E32">
-        <v>-46.1</v>
+        <v>-55.2</v>
       </c>
       <c r="F32">
-        <v>47.2</v>
+        <v>135.5</v>
       </c>
       <c r="G32">
-        <v>-71.7</v>
+        <v>14.2</v>
       </c>
       <c r="H32">
-        <v>-1.27</v>
+        <v>0.28</v>
       </c>
       <c r="I32">
-        <v>-2.85</v>
+        <v>-1.57</v>
       </c>
       <c r="J32">
-        <v>-0.61</v>
+        <v>-0.45</v>
       </c>
       <c r="K32">
-        <v>-1.01</v>
+        <v>-1.03</v>
       </c>
       <c r="L32">
-        <v>-37.18</v>
+        <v>-47.57</v>
       </c>
       <c r="M32">
-        <v>-47.57</v>
+        <v>-63</v>
       </c>
       <c r="N32">
-        <v>-63</v>
+        <v>-50.29</v>
       </c>
     </row>
     <row r="33" spans="1:14">
@@ -1820,31 +1820,31 @@
         <v>44</v>
       </c>
       <c r="C33">
-        <v>-26.5</v>
+        <v>-27.3</v>
       </c>
       <c r="D33">
-        <v>-7.3</v>
+        <v>-13</v>
       </c>
       <c r="E33">
-        <v>-65.3</v>
+        <v>-57.1</v>
       </c>
       <c r="F33">
-        <v>26.7</v>
+        <v>117.3</v>
       </c>
       <c r="G33">
-        <v>-82.5</v>
+        <v>5.3</v>
       </c>
       <c r="H33">
+        <v>0.35</v>
+      </c>
+      <c r="I33">
+        <v>-1.5</v>
+      </c>
+      <c r="J33">
         <v>-1.36</v>
       </c>
-      <c r="I33">
-        <v>-2.7</v>
-      </c>
-      <c r="J33">
-        <v>-2.41</v>
-      </c>
       <c r="K33">
-        <v>-2.04</v>
+        <v>-2.1</v>
       </c>
     </row>
     <row r="34" spans="1:14">
@@ -1855,40 +1855,40 @@
         <v>45</v>
       </c>
       <c r="C34">
-        <v>-25.4</v>
+        <v>-27.9</v>
       </c>
       <c r="D34">
-        <v>-19.7</v>
+        <v>-23.1</v>
       </c>
       <c r="E34">
-        <v>-26.7</v>
+        <v>-38.1</v>
       </c>
       <c r="F34">
-        <v>90.09999999999999</v>
+        <v>98.3</v>
       </c>
       <c r="G34">
-        <v>-18.2</v>
+        <v>-16.3</v>
       </c>
       <c r="H34">
-        <v>0.21</v>
+        <v>0.28</v>
       </c>
       <c r="I34">
-        <v>-0.14</v>
+        <v>-0.37</v>
       </c>
       <c r="J34">
-        <v>0.31</v>
+        <v>0.01</v>
       </c>
       <c r="K34">
-        <v>-0.05</v>
+        <v>-0.23</v>
       </c>
       <c r="L34">
-        <v>20.35</v>
+        <v>-20.59</v>
       </c>
       <c r="M34">
-        <v>-20.59</v>
+        <v>-18.42</v>
       </c>
       <c r="N34">
-        <v>-18.42</v>
+        <v>-26.28</v>
       </c>
     </row>
     <row r="35" spans="1:14">
@@ -1899,31 +1899,31 @@
         <v>46</v>
       </c>
       <c r="C35">
-        <v>-50.7</v>
+        <v>-54.5</v>
       </c>
       <c r="D35">
-        <v>-51.4</v>
+        <v>-49.9</v>
       </c>
       <c r="E35">
-        <v>-55</v>
+        <v>-58.9</v>
       </c>
       <c r="F35">
-        <v>70.7</v>
+        <v>47.9</v>
       </c>
       <c r="G35">
-        <v>-49.7</v>
+        <v>-51</v>
       </c>
       <c r="H35">
-        <v>-0.3</v>
+        <v>-0.14</v>
       </c>
       <c r="I35">
-        <v>-0.28</v>
+        <v>-0.91</v>
       </c>
       <c r="J35">
-        <v>-0.96</v>
+        <v>-0.91</v>
       </c>
       <c r="K35">
-        <v>-0.79</v>
+        <v>-1.19</v>
       </c>
     </row>
     <row r="36" spans="1:14">
@@ -1934,40 +1934,40 @@
         <v>47</v>
       </c>
       <c r="C36">
-        <v>-31.8</v>
+        <v>-34.5</v>
       </c>
       <c r="D36">
-        <v>-25.8</v>
+        <v>-25.3</v>
       </c>
       <c r="E36">
-        <v>-25.9</v>
+        <v>-44.3</v>
       </c>
       <c r="F36">
-        <v>95.90000000000001</v>
+        <v>101.7</v>
       </c>
       <c r="G36">
-        <v>-33.9</v>
+        <v>-13.1</v>
       </c>
       <c r="H36">
-        <v>0.26</v>
+        <v>0.3</v>
       </c>
       <c r="I36">
-        <v>-0.02</v>
+        <v>-0.34</v>
       </c>
       <c r="J36">
-        <v>0.6899999999999999</v>
+        <v>0.32</v>
       </c>
       <c r="K36">
-        <v>0.33</v>
+        <v>0.2</v>
       </c>
       <c r="L36">
-        <v>15.44</v>
+        <v>-58.57</v>
       </c>
       <c r="M36">
-        <v>-58.57</v>
+        <v>-61.97</v>
       </c>
       <c r="N36">
-        <v>-61.97</v>
+        <v>-60.59</v>
       </c>
     </row>
     <row r="37" spans="1:14">
@@ -1978,40 +1978,40 @@
         <v>48</v>
       </c>
       <c r="C37">
-        <v>-9.1</v>
+        <v>-11.5</v>
       </c>
       <c r="D37">
-        <v>5.3</v>
+        <v>4.2</v>
       </c>
       <c r="E37">
-        <v>-34</v>
+        <v>-51.1</v>
       </c>
       <c r="F37">
-        <v>62.6</v>
+        <v>139.7</v>
       </c>
       <c r="G37">
-        <v>-64</v>
+        <v>30.9</v>
       </c>
       <c r="H37">
-        <v>-1.27</v>
+        <v>0.33</v>
       </c>
       <c r="I37">
-        <v>-2.84</v>
+        <v>-1.57</v>
       </c>
       <c r="J37">
-        <v>-0.6899999999999999</v>
+        <v>-0.49</v>
       </c>
       <c r="K37">
-        <v>-1.04</v>
+        <v>-1.12</v>
       </c>
       <c r="L37">
-        <v>-37.18</v>
+        <v>-47.57</v>
       </c>
       <c r="M37">
-        <v>-47.57</v>
+        <v>-63</v>
       </c>
       <c r="N37">
-        <v>-63</v>
+        <v>-50.29</v>
       </c>
     </row>
     <row r="38" spans="1:14">
@@ -2022,40 +2022,40 @@
         <v>49</v>
       </c>
       <c r="C38">
-        <v>-20.6</v>
+        <v>-21.9</v>
       </c>
       <c r="D38">
-        <v>-16</v>
+        <v>-19</v>
       </c>
       <c r="E38">
-        <v>-33.5</v>
+        <v>-27.8</v>
       </c>
       <c r="F38">
-        <v>91.2</v>
+        <v>101.1</v>
       </c>
       <c r="G38">
-        <v>-1.8</v>
+        <v>-7</v>
       </c>
       <c r="H38">
-        <v>0.57</v>
+        <v>0.06</v>
       </c>
       <c r="I38">
-        <v>-0.49</v>
+        <v>-0.53</v>
       </c>
       <c r="J38">
-        <v>-0.44</v>
+        <v>-0.91</v>
       </c>
       <c r="K38">
-        <v>-0.47</v>
+        <v>-0.7</v>
       </c>
       <c r="L38">
-        <v>-18.36</v>
+        <v>-21.81</v>
       </c>
       <c r="M38">
-        <v>-21.81</v>
+        <v>9.380000000000001</v>
       </c>
       <c r="N38">
-        <v>9.380000000000001</v>
+        <v>-24.85</v>
       </c>
     </row>
     <row r="39" spans="1:14">
@@ -2066,40 +2066,40 @@
         <v>50</v>
       </c>
       <c r="C39">
-        <v>-8.300000000000001</v>
+        <v>-10.8</v>
       </c>
       <c r="D39">
-        <v>7.4</v>
+        <v>10</v>
       </c>
       <c r="E39">
-        <v>-32.4</v>
+        <v>-44.2</v>
       </c>
       <c r="F39">
-        <v>77.09999999999999</v>
+        <v>154.6</v>
       </c>
       <c r="G39">
-        <v>-53.4</v>
+        <v>56.8</v>
       </c>
       <c r="H39">
-        <v>-1.25</v>
+        <v>0.44</v>
       </c>
       <c r="I39">
-        <v>-2.59</v>
+        <v>-1.48</v>
       </c>
       <c r="J39">
-        <v>-0.65</v>
+        <v>-0.48</v>
       </c>
       <c r="K39">
-        <v>-1.03</v>
+        <v>-1.18</v>
       </c>
       <c r="L39">
-        <v>-37.18</v>
+        <v>-47.57</v>
       </c>
       <c r="M39">
-        <v>-47.57</v>
+        <v>-63</v>
       </c>
       <c r="N39">
-        <v>-63</v>
+        <v>-50.29</v>
       </c>
     </row>
     <row r="40" spans="1:14">
@@ -2110,40 +2110,40 @@
         <v>51</v>
       </c>
       <c r="C40">
-        <v>-8.6</v>
+        <v>-10.6</v>
       </c>
       <c r="D40">
-        <v>7.3</v>
+        <v>3.7</v>
       </c>
       <c r="E40">
-        <v>-38.8</v>
+        <v>-54.1</v>
       </c>
       <c r="F40">
-        <v>59.8</v>
+        <v>133</v>
       </c>
       <c r="G40">
-        <v>-64.8</v>
+        <v>16.9</v>
       </c>
       <c r="H40">
-        <v>-1.27</v>
+        <v>0.33</v>
       </c>
       <c r="I40">
-        <v>-2.81</v>
+        <v>-1.56</v>
       </c>
       <c r="J40">
-        <v>-0.65</v>
+        <v>-0.46</v>
       </c>
       <c r="K40">
-        <v>-1.02</v>
+        <v>-1.09</v>
       </c>
       <c r="L40">
-        <v>-37.18</v>
+        <v>-47.57</v>
       </c>
       <c r="M40">
-        <v>-47.57</v>
+        <v>-63</v>
       </c>
       <c r="N40">
-        <v>-63</v>
+        <v>-50.29</v>
       </c>
     </row>
     <row r="41" spans="1:14">
@@ -2154,40 +2154,40 @@
         <v>52</v>
       </c>
       <c r="C41">
-        <v>-21.7</v>
+        <v>-23.2</v>
       </c>
       <c r="D41">
-        <v>-14.5</v>
+        <v>-14</v>
       </c>
       <c r="E41">
-        <v>-18.7</v>
+        <v>-30.7</v>
       </c>
       <c r="F41">
-        <v>92.90000000000001</v>
+        <v>107.8</v>
       </c>
       <c r="G41">
-        <v>-14.7</v>
+        <v>-11.7</v>
       </c>
       <c r="H41">
-        <v>0.03</v>
+        <v>0.3</v>
       </c>
       <c r="I41">
-        <v>-0.42</v>
+        <v>-0.4</v>
       </c>
       <c r="J41">
-        <v>0.15</v>
+        <v>-0.11</v>
       </c>
       <c r="K41">
-        <v>-0.23</v>
+        <v>-0.43</v>
       </c>
       <c r="L41">
-        <v>20.35</v>
+        <v>-20.59</v>
       </c>
       <c r="M41">
-        <v>-20.59</v>
+        <v>-18.42</v>
       </c>
       <c r="N41">
-        <v>-18.42</v>
+        <v>-26.28</v>
       </c>
     </row>
     <row r="42" spans="1:14">
@@ -2198,40 +2198,40 @@
         <v>53</v>
       </c>
       <c r="C42">
-        <v>-26.2</v>
+        <v>-25.8</v>
       </c>
       <c r="D42">
-        <v>-1.4</v>
+        <v>-16.8</v>
       </c>
       <c r="E42">
-        <v>-64.90000000000001</v>
+        <v>-69.59999999999999</v>
       </c>
       <c r="F42">
-        <v>26.9</v>
+        <v>94.59999999999999</v>
       </c>
       <c r="G42">
-        <v>-81.2</v>
+        <v>-21.3</v>
       </c>
       <c r="H42">
-        <v>-1.58</v>
+        <v>-0.04</v>
       </c>
       <c r="I42">
-        <v>-2.36</v>
+        <v>-1.84</v>
       </c>
       <c r="J42">
-        <v>-0.9399999999999999</v>
+        <v>-1.62</v>
       </c>
       <c r="K42">
-        <v>-1.87</v>
+        <v>-1.89</v>
       </c>
       <c r="L42">
-        <v>9.01</v>
+        <v>-3.55</v>
       </c>
       <c r="M42">
-        <v>-3.55</v>
+        <v>-11.81</v>
       </c>
       <c r="N42">
-        <v>-11.81</v>
+        <v>-19.37</v>
       </c>
     </row>
   </sheetData>
